--- a/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
+++ b/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="420" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의서-1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="1428">
   <si>
     <t>번호</t>
   </si>
@@ -15678,6 +15678,12 @@
 - 로그인이 되어 있지 않을 경우 이동불가
 - 페이지 업데이트 시 해당 게시판 타이틀도 업데이트</t>
     </r>
+  </si>
+  <si>
+    <t>F-MA-11</t>
+  </si>
+  <si>
+    <t>- 회원 아이디 표시와 함께 로그인 확인 문구 표시</t>
   </si>
 </sst>
 </file>
@@ -19892,12 +19898,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R178"/>
+  <dimension ref="A1:R179"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="B3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -19985,10 +19990,10 @@
       <c r="B3" s="144" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="340" t="s">
+      <c r="C3" s="144" t="s">
         <v>1422</v>
       </c>
-      <c r="D3" s="340"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="144"/>
       <c r="F3" s="144"/>
       <c r="G3" s="144" t="s">
@@ -20017,8 +20022,8 @@
       <c r="B4" s="144" t="s">
         <v>289</v>
       </c>
-      <c r="C4" s="341"/>
-      <c r="D4" s="344"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="311"/>
       <c r="E4" s="155"/>
       <c r="F4" s="311"/>
       <c r="G4" s="144" t="s">
@@ -20045,8 +20050,8 @@
       <c r="B5" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="C5" s="341"/>
-      <c r="D5" s="344"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="311"/>
       <c r="E5" s="155"/>
       <c r="F5" s="311"/>
       <c r="G5" s="144" t="s">
@@ -20073,8 +20078,8 @@
       <c r="B6" s="144" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="341"/>
-      <c r="D6" s="344"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="311"/>
       <c r="E6" s="155"/>
       <c r="F6" s="311"/>
       <c r="G6" s="144" t="s">
@@ -20103,8 +20108,8 @@
       <c r="B7" s="144" t="s">
         <v>292</v>
       </c>
-      <c r="C7" s="341"/>
-      <c r="D7" s="344"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="311"/>
       <c r="E7" s="155"/>
       <c r="F7" s="311"/>
       <c r="G7" s="144" t="s">
@@ -20131,8 +20136,8 @@
       <c r="B8" s="144" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="341"/>
-      <c r="D8" s="344"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="311"/>
       <c r="E8" s="155"/>
       <c r="F8" s="311"/>
       <c r="G8" s="144" t="s">
@@ -20159,8 +20164,8 @@
       <c r="B9" s="144" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="341"/>
-      <c r="D9" s="344"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="311"/>
       <c r="E9" s="155"/>
       <c r="F9" s="311"/>
       <c r="G9" s="144" t="s">
@@ -20189,8 +20194,8 @@
       <c r="B10" s="144" t="s">
         <v>295</v>
       </c>
-      <c r="C10" s="341"/>
-      <c r="D10" s="344"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="155"/>
       <c r="F10" s="155"/>
       <c r="G10" s="144" t="s">
@@ -20217,8 +20222,8 @@
       <c r="B11" s="144" t="s">
         <v>296</v>
       </c>
-      <c r="C11" s="341"/>
-      <c r="D11" s="344"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="311"/>
       <c r="E11" s="155"/>
       <c r="F11" s="311" t="s">
         <v>335</v>
@@ -20240,17 +20245,17 @@
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
     </row>
-    <row r="12" spans="1:18" ht="51.850000" customHeight="1">
+    <row r="12" spans="1:18" ht="56.100000" customHeight="1">
       <c r="A12" s="310">
         <v>10</v>
       </c>
       <c r="B12" s="144" t="s">
         <v>297</v>
       </c>
-      <c r="C12" s="368"/>
-      <c r="D12" s="345"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="311"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
       <c r="G12" s="144" t="s">
         <v>324</v>
       </c>
@@ -20264,37 +20269,33 @@
       <c r="K12" s="136" t="s">
         <v>1425</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-    </row>
-    <row r="13" spans="1:18" ht="16.500000" customHeight="1">
+      <c r="L12" s="423"/>
+    </row>
+    <row r="13" spans="1:18" ht="21.750000" customHeight="1">
       <c r="A13" s="310">
         <v>11</v>
       </c>
-      <c r="B13" s="311" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C13" s="341" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D13" s="346" t="s">
-        <v>322</v>
-      </c>
+      <c r="B13" s="144" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C13" s="144"/>
+      <c r="D13" s="311"/>
       <c r="E13" s="155"/>
-      <c r="F13" s="311"/>
+      <c r="F13" s="311" t="s">
+        <v>41</v>
+      </c>
       <c r="G13" s="144" t="s">
         <v>324</v>
       </c>
-      <c r="H13" s="311"/>
-      <c r="I13" s="311"/>
+      <c r="H13" s="144" t="s">
+        <v>324</v>
+      </c>
+      <c r="I13" s="144" t="s">
+        <v>324</v>
+      </c>
       <c r="J13" s="311"/>
       <c r="K13" s="136" t="s">
-        <v>288</v>
+        <v>1427</v>
       </c>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
@@ -20304,29 +20305,29 @@
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
     </row>
-    <row r="14" spans="1:18" ht="49.500000">
+    <row r="14" spans="1:18" ht="16.500000" customHeight="1">
       <c r="A14" s="310">
         <v>12</v>
       </c>
       <c r="B14" s="311" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C14" s="341"/>
-      <c r="D14" s="344"/>
-      <c r="E14" s="335"/>
+        <v>1224</v>
+      </c>
+      <c r="C14" s="341" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D14" s="346" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14" s="155"/>
       <c r="F14" s="311"/>
       <c r="G14" s="144" t="s">
         <v>324</v>
       </c>
-      <c r="H14" s="144" t="s">
-        <v>324</v>
-      </c>
-      <c r="I14" s="144" t="s">
-        <v>324</v>
-      </c>
+      <c r="H14" s="311"/>
+      <c r="I14" s="311"/>
       <c r="J14" s="311"/>
       <c r="K14" s="136" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="L14" s="52"/>
       <c r="M14" s="52"/>
@@ -20336,16 +20337,16 @@
       <c r="Q14" s="52"/>
       <c r="R14" s="52"/>
     </row>
-    <row r="15" spans="1:18" ht="33.000000">
+    <row r="15" spans="1:18" ht="49.500000">
       <c r="A15" s="310">
         <v>13</v>
       </c>
       <c r="B15" s="311" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C15" s="341"/>
       <c r="D15" s="344"/>
-      <c r="E15" s="354"/>
+      <c r="E15" s="335"/>
       <c r="F15" s="311"/>
       <c r="G15" s="144" t="s">
         <v>324</v>
@@ -20353,10 +20354,12 @@
       <c r="H15" s="144" t="s">
         <v>324</v>
       </c>
-      <c r="I15" s="311"/>
+      <c r="I15" s="144" t="s">
+        <v>324</v>
+      </c>
       <c r="J15" s="311"/>
       <c r="K15" s="136" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="L15" s="52"/>
       <c r="M15" s="52"/>
@@ -20371,11 +20374,11 @@
         <v>14</v>
       </c>
       <c r="B16" s="311" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C16" s="341"/>
-      <c r="D16" s="345"/>
-      <c r="E16" s="345"/>
+      <c r="D16" s="344"/>
+      <c r="E16" s="354"/>
       <c r="F16" s="311"/>
       <c r="G16" s="144" t="s">
         <v>324</v>
@@ -20386,7 +20389,7 @@
       <c r="I16" s="311"/>
       <c r="J16" s="311"/>
       <c r="K16" s="136" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="L16" s="52"/>
       <c r="M16" s="52"/>
@@ -20396,56 +20399,65 @@
       <c r="Q16" s="52"/>
       <c r="R16" s="52"/>
     </row>
-    <row r="17" spans="1:11" ht="16.500000" customHeight="1">
+    <row r="17" spans="1:18" ht="33.000000">
       <c r="A17" s="310">
         <v>15</v>
       </c>
-      <c r="B17" s="155" t="s">
-        <v>1228</v>
+      <c r="B17" s="311" t="s">
+        <v>1227</v>
       </c>
       <c r="C17" s="341"/>
-      <c r="D17" s="347" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E17" s="155"/>
+      <c r="D17" s="345"/>
+      <c r="E17" s="345"/>
       <c r="F17" s="311"/>
       <c r="G17" s="144" t="s">
         <v>324</v>
       </c>
-      <c r="H17" s="311"/>
+      <c r="H17" s="144" t="s">
+        <v>324</v>
+      </c>
       <c r="I17" s="311"/>
       <c r="J17" s="311"/>
       <c r="K17" s="136" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.500000" customHeight="1">
+        <v>308</v>
+      </c>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+    </row>
+    <row r="18" spans="1:18" ht="16.500000" customHeight="1">
       <c r="A18" s="310">
         <v>16</v>
       </c>
       <c r="B18" s="155" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C18" s="341"/>
-      <c r="D18" s="344"/>
-      <c r="E18" s="311"/>
-      <c r="F18" s="155"/>
+      <c r="D18" s="347" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E18" s="155"/>
+      <c r="F18" s="311"/>
       <c r="G18" s="144" t="s">
         <v>324</v>
       </c>
       <c r="H18" s="311"/>
       <c r="I18" s="311"/>
       <c r="J18" s="311"/>
-      <c r="K18" s="315" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16.500000" customHeight="1">
+      <c r="K18" s="136" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="16.500000" customHeight="1">
       <c r="A19" s="310">
         <v>17</v>
       </c>
       <c r="B19" s="155" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C19" s="341"/>
       <c r="D19" s="344"/>
@@ -20458,90 +20470,93 @@
       <c r="I19" s="311"/>
       <c r="J19" s="311"/>
       <c r="K19" s="315" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="16.500000" customHeight="1">
       <c r="A20" s="310">
         <v>18</v>
       </c>
       <c r="B20" s="155" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C20" s="341"/>
-      <c r="D20" s="345"/>
+      <c r="D20" s="344"/>
       <c r="E20" s="311"/>
       <c r="F20" s="155"/>
       <c r="G20" s="144" t="s">
         <v>324</v>
       </c>
-      <c r="H20" s="144" t="s">
-        <v>324</v>
-      </c>
+      <c r="H20" s="311"/>
       <c r="I20" s="311"/>
       <c r="J20" s="311"/>
       <c r="K20" s="315" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16.500000" customHeight="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="310">
         <v>19</v>
       </c>
-      <c r="B21" s="311" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C21" s="368"/>
-      <c r="D21" s="311" t="s">
-        <v>1203</v>
-      </c>
+      <c r="B21" s="155" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C21" s="341"/>
+      <c r="D21" s="345"/>
       <c r="E21" s="311"/>
       <c r="F21" s="155"/>
       <c r="G21" s="144" t="s">
         <v>324</v>
       </c>
-      <c r="H21" s="311"/>
+      <c r="H21" s="144" t="s">
+        <v>324</v>
+      </c>
       <c r="I21" s="311"/>
       <c r="J21" s="311"/>
       <c r="K21" s="315" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="425" customFormat="1" ht="16.500000" customHeight="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="16.500000" customHeight="1">
       <c r="A22" s="310">
         <v>20</v>
       </c>
-      <c r="B22" s="207" t="s">
-        <v>370</v>
-      </c>
-      <c r="C22" s="207" t="s">
-        <v>396</v>
-      </c>
-      <c r="D22" s="207"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="207"/>
-      <c r="G22" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="154"/>
-      <c r="K22" s="214" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="425" customFormat="1" ht="16.500000" customHeight="1">
+      <c r="B22" s="311" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C22" s="368"/>
+      <c r="D22" s="311" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E22" s="311"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="144" t="s">
+        <v>324</v>
+      </c>
+      <c r="H22" s="311"/>
+      <c r="I22" s="311"/>
+      <c r="J22" s="311"/>
+      <c r="K22" s="315" t="s">
+        <v>356</v>
+      </c>
+      <c r="L22" s="423"/>
+      <c r="M22" s="423"/>
+      <c r="N22" s="423"/>
+      <c r="O22" s="423"/>
+      <c r="P22" s="423"/>
+      <c r="Q22" s="423"/>
+      <c r="R22" s="423"/>
+    </row>
+    <row r="23" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A23" s="310">
         <v>21</v>
       </c>
       <c r="B23" s="207" t="s">
-        <v>371</v>
-      </c>
-      <c r="C23" s="207"/>
+        <v>370</v>
+      </c>
+      <c r="C23" s="207" t="s">
+        <v>396</v>
+      </c>
       <c r="D23" s="207"/>
       <c r="E23" s="155"/>
       <c r="F23" s="207"/>
@@ -20556,15 +20571,15 @@
       </c>
       <c r="J23" s="154"/>
       <c r="K23" s="214" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="425" customFormat="1" ht="16.500000" customHeight="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A24" s="310">
         <v>22</v>
       </c>
       <c r="B24" s="207" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C24" s="207"/>
       <c r="D24" s="207"/>
@@ -20581,22 +20596,20 @@
       </c>
       <c r="J24" s="154"/>
       <c r="K24" s="214" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="425" customFormat="1" ht="49.500000">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A25" s="310">
         <v>23</v>
       </c>
       <c r="B25" s="207" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C25" s="207"/>
       <c r="D25" s="207"/>
       <c r="E25" s="155"/>
-      <c r="F25" s="207" t="s">
-        <v>41</v>
-      </c>
+      <c r="F25" s="207"/>
       <c r="G25" s="154" t="s">
         <v>44</v>
       </c>
@@ -20608,20 +20621,22 @@
       </c>
       <c r="J25" s="154"/>
       <c r="K25" s="214" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="425" customFormat="1" ht="16.500000" customHeight="1">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="425" customFormat="1" ht="49.500000">
       <c r="A26" s="310">
         <v>24</v>
       </c>
       <c r="B26" s="207" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C26" s="207"/>
       <c r="D26" s="207"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="207"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="207" t="s">
+        <v>41</v>
+      </c>
       <c r="G26" s="154" t="s">
         <v>44</v>
       </c>
@@ -20633,19 +20648,19 @@
       </c>
       <c r="J26" s="154"/>
       <c r="K26" s="214" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="425" customFormat="1" ht="16.500000" customHeight="1">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A27" s="310">
         <v>25</v>
       </c>
       <c r="B27" s="207" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C27" s="207"/>
       <c r="D27" s="207"/>
-      <c r="E27" s="155"/>
+      <c r="E27" s="154"/>
       <c r="F27" s="207"/>
       <c r="G27" s="154" t="s">
         <v>44</v>
@@ -20658,15 +20673,15 @@
       </c>
       <c r="J27" s="154"/>
       <c r="K27" s="214" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="425" customFormat="1" ht="16.500000" customHeight="1">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A28" s="310">
         <v>26</v>
       </c>
       <c r="B28" s="207" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C28" s="207"/>
       <c r="D28" s="207"/>
@@ -20683,22 +20698,20 @@
       </c>
       <c r="J28" s="154"/>
       <c r="K28" s="214" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="425" customFormat="1" ht="16.500000" customHeight="1">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A29" s="310">
         <v>27</v>
       </c>
       <c r="B29" s="207" t="s">
-        <v>454</v>
+        <v>376</v>
       </c>
       <c r="C29" s="207"/>
-      <c r="D29" s="207" t="s">
-        <v>397</v>
-      </c>
+      <c r="D29" s="207"/>
       <c r="E29" s="155"/>
-      <c r="F29" s="209"/>
+      <c r="F29" s="207"/>
       <c r="G29" s="154" t="s">
         <v>44</v>
       </c>
@@ -20708,22 +20721,24 @@
       <c r="I29" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="155"/>
+      <c r="J29" s="154"/>
       <c r="K29" s="214" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="425" customFormat="1" ht="16.500000" customHeight="1">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A30" s="310">
         <v>28</v>
       </c>
       <c r="B30" s="207" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C30" s="207"/>
-      <c r="D30" s="207"/>
+      <c r="D30" s="207" t="s">
+        <v>397</v>
+      </c>
       <c r="E30" s="155"/>
-      <c r="F30" s="207"/>
+      <c r="F30" s="209"/>
       <c r="G30" s="154" t="s">
         <v>44</v>
       </c>
@@ -20733,24 +20748,22 @@
       <c r="I30" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="154"/>
+      <c r="J30" s="155"/>
       <c r="K30" s="214" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="425" customFormat="1" ht="33.000000">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A31" s="310">
         <v>29</v>
       </c>
       <c r="B31" s="207" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C31" s="207"/>
       <c r="D31" s="207"/>
       <c r="E31" s="155"/>
-      <c r="F31" s="207" t="s">
-        <v>41</v>
-      </c>
+      <c r="F31" s="207"/>
       <c r="G31" s="154" t="s">
         <v>44</v>
       </c>
@@ -20762,20 +20775,22 @@
       </c>
       <c r="J31" s="154"/>
       <c r="K31" s="214" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="425" customFormat="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="425" customFormat="1" ht="33.000000">
       <c r="A32" s="310">
         <v>30</v>
       </c>
       <c r="B32" s="207" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C32" s="207"/>
       <c r="D32" s="207"/>
       <c r="E32" s="155"/>
-      <c r="F32" s="207"/>
+      <c r="F32" s="207" t="s">
+        <v>41</v>
+      </c>
       <c r="G32" s="154" t="s">
         <v>44</v>
       </c>
@@ -20787,22 +20802,20 @@
       </c>
       <c r="J32" s="154"/>
       <c r="K32" s="214" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="425" customFormat="1" ht="49.500000">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="425" customFormat="1">
       <c r="A33" s="310">
         <v>31</v>
       </c>
       <c r="B33" s="207" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C33" s="207"/>
       <c r="D33" s="207"/>
       <c r="E33" s="155"/>
-      <c r="F33" s="207" t="s">
-        <v>41</v>
-      </c>
+      <c r="F33" s="207"/>
       <c r="G33" s="154" t="s">
         <v>44</v>
       </c>
@@ -20814,20 +20827,22 @@
       </c>
       <c r="J33" s="154"/>
       <c r="K33" s="214" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="425" customFormat="1">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="425" customFormat="1" ht="49.500000">
       <c r="A34" s="310">
         <v>32</v>
       </c>
       <c r="B34" s="207" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C34" s="207"/>
       <c r="D34" s="207"/>
       <c r="E34" s="155"/>
-      <c r="F34" s="207"/>
+      <c r="F34" s="207" t="s">
+        <v>41</v>
+      </c>
       <c r="G34" s="154" t="s">
         <v>44</v>
       </c>
@@ -20839,7 +20854,7 @@
       </c>
       <c r="J34" s="154"/>
       <c r="K34" s="214" t="s">
-        <v>1096</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="425" customFormat="1">
@@ -20847,14 +20862,12 @@
         <v>33</v>
       </c>
       <c r="B35" s="207" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C35" s="207"/>
       <c r="D35" s="207"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="207" t="s">
-        <v>41</v>
-      </c>
+      <c r="E35" s="155"/>
+      <c r="F35" s="207"/>
       <c r="G35" s="154" t="s">
         <v>44</v>
       </c>
@@ -20866,7 +20879,7 @@
       </c>
       <c r="J35" s="154"/>
       <c r="K35" s="214" t="s">
-        <v>1398</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="425" customFormat="1">
@@ -20874,14 +20887,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="207" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C36" s="207"/>
-      <c r="D36" s="207" t="s">
-        <v>399</v>
-      </c>
-      <c r="E36" s="154"/>
-      <c r="F36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="207" t="s">
+        <v>41</v>
+      </c>
       <c r="G36" s="154" t="s">
         <v>44</v>
       </c>
@@ -20893,22 +20906,22 @@
       </c>
       <c r="J36" s="154"/>
       <c r="K36" s="214" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="425" customFormat="1" ht="33.000000">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="425" customFormat="1">
       <c r="A37" s="310">
         <v>35</v>
       </c>
       <c r="B37" s="207" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C37" s="207"/>
-      <c r="D37" s="207"/>
+      <c r="D37" s="207" t="s">
+        <v>399</v>
+      </c>
       <c r="E37" s="154"/>
-      <c r="F37" s="207" t="s">
-        <v>41</v>
-      </c>
+      <c r="F37" s="207"/>
       <c r="G37" s="154" t="s">
         <v>44</v>
       </c>
@@ -20920,20 +20933,22 @@
       </c>
       <c r="J37" s="154"/>
       <c r="K37" s="214" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="425" customFormat="1">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="425" customFormat="1" ht="33.000000">
       <c r="A38" s="310">
         <v>36</v>
       </c>
       <c r="B38" s="207" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C38" s="207"/>
       <c r="D38" s="207"/>
       <c r="E38" s="154"/>
-      <c r="F38" s="207"/>
+      <c r="F38" s="207" t="s">
+        <v>41</v>
+      </c>
       <c r="G38" s="154" t="s">
         <v>44</v>
       </c>
@@ -20945,7 +20960,7 @@
       </c>
       <c r="J38" s="154"/>
       <c r="K38" s="214" t="s">
-        <v>1095</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="425" customFormat="1">
@@ -20953,11 +20968,11 @@
         <v>37</v>
       </c>
       <c r="B39" s="207" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C39" s="207"/>
       <c r="D39" s="207"/>
-      <c r="E39" s="208"/>
+      <c r="E39" s="154"/>
       <c r="F39" s="207"/>
       <c r="G39" s="154" t="s">
         <v>44</v>
@@ -20970,7 +20985,7 @@
       </c>
       <c r="J39" s="154"/>
       <c r="K39" s="214" t="s">
-        <v>1401</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="425" customFormat="1">
@@ -20978,14 +20993,12 @@
         <v>38</v>
       </c>
       <c r="B40" s="207" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C40" s="207"/>
       <c r="D40" s="207"/>
       <c r="E40" s="208"/>
-      <c r="F40" s="207" t="s">
-        <v>118</v>
-      </c>
+      <c r="F40" s="207"/>
       <c r="G40" s="154" t="s">
         <v>44</v>
       </c>
@@ -20997,7 +21010,7 @@
       </c>
       <c r="J40" s="154"/>
       <c r="K40" s="214" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="41" spans="1:18" s="425" customFormat="1">
@@ -21005,15 +21018,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="207" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C41" s="207"/>
-      <c r="D41" s="207" t="s">
-        <v>479</v>
-      </c>
-      <c r="E41" s="154"/>
+      <c r="D41" s="207"/>
+      <c r="E41" s="208"/>
       <c r="F41" s="207" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="G41" s="154" t="s">
         <v>44</v>
@@ -21026,7 +21037,7 @@
       </c>
       <c r="J41" s="154"/>
       <c r="K41" s="214" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="425" customFormat="1">
@@ -21034,12 +21045,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="207" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C42" s="207"/>
-      <c r="D42" s="207"/>
+      <c r="D42" s="207" t="s">
+        <v>479</v>
+      </c>
       <c r="E42" s="154"/>
-      <c r="F42" s="207"/>
+      <c r="F42" s="207" t="s">
+        <v>41</v>
+      </c>
       <c r="G42" s="154" t="s">
         <v>44</v>
       </c>
@@ -21049,24 +21064,22 @@
       <c r="I42" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="J42" s="213"/>
+      <c r="J42" s="154"/>
       <c r="K42" s="214" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="425" customFormat="1" ht="33.000000">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="425" customFormat="1">
       <c r="A43" s="310">
         <v>41</v>
       </c>
       <c r="B43" s="207" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C43" s="207"/>
       <c r="D43" s="207"/>
       <c r="E43" s="154"/>
-      <c r="F43" s="207" t="s">
-        <v>41</v>
-      </c>
+      <c r="F43" s="207"/>
       <c r="G43" s="154" t="s">
         <v>44</v>
       </c>
@@ -21076,22 +21089,24 @@
       <c r="I43" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="J43" s="154"/>
+      <c r="J43" s="213"/>
       <c r="K43" s="214" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="425" customFormat="1">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="425" customFormat="1" ht="33.000000">
       <c r="A44" s="310">
         <v>42</v>
       </c>
       <c r="B44" s="207" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C44" s="207"/>
       <c r="D44" s="207"/>
-      <c r="E44" s="207"/>
-      <c r="F44" s="207"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="207" t="s">
+        <v>41</v>
+      </c>
       <c r="G44" s="154" t="s">
         <v>44</v>
       </c>
@@ -21103,7 +21118,7 @@
       </c>
       <c r="J44" s="154"/>
       <c r="K44" s="214" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="425" customFormat="1">
@@ -21111,7 +21126,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="207" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C45" s="207"/>
       <c r="D45" s="207"/>
@@ -21128,7 +21143,7 @@
       </c>
       <c r="J45" s="154"/>
       <c r="K45" s="214" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="425" customFormat="1">
@@ -21136,14 +21151,12 @@
         <v>44</v>
       </c>
       <c r="B46" s="207" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C46" s="207"/>
       <c r="D46" s="207"/>
       <c r="E46" s="207"/>
-      <c r="F46" s="207" t="s">
-        <v>118</v>
-      </c>
+      <c r="F46" s="207"/>
       <c r="G46" s="154" t="s">
         <v>44</v>
       </c>
@@ -21155,7 +21168,7 @@
       </c>
       <c r="J46" s="154"/>
       <c r="K46" s="214" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="425" customFormat="1">
@@ -21163,12 +21176,14 @@
         <v>45</v>
       </c>
       <c r="B47" s="207" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C47" s="207"/>
       <c r="D47" s="207"/>
       <c r="E47" s="207"/>
-      <c r="F47" s="207"/>
+      <c r="F47" s="207" t="s">
+        <v>118</v>
+      </c>
       <c r="G47" s="154" t="s">
         <v>44</v>
       </c>
@@ -21180,32 +21195,32 @@
       </c>
       <c r="J47" s="154"/>
       <c r="K47" s="214" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="425" customFormat="1">
       <c r="A48" s="310">
         <v>46</v>
       </c>
-      <c r="B48" s="154" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C48" s="293" t="s">
-        <v>966</v>
-      </c>
-      <c r="D48" s="431"/>
-      <c r="E48" s="293"/>
-      <c r="F48" s="293"/>
-      <c r="G48" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="293"/>
-      <c r="J48" s="293"/>
-      <c r="K48" s="162" t="s">
-        <v>1044</v>
+      <c r="B48" s="207" t="s">
+        <v>478</v>
+      </c>
+      <c r="C48" s="207"/>
+      <c r="D48" s="207"/>
+      <c r="E48" s="207"/>
+      <c r="F48" s="207"/>
+      <c r="G48" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="154"/>
+      <c r="K48" s="214" t="s">
+        <v>778</v>
       </c>
       <c r="L48" s="425"/>
       <c r="M48" s="425"/>
@@ -21220,12 +21235,14 @@
         <v>47</v>
       </c>
       <c r="B49" s="154" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C49" s="293"/>
+        <v>1063</v>
+      </c>
+      <c r="C49" s="293" t="s">
+        <v>966</v>
+      </c>
       <c r="D49" s="431"/>
       <c r="E49" s="293"/>
-      <c r="F49" s="154"/>
+      <c r="F49" s="293"/>
       <c r="G49" s="293" t="s">
         <v>44</v>
       </c>
@@ -21234,8 +21251,8 @@
       </c>
       <c r="I49" s="293"/>
       <c r="J49" s="293"/>
-      <c r="K49" s="161" t="s">
-        <v>1045</v>
+      <c r="K49" s="162" t="s">
+        <v>1044</v>
       </c>
       <c r="L49" s="425"/>
       <c r="M49" s="425"/>
@@ -21250,26 +21267,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="154" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C50" s="293"/>
       <c r="D50" s="431"/>
       <c r="E50" s="293"/>
-      <c r="F50" s="293" t="s">
-        <v>118</v>
-      </c>
+      <c r="F50" s="154"/>
       <c r="G50" s="293" t="s">
         <v>44</v>
       </c>
       <c r="H50" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="I50" s="293" t="s">
-        <v>44</v>
-      </c>
+      <c r="I50" s="293"/>
       <c r="J50" s="293"/>
-      <c r="K50" s="162" t="s">
-        <v>1046</v>
+      <c r="K50" s="161" t="s">
+        <v>1045</v>
       </c>
       <c r="L50" s="425"/>
       <c r="M50" s="425"/>
@@ -21284,7 +21297,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="154" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C51" s="293"/>
       <c r="D51" s="431"/>
@@ -21302,8 +21315,8 @@
         <v>44</v>
       </c>
       <c r="J51" s="293"/>
-      <c r="K51" s="161" t="s">
-        <v>1047</v>
+      <c r="K51" s="162" t="s">
+        <v>1046</v>
       </c>
       <c r="L51" s="425"/>
       <c r="M51" s="425"/>
@@ -21318,13 +21331,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="154" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C52" s="293"/>
       <c r="D52" s="431"/>
       <c r="E52" s="293"/>
       <c r="F52" s="293" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="G52" s="293" t="s">
         <v>44</v>
@@ -21337,7 +21350,7 @@
       </c>
       <c r="J52" s="293"/>
       <c r="K52" s="161" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L52" s="425"/>
       <c r="M52" s="425"/>
@@ -21352,15 +21365,15 @@
         <v>51</v>
       </c>
       <c r="B53" s="154" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C53" s="293"/>
       <c r="D53" s="431"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="155" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53" s="155" t="s">
+      <c r="E53" s="293"/>
+      <c r="F53" s="293" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="293" t="s">
         <v>44</v>
       </c>
       <c r="H53" s="293" t="s">
@@ -21369,9 +21382,9 @@
       <c r="I53" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="J53" s="154"/>
+      <c r="J53" s="293"/>
       <c r="K53" s="161" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L53" s="425"/>
       <c r="M53" s="425"/>
@@ -21386,15 +21399,15 @@
         <v>52</v>
       </c>
       <c r="B54" s="154" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C54" s="293"/>
       <c r="D54" s="431"/>
       <c r="E54" s="154"/>
-      <c r="F54" s="154" t="s">
+      <c r="F54" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="G54" s="293" t="s">
+      <c r="G54" s="155" t="s">
         <v>44</v>
       </c>
       <c r="H54" s="293" t="s">
@@ -21405,7 +21418,7 @@
       </c>
       <c r="J54" s="154"/>
       <c r="K54" s="161" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L54" s="425"/>
       <c r="M54" s="425"/>
@@ -21420,7 +21433,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="154" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C55" s="293"/>
       <c r="D55" s="431"/>
@@ -21439,7 +21452,7 @@
       </c>
       <c r="J55" s="154"/>
       <c r="K55" s="161" t="s">
-        <v>1392</v>
+        <v>1050</v>
       </c>
       <c r="L55" s="425"/>
       <c r="M55" s="425"/>
@@ -21454,7 +21467,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="154" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C56" s="293"/>
       <c r="D56" s="431"/>
@@ -21473,7 +21486,7 @@
       </c>
       <c r="J56" s="154"/>
       <c r="K56" s="161" t="s">
-        <v>1051</v>
+        <v>1392</v>
       </c>
       <c r="L56" s="425"/>
       <c r="M56" s="425"/>
@@ -21488,7 +21501,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="154" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C57" s="293"/>
       <c r="D57" s="431"/>
@@ -21507,7 +21520,7 @@
       </c>
       <c r="J57" s="154"/>
       <c r="K57" s="161" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L57" s="425"/>
       <c r="M57" s="425"/>
@@ -21522,10 +21535,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="154" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C58" s="293"/>
-      <c r="D58" s="429"/>
+      <c r="D58" s="431"/>
       <c r="E58" s="154"/>
       <c r="F58" s="154" t="s">
         <v>118</v>
@@ -21541,7 +21554,7 @@
       </c>
       <c r="J58" s="154"/>
       <c r="K58" s="161" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L58" s="425"/>
       <c r="M58" s="425"/>
@@ -21556,13 +21569,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="154" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
-      <c r="E59" s="165"/>
+        <v>1073</v>
+      </c>
+      <c r="C59" s="293"/>
+      <c r="D59" s="429"/>
+      <c r="E59" s="154"/>
       <c r="F59" s="154" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="G59" s="293" t="s">
         <v>44</v>
@@ -21575,20 +21588,29 @@
       </c>
       <c r="J59" s="154"/>
       <c r="K59" s="161" t="s">
-        <v>1054</v>
-      </c>
+        <v>1053</v>
+      </c>
+      <c r="L59" s="425"/>
+      <c r="M59" s="425"/>
+      <c r="N59" s="425"/>
+      <c r="O59" s="425"/>
+      <c r="P59" s="425"/>
+      <c r="Q59" s="425"/>
+      <c r="R59" s="425"/>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="310">
         <v>58</v>
       </c>
       <c r="B60" s="154" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C60" s="293"/>
-      <c r="D60" s="429"/>
-      <c r="E60" s="154"/>
-      <c r="F60" s="154"/>
+        <v>1074</v>
+      </c>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="154" t="s">
+        <v>15</v>
+      </c>
       <c r="G60" s="293" t="s">
         <v>44</v>
       </c>
@@ -21600,31 +21622,20 @@
       </c>
       <c r="J60" s="154"/>
       <c r="K60" s="161" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L60" s="425"/>
-      <c r="M60" s="425"/>
-      <c r="N60" s="425"/>
-      <c r="O60" s="425"/>
-      <c r="P60" s="425"/>
-      <c r="Q60" s="425"/>
-      <c r="R60" s="425"/>
+        <v>1054</v>
+      </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="310">
         <v>59</v>
       </c>
       <c r="B61" s="154" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C61" s="154" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D61" s="361"/>
+        <v>1075</v>
+      </c>
+      <c r="C61" s="293"/>
+      <c r="D61" s="429"/>
       <c r="E61" s="154"/>
-      <c r="F61" s="293" t="s">
-        <v>118</v>
-      </c>
+      <c r="F61" s="154"/>
       <c r="G61" s="293" t="s">
         <v>44</v>
       </c>
@@ -21636,7 +21647,7 @@
       </c>
       <c r="J61" s="154"/>
       <c r="K61" s="161" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L61" s="425"/>
       <c r="M61" s="425"/>
@@ -21651,9 +21662,11 @@
         <v>60</v>
       </c>
       <c r="B62" s="154" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C62" s="154"/>
+        <v>1252</v>
+      </c>
+      <c r="C62" s="154" t="s">
+        <v>1391</v>
+      </c>
       <c r="D62" s="361"/>
       <c r="E62" s="154"/>
       <c r="F62" s="293" t="s">
@@ -21670,7 +21683,7 @@
       </c>
       <c r="J62" s="154"/>
       <c r="K62" s="161" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L62" s="425"/>
       <c r="M62" s="425"/>
@@ -21685,13 +21698,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="154" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C63" s="154"/>
       <c r="D63" s="361"/>
       <c r="E63" s="154"/>
       <c r="F63" s="293" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="G63" s="293" t="s">
         <v>44</v>
@@ -21704,7 +21717,7 @@
       </c>
       <c r="J63" s="154"/>
       <c r="K63" s="161" t="s">
-        <v>1048</v>
+        <v>1057</v>
       </c>
       <c r="L63" s="425"/>
       <c r="M63" s="425"/>
@@ -21719,15 +21732,15 @@
         <v>62</v>
       </c>
       <c r="B64" s="154" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C64" s="154"/>
       <c r="D64" s="361"/>
       <c r="E64" s="154"/>
-      <c r="F64" s="155" t="s">
-        <v>118</v>
-      </c>
-      <c r="G64" s="155" t="s">
+      <c r="F64" s="293" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="293" t="s">
         <v>44</v>
       </c>
       <c r="H64" s="293" t="s">
@@ -21738,7 +21751,7 @@
       </c>
       <c r="J64" s="154"/>
       <c r="K64" s="161" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L64" s="425"/>
       <c r="M64" s="425"/>
@@ -21753,15 +21766,15 @@
         <v>63</v>
       </c>
       <c r="B65" s="154" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C65" s="154"/>
       <c r="D65" s="361"/>
       <c r="E65" s="154"/>
-      <c r="F65" s="154" t="s">
+      <c r="F65" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="G65" s="293" t="s">
+      <c r="G65" s="155" t="s">
         <v>44</v>
       </c>
       <c r="H65" s="293" t="s">
@@ -21772,7 +21785,7 @@
       </c>
       <c r="J65" s="154"/>
       <c r="K65" s="161" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L65" s="425"/>
       <c r="M65" s="425"/>
@@ -21787,7 +21800,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="154" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C66" s="154"/>
       <c r="D66" s="361"/>
@@ -21806,7 +21819,7 @@
       </c>
       <c r="J66" s="154"/>
       <c r="K66" s="161" t="s">
-        <v>1392</v>
+        <v>1050</v>
       </c>
       <c r="L66" s="425"/>
       <c r="M66" s="425"/>
@@ -21821,7 +21834,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="154" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C67" s="154"/>
       <c r="D67" s="361"/>
@@ -21840,7 +21853,7 @@
       </c>
       <c r="J67" s="154"/>
       <c r="K67" s="161" t="s">
-        <v>1051</v>
+        <v>1392</v>
       </c>
       <c r="L67" s="425"/>
       <c r="M67" s="425"/>
@@ -21855,7 +21868,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="154" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C68" s="154"/>
       <c r="D68" s="361"/>
@@ -21874,7 +21887,7 @@
       </c>
       <c r="J68" s="154"/>
       <c r="K68" s="161" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L68" s="425"/>
       <c r="M68" s="425"/>
@@ -21884,15 +21897,15 @@
       <c r="Q68" s="425"/>
       <c r="R68" s="425"/>
     </row>
-    <row r="69" spans="1:18" ht="19.250000" customHeight="1">
+    <row r="69" spans="1:18">
       <c r="A69" s="310">
         <v>67</v>
       </c>
       <c r="B69" s="154" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C69" s="154"/>
-      <c r="D69" s="154"/>
+      <c r="D69" s="361"/>
       <c r="E69" s="154"/>
       <c r="F69" s="154" t="s">
         <v>118</v>
@@ -21908,7 +21921,7 @@
       </c>
       <c r="J69" s="154"/>
       <c r="K69" s="161" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L69" s="425"/>
       <c r="M69" s="425"/>
@@ -21918,18 +21931,18 @@
       <c r="Q69" s="425"/>
       <c r="R69" s="425"/>
     </row>
-    <row r="70" spans="1:18" ht="19.250000">
+    <row r="70" spans="1:18" ht="19.250000" customHeight="1">
       <c r="A70" s="310">
         <v>68</v>
       </c>
       <c r="B70" s="154" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C70" s="165"/>
-      <c r="D70" s="165"/>
-      <c r="E70" s="165"/>
+        <v>1260</v>
+      </c>
+      <c r="C70" s="154"/>
+      <c r="D70" s="154"/>
+      <c r="E70" s="154"/>
       <c r="F70" s="154" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="G70" s="293" t="s">
         <v>44</v>
@@ -21941,21 +21954,30 @@
         <v>44</v>
       </c>
       <c r="J70" s="154"/>
-      <c r="K70" s="213" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="K70" s="161" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L70" s="425"/>
+      <c r="M70" s="425"/>
+      <c r="N70" s="425"/>
+      <c r="O70" s="425"/>
+      <c r="P70" s="425"/>
+      <c r="Q70" s="425"/>
+      <c r="R70" s="425"/>
+    </row>
+    <row r="71" spans="1:18" ht="19.250000">
       <c r="A71" s="310">
         <v>69</v>
       </c>
       <c r="B71" s="154" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C71" s="154"/>
-      <c r="D71" s="154"/>
-      <c r="E71" s="154"/>
-      <c r="F71" s="154"/>
+        <v>1261</v>
+      </c>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="165"/>
+      <c r="F71" s="154" t="s">
+        <v>15</v>
+      </c>
       <c r="G71" s="293" t="s">
         <v>44</v>
       </c>
@@ -21966,93 +21988,84 @@
         <v>44</v>
       </c>
       <c r="J71" s="154"/>
-      <c r="K71" s="283" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L71" s="425"/>
-      <c r="M71" s="425"/>
-      <c r="N71" s="425"/>
-      <c r="O71" s="425"/>
-      <c r="P71" s="425"/>
-      <c r="Q71" s="425"/>
-      <c r="R71" s="425"/>
+      <c r="K71" s="213" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="310">
         <v>70</v>
       </c>
       <c r="B72" s="154" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C72" s="443" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="154" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E72" s="329"/>
-      <c r="F72" s="329" t="s">
-        <v>41</v>
-      </c>
-      <c r="G72" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="H72" s="153"/>
-      <c r="I72" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="J72" s="153"/>
-      <c r="K72" s="160" t="s">
-        <v>1127</v>
-      </c>
-      <c r="L72" s="427"/>
-      <c r="M72" s="427"/>
-      <c r="N72" s="427"/>
-      <c r="O72" s="427"/>
-      <c r="P72" s="427"/>
-      <c r="Q72" s="427"/>
-      <c r="R72" s="427"/>
-    </row>
-    <row r="73" spans="1:18" ht="33.000000">
+        <v>1393</v>
+      </c>
+      <c r="C72" s="154"/>
+      <c r="D72" s="154"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="154"/>
+      <c r="G72" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="J72" s="154"/>
+      <c r="K72" s="283" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L72" s="425"/>
+      <c r="M72" s="425"/>
+      <c r="N72" s="425"/>
+      <c r="O72" s="425"/>
+      <c r="P72" s="425"/>
+      <c r="Q72" s="425"/>
+      <c r="R72" s="425"/>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="310">
         <v>71</v>
       </c>
       <c r="B73" s="154" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C73" s="443"/>
-      <c r="D73" s="154"/>
-      <c r="E73" s="155"/>
-      <c r="F73" s="154" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C73" s="443" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="154" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E73" s="329"/>
+      <c r="F73" s="329" t="s">
         <v>41</v>
       </c>
-      <c r="G73" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H73" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I73" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J73" s="154"/>
-      <c r="K73" s="162" t="s">
-        <v>1349</v>
-      </c>
-      <c r="L73" s="187"/>
-      <c r="M73" s="187"/>
-      <c r="N73" s="187"/>
-      <c r="O73" s="187"/>
-      <c r="P73" s="187"/>
-      <c r="Q73" s="187"/>
-      <c r="R73" s="187"/>
+      <c r="G73" s="153" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="153"/>
+      <c r="I73" s="153" t="s">
+        <v>44</v>
+      </c>
+      <c r="J73" s="153"/>
+      <c r="K73" s="160" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L73" s="427"/>
+      <c r="M73" s="427"/>
+      <c r="N73" s="427"/>
+      <c r="O73" s="427"/>
+      <c r="P73" s="427"/>
+      <c r="Q73" s="427"/>
+      <c r="R73" s="427"/>
     </row>
     <row r="74" spans="1:18" ht="33.000000">
       <c r="A74" s="310">
         <v>72</v>
       </c>
       <c r="B74" s="154" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C74" s="443"/>
       <c r="D74" s="154"/>
@@ -22071,7 +22084,7 @@
       </c>
       <c r="J74" s="154"/>
       <c r="K74" s="162" t="s">
-        <v>1129</v>
+        <v>1349</v>
       </c>
       <c r="L74" s="187"/>
       <c r="M74" s="187"/>
@@ -22081,27 +22094,31 @@
       <c r="Q74" s="187"/>
       <c r="R74" s="187"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" ht="33.000000">
       <c r="A75" s="310">
         <v>73</v>
       </c>
       <c r="B75" s="154" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C75" s="443"/>
       <c r="D75" s="154"/>
       <c r="E75" s="155"/>
-      <c r="F75" s="154"/>
+      <c r="F75" s="154" t="s">
+        <v>41</v>
+      </c>
       <c r="G75" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H75" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="I75" s="154"/>
+      <c r="I75" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J75" s="154"/>
-      <c r="K75" s="161" t="s">
-        <v>1130</v>
+      <c r="K75" s="162" t="s">
+        <v>1129</v>
       </c>
       <c r="L75" s="187"/>
       <c r="M75" s="187"/>
@@ -22116,18 +22133,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="154" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C76" s="443"/>
       <c r="D76" s="154"/>
       <c r="E76" s="155"/>
       <c r="F76" s="154"/>
-      <c r="G76" s="154"/>
-      <c r="H76" s="154"/>
+      <c r="G76" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="I76" s="154"/>
       <c r="J76" s="154"/>
       <c r="K76" s="161" t="s">
-        <v>1350</v>
+        <v>1130</v>
       </c>
       <c r="L76" s="187"/>
       <c r="M76" s="187"/>
@@ -22142,26 +22163,18 @@
         <v>75</v>
       </c>
       <c r="B77" s="154" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C77" s="444"/>
-      <c r="D77" s="154" t="s">
-        <v>71</v>
-      </c>
+        <v>1346</v>
+      </c>
+      <c r="C77" s="443"/>
+      <c r="D77" s="154"/>
       <c r="E77" s="155"/>
-      <c r="F77" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="F77" s="154"/>
+      <c r="G77" s="154"/>
       <c r="H77" s="154"/>
-      <c r="I77" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="I77" s="154"/>
       <c r="J77" s="154"/>
       <c r="K77" s="161" t="s">
-        <v>1132</v>
+        <v>1350</v>
       </c>
       <c r="L77" s="187"/>
       <c r="M77" s="187"/>
@@ -22171,31 +22184,31 @@
       <c r="Q77" s="187"/>
       <c r="R77" s="187"/>
     </row>
-    <row r="78" spans="1:18" ht="49.500000">
+    <row r="78" spans="1:18">
       <c r="A78" s="310">
         <v>76</v>
       </c>
       <c r="B78" s="154" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C78" s="444"/>
-      <c r="D78" s="154"/>
+      <c r="D78" s="154" t="s">
+        <v>71</v>
+      </c>
       <c r="E78" s="155"/>
-      <c r="F78" s="293" t="s">
-        <v>1351</v>
+      <c r="F78" s="154" t="s">
+        <v>41</v>
       </c>
       <c r="G78" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H78" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="H78" s="154"/>
       <c r="I78" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J78" s="154"/>
-      <c r="K78" s="162" t="s">
-        <v>1133</v>
+      <c r="K78" s="161" t="s">
+        <v>1132</v>
       </c>
       <c r="L78" s="187"/>
       <c r="M78" s="187"/>
@@ -22205,29 +22218,31 @@
       <c r="Q78" s="187"/>
       <c r="R78" s="187"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" ht="49.500000">
       <c r="A79" s="310">
         <v>77</v>
       </c>
       <c r="B79" s="154" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C79" s="444"/>
       <c r="D79" s="154"/>
       <c r="E79" s="155"/>
-      <c r="F79" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="G79" s="155" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" s="155"/>
-      <c r="I79" s="155" t="s">
-        <v>44</v>
-      </c>
-      <c r="J79" s="155"/>
-      <c r="K79" s="161" t="s">
-        <v>1134</v>
+      <c r="F79" s="293" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G79" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H79" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J79" s="154"/>
+      <c r="K79" s="162" t="s">
+        <v>1133</v>
       </c>
       <c r="L79" s="187"/>
       <c r="M79" s="187"/>
@@ -22237,31 +22252,29 @@
       <c r="Q79" s="187"/>
       <c r="R79" s="187"/>
     </row>
-    <row r="80" spans="1:18" ht="49.500000">
+    <row r="80" spans="1:18">
       <c r="A80" s="310">
         <v>78</v>
       </c>
       <c r="B80" s="154" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C80" s="444"/>
       <c r="D80" s="154"/>
       <c r="E80" s="155"/>
-      <c r="F80" s="154" t="s">
+      <c r="F80" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H80" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I80" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J80" s="154"/>
-      <c r="K80" s="162" t="s">
-        <v>1135</v>
+      <c r="G80" s="155" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" s="155"/>
+      <c r="I80" s="155" t="s">
+        <v>44</v>
+      </c>
+      <c r="J80" s="155"/>
+      <c r="K80" s="161" t="s">
+        <v>1134</v>
       </c>
       <c r="L80" s="187"/>
       <c r="M80" s="187"/>
@@ -22271,27 +22284,31 @@
       <c r="Q80" s="187"/>
       <c r="R80" s="187"/>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" ht="49.500000">
       <c r="A81" s="310">
         <v>79</v>
       </c>
       <c r="B81" s="154" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C81" s="444"/>
       <c r="D81" s="154"/>
       <c r="E81" s="155"/>
-      <c r="F81" s="154"/>
+      <c r="F81" s="154" t="s">
+        <v>41</v>
+      </c>
       <c r="G81" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H81" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="I81" s="154"/>
+      <c r="I81" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J81" s="154"/>
-      <c r="K81" s="161" t="s">
-        <v>17</v>
+      <c r="K81" s="162" t="s">
+        <v>1135</v>
       </c>
       <c r="L81" s="187"/>
       <c r="M81" s="187"/>
@@ -22306,7 +22323,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="154" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C82" s="444"/>
       <c r="D82" s="154"/>
@@ -22321,7 +22338,7 @@
       <c r="I82" s="154"/>
       <c r="J82" s="154"/>
       <c r="K82" s="161" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L82" s="187"/>
       <c r="M82" s="187"/>
@@ -22331,29 +22348,27 @@
       <c r="Q82" s="187"/>
       <c r="R82" s="187"/>
     </row>
-    <row r="83" spans="1:18" ht="33.000000">
+    <row r="83" spans="1:18">
       <c r="A83" s="310">
         <v>81</v>
       </c>
       <c r="B83" s="154" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C83" s="444"/>
       <c r="D83" s="154"/>
       <c r="E83" s="155"/>
-      <c r="F83" s="154" t="s">
-        <v>15</v>
-      </c>
+      <c r="F83" s="154"/>
       <c r="G83" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H83" s="154"/>
-      <c r="I83" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="H83" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I83" s="154"/>
       <c r="J83" s="154"/>
-      <c r="K83" s="162" t="s">
-        <v>1137</v>
+      <c r="K83" s="161" t="s">
+        <v>16</v>
       </c>
       <c r="L83" s="187"/>
       <c r="M83" s="187"/>
@@ -22368,20 +22383,24 @@
         <v>82</v>
       </c>
       <c r="B84" s="154" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C84" s="444"/>
       <c r="D84" s="154"/>
-      <c r="E84" s="154"/>
-      <c r="F84" s="154"/>
+      <c r="E84" s="155"/>
+      <c r="F84" s="154" t="s">
+        <v>15</v>
+      </c>
       <c r="G84" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H84" s="154"/>
-      <c r="I84" s="154"/>
+      <c r="I84" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J84" s="154"/>
-      <c r="K84" s="161" t="s">
-        <v>1352</v>
+      <c r="K84" s="162" t="s">
+        <v>1137</v>
       </c>
       <c r="L84" s="187"/>
       <c r="M84" s="187"/>
@@ -22391,12 +22410,12 @@
       <c r="Q84" s="187"/>
       <c r="R84" s="187"/>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" ht="33.000000">
       <c r="A85" s="310">
         <v>83</v>
       </c>
       <c r="B85" s="154" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C85" s="444"/>
       <c r="D85" s="154"/>
@@ -22405,13 +22424,11 @@
       <c r="G85" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H85" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="H85" s="154"/>
       <c r="I85" s="154"/>
       <c r="J85" s="154"/>
       <c r="K85" s="161" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="L85" s="187"/>
       <c r="M85" s="187"/>
@@ -22426,44 +22443,42 @@
         <v>84</v>
       </c>
       <c r="B86" s="154" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C86" s="444"/>
-      <c r="D86" s="154" t="s">
-        <v>22</v>
-      </c>
+      <c r="D86" s="154"/>
       <c r="E86" s="154"/>
-      <c r="F86" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="G86" s="155" t="s">
-        <v>44</v>
-      </c>
-      <c r="H86" s="155"/>
-      <c r="I86" s="155" t="s">
-        <v>44</v>
-      </c>
+      <c r="F86" s="154"/>
+      <c r="G86" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I86" s="154"/>
       <c r="J86" s="154"/>
       <c r="K86" s="161" t="s">
-        <v>51</v>
-      </c>
-      <c r="L86" s="425"/>
-      <c r="M86" s="425"/>
-      <c r="N86" s="425"/>
-      <c r="O86" s="425"/>
-      <c r="P86" s="425"/>
-      <c r="Q86" s="425"/>
-      <c r="R86" s="425"/>
+        <v>1353</v>
+      </c>
+      <c r="L86" s="187"/>
+      <c r="M86" s="187"/>
+      <c r="N86" s="187"/>
+      <c r="O86" s="187"/>
+      <c r="P86" s="187"/>
+      <c r="Q86" s="187"/>
+      <c r="R86" s="187"/>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="310">
         <v>85</v>
       </c>
       <c r="B87" s="154" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C87" s="444"/>
-      <c r="D87" s="154"/>
+      <c r="D87" s="154" t="s">
+        <v>22</v>
+      </c>
       <c r="E87" s="154"/>
       <c r="F87" s="155" t="s">
         <v>41</v>
@@ -22477,7 +22492,7 @@
       </c>
       <c r="J87" s="154"/>
       <c r="K87" s="161" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L87" s="425"/>
       <c r="M87" s="425"/>
@@ -22492,7 +22507,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="154" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C88" s="444"/>
       <c r="D88" s="154"/>
@@ -22508,8 +22523,8 @@
         <v>44</v>
       </c>
       <c r="J88" s="154"/>
-      <c r="K88" s="445" t="s">
-        <v>1354</v>
+      <c r="K88" s="161" t="s">
+        <v>52</v>
       </c>
       <c r="L88" s="425"/>
       <c r="M88" s="425"/>
@@ -22524,20 +22539,24 @@
         <v>87</v>
       </c>
       <c r="B89" s="154" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C89" s="444"/>
       <c r="D89" s="154"/>
       <c r="E89" s="154"/>
-      <c r="F89" s="155"/>
+      <c r="F89" s="155" t="s">
+        <v>41</v>
+      </c>
       <c r="G89" s="155" t="s">
         <v>44</v>
       </c>
       <c r="H89" s="155"/>
-      <c r="I89" s="155"/>
+      <c r="I89" s="155" t="s">
+        <v>44</v>
+      </c>
       <c r="J89" s="154"/>
-      <c r="K89" s="161" t="s">
-        <v>54</v>
+      <c r="K89" s="445" t="s">
+        <v>1354</v>
       </c>
       <c r="L89" s="425"/>
       <c r="M89" s="425"/>
@@ -22552,7 +22571,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="154" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C90" s="444"/>
       <c r="D90" s="154"/>
@@ -22565,7 +22584,7 @@
       <c r="I90" s="155"/>
       <c r="J90" s="154"/>
       <c r="K90" s="161" t="s">
-        <v>1355</v>
+        <v>54</v>
       </c>
       <c r="L90" s="425"/>
       <c r="M90" s="425"/>
@@ -22580,26 +22599,20 @@
         <v>89</v>
       </c>
       <c r="B91" s="154" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C91" s="444"/>
-      <c r="D91" s="154" t="s">
-        <v>33</v>
-      </c>
+      <c r="D91" s="154"/>
       <c r="E91" s="154"/>
-      <c r="F91" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G91" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H91" s="154"/>
-      <c r="I91" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="F91" s="155"/>
+      <c r="G91" s="155" t="s">
+        <v>44</v>
+      </c>
+      <c r="H91" s="155"/>
+      <c r="I91" s="155"/>
       <c r="J91" s="154"/>
       <c r="K91" s="161" t="s">
-        <v>42</v>
+        <v>1355</v>
       </c>
       <c r="L91" s="425"/>
       <c r="M91" s="425"/>
@@ -22614,10 +22627,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="154" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C92" s="444"/>
-      <c r="D92" s="154"/>
+      <c r="D92" s="154" t="s">
+        <v>33</v>
+      </c>
       <c r="E92" s="154"/>
       <c r="F92" s="154" t="s">
         <v>41</v>
@@ -22631,7 +22646,7 @@
       </c>
       <c r="J92" s="154"/>
       <c r="K92" s="161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L92" s="425"/>
       <c r="M92" s="425"/>
@@ -22641,12 +22656,12 @@
       <c r="Q92" s="425"/>
       <c r="R92" s="425"/>
     </row>
-    <row r="93" spans="1:18" ht="49.500000">
+    <row r="93" spans="1:18">
       <c r="A93" s="310">
         <v>91</v>
       </c>
       <c r="B93" s="154" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C93" s="444"/>
       <c r="D93" s="154"/>
@@ -22663,7 +22678,7 @@
       </c>
       <c r="J93" s="154"/>
       <c r="K93" s="161" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L93" s="425"/>
       <c r="M93" s="425"/>
@@ -22673,12 +22688,12 @@
       <c r="Q93" s="425"/>
       <c r="R93" s="425"/>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" ht="49.500000">
       <c r="A94" s="310">
         <v>92</v>
       </c>
       <c r="B94" s="154" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C94" s="444"/>
       <c r="D94" s="154"/>
@@ -22695,7 +22710,7 @@
       </c>
       <c r="J94" s="154"/>
       <c r="K94" s="161" t="s">
-        <v>1357</v>
+        <v>48</v>
       </c>
       <c r="L94" s="425"/>
       <c r="M94" s="425"/>
@@ -22705,12 +22720,12 @@
       <c r="Q94" s="425"/>
       <c r="R94" s="425"/>
     </row>
-    <row r="95" spans="1:18" ht="49.500000">
+    <row r="95" spans="1:18">
       <c r="A95" s="310">
         <v>93</v>
       </c>
       <c r="B95" s="154" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C95" s="444"/>
       <c r="D95" s="154"/>
@@ -22721,15 +22736,13 @@
       <c r="G95" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H95" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="H95" s="154"/>
       <c r="I95" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J95" s="154"/>
-      <c r="K95" s="162" t="s">
-        <v>1138</v>
+      <c r="K95" s="161" t="s">
+        <v>1357</v>
       </c>
       <c r="L95" s="425"/>
       <c r="M95" s="425"/>
@@ -22739,27 +22752,31 @@
       <c r="Q95" s="425"/>
       <c r="R95" s="425"/>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" ht="49.500000">
       <c r="A96" s="310">
         <v>94</v>
       </c>
       <c r="B96" s="154" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C96" s="444"/>
       <c r="D96" s="154"/>
       <c r="E96" s="154"/>
-      <c r="F96" s="154"/>
+      <c r="F96" s="154" t="s">
+        <v>41</v>
+      </c>
       <c r="G96" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H96" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="I96" s="154"/>
+      <c r="I96" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J96" s="154"/>
-      <c r="K96" s="161" t="s">
-        <v>1139</v>
+      <c r="K96" s="162" t="s">
+        <v>1138</v>
       </c>
       <c r="L96" s="425"/>
       <c r="M96" s="425"/>
@@ -22774,11 +22791,11 @@
         <v>95</v>
       </c>
       <c r="B97" s="154" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C97" s="165"/>
-      <c r="D97" s="165"/>
-      <c r="E97" s="165"/>
+        <v>1123</v>
+      </c>
+      <c r="C97" s="444"/>
+      <c r="D97" s="154"/>
+      <c r="E97" s="154"/>
       <c r="F97" s="154"/>
       <c r="G97" s="154" t="s">
         <v>44</v>
@@ -22789,15 +22806,22 @@
       <c r="I97" s="154"/>
       <c r="J97" s="154"/>
       <c r="K97" s="161" t="s">
-        <v>1140</v>
-      </c>
+        <v>1139</v>
+      </c>
+      <c r="L97" s="425"/>
+      <c r="M97" s="425"/>
+      <c r="N97" s="425"/>
+      <c r="O97" s="425"/>
+      <c r="P97" s="425"/>
+      <c r="Q97" s="425"/>
+      <c r="R97" s="425"/>
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="310">
         <v>96</v>
       </c>
       <c r="B98" s="154" t="s">
-        <v>1359</v>
+        <v>1124</v>
       </c>
       <c r="C98" s="165"/>
       <c r="D98" s="165"/>
@@ -22812,7 +22836,7 @@
       <c r="I98" s="154"/>
       <c r="J98" s="154"/>
       <c r="K98" s="161" t="s">
-        <v>1358</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -22820,20 +22844,22 @@
         <v>97</v>
       </c>
       <c r="B99" s="154" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C99" s="165"/>
       <c r="D99" s="165"/>
       <c r="E99" s="165"/>
-      <c r="F99" s="335"/>
+      <c r="F99" s="154"/>
       <c r="G99" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H99" s="154"/>
-      <c r="I99" s="335"/>
-      <c r="J99" s="335"/>
-      <c r="K99" s="283" t="s">
-        <v>1352</v>
+      <c r="H99" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I99" s="154"/>
+      <c r="J99" s="154"/>
+      <c r="K99" s="161" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -22841,58 +22867,43 @@
         <v>98</v>
       </c>
       <c r="B100" s="154" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C100" s="444"/>
-      <c r="D100" s="154"/>
-      <c r="E100" s="154"/>
+        <v>1360</v>
+      </c>
+      <c r="C100" s="165"/>
+      <c r="D100" s="165"/>
+      <c r="E100" s="165"/>
       <c r="F100" s="335"/>
       <c r="G100" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H100" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="H100" s="154"/>
       <c r="I100" s="335"/>
       <c r="J100" s="335"/>
-      <c r="K100" s="161" t="s">
-        <v>1350</v>
-      </c>
-      <c r="L100" s="425"/>
-      <c r="M100" s="425"/>
-      <c r="N100" s="425"/>
-      <c r="O100" s="425"/>
-      <c r="P100" s="425"/>
-      <c r="Q100" s="425"/>
-      <c r="R100" s="425"/>
-    </row>
-    <row r="101" spans="1:18" ht="16.500000" customHeight="1">
+      <c r="K100" s="283" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="310">
         <v>99</v>
       </c>
-      <c r="B101" s="335" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C101" s="90" t="s">
-        <v>493</v>
-      </c>
-      <c r="D101" s="335" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E101" s="335"/>
+      <c r="B101" s="154" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C101" s="444"/>
+      <c r="D101" s="154"/>
+      <c r="E101" s="154"/>
       <c r="F101" s="335"/>
-      <c r="G101" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H101" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I101" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="G101" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H101" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I101" s="335"/>
       <c r="J101" s="335"/>
-      <c r="K101" s="283" t="s">
-        <v>782</v>
+      <c r="K101" s="161" t="s">
+        <v>1350</v>
       </c>
       <c r="L101" s="425"/>
       <c r="M101" s="425"/>
@@ -22907,14 +22918,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="335" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C102" s="90"/>
-      <c r="D102" s="335"/>
+        <v>1299</v>
+      </c>
+      <c r="C102" s="90" t="s">
+        <v>493</v>
+      </c>
+      <c r="D102" s="335" t="s">
+        <v>1288</v>
+      </c>
       <c r="E102" s="335"/>
-      <c r="F102" s="335" t="s">
-        <v>15</v>
-      </c>
+      <c r="F102" s="335"/>
       <c r="G102" s="335" t="s">
         <v>44</v>
       </c>
@@ -22926,7 +22939,7 @@
       </c>
       <c r="J102" s="335"/>
       <c r="K102" s="283" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L102" s="425"/>
       <c r="M102" s="425"/>
@@ -22941,12 +22954,14 @@
         <v>101</v>
       </c>
       <c r="B103" s="335" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C103" s="90"/>
       <c r="D103" s="335"/>
       <c r="E103" s="335"/>
-      <c r="F103" s="335"/>
+      <c r="F103" s="335" t="s">
+        <v>15</v>
+      </c>
       <c r="G103" s="335" t="s">
         <v>44</v>
       </c>
@@ -22958,7 +22973,7 @@
       </c>
       <c r="J103" s="335"/>
       <c r="K103" s="283" t="s">
-        <v>1262</v>
+        <v>783</v>
       </c>
       <c r="L103" s="425"/>
       <c r="M103" s="425"/>
@@ -22968,21 +22983,17 @@
       <c r="Q103" s="425"/>
       <c r="R103" s="425"/>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" ht="16.500000" customHeight="1">
       <c r="A104" s="310">
         <v>102</v>
       </c>
       <c r="B104" s="335" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C104" s="90"/>
-      <c r="D104" s="335" t="s">
-        <v>513</v>
-      </c>
+      <c r="D104" s="335"/>
       <c r="E104" s="335"/>
-      <c r="F104" s="335" t="s">
-        <v>335</v>
-      </c>
+      <c r="F104" s="335"/>
       <c r="G104" s="335" t="s">
         <v>44</v>
       </c>
@@ -22994,7 +23005,7 @@
       </c>
       <c r="J104" s="335"/>
       <c r="K104" s="283" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="L104" s="425"/>
       <c r="M104" s="425"/>
@@ -23009,13 +23020,15 @@
         <v>103</v>
       </c>
       <c r="B105" s="335" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C105" s="90"/>
-      <c r="D105" s="335"/>
+      <c r="D105" s="335" t="s">
+        <v>513</v>
+      </c>
       <c r="E105" s="335"/>
       <c r="F105" s="335" t="s">
-        <v>118</v>
+        <v>335</v>
       </c>
       <c r="G105" s="335" t="s">
         <v>44</v>
@@ -23028,7 +23041,7 @@
       </c>
       <c r="J105" s="335"/>
       <c r="K105" s="283" t="s">
-        <v>787</v>
+        <v>1263</v>
       </c>
       <c r="L105" s="425"/>
       <c r="M105" s="425"/>
@@ -23043,13 +23056,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="335" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C106" s="90"/>
       <c r="D106" s="335"/>
       <c r="E106" s="335"/>
       <c r="F106" s="335" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="G106" s="335" t="s">
         <v>44</v>
@@ -23062,7 +23075,7 @@
       </c>
       <c r="J106" s="335"/>
       <c r="K106" s="283" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L106" s="425"/>
       <c r="M106" s="425"/>
@@ -23077,13 +23090,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="335" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C107" s="90"/>
       <c r="D107" s="335"/>
       <c r="E107" s="335"/>
       <c r="F107" s="335" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="G107" s="335" t="s">
         <v>44</v>
@@ -23096,7 +23109,7 @@
       </c>
       <c r="J107" s="335"/>
       <c r="K107" s="283" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="L107" s="425"/>
       <c r="M107" s="425"/>
@@ -23111,22 +23124,26 @@
         <v>106</v>
       </c>
       <c r="B108" s="335" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C108" s="90"/>
       <c r="D108" s="335"/>
       <c r="E108" s="335"/>
-      <c r="F108" s="335"/>
+      <c r="F108" s="335" t="s">
+        <v>118</v>
+      </c>
       <c r="G108" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H108" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="I108" s="335"/>
+      <c r="I108" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J108" s="335"/>
       <c r="K108" s="283" t="s">
-        <v>1264</v>
+        <v>790</v>
       </c>
       <c r="L108" s="425"/>
       <c r="M108" s="425"/>
@@ -23141,7 +23158,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="335" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C109" s="90"/>
       <c r="D109" s="335"/>
@@ -23150,11 +23167,13 @@
       <c r="G109" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H109" s="335"/>
+      <c r="H109" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="I109" s="335"/>
       <c r="J109" s="335"/>
       <c r="K109" s="283" t="s">
-        <v>792</v>
+        <v>1264</v>
       </c>
       <c r="L109" s="425"/>
       <c r="M109" s="425"/>
@@ -23169,30 +23188,20 @@
         <v>108</v>
       </c>
       <c r="B110" s="335" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="90" t="s">
-        <v>538</v>
-      </c>
-      <c r="E110" s="335" t="s">
-        <v>729</v>
-      </c>
-      <c r="F110" s="335" t="s">
-        <v>41</v>
-      </c>
+        <v>1308</v>
+      </c>
+      <c r="C110" s="90"/>
+      <c r="D110" s="335"/>
+      <c r="E110" s="335"/>
+      <c r="F110" s="335"/>
       <c r="G110" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H110" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I110" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H110" s="335"/>
+      <c r="I110" s="335"/>
       <c r="J110" s="335"/>
       <c r="K110" s="283" t="s">
-        <v>1265</v>
+        <v>792</v>
       </c>
       <c r="L110" s="425"/>
       <c r="M110" s="425"/>
@@ -23207,13 +23216,17 @@
         <v>109</v>
       </c>
       <c r="B111" s="335" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C111" s="5"/>
-      <c r="D111" s="90"/>
-      <c r="E111" s="335"/>
+      <c r="D111" s="90" t="s">
+        <v>538</v>
+      </c>
+      <c r="E111" s="335" t="s">
+        <v>729</v>
+      </c>
       <c r="F111" s="335" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G111" s="335" t="s">
         <v>44</v>
@@ -23226,7 +23239,7 @@
       </c>
       <c r="J111" s="335"/>
       <c r="K111" s="283" t="s">
-        <v>795</v>
+        <v>1265</v>
       </c>
       <c r="L111" s="425"/>
       <c r="M111" s="425"/>
@@ -23241,13 +23254,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="335" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="90"/>
       <c r="E112" s="335"/>
       <c r="F112" s="335" t="s">
-        <v>550</v>
+        <v>15</v>
       </c>
       <c r="G112" s="335" t="s">
         <v>44</v>
@@ -23259,8 +23272,8 @@
         <v>44</v>
       </c>
       <c r="J112" s="335"/>
-      <c r="K112" s="213" t="s">
-        <v>1267</v>
+      <c r="K112" s="283" t="s">
+        <v>795</v>
       </c>
       <c r="L112" s="425"/>
       <c r="M112" s="425"/>
@@ -23275,7 +23288,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="335" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="90"/>
@@ -23309,7 +23322,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="335" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="90"/>
@@ -23343,13 +23356,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="335" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C115" s="165"/>
-      <c r="D115" s="91"/>
+        <v>1313</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="90"/>
       <c r="E115" s="335"/>
       <c r="F115" s="335" t="s">
-        <v>15</v>
+        <v>550</v>
       </c>
       <c r="G115" s="335" t="s">
         <v>44</v>
@@ -23361,65 +23374,63 @@
         <v>44</v>
       </c>
       <c r="J115" s="335"/>
-      <c r="K115" s="283" t="s">
-        <v>1269</v>
-      </c>
+      <c r="K115" s="213" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L115" s="425"/>
+      <c r="M115" s="425"/>
+      <c r="N115" s="425"/>
+      <c r="O115" s="425"/>
+      <c r="P115" s="425"/>
+      <c r="Q115" s="425"/>
+      <c r="R115" s="425"/>
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="310">
         <v>114</v>
       </c>
       <c r="B116" s="335" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="90"/>
+        <v>1314</v>
+      </c>
+      <c r="C116" s="165"/>
+      <c r="D116" s="91"/>
       <c r="E116" s="335"/>
-      <c r="F116" s="335"/>
+      <c r="F116" s="335" t="s">
+        <v>15</v>
+      </c>
       <c r="G116" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H116" s="335"/>
-      <c r="I116" s="335"/>
+      <c r="H116" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I116" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J116" s="335"/>
       <c r="K116" s="283" t="s">
-        <v>792</v>
-      </c>
-      <c r="L116" s="425"/>
-      <c r="M116" s="425"/>
-      <c r="N116" s="425"/>
-      <c r="O116" s="425"/>
-      <c r="P116" s="425"/>
-      <c r="Q116" s="425"/>
-      <c r="R116" s="425"/>
+        <v>1269</v>
+      </c>
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="310">
         <v>115</v>
       </c>
       <c r="B117" s="335" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="90"/>
-      <c r="E117" s="335" t="s">
-        <v>730</v>
-      </c>
-      <c r="F117" s="335" t="s">
-        <v>41</v>
-      </c>
+      <c r="E117" s="335"/>
+      <c r="F117" s="335"/>
       <c r="G117" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H117" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I117" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J117" s="336"/>
+      <c r="H117" s="335"/>
+      <c r="I117" s="335"/>
+      <c r="J117" s="335"/>
       <c r="K117" s="283" t="s">
-        <v>1271</v>
+        <v>792</v>
       </c>
       <c r="L117" s="425"/>
       <c r="M117" s="425"/>
@@ -23434,11 +23445,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="335" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="90"/>
-      <c r="E118" s="335"/>
+      <c r="E118" s="335" t="s">
+        <v>730</v>
+      </c>
       <c r="F118" s="335" t="s">
         <v>41</v>
       </c>
@@ -23451,9 +23464,9 @@
       <c r="I118" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="J118" s="335"/>
+      <c r="J118" s="336"/>
       <c r="K118" s="283" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="L118" s="425"/>
       <c r="M118" s="425"/>
@@ -23468,22 +23481,26 @@
         <v>117</v>
       </c>
       <c r="B119" s="335" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="90"/>
       <c r="E119" s="335"/>
-      <c r="F119" s="335"/>
+      <c r="F119" s="335" t="s">
+        <v>41</v>
+      </c>
       <c r="G119" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H119" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="I119" s="335"/>
+      <c r="I119" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J119" s="335"/>
       <c r="K119" s="283" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="L119" s="425"/>
       <c r="M119" s="425"/>
@@ -23498,13 +23515,11 @@
         <v>118</v>
       </c>
       <c r="B120" s="335" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="90"/>
-      <c r="E120" s="90" t="s">
-        <v>1145</v>
-      </c>
+      <c r="E120" s="335"/>
       <c r="F120" s="335"/>
       <c r="G120" s="335" t="s">
         <v>44</v>
@@ -23515,7 +23530,7 @@
       <c r="I120" s="335"/>
       <c r="J120" s="335"/>
       <c r="K120" s="283" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="L120" s="425"/>
       <c r="M120" s="425"/>
@@ -23530,11 +23545,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="335" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="90"/>
-      <c r="E121" s="90"/>
+      <c r="E121" s="90" t="s">
+        <v>1145</v>
+      </c>
       <c r="F121" s="335"/>
       <c r="G121" s="335" t="s">
         <v>44</v>
@@ -23545,7 +23562,7 @@
       <c r="I121" s="335"/>
       <c r="J121" s="335"/>
       <c r="K121" s="283" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="L121" s="425"/>
       <c r="M121" s="425"/>
@@ -23555,12 +23572,12 @@
       <c r="Q121" s="425"/>
       <c r="R121" s="425"/>
     </row>
-    <row r="122" spans="1:18" ht="33.000000">
+    <row r="122" spans="1:18">
       <c r="A122" s="310">
         <v>120</v>
       </c>
       <c r="B122" s="335" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="90"/>
@@ -23575,7 +23592,7 @@
       <c r="I122" s="335"/>
       <c r="J122" s="335"/>
       <c r="K122" s="283" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L122" s="425"/>
       <c r="M122" s="425"/>
@@ -23585,15 +23602,15 @@
       <c r="Q122" s="425"/>
       <c r="R122" s="425"/>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" ht="33.000000">
       <c r="A123" s="310">
         <v>121</v>
       </c>
       <c r="B123" s="335" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C123" s="165"/>
-      <c r="D123" s="91"/>
+        <v>1321</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="90"/>
       <c r="E123" s="90"/>
       <c r="F123" s="335"/>
       <c r="G123" s="335" t="s">
@@ -23605,19 +23622,26 @@
       <c r="I123" s="335"/>
       <c r="J123" s="335"/>
       <c r="K123" s="283" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" ht="33.000000">
+        <v>1280</v>
+      </c>
+      <c r="L123" s="425"/>
+      <c r="M123" s="425"/>
+      <c r="N123" s="425"/>
+      <c r="O123" s="425"/>
+      <c r="P123" s="425"/>
+      <c r="Q123" s="425"/>
+      <c r="R123" s="425"/>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="310">
         <v>122</v>
       </c>
       <c r="B124" s="335" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C124" s="165"/>
       <c r="D124" s="91"/>
-      <c r="E124" s="91"/>
+      <c r="E124" s="90"/>
       <c r="F124" s="335"/>
       <c r="G124" s="335" t="s">
         <v>44</v>
@@ -23628,19 +23652,19 @@
       <c r="I124" s="335"/>
       <c r="J124" s="335"/>
       <c r="K124" s="283" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" ht="33.000000">
       <c r="A125" s="310">
         <v>123</v>
       </c>
       <c r="B125" s="335" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C125" s="165"/>
       <c r="D125" s="91"/>
-      <c r="E125" s="90"/>
+      <c r="E125" s="91"/>
       <c r="F125" s="335"/>
       <c r="G125" s="335" t="s">
         <v>44</v>
@@ -23651,7 +23675,7 @@
       <c r="I125" s="335"/>
       <c r="J125" s="335"/>
       <c r="K125" s="283" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -23659,11 +23683,11 @@
         <v>124</v>
       </c>
       <c r="B126" s="335" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C126" s="165"/>
       <c r="D126" s="91"/>
-      <c r="E126" s="91"/>
+      <c r="E126" s="90"/>
       <c r="F126" s="335"/>
       <c r="G126" s="335" t="s">
         <v>44</v>
@@ -23674,7 +23698,7 @@
       <c r="I126" s="335"/>
       <c r="J126" s="335"/>
       <c r="K126" s="283" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -23682,26 +23706,22 @@
         <v>125</v>
       </c>
       <c r="B127" s="335" t="s">
-        <v>1381</v>
+        <v>1325</v>
       </c>
       <c r="C127" s="165"/>
-      <c r="D127" s="461" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E127" s="461"/>
-      <c r="F127" s="335" t="s">
-        <v>41</v>
-      </c>
+      <c r="D127" s="91"/>
+      <c r="E127" s="91"/>
+      <c r="F127" s="335"/>
       <c r="G127" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H127" s="335"/>
-      <c r="I127" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H127" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I127" s="335"/>
       <c r="J127" s="335"/>
       <c r="K127" s="283" t="s">
-        <v>1373</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -23709,11 +23729,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="335" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C128" s="165"/>
-      <c r="D128" s="455"/>
-      <c r="E128" s="455"/>
+      <c r="D128" s="461" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E128" s="461"/>
       <c r="F128" s="335" t="s">
         <v>41</v>
       </c>
@@ -23726,7 +23748,7 @@
       </c>
       <c r="J128" s="335"/>
       <c r="K128" s="283" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -23734,7 +23756,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="335" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C129" s="165"/>
       <c r="D129" s="455"/>
@@ -23751,7 +23773,7 @@
       </c>
       <c r="J129" s="335"/>
       <c r="K129" s="283" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -23759,7 +23781,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="335" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C130" s="165"/>
       <c r="D130" s="455"/>
@@ -23776,7 +23798,7 @@
       </c>
       <c r="J130" s="335"/>
       <c r="K130" s="283" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -23784,20 +23806,24 @@
         <v>129</v>
       </c>
       <c r="B131" s="335" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C131" s="165"/>
       <c r="D131" s="455"/>
-      <c r="E131" s="456"/>
-      <c r="F131" s="335"/>
+      <c r="E131" s="455"/>
+      <c r="F131" s="335" t="s">
+        <v>41</v>
+      </c>
       <c r="G131" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H131" s="335"/>
-      <c r="I131" s="335"/>
+      <c r="I131" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J131" s="335"/>
       <c r="K131" s="283" t="s">
-        <v>792</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -23805,24 +23831,20 @@
         <v>130</v>
       </c>
       <c r="B132" s="335" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C132" s="165"/>
       <c r="D132" s="455"/>
-      <c r="E132" s="461"/>
-      <c r="F132" s="335" t="s">
-        <v>41</v>
-      </c>
+      <c r="E132" s="456"/>
+      <c r="F132" s="335"/>
       <c r="G132" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H132" s="335"/>
-      <c r="I132" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="I132" s="335"/>
       <c r="J132" s="335"/>
       <c r="K132" s="283" t="s">
-        <v>1377</v>
+        <v>792</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -23830,11 +23852,11 @@
         <v>131</v>
       </c>
       <c r="B133" s="335" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C133" s="165"/>
       <c r="D133" s="455"/>
-      <c r="E133" s="455"/>
+      <c r="E133" s="461"/>
       <c r="F133" s="335" t="s">
         <v>41</v>
       </c>
@@ -23855,7 +23877,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="335" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C134" s="165"/>
       <c r="D134" s="455"/>
@@ -23872,7 +23894,7 @@
       </c>
       <c r="J134" s="335"/>
       <c r="K134" s="283" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -23880,32 +23902,36 @@
         <v>133</v>
       </c>
       <c r="B135" s="335" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C135" s="165"/>
       <c r="D135" s="455"/>
       <c r="E135" s="455"/>
-      <c r="F135" s="335"/>
+      <c r="F135" s="335" t="s">
+        <v>41</v>
+      </c>
       <c r="G135" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H135" s="335"/>
-      <c r="I135" s="335"/>
+      <c r="I135" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J135" s="335"/>
       <c r="K135" s="283" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="20.100000" customHeight="1">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" s="310">
         <v>134</v>
       </c>
       <c r="B136" s="335" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="260"/>
-      <c r="E136" s="260"/>
+        <v>1389</v>
+      </c>
+      <c r="C136" s="165"/>
+      <c r="D136" s="455"/>
+      <c r="E136" s="455"/>
       <c r="F136" s="335"/>
       <c r="G136" s="335" t="s">
         <v>44</v>
@@ -23914,41 +23940,28 @@
       <c r="I136" s="335"/>
       <c r="J136" s="335"/>
       <c r="K136" s="283" t="s">
-        <v>1380</v>
-      </c>
-      <c r="L136" s="425"/>
-      <c r="M136" s="425"/>
-      <c r="N136" s="425"/>
-      <c r="O136" s="425"/>
-      <c r="P136" s="425"/>
-      <c r="Q136" s="425"/>
-      <c r="R136" s="425"/>
-    </row>
-    <row r="137" spans="1:18">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="20.100000" customHeight="1">
       <c r="A137" s="310">
         <v>135</v>
       </c>
-      <c r="B137" s="154" t="s">
-        <v>997</v>
-      </c>
-      <c r="C137" s="159" t="s">
-        <v>885</v>
-      </c>
-      <c r="D137" s="154"/>
-      <c r="E137" s="154"/>
-      <c r="F137" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G137" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H137" s="154"/>
-      <c r="I137" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J137" s="154"/>
-      <c r="K137" s="213" t="s">
-        <v>1409</v>
+      <c r="B137" s="335" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="260"/>
+      <c r="E137" s="260"/>
+      <c r="F137" s="335"/>
+      <c r="G137" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H137" s="335"/>
+      <c r="I137" s="335"/>
+      <c r="J137" s="335"/>
+      <c r="K137" s="283" t="s">
+        <v>1380</v>
       </c>
       <c r="L137" s="425"/>
       <c r="M137" s="425"/>
@@ -23958,14 +23971,16 @@
       <c r="Q137" s="425"/>
       <c r="R137" s="425"/>
     </row>
-    <row r="138" spans="1:18" ht="33.000000">
+    <row r="138" spans="1:18">
       <c r="A138" s="310">
         <v>136</v>
       </c>
       <c r="B138" s="154" t="s">
-        <v>998</v>
-      </c>
-      <c r="C138" s="157"/>
+        <v>997</v>
+      </c>
+      <c r="C138" s="159" t="s">
+        <v>885</v>
+      </c>
       <c r="D138" s="154"/>
       <c r="E138" s="154"/>
       <c r="F138" s="154" t="s">
@@ -23974,15 +23989,13 @@
       <c r="G138" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H138" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="H138" s="154"/>
       <c r="I138" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J138" s="154"/>
-      <c r="K138" s="283" t="s">
-        <v>1411</v>
+      <c r="K138" s="213" t="s">
+        <v>1409</v>
       </c>
       <c r="L138" s="425"/>
       <c r="M138" s="425"/>
@@ -23992,18 +24005,18 @@
       <c r="Q138" s="425"/>
       <c r="R138" s="425"/>
     </row>
-    <row r="139" spans="1:18" ht="82.500000">
+    <row r="139" spans="1:18" ht="33.000000">
       <c r="A139" s="310">
         <v>137</v>
       </c>
       <c r="B139" s="154" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C139" s="157"/>
       <c r="D139" s="154"/>
       <c r="E139" s="154"/>
       <c r="F139" s="154" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="G139" s="154" t="s">
         <v>44</v>
@@ -24016,7 +24029,7 @@
       </c>
       <c r="J139" s="154"/>
       <c r="K139" s="283" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="L139" s="425"/>
       <c r="M139" s="425"/>
@@ -24026,18 +24039,18 @@
       <c r="Q139" s="425"/>
       <c r="R139" s="425"/>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" ht="82.500000">
       <c r="A140" s="310">
         <v>138</v>
       </c>
       <c r="B140" s="154" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C140" s="157"/>
       <c r="D140" s="154"/>
       <c r="E140" s="154"/>
       <c r="F140" s="154" t="s">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="G140" s="154" t="s">
         <v>44</v>
@@ -24049,8 +24062,8 @@
         <v>44</v>
       </c>
       <c r="J140" s="154"/>
-      <c r="K140" s="213" t="s">
-        <v>1413</v>
+      <c r="K140" s="283" t="s">
+        <v>1412</v>
       </c>
       <c r="L140" s="425"/>
       <c r="M140" s="425"/>
@@ -24065,7 +24078,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="154" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C141" s="157"/>
       <c r="D141" s="154"/>
@@ -24084,7 +24097,7 @@
       </c>
       <c r="J141" s="154"/>
       <c r="K141" s="213" t="s">
-        <v>928</v>
+        <v>1413</v>
       </c>
       <c r="L141" s="425"/>
       <c r="M141" s="425"/>
@@ -24099,7 +24112,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="154" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C142" s="157"/>
       <c r="D142" s="154"/>
@@ -24118,7 +24131,7 @@
       </c>
       <c r="J142" s="154"/>
       <c r="K142" s="213" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L142" s="425"/>
       <c r="M142" s="425"/>
@@ -24128,18 +24141,18 @@
       <c r="Q142" s="425"/>
       <c r="R142" s="425"/>
     </row>
-    <row r="143" spans="1:18" ht="33.000000">
+    <row r="143" spans="1:18">
       <c r="A143" s="310">
         <v>141</v>
       </c>
       <c r="B143" s="154" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C143" s="157"/>
       <c r="D143" s="154"/>
       <c r="E143" s="154"/>
       <c r="F143" s="154" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="G143" s="154" t="s">
         <v>44</v>
@@ -24151,8 +24164,8 @@
         <v>44</v>
       </c>
       <c r="J143" s="154"/>
-      <c r="K143" s="283" t="s">
-        <v>930</v>
+      <c r="K143" s="213" t="s">
+        <v>929</v>
       </c>
       <c r="L143" s="425"/>
       <c r="M143" s="425"/>
@@ -24167,7 +24180,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="154" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C144" s="157"/>
       <c r="D144" s="154"/>
@@ -24186,7 +24199,7 @@
       </c>
       <c r="J144" s="154"/>
       <c r="K144" s="283" t="s">
-        <v>1414</v>
+        <v>930</v>
       </c>
       <c r="L144" s="425"/>
       <c r="M144" s="425"/>
@@ -24196,17 +24209,19 @@
       <c r="Q144" s="425"/>
       <c r="R144" s="425"/>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" ht="33.000000">
       <c r="A145" s="310">
         <v>143</v>
       </c>
       <c r="B145" s="154" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C145" s="158"/>
+        <v>1004</v>
+      </c>
+      <c r="C145" s="157"/>
       <c r="D145" s="154"/>
       <c r="E145" s="154"/>
-      <c r="F145" s="154"/>
+      <c r="F145" s="154" t="s">
+        <v>335</v>
+      </c>
       <c r="G145" s="154" t="s">
         <v>44</v>
       </c>
@@ -24216,11 +24231,9 @@
       <c r="I145" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="J145" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="K145" s="213" t="s">
-        <v>1415</v>
+      <c r="J145" s="154"/>
+      <c r="K145" s="283" t="s">
+        <v>1414</v>
       </c>
       <c r="L145" s="425"/>
       <c r="M145" s="425"/>
@@ -24235,26 +24248,26 @@
         <v>144</v>
       </c>
       <c r="B146" s="154" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C146" s="154" t="s">
-        <v>886</v>
-      </c>
+        <v>1005</v>
+      </c>
+      <c r="C146" s="158"/>
       <c r="D146" s="154"/>
       <c r="E146" s="154"/>
-      <c r="F146" s="450" t="s">
-        <v>41</v>
-      </c>
-      <c r="G146" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H146" s="450"/>
-      <c r="I146" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J146" s="450"/>
-      <c r="K146" s="448" t="s">
-        <v>933</v>
+      <c r="F146" s="154"/>
+      <c r="G146" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H146" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I146" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J146" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="K146" s="213" t="s">
+        <v>1415</v>
       </c>
       <c r="L146" s="425"/>
       <c r="M146" s="425"/>
@@ -24269,9 +24282,11 @@
         <v>145</v>
       </c>
       <c r="B147" s="154" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C147" s="154"/>
+        <v>1006</v>
+      </c>
+      <c r="C147" s="154" t="s">
+        <v>886</v>
+      </c>
       <c r="D147" s="154"/>
       <c r="E147" s="154"/>
       <c r="F147" s="450" t="s">
@@ -24280,15 +24295,13 @@
       <c r="G147" s="450" t="s">
         <v>44</v>
       </c>
-      <c r="H147" s="450" t="s">
-        <v>44</v>
-      </c>
+      <c r="H147" s="450"/>
       <c r="I147" s="450" t="s">
         <v>44</v>
       </c>
       <c r="J147" s="450"/>
       <c r="K147" s="448" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L147" s="425"/>
       <c r="M147" s="425"/>
@@ -24298,18 +24311,18 @@
       <c r="Q147" s="425"/>
       <c r="R147" s="425"/>
     </row>
-    <row r="148" spans="1:18" ht="82.500000">
+    <row r="148" spans="1:18">
       <c r="A148" s="310">
         <v>146</v>
       </c>
       <c r="B148" s="154" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C148" s="154"/>
       <c r="D148" s="154"/>
       <c r="E148" s="154"/>
       <c r="F148" s="450" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="G148" s="450" t="s">
         <v>44</v>
@@ -24321,8 +24334,8 @@
         <v>44</v>
       </c>
       <c r="J148" s="450"/>
-      <c r="K148" s="362" t="s">
-        <v>1416</v>
+      <c r="K148" s="448" t="s">
+        <v>934</v>
       </c>
       <c r="L148" s="425"/>
       <c r="M148" s="425"/>
@@ -24332,18 +24345,18 @@
       <c r="Q148" s="425"/>
       <c r="R148" s="425"/>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" ht="82.500000">
       <c r="A149" s="310">
         <v>147</v>
       </c>
       <c r="B149" s="154" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C149" s="154"/>
       <c r="D149" s="154"/>
       <c r="E149" s="154"/>
       <c r="F149" s="450" t="s">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="G149" s="450" t="s">
         <v>44</v>
@@ -24355,8 +24368,8 @@
         <v>44</v>
       </c>
       <c r="J149" s="450"/>
-      <c r="K149" s="448" t="s">
-        <v>1364</v>
+      <c r="K149" s="362" t="s">
+        <v>1416</v>
       </c>
       <c r="L149" s="425"/>
       <c r="M149" s="425"/>
@@ -24371,7 +24384,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="154" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C150" s="154"/>
       <c r="D150" s="154"/>
@@ -24390,7 +24403,7 @@
       </c>
       <c r="J150" s="450"/>
       <c r="K150" s="448" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="L150" s="425"/>
       <c r="M150" s="425"/>
@@ -24405,7 +24418,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="154" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C151" s="154"/>
       <c r="D151" s="154"/>
@@ -24424,7 +24437,7 @@
       </c>
       <c r="J151" s="450"/>
       <c r="K151" s="448" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="L151" s="425"/>
       <c r="M151" s="425"/>
@@ -24434,18 +24447,18 @@
       <c r="Q151" s="425"/>
       <c r="R151" s="425"/>
     </row>
-    <row r="152" spans="1:18" ht="33.000000">
+    <row r="152" spans="1:18">
       <c r="A152" s="310">
         <v>150</v>
       </c>
       <c r="B152" s="154" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C152" s="165"/>
-      <c r="D152" s="165"/>
-      <c r="E152" s="165"/>
+        <v>1011</v>
+      </c>
+      <c r="C152" s="154"/>
+      <c r="D152" s="154"/>
+      <c r="E152" s="154"/>
       <c r="F152" s="450" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="G152" s="450" t="s">
         <v>44</v>
@@ -24457,16 +24470,23 @@
         <v>44</v>
       </c>
       <c r="J152" s="450"/>
-      <c r="K152" s="362" t="s">
-        <v>1417</v>
-      </c>
+      <c r="K152" s="448" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L152" s="425"/>
+      <c r="M152" s="425"/>
+      <c r="N152" s="425"/>
+      <c r="O152" s="425"/>
+      <c r="P152" s="425"/>
+      <c r="Q152" s="425"/>
+      <c r="R152" s="425"/>
     </row>
     <row r="153" spans="1:18" ht="33.000000">
       <c r="A153" s="310">
         <v>151</v>
       </c>
       <c r="B153" s="154" t="s">
-        <v>1370</v>
+        <v>1012</v>
       </c>
       <c r="C153" s="165"/>
       <c r="D153" s="165"/>
@@ -24485,7 +24505,7 @@
       </c>
       <c r="J153" s="450"/>
       <c r="K153" s="362" t="s">
-        <v>1368</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="33.000000">
@@ -24493,12 +24513,14 @@
         <v>152</v>
       </c>
       <c r="B154" s="154" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C154" s="154"/>
-      <c r="D154" s="154"/>
-      <c r="E154" s="154"/>
-      <c r="F154" s="450"/>
+        <v>1370</v>
+      </c>
+      <c r="C154" s="165"/>
+      <c r="D154" s="165"/>
+      <c r="E154" s="165"/>
+      <c r="F154" s="450" t="s">
+        <v>335</v>
+      </c>
       <c r="G154" s="450" t="s">
         <v>44</v>
       </c>
@@ -24509,42 +24531,33 @@
         <v>44</v>
       </c>
       <c r="J154" s="450"/>
-      <c r="K154" s="448" t="s">
-        <v>1418</v>
-      </c>
-      <c r="L154" s="425"/>
-      <c r="M154" s="425"/>
-      <c r="N154" s="425"/>
-      <c r="O154" s="425"/>
-      <c r="P154" s="425"/>
-      <c r="Q154" s="425"/>
-      <c r="R154" s="425"/>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="K154" s="362" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="33.000000">
       <c r="A155" s="310">
         <v>153</v>
       </c>
       <c r="B155" s="154" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C155" s="159" t="s">
-        <v>887</v>
-      </c>
+        <v>1371</v>
+      </c>
+      <c r="C155" s="154"/>
       <c r="D155" s="154"/>
       <c r="E155" s="154"/>
-      <c r="F155" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G155" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H155" s="154"/>
-      <c r="I155" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J155" s="154"/>
-      <c r="K155" s="213" t="s">
-        <v>936</v>
+      <c r="F155" s="450"/>
+      <c r="G155" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H155" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I155" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J155" s="450"/>
+      <c r="K155" s="448" t="s">
+        <v>1418</v>
       </c>
       <c r="L155" s="425"/>
       <c r="M155" s="425"/>
@@ -24559,9 +24572,11 @@
         <v>154</v>
       </c>
       <c r="B156" s="154" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C156" s="157"/>
+        <v>1013</v>
+      </c>
+      <c r="C156" s="159" t="s">
+        <v>887</v>
+      </c>
       <c r="D156" s="154"/>
       <c r="E156" s="154"/>
       <c r="F156" s="154" t="s">
@@ -24570,15 +24585,13 @@
       <c r="G156" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H156" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="H156" s="154"/>
       <c r="I156" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J156" s="154"/>
       <c r="K156" s="213" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L156" s="425"/>
       <c r="M156" s="425"/>
@@ -24588,18 +24601,18 @@
       <c r="Q156" s="425"/>
       <c r="R156" s="425"/>
     </row>
-    <row r="157" spans="1:18" ht="82.500000">
+    <row r="157" spans="1:18">
       <c r="A157" s="310">
         <v>155</v>
       </c>
       <c r="B157" s="154" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C157" s="157"/>
       <c r="D157" s="154"/>
       <c r="E157" s="154"/>
       <c r="F157" s="154" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="G157" s="154" t="s">
         <v>44</v>
@@ -24611,8 +24624,8 @@
         <v>44</v>
       </c>
       <c r="J157" s="154"/>
-      <c r="K157" s="283" t="s">
-        <v>1420</v>
+      <c r="K157" s="213" t="s">
+        <v>937</v>
       </c>
       <c r="L157" s="425"/>
       <c r="M157" s="425"/>
@@ -24622,18 +24635,18 @@
       <c r="Q157" s="425"/>
       <c r="R157" s="425"/>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" ht="82.500000">
       <c r="A158" s="310">
         <v>156</v>
       </c>
       <c r="B158" s="154" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C158" s="157"/>
       <c r="D158" s="154"/>
       <c r="E158" s="154"/>
       <c r="F158" s="154" t="s">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="G158" s="154" t="s">
         <v>44</v>
@@ -24645,8 +24658,8 @@
         <v>44</v>
       </c>
       <c r="J158" s="154"/>
-      <c r="K158" s="448" t="s">
-        <v>1364</v>
+      <c r="K158" s="283" t="s">
+        <v>1420</v>
       </c>
       <c r="L158" s="425"/>
       <c r="M158" s="425"/>
@@ -24661,7 +24674,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="154" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C159" s="157"/>
       <c r="D159" s="154"/>
@@ -24680,7 +24693,7 @@
       </c>
       <c r="J159" s="154"/>
       <c r="K159" s="448" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="L159" s="425"/>
       <c r="M159" s="425"/>
@@ -24695,7 +24708,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="154" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C160" s="157"/>
       <c r="D160" s="154"/>
@@ -24714,7 +24727,7 @@
       </c>
       <c r="J160" s="154"/>
       <c r="K160" s="448" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="L160" s="425"/>
       <c r="M160" s="425"/>
@@ -24724,18 +24737,18 @@
       <c r="Q160" s="425"/>
       <c r="R160" s="425"/>
     </row>
-    <row r="161" spans="1:18" ht="33.000000">
+    <row r="161" spans="1:18">
       <c r="A161" s="310">
         <v>159</v>
       </c>
       <c r="B161" s="154" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C161" s="157"/>
       <c r="D161" s="154"/>
       <c r="E161" s="154"/>
       <c r="F161" s="154" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="G161" s="154" t="s">
         <v>44</v>
@@ -24747,8 +24760,8 @@
         <v>44</v>
       </c>
       <c r="J161" s="154"/>
-      <c r="K161" s="362" t="s">
-        <v>1417</v>
+      <c r="K161" s="448" t="s">
+        <v>1366</v>
       </c>
       <c r="L161" s="425"/>
       <c r="M161" s="425"/>
@@ -24763,7 +24776,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="154" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C162" s="157"/>
       <c r="D162" s="154"/>
@@ -24782,7 +24795,7 @@
       </c>
       <c r="J162" s="154"/>
       <c r="K162" s="362" t="s">
-        <v>1368</v>
+        <v>1417</v>
       </c>
       <c r="L162" s="425"/>
       <c r="M162" s="425"/>
@@ -24792,18 +24805,18 @@
       <c r="Q162" s="425"/>
       <c r="R162" s="425"/>
     </row>
-    <row r="163" spans="1:18" ht="16.750000" customHeight="1">
+    <row r="163" spans="1:18" ht="33.000000">
       <c r="A163" s="310">
         <v>161</v>
       </c>
       <c r="B163" s="154" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C163" s="158"/>
+        <v>1020</v>
+      </c>
+      <c r="C163" s="157"/>
       <c r="D163" s="154"/>
       <c r="E163" s="154"/>
       <c r="F163" s="154" t="s">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="G163" s="154" t="s">
         <v>44</v>
@@ -24815,8 +24828,8 @@
         <v>44</v>
       </c>
       <c r="J163" s="154"/>
-      <c r="K163" s="448" t="s">
-        <v>1418</v>
+      <c r="K163" s="362" t="s">
+        <v>1368</v>
       </c>
       <c r="L163" s="425"/>
       <c r="M163" s="425"/>
@@ -24826,20 +24839,18 @@
       <c r="Q163" s="425"/>
       <c r="R163" s="425"/>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" ht="16.750000" customHeight="1">
       <c r="A164" s="310">
         <v>162</v>
       </c>
       <c r="B164" s="154" t="s">
-        <v>992</v>
-      </c>
-      <c r="C164" s="159" t="s">
-        <v>1183</v>
-      </c>
+        <v>1021</v>
+      </c>
+      <c r="C164" s="158"/>
       <c r="D164" s="154"/>
       <c r="E164" s="154"/>
       <c r="F164" s="154" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G164" s="154" t="s">
         <v>44</v>
@@ -24851,8 +24862,8 @@
         <v>44</v>
       </c>
       <c r="J164" s="154"/>
-      <c r="K164" s="161" t="s">
-        <v>1166</v>
+      <c r="K164" s="448" t="s">
+        <v>1418</v>
       </c>
       <c r="L164" s="425"/>
       <c r="M164" s="425"/>
@@ -24867,13 +24878,15 @@
         <v>163</v>
       </c>
       <c r="B165" s="154" t="s">
-        <v>993</v>
-      </c>
-      <c r="C165" s="157"/>
+        <v>992</v>
+      </c>
+      <c r="C165" s="159" t="s">
+        <v>1183</v>
+      </c>
       <c r="D165" s="154"/>
       <c r="E165" s="154"/>
       <c r="F165" s="154" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G165" s="154" t="s">
         <v>44</v>
@@ -24886,7 +24899,7 @@
       </c>
       <c r="J165" s="154"/>
       <c r="K165" s="161" t="s">
-        <v>920</v>
+        <v>1166</v>
       </c>
       <c r="L165" s="425"/>
       <c r="M165" s="425"/>
@@ -24901,13 +24914,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="154" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C166" s="157"/>
       <c r="D166" s="154"/>
       <c r="E166" s="154"/>
       <c r="F166" s="154" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="G166" s="154" t="s">
         <v>44</v>
@@ -24920,7 +24933,7 @@
       </c>
       <c r="J166" s="154"/>
       <c r="K166" s="161" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L166" s="425"/>
       <c r="M166" s="425"/>
@@ -24935,13 +24948,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="154" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C167" s="157"/>
       <c r="D167" s="154"/>
       <c r="E167" s="154"/>
       <c r="F167" s="154" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="G167" s="154" t="s">
         <v>44</v>
@@ -24954,7 +24967,7 @@
       </c>
       <c r="J167" s="154"/>
       <c r="K167" s="161" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L167" s="425"/>
       <c r="M167" s="425"/>
@@ -24969,9 +24982,9 @@
         <v>166</v>
       </c>
       <c r="B168" s="154" t="s">
-        <v>996</v>
-      </c>
-      <c r="C168" s="158"/>
+        <v>995</v>
+      </c>
+      <c r="C168" s="157"/>
       <c r="D168" s="154"/>
       <c r="E168" s="154"/>
       <c r="F168" s="154" t="s">
@@ -24988,7 +25001,7 @@
       </c>
       <c r="J168" s="154"/>
       <c r="K168" s="161" t="s">
-        <v>1340</v>
+        <v>922</v>
       </c>
       <c r="L168" s="425"/>
       <c r="M168" s="425"/>
@@ -25003,14 +25016,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="154" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C169" s="159" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D169" s="159" t="s">
-        <v>24</v>
-      </c>
+        <v>996</v>
+      </c>
+      <c r="C169" s="158"/>
+      <c r="D169" s="154"/>
       <c r="E169" s="154"/>
       <c r="F169" s="154" t="s">
         <v>15</v>
@@ -25018,13 +25027,15 @@
       <c r="G169" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H169" s="154"/>
+      <c r="H169" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="I169" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J169" s="154"/>
-      <c r="K169" s="162" t="s">
-        <v>1178</v>
+      <c r="K169" s="161" t="s">
+        <v>1340</v>
       </c>
       <c r="L169" s="425"/>
       <c r="M169" s="425"/>
@@ -25039,20 +25050,28 @@
         <v>168</v>
       </c>
       <c r="B170" s="154" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C170" s="157"/>
-      <c r="D170" s="158"/>
+        <v>1330</v>
+      </c>
+      <c r="C170" s="159" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D170" s="159" t="s">
+        <v>24</v>
+      </c>
       <c r="E170" s="154"/>
-      <c r="F170" s="154"/>
+      <c r="F170" s="154" t="s">
+        <v>15</v>
+      </c>
       <c r="G170" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H170" s="154"/>
-      <c r="I170" s="154"/>
+      <c r="I170" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J170" s="154"/>
-      <c r="K170" s="161" t="s">
-        <v>78</v>
+      <c r="K170" s="162" t="s">
+        <v>1178</v>
       </c>
       <c r="L170" s="425"/>
       <c r="M170" s="425"/>
@@ -25067,26 +25086,20 @@
         <v>169</v>
       </c>
       <c r="B171" s="154" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C171" s="157"/>
-      <c r="D171" s="159" t="s">
-        <v>1177</v>
-      </c>
+      <c r="D171" s="158"/>
       <c r="E171" s="154"/>
-      <c r="F171" s="154" t="s">
-        <v>41</v>
-      </c>
+      <c r="F171" s="154"/>
       <c r="G171" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H171" s="154"/>
-      <c r="I171" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="I171" s="154"/>
       <c r="J171" s="154"/>
-      <c r="K171" s="162" t="s">
-        <v>1179</v>
+      <c r="K171" s="161" t="s">
+        <v>78</v>
       </c>
       <c r="L171" s="425"/>
       <c r="M171" s="425"/>
@@ -25101,22 +25114,26 @@
         <v>170</v>
       </c>
       <c r="B172" s="154" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C172" s="157"/>
-      <c r="D172" s="157"/>
+      <c r="D172" s="159" t="s">
+        <v>1177</v>
+      </c>
       <c r="E172" s="154"/>
       <c r="F172" s="154" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G172" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H172" s="154"/>
-      <c r="I172" s="154"/>
+      <c r="I172" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J172" s="154"/>
       <c r="K172" s="162" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="L172" s="425"/>
       <c r="M172" s="425"/>
@@ -25131,20 +25148,22 @@
         <v>171</v>
       </c>
       <c r="B173" s="154" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C173" s="157"/>
-      <c r="D173" s="158"/>
+      <c r="D173" s="157"/>
       <c r="E173" s="154"/>
-      <c r="F173" s="154"/>
+      <c r="F173" s="154" t="s">
+        <v>15</v>
+      </c>
       <c r="G173" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H173" s="154"/>
       <c r="I173" s="154"/>
       <c r="J173" s="154"/>
-      <c r="K173" s="161" t="s">
-        <v>78</v>
+      <c r="K173" s="162" t="s">
+        <v>1178</v>
       </c>
       <c r="L173" s="425"/>
       <c r="M173" s="425"/>
@@ -25159,26 +25178,20 @@
         <v>172</v>
       </c>
       <c r="B174" s="154" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C174" s="157"/>
-      <c r="D174" s="159" t="s">
-        <v>26</v>
-      </c>
+      <c r="D174" s="158"/>
       <c r="E174" s="154"/>
-      <c r="F174" s="154" t="s">
-        <v>41</v>
-      </c>
+      <c r="F174" s="154"/>
       <c r="G174" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H174" s="154"/>
-      <c r="I174" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="I174" s="154"/>
       <c r="J174" s="154"/>
-      <c r="K174" s="162" t="s">
-        <v>1180</v>
+      <c r="K174" s="161" t="s">
+        <v>78</v>
       </c>
       <c r="L174" s="425"/>
       <c r="M174" s="425"/>
@@ -25188,27 +25201,31 @@
       <c r="Q174" s="425"/>
       <c r="R174" s="425"/>
     </row>
-    <row r="175" spans="1:18" ht="18.400000" customHeight="1">
+    <row r="175" spans="1:18">
       <c r="A175" s="310">
         <v>173</v>
       </c>
       <c r="B175" s="154" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C175" s="157"/>
-      <c r="D175" s="157"/>
+      <c r="D175" s="159" t="s">
+        <v>26</v>
+      </c>
       <c r="E175" s="154"/>
       <c r="F175" s="154" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="G175" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H175" s="154"/>
-      <c r="I175" s="154"/>
+      <c r="I175" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J175" s="154"/>
       <c r="K175" s="162" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L175" s="425"/>
       <c r="M175" s="425"/>
@@ -25218,25 +25235,27 @@
       <c r="Q175" s="425"/>
       <c r="R175" s="425"/>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" ht="18.400000" customHeight="1">
       <c r="A176" s="310">
         <v>174</v>
       </c>
       <c r="B176" s="154" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C176" s="157"/>
-      <c r="D176" s="158"/>
+      <c r="D176" s="157"/>
       <c r="E176" s="154"/>
-      <c r="F176" s="154"/>
+      <c r="F176" s="154" t="s">
+        <v>118</v>
+      </c>
       <c r="G176" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H176" s="154"/>
       <c r="I176" s="154"/>
       <c r="J176" s="154"/>
-      <c r="K176" s="161" t="s">
-        <v>78</v>
+      <c r="K176" s="162" t="s">
+        <v>1181</v>
       </c>
       <c r="L176" s="425"/>
       <c r="M176" s="425"/>
@@ -25251,26 +25270,20 @@
         <v>175</v>
       </c>
       <c r="B177" s="154" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C177" s="158"/>
-      <c r="D177" s="154" t="s">
-        <v>69</v>
-      </c>
+        <v>1337</v>
+      </c>
+      <c r="C177" s="157"/>
+      <c r="D177" s="158"/>
       <c r="E177" s="154"/>
-      <c r="F177" s="154" t="s">
-        <v>68</v>
-      </c>
-      <c r="G177" s="154"/>
-      <c r="H177" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I177" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="F177" s="154"/>
+      <c r="G177" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H177" s="154"/>
+      <c r="I177" s="154"/>
       <c r="J177" s="154"/>
-      <c r="K177" s="162" t="s">
-        <v>1182</v>
+      <c r="K177" s="161" t="s">
+        <v>78</v>
       </c>
       <c r="L177" s="425"/>
       <c r="M177" s="425"/>
@@ -25281,8 +25294,42 @@
       <c r="R177" s="425"/>
     </row>
     <row r="178" spans="1:18">
-      <c r="B178" s="423"/>
-      <c r="K178" s="423"/>
+      <c r="A178" s="310">
+        <v>176</v>
+      </c>
+      <c r="B178" s="154" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C178" s="158"/>
+      <c r="D178" s="154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="154"/>
+      <c r="F178" s="154" t="s">
+        <v>68</v>
+      </c>
+      <c r="G178" s="154"/>
+      <c r="H178" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I178" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J178" s="154"/>
+      <c r="K178" s="162" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L178" s="425"/>
+      <c r="M178" s="425"/>
+      <c r="N178" s="425"/>
+      <c r="O178" s="425"/>
+      <c r="P178" s="425"/>
+      <c r="Q178" s="425"/>
+      <c r="R178" s="425"/>
+    </row>
+    <row r="179" spans="1:18">
+      <c r="B179" s="423"/>
+      <c r="K179" s="423"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -25295,41 +25342,41 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C22:C47"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="C48:C60"/>
-    <mergeCell ref="C61:C71"/>
-    <mergeCell ref="C72:C100"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="D77:D85"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="D91:D100"/>
-    <mergeCell ref="C101:C136"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="D104:D109"/>
-    <mergeCell ref="D110:D126"/>
-    <mergeCell ref="E110:E116"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="E120:E126"/>
-    <mergeCell ref="D127:D136"/>
-    <mergeCell ref="E127:E131"/>
-    <mergeCell ref="E132:E136"/>
-    <mergeCell ref="C137:C145"/>
-    <mergeCell ref="C146:C154"/>
-    <mergeCell ref="C155:C163"/>
-    <mergeCell ref="C164:C168"/>
-    <mergeCell ref="C169:C177"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="C3:C13"/>
+    <mergeCell ref="D3:D13"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C23:C48"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="C49:C61"/>
+    <mergeCell ref="C62:C72"/>
+    <mergeCell ref="C73:C101"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="D78:D86"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="D92:D101"/>
+    <mergeCell ref="C102:C137"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D105:D110"/>
+    <mergeCell ref="D111:D127"/>
+    <mergeCell ref="E111:E117"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="E121:E127"/>
+    <mergeCell ref="D128:D137"/>
+    <mergeCell ref="E128:E132"/>
+    <mergeCell ref="E133:E137"/>
+    <mergeCell ref="C138:C146"/>
+    <mergeCell ref="C147:C155"/>
+    <mergeCell ref="C156:C164"/>
+    <mergeCell ref="C165:C169"/>
+    <mergeCell ref="C170:C178"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="D172:D174"/>
+    <mergeCell ref="D175:D177"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
+++ b/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="400" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의서-1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1485">
   <si>
     <t>번호</t>
   </si>
@@ -15684,6 +15684,182 @@
   </si>
   <si>
     <t>- 회원 아이디 표시와 함께 로그인 확인 문구 표시</t>
+  </si>
+  <si>
+    <t>2019-</t>
+  </si>
+  <si>
+    <t>메인 페이지 기능 추가</t>
+  </si>
+  <si>
+    <t>F-LI-FI-MI-01</t>
+  </si>
+  <si>
+    <t>F-LI-FI-MI-02</t>
+  </si>
+  <si>
+    <t>F-LI-FI-MI-03</t>
+  </si>
+  <si>
+    <t>고객 아이디 정보</t>
+  </si>
+  <si>
+    <t>- 로그인 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t>F-LI-FP-VI-01</t>
+  </si>
+  <si>
+    <t>F-LI-FP-VI-02</t>
+  </si>
+  <si>
+    <t>F-LI-FP-VI-03</t>
+  </si>
+  <si>
+    <t>F-LI-FP-VI-04</t>
+  </si>
+  <si>
+    <t>F-LI-FP-RP-01</t>
+  </si>
+  <si>
+    <t>F-LI-FP-RP-02</t>
+  </si>
+  <si>
+    <t>F-LI-FP-RP-03</t>
+  </si>
+  <si>
+    <t>F-LI-FP-RP-04</t>
+  </si>
+  <si>
+    <t>F-LI-RR-01</t>
+  </si>
+  <si>
+    <t>F-LI-RR-02</t>
+  </si>
+  <si>
+    <t>F-LI-RR-03</t>
+  </si>
+  <si>
+    <t>F-LI-RR-MW-01</t>
+  </si>
+  <si>
+    <t>F-LI-RR-MW-02</t>
+  </si>
+  <si>
+    <t>F-LI-RR-MW-03</t>
+  </si>
+  <si>
+    <t>F-LI-RR-MW-04</t>
+  </si>
+  <si>
+    <t>비밀번호 재확인</t>
+  </si>
+  <si>
+    <t>비밀번호 재설정</t>
+  </si>
+  <si>
+    <t>- 아이디 입력칸에 7~15글자 영문소문자, 숫자만 입력 가능</t>
+  </si>
+  <si>
+    <t>- 본인확인 페이지로 이동</t>
+  </si>
+  <si>
+    <t>- 이메일 형식의 텍스트를 입력한다.</t>
+  </si>
+  <si>
+    <t>- 입력한 이메일로 6자리의 인증번호를 보낸다.</t>
+  </si>
+  <si>
+    <t>- 6자리의 인증번호 숫자만 입력가능하다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-인증번호가 틀렸을시 alert를 알려주고 다시 입력하도록 한다.
+-인증번호가 맞았을시 alert를 알려주고 비밀번호 재설정할 수있게 한다.
+</t>
+  </si>
+  <si>
+    <t>- 9~20글자 사이 영문 대소문자,숫자,특수기호만 입력할 수 있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 다시 쓴 비밀번호가 맞는지 확인해준다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-취소 선택시 비밀번호칸 초기화
+</t>
+  </si>
+  <si>
+    <t>- 비밀번호 변경 버튼 클릭시 비밀번호 재설정</t>
+  </si>
+  <si>
+    <t>- 9~20글자 사이 영문 대소문자,숫자,특수기호만 입력할 수 있도록 제한</t>
+  </si>
+  <si>
+    <t>- 이메일 형식의 텍스트를 입력한다.K39</t>
+  </si>
+  <si>
+    <t>- 이름 입력칸에 한글, 영문만 입력 가능</t>
+  </si>
+  <si>
+    <t>- 이메일 주소 형식만 입력 가능(asdfg123@gmail.com)</t>
+  </si>
+  <si>
+    <t>- 로그인 페이지로 이동</t>
+  </si>
+  <si>
+    <t>- 이메일 형식의 텍스트를 입력</t>
+  </si>
+  <si>
+    <t>- 입력한 이메일로 6자리의 인증번호를 전송</t>
+  </si>
+  <si>
+    <t>- 6자리의 인증번호 숫자만 입력 가능</t>
+  </si>
+  <si>
+    <t>-인증번호가 틀렸을시 alert를 알려주고 다시 입력하도록 설정
+-인증번호가 맞았을시 alert를 알려주고 비밀번호 재설정할 수있게 한다.</t>
+  </si>
+  <si>
+    <t>-인증번호가 틀렸을시 alert를 알려주고 다시 입력하도록 설정
+-인증번호가 맞았을시 alert를 알려주고 비밀번호 재설정하도록 설정</t>
+  </si>
+  <si>
+    <t>- 9~20글자 사이 영문 대소문자, 숫자, 특수기호만 입력 가능</t>
+  </si>
+  <si>
+    <t>- 다시 쓴 비밀번호가 맞는지 확인</t>
+  </si>
+  <si>
+    <t>- 취소 선택시 비밀번호 칸 초기화</t>
+  </si>
+  <si>
+    <t>- 로그인 된 아이디를 불러와서 표시</t>
+  </si>
+  <si>
+    <t>로그인 Depth, 기능 수정 및 그에따른 약어 추가</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Matched ID</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Verify Identity</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
+    <t>ReWrite password</t>
   </si>
 </sst>
 </file>
@@ -15696,7 +15872,7 @@
     <numFmt numFmtId="66" formatCode="@"/>
     <numFmt numFmtId="67" formatCode="mm\-dd"/>
   </numFmts>
-  <fonts count="64">
+  <fonts count="69">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -16068,8 +16244,33 @@
       <name val="gulim"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Malgun Gothic"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16295,8 +16496,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -16696,6 +16915,9 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -16846,7 +17068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="462">
+  <cellXfs count="510">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -18232,6 +18454,150 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="33" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="66" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="67" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="67" fillId="0" borderId="33" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="66" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="67" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="38" borderId="33" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="38" borderId="33" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="33" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="40" borderId="33" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="67" fontId="34" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -18575,10 +18941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A7" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -18785,8 +19151,12 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="44"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="54"/>
+      <c r="B14" s="56">
+        <v>43731</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>1429</v>
+      </c>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
       <c r="F14" s="54"/>
@@ -18794,12 +19164,16 @@
       <c r="H14" s="54"/>
       <c r="I14" s="54"/>
       <c r="J14" s="54"/>
-      <c r="K14" s="45"/>
+      <c r="K14" s="45" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="44"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="54"/>
+      <c r="C15" s="54" t="s">
+        <v>1476</v>
+      </c>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
@@ -18807,7 +19181,9 @@
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
-      <c r="K15" s="45"/>
+      <c r="K15" s="45" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="44"/>
@@ -19182,7 +19558,7 @@
       <c r="K42" s="45"/>
     </row>
     <row r="43" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A43" s="188" t="s">
+      <c r="A43" s="506" t="s">
         <v>169</v>
       </c>
       <c r="B43" s="102" t="s">
@@ -19199,7 +19575,7 @@
       <c r="K43" s="45"/>
     </row>
     <row r="44" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A44" s="188" t="s">
+      <c r="A44" s="506" t="s">
         <v>196</v>
       </c>
       <c r="B44" s="102" t="s">
@@ -19215,31 +19591,31 @@
       <c r="J44" s="54"/>
       <c r="K44" s="45"/>
     </row>
-    <row r="45" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A45" s="188" t="s">
+    <row r="45" spans="1:11" ht="16.500000">
+      <c r="A45" s="507" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B45" s="508" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C45" s="509"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="502"/>
+    </row>
+    <row r="46" spans="1:11" ht="16.500000" customHeight="1">
+      <c r="A46" s="506" t="s">
         <v>198</v>
       </c>
-      <c r="B45" s="102" t="s">
+      <c r="B46" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="C45" s="100"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="45"/>
-    </row>
-    <row r="46" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A46" s="434" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="435" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" s="435"/>
+      <c r="C46" s="100"/>
       <c r="D46" s="54"/>
       <c r="E46" s="54"/>
       <c r="F46" s="54"/>
@@ -19249,65 +19625,65 @@
       <c r="J46" s="54"/>
       <c r="K46" s="45"/>
     </row>
-    <row r="47" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A47" s="172" t="s">
-        <v>171</v>
-      </c>
-      <c r="B47" s="435" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="435"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="45"/>
-    </row>
-    <row r="48" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A48" s="172" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B48" s="119" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C48" s="100"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="45"/>
-    </row>
-    <row r="49" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A49" s="188" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B49" s="435" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C49" s="437"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="45"/>
+    <row r="47" spans="1:11" ht="16.500000">
+      <c r="A47" s="507" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B47" s="508" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C47" s="509"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="502"/>
+    </row>
+    <row r="48" spans="1:11" ht="16.500000">
+      <c r="A48" s="507" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B48" s="508" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C48" s="509"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="502"/>
+    </row>
+    <row r="49" spans="1:11" ht="16.500000">
+      <c r="A49" s="507" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B49" s="508" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C49" s="509"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="502"/>
     </row>
     <row r="50" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A50" s="188" t="s">
-        <v>366</v>
-      </c>
-      <c r="B50" s="435" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C50" s="437"/>
+      <c r="A50" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="102"/>
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
       <c r="F50" s="54"/>
@@ -19318,13 +19694,13 @@
       <c r="K50" s="45"/>
     </row>
     <row r="51" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A51" s="188" t="s">
-        <v>365</v>
-      </c>
-      <c r="B51" s="435" t="s">
-        <v>361</v>
-      </c>
-      <c r="C51" s="437"/>
+      <c r="A51" s="506" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="102"/>
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
@@ -19335,13 +19711,13 @@
       <c r="K51" s="45"/>
     </row>
     <row r="52" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A52" s="188" t="s">
-        <v>367</v>
-      </c>
-      <c r="B52" s="435" t="s">
-        <v>363</v>
-      </c>
-      <c r="C52" s="437"/>
+      <c r="A52" s="172" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B52" s="119" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C52" s="100"/>
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
       <c r="F52" s="54"/>
@@ -19353,10 +19729,10 @@
     </row>
     <row r="53" spans="1:11" ht="16.500000" customHeight="1">
       <c r="A53" s="188" t="s">
-        <v>368</v>
-      </c>
-      <c r="B53" s="437" t="s">
-        <v>364</v>
+        <v>1184</v>
+      </c>
+      <c r="B53" s="435" t="s">
+        <v>1185</v>
       </c>
       <c r="C53" s="437"/>
       <c r="D53" s="54"/>
@@ -19370,11 +19746,12 @@
     </row>
     <row r="54" spans="1:11" ht="16.500000" customHeight="1">
       <c r="A54" s="188" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B54" s="437" t="s">
-        <v>1292</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B54" s="435" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C54" s="437"/>
       <c r="D54" s="54"/>
       <c r="E54" s="54"/>
       <c r="F54" s="54"/>
@@ -19385,13 +19762,13 @@
       <c r="K54" s="45"/>
     </row>
     <row r="55" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A55" s="118" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B55" s="102" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C55" s="100"/>
+      <c r="A55" s="188" t="s">
+        <v>365</v>
+      </c>
+      <c r="B55" s="435" t="s">
+        <v>361</v>
+      </c>
+      <c r="C55" s="437"/>
       <c r="D55" s="54"/>
       <c r="E55" s="54"/>
       <c r="F55" s="54"/>
@@ -19402,13 +19779,13 @@
       <c r="K55" s="45"/>
     </row>
     <row r="56" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A56" s="118" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B56" s="102" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C56" s="100"/>
+      <c r="A56" s="188" t="s">
+        <v>367</v>
+      </c>
+      <c r="B56" s="435" t="s">
+        <v>363</v>
+      </c>
+      <c r="C56" s="437"/>
       <c r="D56" s="54"/>
       <c r="E56" s="54"/>
       <c r="F56" s="54"/>
@@ -19419,13 +19796,13 @@
       <c r="K56" s="45"/>
     </row>
     <row r="57" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A57" s="118" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B57" s="102" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C57" s="100"/>
+      <c r="A57" s="188" t="s">
+        <v>368</v>
+      </c>
+      <c r="B57" s="437" t="s">
+        <v>364</v>
+      </c>
+      <c r="C57" s="437"/>
       <c r="D57" s="54"/>
       <c r="E57" s="54"/>
       <c r="F57" s="54"/>
@@ -19436,11 +19813,11 @@
       <c r="K57" s="45"/>
     </row>
     <row r="58" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A58" s="434" t="s">
-        <v>743</v>
-      </c>
-      <c r="B58" s="435" t="s">
-        <v>746</v>
+      <c r="A58" s="188" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B58" s="437" t="s">
+        <v>1292</v>
       </c>
       <c r="D58" s="54"/>
       <c r="E58" s="54"/>
@@ -19452,13 +19829,13 @@
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A59" s="434" t="s">
-        <v>748</v>
-      </c>
-      <c r="B59" s="435" t="s">
-        <v>747</v>
-      </c>
-      <c r="C59" s="437"/>
+      <c r="A59" s="118" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B59" s="102" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C59" s="100"/>
       <c r="D59" s="54"/>
       <c r="E59" s="54"/>
       <c r="F59" s="54"/>
@@ -19469,13 +19846,13 @@
       <c r="K59" s="45"/>
     </row>
     <row r="60" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A60" s="434" t="s">
-        <v>769</v>
-      </c>
-      <c r="B60" s="435" t="s">
-        <v>770</v>
-      </c>
-      <c r="C60" s="437"/>
+      <c r="A60" s="118" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B60" s="102" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C60" s="100"/>
       <c r="D60" s="54"/>
       <c r="E60" s="54"/>
       <c r="F60" s="54"/>
@@ -19486,13 +19863,13 @@
       <c r="K60" s="45"/>
     </row>
     <row r="61" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A61" s="434" t="s">
-        <v>178</v>
-      </c>
-      <c r="B61" s="435" t="s">
-        <v>179</v>
-      </c>
-      <c r="C61" s="437"/>
+      <c r="A61" s="118" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B61" s="102" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C61" s="100"/>
       <c r="D61" s="54"/>
       <c r="E61" s="54"/>
       <c r="F61" s="54"/>
@@ -19504,12 +19881,11 @@
     </row>
     <row r="62" spans="1:11" ht="16.500000" customHeight="1">
       <c r="A62" s="434" t="s">
-        <v>180</v>
+        <v>743</v>
       </c>
       <c r="B62" s="435" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C62" s="437"/>
+        <v>746</v>
+      </c>
       <c r="D62" s="54"/>
       <c r="E62" s="54"/>
       <c r="F62" s="54"/>
@@ -19521,10 +19897,10 @@
     </row>
     <row r="63" spans="1:11" ht="16.500000" customHeight="1">
       <c r="A63" s="434" t="s">
-        <v>182</v>
+        <v>748</v>
       </c>
       <c r="B63" s="435" t="s">
-        <v>183</v>
+        <v>747</v>
       </c>
       <c r="C63" s="437"/>
       <c r="D63" s="54"/>
@@ -19537,11 +19913,11 @@
       <c r="K63" s="45"/>
     </row>
     <row r="64" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A64" s="172" t="s">
-        <v>482</v>
-      </c>
-      <c r="B64" s="437" t="s">
-        <v>1326</v>
+      <c r="A64" s="434" t="s">
+        <v>769</v>
+      </c>
+      <c r="B64" s="435" t="s">
+        <v>770</v>
       </c>
       <c r="C64" s="437"/>
       <c r="D64" s="54"/>
@@ -19554,11 +19930,11 @@
       <c r="K64" s="45"/>
     </row>
     <row r="65" spans="1:13" ht="16.500000" customHeight="1">
-      <c r="A65" s="172" t="s">
-        <v>184</v>
-      </c>
-      <c r="B65" s="437" t="s">
-        <v>185</v>
+      <c r="A65" s="434" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="435" t="s">
+        <v>179</v>
       </c>
       <c r="C65" s="437"/>
       <c r="D65" s="54"/>
@@ -19570,12 +19946,12 @@
       <c r="J65" s="54"/>
       <c r="K65" s="45"/>
     </row>
-    <row r="66" spans="1:13" ht="17.250000">
-      <c r="A66" s="172" t="s">
-        <v>464</v>
-      </c>
-      <c r="B66" s="439" t="s">
-        <v>465</v>
+    <row r="66" spans="1:13" ht="16.500000" customHeight="1">
+      <c r="A66" s="434" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="435" t="s">
+        <v>1060</v>
       </c>
       <c r="C66" s="437"/>
       <c r="D66" s="54"/>
@@ -19587,14 +19963,14 @@
       <c r="J66" s="54"/>
       <c r="K66" s="45"/>
     </row>
-    <row r="67" spans="1:13" ht="17.250000">
-      <c r="A67" s="172" t="s">
-        <v>749</v>
+    <row r="67" spans="1:13" ht="16.500000" customHeight="1">
+      <c r="A67" s="434" t="s">
+        <v>182</v>
       </c>
       <c r="B67" s="435" t="s">
-        <v>750</v>
-      </c>
-      <c r="C67" s="435"/>
+        <v>183</v>
+      </c>
+      <c r="C67" s="437"/>
       <c r="D67" s="54"/>
       <c r="E67" s="54"/>
       <c r="F67" s="54"/>
@@ -19604,14 +19980,14 @@
       <c r="J67" s="54"/>
       <c r="K67" s="45"/>
     </row>
-    <row r="68" spans="1:13" ht="17.250000">
+    <row r="68" spans="1:13" ht="16.500000" customHeight="1">
       <c r="A68" s="172" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68" s="435" t="s">
-        <v>187</v>
-      </c>
-      <c r="C68" s="435"/>
+        <v>482</v>
+      </c>
+      <c r="B68" s="437" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C68" s="437"/>
       <c r="D68" s="54"/>
       <c r="E68" s="54"/>
       <c r="F68" s="54"/>
@@ -19619,14 +19995,16 @@
       <c r="H68" s="54"/>
       <c r="I68" s="54"/>
       <c r="J68" s="54"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-    </row>
-    <row r="69" spans="1:13" ht="17.250000">
-      <c r="A69" s="118"/>
-      <c r="B69" s="102"/>
-      <c r="C69" s="100"/>
+      <c r="K68" s="45"/>
+    </row>
+    <row r="69" spans="1:13" ht="16.500000" customHeight="1">
+      <c r="A69" s="172" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" s="437" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="437"/>
       <c r="D69" s="54"/>
       <c r="E69" s="54"/>
       <c r="F69" s="54"/>
@@ -19634,14 +20012,16 @@
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
       <c r="J69" s="54"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
+      <c r="K69" s="45"/>
     </row>
     <row r="70" spans="1:13" ht="17.250000">
-      <c r="A70" s="118"/>
-      <c r="B70" s="102"/>
-      <c r="C70" s="100"/>
+      <c r="A70" s="172" t="s">
+        <v>464</v>
+      </c>
+      <c r="B70" s="439" t="s">
+        <v>465</v>
+      </c>
+      <c r="C70" s="437"/>
       <c r="D70" s="54"/>
       <c r="E70" s="54"/>
       <c r="F70" s="54"/>
@@ -19649,14 +20029,16 @@
       <c r="H70" s="54"/>
       <c r="I70" s="54"/>
       <c r="J70" s="54"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
+      <c r="K70" s="45"/>
     </row>
     <row r="71" spans="1:13" ht="17.250000">
-      <c r="A71" s="118"/>
-      <c r="B71" s="102"/>
-      <c r="C71" s="100"/>
+      <c r="A71" s="188" t="s">
+        <v>749</v>
+      </c>
+      <c r="B71" s="435" t="s">
+        <v>750</v>
+      </c>
+      <c r="C71" s="435"/>
       <c r="D71" s="54"/>
       <c r="E71" s="54"/>
       <c r="F71" s="54"/>
@@ -19664,14 +20046,16 @@
       <c r="H71" s="54"/>
       <c r="I71" s="54"/>
       <c r="J71" s="54"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
+      <c r="K71" s="45"/>
     </row>
     <row r="72" spans="1:13" ht="17.250000">
-      <c r="A72" s="118"/>
-      <c r="B72" s="102"/>
-      <c r="C72" s="100"/>
+      <c r="A72" s="188" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" s="435" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="435"/>
       <c r="D72" s="54"/>
       <c r="E72" s="54"/>
       <c r="F72" s="54"/>
@@ -19679,7 +20063,7 @@
       <c r="H72" s="54"/>
       <c r="I72" s="54"/>
       <c r="J72" s="54"/>
-      <c r="K72" s="30"/>
+      <c r="K72" s="45"/>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
     </row>
@@ -19694,7 +20078,7 @@
       <c r="H73" s="54"/>
       <c r="I73" s="54"/>
       <c r="J73" s="54"/>
-      <c r="K73" s="30"/>
+      <c r="K73" s="45"/>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
     </row>
@@ -19709,7 +20093,7 @@
       <c r="H74" s="54"/>
       <c r="I74" s="54"/>
       <c r="J74" s="54"/>
-      <c r="K74" s="30"/>
+      <c r="K74" s="45"/>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
     </row>
@@ -19724,7 +20108,7 @@
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
       <c r="J75" s="54"/>
-      <c r="K75" s="30"/>
+      <c r="K75" s="45"/>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
     </row>
@@ -19739,7 +20123,7 @@
       <c r="H76" s="54"/>
       <c r="I76" s="54"/>
       <c r="J76" s="54"/>
-      <c r="K76" s="30"/>
+      <c r="K76" s="45"/>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
     </row>
@@ -19754,7 +20138,7 @@
       <c r="H77" s="54"/>
       <c r="I77" s="54"/>
       <c r="J77" s="54"/>
-      <c r="K77" s="30"/>
+      <c r="K77" s="45"/>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
     </row>
@@ -19769,12 +20153,72 @@
       <c r="H78" s="54"/>
       <c r="I78" s="54"/>
       <c r="J78" s="54"/>
-      <c r="K78" s="30"/>
+      <c r="K78" s="45"/>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
     </row>
+    <row r="79" spans="1:13" ht="17.250000">
+      <c r="A79" s="118"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+    </row>
+    <row r="80" spans="1:13" ht="17.250000">
+      <c r="A80" s="118"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+    </row>
+    <row r="81" spans="1:13" ht="17.250000">
+      <c r="A81" s="118"/>
+      <c r="B81" s="102"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+    </row>
+    <row r="82" spans="1:13" ht="17.250000">
+      <c r="A82" s="324"/>
+      <c r="B82" s="325"/>
+      <c r="C82" s="326"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="122">
     <mergeCell ref="A1:K6"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="C9:J9"/>
@@ -19889,6 +20333,14 @@
     <mergeCell ref="D77:J77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="D78:J78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:J79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:J80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:J82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
@@ -19898,11 +20350,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R179"/>
+  <dimension ref="A1:R187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -20225,9 +20677,7 @@
       <c r="C11" s="144"/>
       <c r="D11" s="311"/>
       <c r="E11" s="155"/>
-      <c r="F11" s="311" t="s">
-        <v>335</v>
-      </c>
+      <c r="F11" s="311"/>
       <c r="G11" s="144" t="s">
         <v>324</v>
       </c>
@@ -20255,7 +20705,9 @@
       <c r="C12" s="165"/>
       <c r="D12" s="165"/>
       <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
+      <c r="F12" s="311" t="s">
+        <v>335</v>
+      </c>
       <c r="G12" s="144" t="s">
         <v>324</v>
       </c>
@@ -20269,7 +20721,6 @@
       <c r="K12" s="136" t="s">
         <v>1425</v>
       </c>
-      <c r="L12" s="423"/>
     </row>
     <row r="13" spans="1:18" ht="21.750000" customHeight="1">
       <c r="A13" s="310">
@@ -20539,13 +20990,6 @@
       <c r="K22" s="315" t="s">
         <v>356</v>
       </c>
-      <c r="L22" s="423"/>
-      <c r="M22" s="423"/>
-      <c r="N22" s="423"/>
-      <c r="O22" s="423"/>
-      <c r="P22" s="423"/>
-      <c r="Q22" s="423"/>
-      <c r="R22" s="423"/>
     </row>
     <row r="23" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A23" s="310">
@@ -20573,6 +21017,7 @@
       <c r="K23" s="214" t="s">
         <v>431</v>
       </c>
+      <c r="L23" s="425"/>
     </row>
     <row r="24" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A24" s="310">
@@ -20598,6 +21043,7 @@
       <c r="K24" s="214" t="s">
         <v>1090</v>
       </c>
+      <c r="L24" s="425"/>
     </row>
     <row r="25" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A25" s="310">
@@ -20623,6 +21069,7 @@
       <c r="K25" s="214" t="s">
         <v>1091</v>
       </c>
+      <c r="L25" s="425"/>
     </row>
     <row r="26" spans="1:18" s="425" customFormat="1" ht="49.500000">
       <c r="A26" s="310">
@@ -20650,6 +21097,7 @@
       <c r="K26" s="214" t="s">
         <v>1092</v>
       </c>
+      <c r="L26" s="425"/>
     </row>
     <row r="27" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A27" s="310">
@@ -20675,6 +21123,7 @@
       <c r="K27" s="214" t="s">
         <v>1093</v>
       </c>
+      <c r="L27" s="425"/>
     </row>
     <row r="28" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A28" s="310">
@@ -20700,6 +21149,7 @@
       <c r="K28" s="214" t="s">
         <v>1095</v>
       </c>
+      <c r="L28" s="425"/>
     </row>
     <row r="29" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A29" s="310">
@@ -20725,6 +21175,7 @@
       <c r="K29" s="214" t="s">
         <v>1096</v>
       </c>
+      <c r="L29" s="425"/>
     </row>
     <row r="30" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A30" s="310">
@@ -20750,8 +21201,9 @@
       </c>
       <c r="J30" s="155"/>
       <c r="K30" s="214" t="s">
-        <v>438</v>
-      </c>
+        <v>1464</v>
+      </c>
+      <c r="L30" s="425"/>
     </row>
     <row r="31" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A31" s="310">
@@ -20775,8 +21227,9 @@
       </c>
       <c r="J31" s="154"/>
       <c r="K31" s="214" t="s">
-        <v>439</v>
-      </c>
+        <v>1465</v>
+      </c>
+      <c r="L31" s="425"/>
     </row>
     <row r="32" spans="1:18" s="425" customFormat="1" ht="33.000000">
       <c r="A32" s="310">
@@ -20804,8 +21257,9 @@
       <c r="K32" s="214" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" s="425" customFormat="1">
+      <c r="L32" s="425"/>
+    </row>
+    <row r="33" spans="1:12" s="425" customFormat="1">
       <c r="A33" s="310">
         <v>31</v>
       </c>
@@ -20829,8 +21283,9 @@
       <c r="K33" s="214" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" s="425" customFormat="1" ht="49.500000">
+      <c r="L33" s="425"/>
+    </row>
+    <row r="34" spans="1:12" s="425" customFormat="1" ht="49.500000">
       <c r="A34" s="310">
         <v>32</v>
       </c>
@@ -20856,8 +21311,9 @@
       <c r="K34" s="214" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" s="425" customFormat="1">
+      <c r="L34" s="425"/>
+    </row>
+    <row r="35" spans="1:12" s="425" customFormat="1">
       <c r="A35" s="310">
         <v>33</v>
       </c>
@@ -20881,17 +21337,18 @@
       <c r="K35" s="214" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" s="425" customFormat="1">
-      <c r="A36" s="310">
-        <v>34</v>
-      </c>
-      <c r="B36" s="207" t="s">
-        <v>460</v>
-      </c>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="216"/>
+      <c r="L35" s="425"/>
+    </row>
+    <row r="36" spans="1:12" s="425" customFormat="1">
+      <c r="A36" s="206"/>
+      <c r="B36" s="462" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C36" s="206"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="155" t="s">
+        <v>1433</v>
+      </c>
       <c r="F36" s="207" t="s">
         <v>41</v>
       </c>
@@ -20905,418 +21362,392 @@
         <v>44</v>
       </c>
       <c r="J36" s="154"/>
-      <c r="K36" s="214" t="s">
+      <c r="K36" s="465" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" s="425" customFormat="1">
-      <c r="A37" s="310">
-        <v>35</v>
-      </c>
-      <c r="B37" s="207" t="s">
-        <v>467</v>
-      </c>
-      <c r="C37" s="207"/>
-      <c r="D37" s="207" t="s">
-        <v>399</v>
-      </c>
-      <c r="E37" s="154"/>
-      <c r="F37" s="207"/>
+      <c r="L36" s="425"/>
+    </row>
+    <row r="37" spans="1:12" s="425" customFormat="1">
+      <c r="A37" s="206"/>
+      <c r="B37" s="462" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C37" s="206"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="206"/>
       <c r="G37" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" s="154"/>
-      <c r="K37" s="214" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="425" customFormat="1" ht="33.000000">
+      <c r="H37" s="206"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="206"/>
+      <c r="K37" s="465" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L37" s="425"/>
+    </row>
+    <row r="38" spans="1:12" s="425" customFormat="1">
       <c r="A38" s="310">
-        <v>36</v>
-      </c>
-      <c r="B38" s="207" t="s">
-        <v>468</v>
+        <v>34</v>
+      </c>
+      <c r="B38" s="462" t="s">
+        <v>1432</v>
       </c>
       <c r="C38" s="207"/>
       <c r="D38" s="207"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="207" t="s">
+      <c r="E38" s="216"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
+      <c r="K38" s="465" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L38" s="425"/>
+    </row>
+    <row r="39" spans="1:12" s="425" customFormat="1">
+      <c r="A39" s="206"/>
+      <c r="B39" s="207" t="s">
+        <v>467</v>
+      </c>
+      <c r="C39" s="206"/>
+      <c r="D39" s="226" t="s">
+        <v>399</v>
+      </c>
+      <c r="E39" s="206"/>
+      <c r="F39" s="477"/>
+      <c r="G39" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="473"/>
+      <c r="K39" s="474" t="s">
+        <v>1452</v>
+      </c>
+      <c r="L39" s="425"/>
+    </row>
+    <row r="40" spans="1:12" s="425" customFormat="1" ht="33.000000">
+      <c r="A40" s="206"/>
+      <c r="B40" s="207" t="s">
+        <v>468</v>
+      </c>
+      <c r="C40" s="206"/>
+      <c r="D40" s="259"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="477" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38" s="154"/>
-      <c r="K38" s="214" t="s">
+      <c r="G40" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="473"/>
+      <c r="K40" s="474" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" s="425" customFormat="1">
-      <c r="A39" s="310">
+      <c r="L40" s="425"/>
+    </row>
+    <row r="41" spans="1:12" s="425" customFormat="1">
+      <c r="A41" s="206"/>
+      <c r="B41" s="207" t="s">
+        <v>469</v>
+      </c>
+      <c r="C41" s="206"/>
+      <c r="D41" s="259"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="473"/>
+      <c r="K41" s="474" t="s">
+        <v>1453</v>
+      </c>
+      <c r="L41" s="425"/>
+    </row>
+    <row r="42" spans="1:12" s="425" customFormat="1">
+      <c r="A42" s="206"/>
+      <c r="B42" s="462" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C42" s="206"/>
+      <c r="D42" s="259"/>
+      <c r="E42" s="348" t="s">
+        <v>403</v>
+      </c>
+      <c r="F42" s="477"/>
+      <c r="G42" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="473"/>
+      <c r="K42" s="475" t="s">
+        <v>1467</v>
+      </c>
+      <c r="L42" s="425"/>
+    </row>
+    <row r="43" spans="1:12" s="425" customFormat="1">
+      <c r="A43" s="206"/>
+      <c r="B43" s="462" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C43" s="206"/>
+      <c r="D43" s="259"/>
+      <c r="E43" s="463"/>
+      <c r="F43" s="477"/>
+      <c r="G43" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="473"/>
+      <c r="K43" s="474" t="s">
+        <v>1468</v>
+      </c>
+      <c r="L43" s="425"/>
+    </row>
+    <row r="44" spans="1:12" s="425" customFormat="1">
+      <c r="A44" s="310">
+        <v>35</v>
+      </c>
+      <c r="B44" s="462" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C44" s="207"/>
+      <c r="D44" s="227"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="477"/>
+      <c r="G44" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="473"/>
+      <c r="K44" s="474" t="s">
+        <v>1469</v>
+      </c>
+      <c r="L44" s="425"/>
+    </row>
+    <row r="45" spans="1:12" s="425" customFormat="1" ht="49.500000">
+      <c r="A45" s="310">
+        <v>36</v>
+      </c>
+      <c r="B45" s="462" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C45" s="207"/>
+      <c r="D45" s="227"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="477"/>
+      <c r="G45" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="473"/>
+      <c r="K45" s="474" t="s">
+        <v>1471</v>
+      </c>
+      <c r="L45" s="425"/>
+    </row>
+    <row r="46" spans="1:12" s="425" customFormat="1">
+      <c r="A46" s="310">
         <v>37</v>
       </c>
-      <c r="B39" s="207" t="s">
-        <v>469</v>
-      </c>
-      <c r="C39" s="207"/>
-      <c r="D39" s="207"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="154"/>
-      <c r="K39" s="214" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="425" customFormat="1">
-      <c r="A40" s="310">
+      <c r="B46" s="462" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C46" s="207"/>
+      <c r="D46" s="227"/>
+      <c r="E46" s="159" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F46" s="477"/>
+      <c r="G46" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="473"/>
+      <c r="K46" s="474" t="s">
+        <v>1472</v>
+      </c>
+      <c r="L46" s="425"/>
+    </row>
+    <row r="47" spans="1:12" s="425" customFormat="1">
+      <c r="A47" s="310">
         <v>38</v>
       </c>
-      <c r="B40" s="207" t="s">
-        <v>470</v>
-      </c>
-      <c r="C40" s="207"/>
-      <c r="D40" s="207"/>
-      <c r="E40" s="208"/>
-      <c r="F40" s="207"/>
-      <c r="G40" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J40" s="154"/>
-      <c r="K40" s="214" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="425" customFormat="1">
-      <c r="A41" s="310">
+      <c r="B47" s="462" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C47" s="207"/>
+      <c r="D47" s="227"/>
+      <c r="E47" s="468"/>
+      <c r="F47" s="477"/>
+      <c r="G47" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47" s="473"/>
+      <c r="K47" s="474" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L47" s="425"/>
+    </row>
+    <row r="48" spans="1:12" s="425" customFormat="1" ht="33.000000">
+      <c r="A48" s="310">
         <v>39</v>
       </c>
-      <c r="B41" s="207" t="s">
-        <v>471</v>
-      </c>
-      <c r="C41" s="207"/>
-      <c r="D41" s="207"/>
-      <c r="E41" s="208"/>
-      <c r="F41" s="207" t="s">
+      <c r="B48" s="462" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C48" s="207"/>
+      <c r="D48" s="227"/>
+      <c r="E48" s="468"/>
+      <c r="F48" s="477"/>
+      <c r="G48" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="473"/>
+      <c r="K48" s="474" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L48" s="425"/>
+    </row>
+    <row r="49" spans="1:18" s="425" customFormat="1">
+      <c r="A49" s="310">
+        <v>40</v>
+      </c>
+      <c r="B49" s="462" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C49" s="207"/>
+      <c r="D49" s="466"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="477" t="s">
         <v>118</v>
       </c>
-      <c r="G41" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J41" s="154"/>
-      <c r="K41" s="214" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" s="425" customFormat="1">
-      <c r="A42" s="310">
-        <v>40</v>
-      </c>
-      <c r="B42" s="207" t="s">
-        <v>472</v>
-      </c>
-      <c r="C42" s="207"/>
-      <c r="D42" s="207" t="s">
-        <v>479</v>
-      </c>
-      <c r="E42" s="154"/>
-      <c r="F42" s="207" t="s">
+      <c r="G49" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" s="473"/>
+      <c r="K49" s="474" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L49" s="425"/>
+    </row>
+    <row r="50" spans="1:18" s="425" customFormat="1">
+      <c r="A50" s="310">
         <v>41</v>
       </c>
-      <c r="G42" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" s="154"/>
-      <c r="K42" s="214" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="425" customFormat="1">
-      <c r="A43" s="310">
+      <c r="B50" s="462" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C50" s="207"/>
+      <c r="D50" s="226" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E50" s="154"/>
+      <c r="F50" s="477" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="207" t="s">
-        <v>473</v>
-      </c>
-      <c r="C43" s="207"/>
-      <c r="D43" s="207"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="207"/>
-      <c r="G43" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J43" s="213"/>
-      <c r="K43" s="214" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="425" customFormat="1" ht="33.000000">
-      <c r="A44" s="310">
+      <c r="G50" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="473"/>
+      <c r="K50" s="474" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L50" s="425"/>
+    </row>
+    <row r="51" spans="1:18" s="425" customFormat="1" ht="33.000000">
+      <c r="A51" s="310">
         <v>42</v>
       </c>
-      <c r="B44" s="207" t="s">
-        <v>474</v>
-      </c>
-      <c r="C44" s="207"/>
-      <c r="D44" s="207"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="207" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" s="154"/>
-      <c r="K44" s="214" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="425" customFormat="1">
-      <c r="A45" s="310">
-        <v>43</v>
-      </c>
-      <c r="B45" s="207" t="s">
-        <v>475</v>
-      </c>
-      <c r="C45" s="207"/>
-      <c r="D45" s="207"/>
-      <c r="E45" s="207"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J45" s="154"/>
-      <c r="K45" s="214" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="425" customFormat="1">
-      <c r="A46" s="310">
-        <v>44</v>
-      </c>
-      <c r="B46" s="207" t="s">
-        <v>476</v>
-      </c>
-      <c r="C46" s="207"/>
-      <c r="D46" s="207"/>
-      <c r="E46" s="207"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I46" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="154"/>
-      <c r="K46" s="214" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="425" customFormat="1">
-      <c r="A47" s="310">
-        <v>45</v>
-      </c>
-      <c r="B47" s="207" t="s">
-        <v>477</v>
-      </c>
-      <c r="C47" s="207"/>
-      <c r="D47" s="207"/>
-      <c r="E47" s="207"/>
-      <c r="F47" s="207" t="s">
-        <v>118</v>
-      </c>
-      <c r="G47" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J47" s="154"/>
-      <c r="K47" s="214" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="425" customFormat="1">
-      <c r="A48" s="310">
-        <v>46</v>
-      </c>
-      <c r="B48" s="207" t="s">
-        <v>478</v>
-      </c>
-      <c r="C48" s="207"/>
-      <c r="D48" s="207"/>
-      <c r="E48" s="207"/>
-      <c r="F48" s="207"/>
-      <c r="G48" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J48" s="154"/>
-      <c r="K48" s="214" t="s">
-        <v>778</v>
-      </c>
-      <c r="L48" s="425"/>
-      <c r="M48" s="425"/>
-      <c r="N48" s="425"/>
-      <c r="O48" s="425"/>
-      <c r="P48" s="425"/>
-      <c r="Q48" s="425"/>
-      <c r="R48" s="425"/>
-    </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="310">
-        <v>47</v>
-      </c>
-      <c r="B49" s="154" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C49" s="293" t="s">
-        <v>966</v>
-      </c>
-      <c r="D49" s="431"/>
-      <c r="E49" s="293"/>
-      <c r="F49" s="293"/>
-      <c r="G49" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" s="293"/>
-      <c r="J49" s="293"/>
-      <c r="K49" s="162" t="s">
-        <v>1044</v>
-      </c>
-      <c r="L49" s="425"/>
-      <c r="M49" s="425"/>
-      <c r="N49" s="425"/>
-      <c r="O49" s="425"/>
-      <c r="P49" s="425"/>
-      <c r="Q49" s="425"/>
-      <c r="R49" s="425"/>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="310">
-        <v>48</v>
-      </c>
-      <c r="B50" s="154" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C50" s="293"/>
-      <c r="D50" s="431"/>
-      <c r="E50" s="293"/>
-      <c r="F50" s="154"/>
-      <c r="G50" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="I50" s="293"/>
-      <c r="J50" s="293"/>
-      <c r="K50" s="161" t="s">
-        <v>1045</v>
-      </c>
-      <c r="L50" s="425"/>
-      <c r="M50" s="425"/>
-      <c r="N50" s="425"/>
-      <c r="O50" s="425"/>
-      <c r="P50" s="425"/>
-      <c r="Q50" s="425"/>
-      <c r="R50" s="425"/>
-    </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="310">
-        <v>49</v>
-      </c>
-      <c r="B51" s="154" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C51" s="293"/>
-      <c r="D51" s="431"/>
-      <c r="E51" s="293"/>
-      <c r="F51" s="293" t="s">
-        <v>118</v>
-      </c>
-      <c r="G51" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="I51" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="J51" s="293"/>
-      <c r="K51" s="162" t="s">
-        <v>1046</v>
+      <c r="B51" s="462" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C51" s="207"/>
+      <c r="D51" s="227"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="477"/>
+      <c r="G51" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51" s="476"/>
+      <c r="K51" s="474" t="s">
+        <v>1462</v>
       </c>
       <c r="L51" s="425"/>
       <c r="M51" s="425"/>
@@ -21326,31 +21757,31 @@
       <c r="Q51" s="425"/>
       <c r="R51" s="425"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" s="425" customFormat="1" ht="33.000000">
       <c r="A52" s="310">
-        <v>50</v>
-      </c>
-      <c r="B52" s="154" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C52" s="293"/>
-      <c r="D52" s="431"/>
-      <c r="E52" s="293"/>
-      <c r="F52" s="293" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="I52" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="J52" s="293"/>
-      <c r="K52" s="161" t="s">
-        <v>1047</v>
+        <v>43</v>
+      </c>
+      <c r="B52" s="462" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C52" s="207"/>
+      <c r="D52" s="227"/>
+      <c r="E52" s="207"/>
+      <c r="F52" s="477" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" s="473"/>
+      <c r="K52" s="474" t="s">
+        <v>1405</v>
       </c>
       <c r="L52" s="425"/>
       <c r="M52" s="425"/>
@@ -21360,31 +21791,31 @@
       <c r="Q52" s="425"/>
       <c r="R52" s="425"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" s="425" customFormat="1">
       <c r="A53" s="310">
-        <v>51</v>
-      </c>
-      <c r="B53" s="154" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C53" s="293"/>
-      <c r="D53" s="431"/>
-      <c r="E53" s="293"/>
-      <c r="F53" s="293" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="I53" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="J53" s="293"/>
-      <c r="K53" s="161" t="s">
-        <v>1048</v>
+        <v>44</v>
+      </c>
+      <c r="B53" s="462" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C53" s="207"/>
+      <c r="D53" s="227"/>
+      <c r="E53" s="217" t="s">
+        <v>479</v>
+      </c>
+      <c r="F53" s="477"/>
+      <c r="G53" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" s="473"/>
+      <c r="K53" s="474" t="s">
+        <v>1406</v>
       </c>
       <c r="L53" s="425"/>
       <c r="M53" s="425"/>
@@ -21394,31 +21825,29 @@
       <c r="Q53" s="425"/>
       <c r="R53" s="425"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" s="425" customFormat="1">
       <c r="A54" s="310">
-        <v>52</v>
-      </c>
-      <c r="B54" s="154" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C54" s="293"/>
-      <c r="D54" s="431"/>
-      <c r="E54" s="154"/>
-      <c r="F54" s="155" t="s">
-        <v>118</v>
-      </c>
-      <c r="G54" s="155" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="I54" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="J54" s="154"/>
-      <c r="K54" s="161" t="s">
-        <v>1049</v>
+        <v>45</v>
+      </c>
+      <c r="B54" s="462" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C54" s="207"/>
+      <c r="D54" s="227"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="477"/>
+      <c r="G54" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I54" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" s="473"/>
+      <c r="K54" s="474" t="s">
+        <v>1407</v>
       </c>
       <c r="L54" s="425"/>
       <c r="M54" s="425"/>
@@ -21428,65 +21857,54 @@
       <c r="Q54" s="425"/>
       <c r="R54" s="425"/>
     </row>
-    <row r="55" spans="1:18">
-      <c r="A55" s="310">
-        <v>53</v>
-      </c>
-      <c r="B55" s="154" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C55" s="293"/>
-      <c r="D55" s="431"/>
-      <c r="E55" s="154"/>
-      <c r="F55" s="154" t="s">
+    <row r="55" spans="1:18" s="425" customFormat="1">
+      <c r="B55" s="462" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C55" s="425"/>
+      <c r="D55" s="259"/>
+      <c r="E55" s="463"/>
+      <c r="F55" s="477" t="s">
         <v>118</v>
       </c>
-      <c r="G55" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="I55" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="J55" s="154"/>
-      <c r="K55" s="161" t="s">
-        <v>1050</v>
+      <c r="G55" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" s="473"/>
+      <c r="K55" s="474" t="s">
+        <v>1408</v>
       </c>
       <c r="L55" s="425"/>
-      <c r="M55" s="425"/>
-      <c r="N55" s="425"/>
-      <c r="O55" s="425"/>
-      <c r="P55" s="425"/>
-      <c r="Q55" s="425"/>
-      <c r="R55" s="425"/>
-    </row>
-    <row r="56" spans="1:18">
+    </row>
+    <row r="56" spans="1:18" s="425" customFormat="1">
       <c r="A56" s="310">
-        <v>54</v>
-      </c>
-      <c r="B56" s="154" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C56" s="293"/>
-      <c r="D56" s="431"/>
-      <c r="E56" s="154"/>
-      <c r="F56" s="154" t="s">
-        <v>118</v>
-      </c>
-      <c r="G56" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="I56" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="J56" s="154"/>
-      <c r="K56" s="161" t="s">
-        <v>1392</v>
+        <v>46</v>
+      </c>
+      <c r="B56" s="462" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C56" s="207"/>
+      <c r="D56" s="466"/>
+      <c r="E56" s="219"/>
+      <c r="F56" s="462"/>
+      <c r="G56" s="469" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="469" t="s">
+        <v>44</v>
+      </c>
+      <c r="I56" s="469" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56" s="469"/>
+      <c r="K56" s="465" t="s">
+        <v>778</v>
       </c>
       <c r="L56" s="425"/>
       <c r="M56" s="425"/>
@@ -21498,29 +21916,27 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="310">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B57" s="154" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C57" s="293"/>
+        <v>1063</v>
+      </c>
+      <c r="C57" s="293" t="s">
+        <v>966</v>
+      </c>
       <c r="D57" s="431"/>
-      <c r="E57" s="154"/>
-      <c r="F57" s="154" t="s">
-        <v>118</v>
-      </c>
+      <c r="E57" s="293"/>
+      <c r="F57" s="293"/>
       <c r="G57" s="293" t="s">
         <v>44</v>
       </c>
       <c r="H57" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="I57" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="J57" s="154"/>
-      <c r="K57" s="161" t="s">
-        <v>1051</v>
+      <c r="I57" s="293"/>
+      <c r="J57" s="293"/>
+      <c r="K57" s="162" t="s">
+        <v>1044</v>
       </c>
       <c r="L57" s="425"/>
       <c r="M57" s="425"/>
@@ -21532,29 +21948,25 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="310">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B58" s="154" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="C58" s="293"/>
       <c r="D58" s="431"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="154" t="s">
-        <v>118</v>
-      </c>
+      <c r="E58" s="293"/>
+      <c r="F58" s="154"/>
       <c r="G58" s="293" t="s">
         <v>44</v>
       </c>
       <c r="H58" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="I58" s="293" t="s">
-        <v>44</v>
-      </c>
-      <c r="J58" s="154"/>
+      <c r="I58" s="293"/>
+      <c r="J58" s="293"/>
       <c r="K58" s="161" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="L58" s="425"/>
       <c r="M58" s="425"/>
@@ -21566,15 +21978,15 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="310">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B59" s="154" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="C59" s="293"/>
-      <c r="D59" s="429"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154" t="s">
+      <c r="D59" s="431"/>
+      <c r="E59" s="293"/>
+      <c r="F59" s="293" t="s">
         <v>118</v>
       </c>
       <c r="G59" s="293" t="s">
@@ -21586,9 +21998,9 @@
       <c r="I59" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="J59" s="154"/>
-      <c r="K59" s="161" t="s">
-        <v>1053</v>
+      <c r="J59" s="293"/>
+      <c r="K59" s="162" t="s">
+        <v>1046</v>
       </c>
       <c r="L59" s="425"/>
       <c r="M59" s="425"/>
@@ -21600,16 +22012,16 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="310">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B60" s="154" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="154" t="s">
-        <v>15</v>
+        <v>1066</v>
+      </c>
+      <c r="C60" s="293"/>
+      <c r="D60" s="431"/>
+      <c r="E60" s="293"/>
+      <c r="F60" s="293" t="s">
+        <v>118</v>
       </c>
       <c r="G60" s="293" t="s">
         <v>44</v>
@@ -21620,22 +22032,31 @@
       <c r="I60" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="J60" s="154"/>
+      <c r="J60" s="293"/>
       <c r="K60" s="161" t="s">
-        <v>1054</v>
-      </c>
+        <v>1047</v>
+      </c>
+      <c r="L60" s="425"/>
+      <c r="M60" s="425"/>
+      <c r="N60" s="425"/>
+      <c r="O60" s="425"/>
+      <c r="P60" s="425"/>
+      <c r="Q60" s="425"/>
+      <c r="R60" s="425"/>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="310">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B61" s="154" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="C61" s="293"/>
-      <c r="D61" s="429"/>
-      <c r="E61" s="154"/>
-      <c r="F61" s="154"/>
+      <c r="D61" s="431"/>
+      <c r="E61" s="293"/>
+      <c r="F61" s="293" t="s">
+        <v>41</v>
+      </c>
       <c r="G61" s="293" t="s">
         <v>44</v>
       </c>
@@ -21645,9 +22066,9 @@
       <c r="I61" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="J61" s="154"/>
+      <c r="J61" s="293"/>
       <c r="K61" s="161" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="L61" s="425"/>
       <c r="M61" s="425"/>
@@ -21659,20 +22080,18 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="310">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B62" s="154" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C62" s="154" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D62" s="361"/>
+        <v>1068</v>
+      </c>
+      <c r="C62" s="293"/>
+      <c r="D62" s="431"/>
       <c r="E62" s="154"/>
-      <c r="F62" s="293" t="s">
+      <c r="F62" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="293" t="s">
+      <c r="G62" s="155" t="s">
         <v>44</v>
       </c>
       <c r="H62" s="293" t="s">
@@ -21683,7 +22102,7 @@
       </c>
       <c r="J62" s="154"/>
       <c r="K62" s="161" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="L62" s="425"/>
       <c r="M62" s="425"/>
@@ -21695,15 +22114,15 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="310">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B63" s="154" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C63" s="154"/>
-      <c r="D63" s="361"/>
+        <v>1069</v>
+      </c>
+      <c r="C63" s="293"/>
+      <c r="D63" s="431"/>
       <c r="E63" s="154"/>
-      <c r="F63" s="293" t="s">
+      <c r="F63" s="154" t="s">
         <v>118</v>
       </c>
       <c r="G63" s="293" t="s">
@@ -21717,7 +22136,7 @@
       </c>
       <c r="J63" s="154"/>
       <c r="K63" s="161" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="L63" s="425"/>
       <c r="M63" s="425"/>
@@ -21729,16 +22148,16 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="310">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B64" s="154" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C64" s="154"/>
-      <c r="D64" s="361"/>
+        <v>1070</v>
+      </c>
+      <c r="C64" s="293"/>
+      <c r="D64" s="431"/>
       <c r="E64" s="154"/>
-      <c r="F64" s="293" t="s">
-        <v>41</v>
+      <c r="F64" s="154" t="s">
+        <v>118</v>
       </c>
       <c r="G64" s="293" t="s">
         <v>44</v>
@@ -21751,7 +22170,7 @@
       </c>
       <c r="J64" s="154"/>
       <c r="K64" s="161" t="s">
-        <v>1048</v>
+        <v>1392</v>
       </c>
       <c r="L64" s="425"/>
       <c r="M64" s="425"/>
@@ -21763,18 +22182,18 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="310">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B65" s="154" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C65" s="154"/>
-      <c r="D65" s="361"/>
+        <v>1071</v>
+      </c>
+      <c r="C65" s="293"/>
+      <c r="D65" s="431"/>
       <c r="E65" s="154"/>
-      <c r="F65" s="155" t="s">
+      <c r="F65" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="G65" s="155" t="s">
+      <c r="G65" s="293" t="s">
         <v>44</v>
       </c>
       <c r="H65" s="293" t="s">
@@ -21785,7 +22204,7 @@
       </c>
       <c r="J65" s="154"/>
       <c r="K65" s="161" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="L65" s="425"/>
       <c r="M65" s="425"/>
@@ -21797,13 +22216,13 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="310">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B66" s="154" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C66" s="154"/>
-      <c r="D66" s="361"/>
+        <v>1072</v>
+      </c>
+      <c r="C66" s="293"/>
+      <c r="D66" s="431"/>
       <c r="E66" s="154"/>
       <c r="F66" s="154" t="s">
         <v>118</v>
@@ -21819,7 +22238,7 @@
       </c>
       <c r="J66" s="154"/>
       <c r="K66" s="161" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="L66" s="425"/>
       <c r="M66" s="425"/>
@@ -21831,13 +22250,13 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="310">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B67" s="154" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C67" s="154"/>
-      <c r="D67" s="361"/>
+        <v>1073</v>
+      </c>
+      <c r="C67" s="293"/>
+      <c r="D67" s="429"/>
       <c r="E67" s="154"/>
       <c r="F67" s="154" t="s">
         <v>118</v>
@@ -21853,7 +22272,7 @@
       </c>
       <c r="J67" s="154"/>
       <c r="K67" s="161" t="s">
-        <v>1392</v>
+        <v>1053</v>
       </c>
       <c r="L67" s="425"/>
       <c r="M67" s="425"/>
@@ -21865,16 +22284,16 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="310">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B68" s="154" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C68" s="154"/>
-      <c r="D68" s="361"/>
-      <c r="E68" s="154"/>
+        <v>1074</v>
+      </c>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="165"/>
       <c r="F68" s="154" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="G68" s="293" t="s">
         <v>44</v>
@@ -21887,29 +22306,20 @@
       </c>
       <c r="J68" s="154"/>
       <c r="K68" s="161" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L68" s="425"/>
-      <c r="M68" s="425"/>
-      <c r="N68" s="425"/>
-      <c r="O68" s="425"/>
-      <c r="P68" s="425"/>
-      <c r="Q68" s="425"/>
-      <c r="R68" s="425"/>
+        <v>1054</v>
+      </c>
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="310">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B69" s="154" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C69" s="154"/>
-      <c r="D69" s="361"/>
+        <v>1075</v>
+      </c>
+      <c r="C69" s="293"/>
+      <c r="D69" s="429"/>
       <c r="E69" s="154"/>
-      <c r="F69" s="154" t="s">
-        <v>118</v>
-      </c>
+      <c r="F69" s="154"/>
       <c r="G69" s="293" t="s">
         <v>44</v>
       </c>
@@ -21921,7 +22331,7 @@
       </c>
       <c r="J69" s="154"/>
       <c r="K69" s="161" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="L69" s="425"/>
       <c r="M69" s="425"/>
@@ -21931,17 +22341,19 @@
       <c r="Q69" s="425"/>
       <c r="R69" s="425"/>
     </row>
-    <row r="70" spans="1:18" ht="19.250000" customHeight="1">
+    <row r="70" spans="1:18">
       <c r="A70" s="310">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B70" s="154" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C70" s="154"/>
-      <c r="D70" s="154"/>
+        <v>1252</v>
+      </c>
+      <c r="C70" s="154" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D70" s="361"/>
       <c r="E70" s="154"/>
-      <c r="F70" s="154" t="s">
+      <c r="F70" s="293" t="s">
         <v>118</v>
       </c>
       <c r="G70" s="293" t="s">
@@ -21955,7 +22367,7 @@
       </c>
       <c r="J70" s="154"/>
       <c r="K70" s="161" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="L70" s="425"/>
       <c r="M70" s="425"/>
@@ -21965,18 +22377,18 @@
       <c r="Q70" s="425"/>
       <c r="R70" s="425"/>
     </row>
-    <row r="71" spans="1:18" ht="19.250000">
+    <row r="71" spans="1:18">
       <c r="A71" s="310">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B71" s="154" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="165"/>
-      <c r="F71" s="154" t="s">
-        <v>15</v>
+        <v>1253</v>
+      </c>
+      <c r="C71" s="154"/>
+      <c r="D71" s="361"/>
+      <c r="E71" s="154"/>
+      <c r="F71" s="293" t="s">
+        <v>118</v>
       </c>
       <c r="G71" s="293" t="s">
         <v>44</v>
@@ -21988,21 +22400,30 @@
         <v>44</v>
       </c>
       <c r="J71" s="154"/>
-      <c r="K71" s="213" t="s">
-        <v>1058</v>
-      </c>
+      <c r="K71" s="161" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L71" s="425"/>
+      <c r="M71" s="425"/>
+      <c r="N71" s="425"/>
+      <c r="O71" s="425"/>
+      <c r="P71" s="425"/>
+      <c r="Q71" s="425"/>
+      <c r="R71" s="425"/>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="310">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B72" s="154" t="s">
-        <v>1393</v>
+        <v>1254</v>
       </c>
       <c r="C72" s="154"/>
-      <c r="D72" s="154"/>
+      <c r="D72" s="361"/>
       <c r="E72" s="154"/>
-      <c r="F72" s="154"/>
+      <c r="F72" s="293" t="s">
+        <v>41</v>
+      </c>
       <c r="G72" s="293" t="s">
         <v>44</v>
       </c>
@@ -22013,8 +22434,8 @@
         <v>44</v>
       </c>
       <c r="J72" s="154"/>
-      <c r="K72" s="283" t="s">
-        <v>1059</v>
+      <c r="K72" s="161" t="s">
+        <v>1048</v>
       </c>
       <c r="L72" s="425"/>
       <c r="M72" s="425"/>
@@ -22026,319 +22447,328 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="310">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B73" s="154" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C73" s="443" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="154" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E73" s="329"/>
-      <c r="F73" s="329" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="H73" s="153"/>
-      <c r="I73" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="J73" s="153"/>
-      <c r="K73" s="160" t="s">
-        <v>1127</v>
-      </c>
-      <c r="L73" s="427"/>
-      <c r="M73" s="427"/>
-      <c r="N73" s="427"/>
-      <c r="O73" s="427"/>
-      <c r="P73" s="427"/>
-      <c r="Q73" s="427"/>
-      <c r="R73" s="427"/>
-    </row>
-    <row r="74" spans="1:18" ht="33.000000">
+        <v>1255</v>
+      </c>
+      <c r="C73" s="154"/>
+      <c r="D73" s="361"/>
+      <c r="E73" s="154"/>
+      <c r="F73" s="155" t="s">
+        <v>118</v>
+      </c>
+      <c r="G73" s="155" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="J73" s="154"/>
+      <c r="K73" s="161" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L73" s="425"/>
+      <c r="M73" s="425"/>
+      <c r="N73" s="425"/>
+      <c r="O73" s="425"/>
+      <c r="P73" s="425"/>
+      <c r="Q73" s="425"/>
+      <c r="R73" s="425"/>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="310">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B74" s="154" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C74" s="443"/>
-      <c r="D74" s="154"/>
-      <c r="E74" s="155"/>
+        <v>1256</v>
+      </c>
+      <c r="C74" s="154"/>
+      <c r="D74" s="361"/>
+      <c r="E74" s="154"/>
       <c r="F74" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H74" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I74" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="G74" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="I74" s="293" t="s">
         <v>44</v>
       </c>
       <c r="J74" s="154"/>
-      <c r="K74" s="162" t="s">
-        <v>1349</v>
-      </c>
-      <c r="L74" s="187"/>
-      <c r="M74" s="187"/>
-      <c r="N74" s="187"/>
-      <c r="O74" s="187"/>
-      <c r="P74" s="187"/>
-      <c r="Q74" s="187"/>
-      <c r="R74" s="187"/>
-    </row>
-    <row r="75" spans="1:18" ht="33.000000">
+      <c r="K74" s="161" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L74" s="425"/>
+      <c r="M74" s="425"/>
+      <c r="N74" s="425"/>
+      <c r="O74" s="425"/>
+      <c r="P74" s="425"/>
+      <c r="Q74" s="425"/>
+      <c r="R74" s="425"/>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="310">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B75" s="154" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C75" s="443"/>
-      <c r="D75" s="154"/>
-      <c r="E75" s="155"/>
+        <v>1257</v>
+      </c>
+      <c r="C75" s="154"/>
+      <c r="D75" s="361"/>
+      <c r="E75" s="154"/>
       <c r="F75" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G75" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H75" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I75" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="G75" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" s="293" t="s">
         <v>44</v>
       </c>
       <c r="J75" s="154"/>
-      <c r="K75" s="162" t="s">
-        <v>1129</v>
-      </c>
-      <c r="L75" s="187"/>
-      <c r="M75" s="187"/>
-      <c r="N75" s="187"/>
-      <c r="O75" s="187"/>
-      <c r="P75" s="187"/>
-      <c r="Q75" s="187"/>
-      <c r="R75" s="187"/>
+      <c r="K75" s="161" t="s">
+        <v>1392</v>
+      </c>
+      <c r="L75" s="425"/>
+      <c r="M75" s="425"/>
+      <c r="N75" s="425"/>
+      <c r="O75" s="425"/>
+      <c r="P75" s="425"/>
+      <c r="Q75" s="425"/>
+      <c r="R75" s="425"/>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="310">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B76" s="154" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C76" s="443"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="155"/>
-      <c r="F76" s="154"/>
-      <c r="G76" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H76" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I76" s="154"/>
+        <v>1258</v>
+      </c>
+      <c r="C76" s="154"/>
+      <c r="D76" s="361"/>
+      <c r="E76" s="154"/>
+      <c r="F76" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="G76" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" s="293" t="s">
+        <v>44</v>
+      </c>
       <c r="J76" s="154"/>
       <c r="K76" s="161" t="s">
-        <v>1130</v>
-      </c>
-      <c r="L76" s="187"/>
-      <c r="M76" s="187"/>
-      <c r="N76" s="187"/>
-      <c r="O76" s="187"/>
-      <c r="P76" s="187"/>
-      <c r="Q76" s="187"/>
-      <c r="R76" s="187"/>
+        <v>1051</v>
+      </c>
+      <c r="L76" s="425"/>
+      <c r="M76" s="425"/>
+      <c r="N76" s="425"/>
+      <c r="O76" s="425"/>
+      <c r="P76" s="425"/>
+      <c r="Q76" s="425"/>
+      <c r="R76" s="425"/>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="310">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B77" s="154" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C77" s="443"/>
-      <c r="D77" s="154"/>
-      <c r="E77" s="155"/>
-      <c r="F77" s="154"/>
-      <c r="G77" s="154"/>
-      <c r="H77" s="154"/>
-      <c r="I77" s="154"/>
+        <v>1259</v>
+      </c>
+      <c r="C77" s="154"/>
+      <c r="D77" s="361"/>
+      <c r="E77" s="154"/>
+      <c r="F77" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="G77" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" s="293" t="s">
+        <v>44</v>
+      </c>
       <c r="J77" s="154"/>
       <c r="K77" s="161" t="s">
-        <v>1350</v>
-      </c>
-      <c r="L77" s="187"/>
-      <c r="M77" s="187"/>
-      <c r="N77" s="187"/>
-      <c r="O77" s="187"/>
-      <c r="P77" s="187"/>
-      <c r="Q77" s="187"/>
-      <c r="R77" s="187"/>
-    </row>
-    <row r="78" spans="1:18">
+        <v>1052</v>
+      </c>
+      <c r="L77" s="425"/>
+      <c r="M77" s="425"/>
+      <c r="N77" s="425"/>
+      <c r="O77" s="425"/>
+      <c r="P77" s="425"/>
+      <c r="Q77" s="425"/>
+      <c r="R77" s="425"/>
+    </row>
+    <row r="78" spans="1:18" ht="19.250000" customHeight="1">
       <c r="A78" s="310">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B78" s="154" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C78" s="444"/>
-      <c r="D78" s="154" t="s">
-        <v>71</v>
-      </c>
-      <c r="E78" s="155"/>
+        <v>1260</v>
+      </c>
+      <c r="C78" s="154"/>
+      <c r="D78" s="154"/>
+      <c r="E78" s="154"/>
       <c r="F78" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H78" s="154"/>
-      <c r="I78" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="G78" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" s="293" t="s">
         <v>44</v>
       </c>
       <c r="J78" s="154"/>
       <c r="K78" s="161" t="s">
-        <v>1132</v>
-      </c>
-      <c r="L78" s="187"/>
-      <c r="M78" s="187"/>
-      <c r="N78" s="187"/>
-      <c r="O78" s="187"/>
-      <c r="P78" s="187"/>
-      <c r="Q78" s="187"/>
-      <c r="R78" s="187"/>
-    </row>
-    <row r="79" spans="1:18" ht="49.500000">
+        <v>1053</v>
+      </c>
+      <c r="L78" s="425"/>
+      <c r="M78" s="425"/>
+      <c r="N78" s="425"/>
+      <c r="O78" s="425"/>
+      <c r="P78" s="425"/>
+      <c r="Q78" s="425"/>
+      <c r="R78" s="425"/>
+    </row>
+    <row r="79" spans="1:18" ht="19.250000">
       <c r="A79" s="310">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B79" s="154" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C79" s="444"/>
-      <c r="D79" s="154"/>
-      <c r="E79" s="155"/>
-      <c r="F79" s="293" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G79" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I79" s="154" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C79" s="165"/>
+      <c r="D79" s="165"/>
+      <c r="E79" s="165"/>
+      <c r="F79" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="H79" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" s="293" t="s">
         <v>44</v>
       </c>
       <c r="J79" s="154"/>
-      <c r="K79" s="162" t="s">
-        <v>1133</v>
-      </c>
-      <c r="L79" s="187"/>
-      <c r="M79" s="187"/>
-      <c r="N79" s="187"/>
-      <c r="O79" s="187"/>
-      <c r="P79" s="187"/>
-      <c r="Q79" s="187"/>
-      <c r="R79" s="187"/>
+      <c r="K79" s="213" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="310">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B80" s="154" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C80" s="444"/>
+        <v>1393</v>
+      </c>
+      <c r="C80" s="154"/>
       <c r="D80" s="154"/>
-      <c r="E80" s="155"/>
-      <c r="F80" s="155" t="s">
+      <c r="E80" s="154"/>
+      <c r="F80" s="154"/>
+      <c r="G80" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="I80" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="J80" s="154"/>
+      <c r="K80" s="283" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L80" s="425"/>
+      <c r="M80" s="425"/>
+      <c r="N80" s="425"/>
+      <c r="O80" s="425"/>
+      <c r="P80" s="425"/>
+      <c r="Q80" s="425"/>
+      <c r="R80" s="425"/>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="310">
+        <v>71</v>
+      </c>
+      <c r="B81" s="154" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C81" s="443" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="154" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E81" s="329"/>
+      <c r="F81" s="329" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="155" t="s">
-        <v>44</v>
-      </c>
-      <c r="H80" s="155"/>
-      <c r="I80" s="155" t="s">
-        <v>44</v>
-      </c>
-      <c r="J80" s="155"/>
-      <c r="K80" s="161" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L80" s="187"/>
-      <c r="M80" s="187"/>
-      <c r="N80" s="187"/>
-      <c r="O80" s="187"/>
-      <c r="P80" s="187"/>
-      <c r="Q80" s="187"/>
-      <c r="R80" s="187"/>
-    </row>
-    <row r="81" spans="1:18" ht="49.500000">
-      <c r="A81" s="310">
-        <v>79</v>
-      </c>
-      <c r="B81" s="154" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C81" s="444"/>
-      <c r="D81" s="154"/>
-      <c r="E81" s="155"/>
-      <c r="F81" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H81" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I81" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J81" s="154"/>
-      <c r="K81" s="162" t="s">
-        <v>1135</v>
-      </c>
-      <c r="L81" s="187"/>
-      <c r="M81" s="187"/>
-      <c r="N81" s="187"/>
-      <c r="O81" s="187"/>
-      <c r="P81" s="187"/>
-      <c r="Q81" s="187"/>
-      <c r="R81" s="187"/>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="G81" s="153" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="153"/>
+      <c r="I81" s="153" t="s">
+        <v>44</v>
+      </c>
+      <c r="J81" s="153"/>
+      <c r="K81" s="160" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L81" s="427"/>
+      <c r="M81" s="427"/>
+      <c r="N81" s="427"/>
+      <c r="O81" s="427"/>
+      <c r="P81" s="427"/>
+      <c r="Q81" s="427"/>
+      <c r="R81" s="427"/>
+    </row>
+    <row r="82" spans="1:18" ht="33.000000">
       <c r="A82" s="310">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B82" s="154" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C82" s="444"/>
+        <v>1343</v>
+      </c>
+      <c r="C82" s="443"/>
       <c r="D82" s="154"/>
       <c r="E82" s="155"/>
-      <c r="F82" s="154"/>
+      <c r="F82" s="154" t="s">
+        <v>41</v>
+      </c>
       <c r="G82" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H82" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="I82" s="154"/>
+      <c r="I82" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J82" s="154"/>
-      <c r="K82" s="161" t="s">
-        <v>17</v>
+      <c r="K82" s="162" t="s">
+        <v>1349</v>
       </c>
       <c r="L82" s="187"/>
       <c r="M82" s="187"/>
@@ -22348,27 +22778,31 @@
       <c r="Q82" s="187"/>
       <c r="R82" s="187"/>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" ht="33.000000">
       <c r="A83" s="310">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B83" s="154" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C83" s="444"/>
+        <v>1344</v>
+      </c>
+      <c r="C83" s="443"/>
       <c r="D83" s="154"/>
       <c r="E83" s="155"/>
-      <c r="F83" s="154"/>
+      <c r="F83" s="154" t="s">
+        <v>41</v>
+      </c>
       <c r="G83" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H83" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="I83" s="154"/>
+      <c r="I83" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J83" s="154"/>
-      <c r="K83" s="161" t="s">
-        <v>16</v>
+      <c r="K83" s="162" t="s">
+        <v>1129</v>
       </c>
       <c r="L83" s="187"/>
       <c r="M83" s="187"/>
@@ -22378,29 +22812,27 @@
       <c r="Q83" s="187"/>
       <c r="R83" s="187"/>
     </row>
-    <row r="84" spans="1:18" ht="33.000000">
+    <row r="84" spans="1:18">
       <c r="A84" s="310">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B84" s="154" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C84" s="444"/>
+        <v>1345</v>
+      </c>
+      <c r="C84" s="443"/>
       <c r="D84" s="154"/>
       <c r="E84" s="155"/>
-      <c r="F84" s="154" t="s">
-        <v>15</v>
-      </c>
+      <c r="F84" s="154"/>
       <c r="G84" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H84" s="154"/>
-      <c r="I84" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="H84" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I84" s="154"/>
       <c r="J84" s="154"/>
-      <c r="K84" s="162" t="s">
-        <v>1137</v>
+      <c r="K84" s="161" t="s">
+        <v>1130</v>
       </c>
       <c r="L84" s="187"/>
       <c r="M84" s="187"/>
@@ -22410,25 +22842,23 @@
       <c r="Q84" s="187"/>
       <c r="R84" s="187"/>
     </row>
-    <row r="85" spans="1:18" ht="33.000000">
+    <row r="85" spans="1:18">
       <c r="A85" s="310">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B85" s="154" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C85" s="444"/>
+        <v>1346</v>
+      </c>
+      <c r="C85" s="443"/>
       <c r="D85" s="154"/>
-      <c r="E85" s="154"/>
+      <c r="E85" s="155"/>
       <c r="F85" s="154"/>
-      <c r="G85" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="G85" s="154"/>
       <c r="H85" s="154"/>
       <c r="I85" s="154"/>
       <c r="J85" s="154"/>
       <c r="K85" s="161" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="L85" s="187"/>
       <c r="M85" s="187"/>
@@ -22440,25 +22870,29 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="310">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B86" s="154" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="C86" s="444"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
-      <c r="F86" s="154"/>
+      <c r="D86" s="154" t="s">
+        <v>71</v>
+      </c>
+      <c r="E86" s="155"/>
+      <c r="F86" s="154" t="s">
+        <v>41</v>
+      </c>
       <c r="G86" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H86" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I86" s="154"/>
+      <c r="H86" s="154"/>
+      <c r="I86" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J86" s="154"/>
       <c r="K86" s="161" t="s">
-        <v>1353</v>
+        <v>1132</v>
       </c>
       <c r="L86" s="187"/>
       <c r="M86" s="187"/>
@@ -22468,50 +22902,50 @@
       <c r="Q86" s="187"/>
       <c r="R86" s="187"/>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" ht="49.500000">
       <c r="A87" s="310">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B87" s="154" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="C87" s="444"/>
-      <c r="D87" s="154" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="154"/>
-      <c r="F87" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="G87" s="155" t="s">
-        <v>44</v>
-      </c>
-      <c r="H87" s="155"/>
-      <c r="I87" s="155" t="s">
+      <c r="D87" s="154"/>
+      <c r="E87" s="155"/>
+      <c r="F87" s="293" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G87" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H87" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I87" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J87" s="154"/>
-      <c r="K87" s="161" t="s">
-        <v>51</v>
-      </c>
-      <c r="L87" s="425"/>
-      <c r="M87" s="425"/>
-      <c r="N87" s="425"/>
-      <c r="O87" s="425"/>
-      <c r="P87" s="425"/>
-      <c r="Q87" s="425"/>
-      <c r="R87" s="425"/>
+      <c r="K87" s="162" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L87" s="187"/>
+      <c r="M87" s="187"/>
+      <c r="N87" s="187"/>
+      <c r="O87" s="187"/>
+      <c r="P87" s="187"/>
+      <c r="Q87" s="187"/>
+      <c r="R87" s="187"/>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="310">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B88" s="154" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="C88" s="444"/>
       <c r="D88" s="154"/>
-      <c r="E88" s="154"/>
+      <c r="E88" s="155"/>
       <c r="F88" s="155" t="s">
         <v>41</v>
       </c>
@@ -22522,120 +22956,124 @@
       <c r="I88" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="J88" s="154"/>
+      <c r="J88" s="155"/>
       <c r="K88" s="161" t="s">
-        <v>52</v>
-      </c>
-      <c r="L88" s="425"/>
-      <c r="M88" s="425"/>
-      <c r="N88" s="425"/>
-      <c r="O88" s="425"/>
-      <c r="P88" s="425"/>
-      <c r="Q88" s="425"/>
-      <c r="R88" s="425"/>
-    </row>
-    <row r="89" spans="1:18">
+        <v>1134</v>
+      </c>
+      <c r="L88" s="187"/>
+      <c r="M88" s="187"/>
+      <c r="N88" s="187"/>
+      <c r="O88" s="187"/>
+      <c r="P88" s="187"/>
+      <c r="Q88" s="187"/>
+      <c r="R88" s="187"/>
+    </row>
+    <row r="89" spans="1:18" ht="49.500000">
       <c r="A89" s="310">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B89" s="154" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="C89" s="444"/>
       <c r="D89" s="154"/>
-      <c r="E89" s="154"/>
-      <c r="F89" s="155" t="s">
+      <c r="E89" s="155"/>
+      <c r="F89" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="G89" s="155" t="s">
-        <v>44</v>
-      </c>
-      <c r="H89" s="155"/>
-      <c r="I89" s="155" t="s">
+      <c r="G89" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H89" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I89" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J89" s="154"/>
-      <c r="K89" s="445" t="s">
-        <v>1354</v>
-      </c>
-      <c r="L89" s="425"/>
-      <c r="M89" s="425"/>
-      <c r="N89" s="425"/>
-      <c r="O89" s="425"/>
-      <c r="P89" s="425"/>
-      <c r="Q89" s="425"/>
-      <c r="R89" s="425"/>
+      <c r="K89" s="162" t="s">
+        <v>1135</v>
+      </c>
+      <c r="L89" s="187"/>
+      <c r="M89" s="187"/>
+      <c r="N89" s="187"/>
+      <c r="O89" s="187"/>
+      <c r="P89" s="187"/>
+      <c r="Q89" s="187"/>
+      <c r="R89" s="187"/>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="310">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B90" s="154" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="C90" s="444"/>
       <c r="D90" s="154"/>
-      <c r="E90" s="154"/>
-      <c r="F90" s="155"/>
-      <c r="G90" s="155" t="s">
-        <v>44</v>
-      </c>
-      <c r="H90" s="155"/>
-      <c r="I90" s="155"/>
+      <c r="E90" s="155"/>
+      <c r="F90" s="154"/>
+      <c r="G90" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H90" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I90" s="154"/>
       <c r="J90" s="154"/>
       <c r="K90" s="161" t="s">
-        <v>54</v>
-      </c>
-      <c r="L90" s="425"/>
-      <c r="M90" s="425"/>
-      <c r="N90" s="425"/>
-      <c r="O90" s="425"/>
-      <c r="P90" s="425"/>
-      <c r="Q90" s="425"/>
-      <c r="R90" s="425"/>
+        <v>17</v>
+      </c>
+      <c r="L90" s="187"/>
+      <c r="M90" s="187"/>
+      <c r="N90" s="187"/>
+      <c r="O90" s="187"/>
+      <c r="P90" s="187"/>
+      <c r="Q90" s="187"/>
+      <c r="R90" s="187"/>
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="310">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B91" s="154" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="C91" s="444"/>
       <c r="D91" s="154"/>
-      <c r="E91" s="154"/>
-      <c r="F91" s="155"/>
-      <c r="G91" s="155" t="s">
-        <v>44</v>
-      </c>
-      <c r="H91" s="155"/>
-      <c r="I91" s="155"/>
+      <c r="E91" s="155"/>
+      <c r="F91" s="154"/>
+      <c r="G91" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H91" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I91" s="154"/>
       <c r="J91" s="154"/>
       <c r="K91" s="161" t="s">
-        <v>1355</v>
-      </c>
-      <c r="L91" s="425"/>
-      <c r="M91" s="425"/>
-      <c r="N91" s="425"/>
-      <c r="O91" s="425"/>
-      <c r="P91" s="425"/>
-      <c r="Q91" s="425"/>
-      <c r="R91" s="425"/>
-    </row>
-    <row r="92" spans="1:18">
+        <v>16</v>
+      </c>
+      <c r="L91" s="187"/>
+      <c r="M91" s="187"/>
+      <c r="N91" s="187"/>
+      <c r="O91" s="187"/>
+      <c r="P91" s="187"/>
+      <c r="Q91" s="187"/>
+      <c r="R91" s="187"/>
+    </row>
+    <row r="92" spans="1:18" ht="33.000000">
       <c r="A92" s="310">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B92" s="154" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="C92" s="444"/>
-      <c r="D92" s="154" t="s">
-        <v>33</v>
-      </c>
-      <c r="E92" s="154"/>
+      <c r="D92" s="154"/>
+      <c r="E92" s="155"/>
       <c r="F92" s="154" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G92" s="154" t="s">
         <v>44</v>
@@ -22645,104 +23083,100 @@
         <v>44</v>
       </c>
       <c r="J92" s="154"/>
-      <c r="K92" s="161" t="s">
-        <v>42</v>
-      </c>
-      <c r="L92" s="425"/>
-      <c r="M92" s="425"/>
-      <c r="N92" s="425"/>
-      <c r="O92" s="425"/>
-      <c r="P92" s="425"/>
-      <c r="Q92" s="425"/>
-      <c r="R92" s="425"/>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="K92" s="162" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L92" s="187"/>
+      <c r="M92" s="187"/>
+      <c r="N92" s="187"/>
+      <c r="O92" s="187"/>
+      <c r="P92" s="187"/>
+      <c r="Q92" s="187"/>
+      <c r="R92" s="187"/>
+    </row>
+    <row r="93" spans="1:18" ht="33.000000">
       <c r="A93" s="310">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B93" s="154" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="C93" s="444"/>
       <c r="D93" s="154"/>
       <c r="E93" s="154"/>
-      <c r="F93" s="154" t="s">
-        <v>41</v>
-      </c>
+      <c r="F93" s="154"/>
       <c r="G93" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H93" s="154"/>
-      <c r="I93" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="I93" s="154"/>
       <c r="J93" s="154"/>
       <c r="K93" s="161" t="s">
-        <v>43</v>
-      </c>
-      <c r="L93" s="425"/>
-      <c r="M93" s="425"/>
-      <c r="N93" s="425"/>
-      <c r="O93" s="425"/>
-      <c r="P93" s="425"/>
-      <c r="Q93" s="425"/>
-      <c r="R93" s="425"/>
-    </row>
-    <row r="94" spans="1:18" ht="49.500000">
+        <v>1352</v>
+      </c>
+      <c r="L93" s="187"/>
+      <c r="M93" s="187"/>
+      <c r="N93" s="187"/>
+      <c r="O93" s="187"/>
+      <c r="P93" s="187"/>
+      <c r="Q93" s="187"/>
+      <c r="R93" s="187"/>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="310">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B94" s="154" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="C94" s="444"/>
       <c r="D94" s="154"/>
       <c r="E94" s="154"/>
-      <c r="F94" s="154" t="s">
-        <v>41</v>
-      </c>
+      <c r="F94" s="154"/>
       <c r="G94" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H94" s="154"/>
-      <c r="I94" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="H94" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I94" s="154"/>
       <c r="J94" s="154"/>
       <c r="K94" s="161" t="s">
-        <v>48</v>
-      </c>
-      <c r="L94" s="425"/>
-      <c r="M94" s="425"/>
-      <c r="N94" s="425"/>
-      <c r="O94" s="425"/>
-      <c r="P94" s="425"/>
-      <c r="Q94" s="425"/>
-      <c r="R94" s="425"/>
+        <v>1353</v>
+      </c>
+      <c r="L94" s="187"/>
+      <c r="M94" s="187"/>
+      <c r="N94" s="187"/>
+      <c r="O94" s="187"/>
+      <c r="P94" s="187"/>
+      <c r="Q94" s="187"/>
+      <c r="R94" s="187"/>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="310">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B95" s="154" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="C95" s="444"/>
-      <c r="D95" s="154"/>
+      <c r="D95" s="154" t="s">
+        <v>22</v>
+      </c>
       <c r="E95" s="154"/>
-      <c r="F95" s="154" t="s">
+      <c r="F95" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="G95" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H95" s="154"/>
-      <c r="I95" s="154" t="s">
+      <c r="G95" s="155" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95" s="155"/>
+      <c r="I95" s="155" t="s">
         <v>44</v>
       </c>
       <c r="J95" s="154"/>
       <c r="K95" s="161" t="s">
-        <v>1357</v>
+        <v>51</v>
       </c>
       <c r="L95" s="425"/>
       <c r="M95" s="425"/>
@@ -22752,31 +23186,29 @@
       <c r="Q95" s="425"/>
       <c r="R95" s="425"/>
     </row>
-    <row r="96" spans="1:18" ht="49.500000">
+    <row r="96" spans="1:18">
       <c r="A96" s="310">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B96" s="154" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C96" s="444"/>
       <c r="D96" s="154"/>
       <c r="E96" s="154"/>
-      <c r="F96" s="154" t="s">
+      <c r="F96" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="G96" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H96" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I96" s="154" t="s">
+      <c r="G96" s="155" t="s">
+        <v>44</v>
+      </c>
+      <c r="H96" s="155"/>
+      <c r="I96" s="155" t="s">
         <v>44</v>
       </c>
       <c r="J96" s="154"/>
-      <c r="K96" s="162" t="s">
-        <v>1138</v>
+      <c r="K96" s="161" t="s">
+        <v>52</v>
       </c>
       <c r="L96" s="425"/>
       <c r="M96" s="425"/>
@@ -22788,25 +23220,27 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="310">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B97" s="154" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="C97" s="444"/>
       <c r="D97" s="154"/>
       <c r="E97" s="154"/>
-      <c r="F97" s="154"/>
-      <c r="G97" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H97" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I97" s="154"/>
+      <c r="F97" s="155" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" s="155" t="s">
+        <v>44</v>
+      </c>
+      <c r="H97" s="155"/>
+      <c r="I97" s="155" t="s">
+        <v>44</v>
+      </c>
       <c r="J97" s="154"/>
-      <c r="K97" s="161" t="s">
-        <v>1139</v>
+      <c r="K97" s="445" t="s">
+        <v>1354</v>
       </c>
       <c r="L97" s="425"/>
       <c r="M97" s="425"/>
@@ -22818,92 +23252,117 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="310">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B98" s="154" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C98" s="165"/>
-      <c r="D98" s="165"/>
-      <c r="E98" s="165"/>
-      <c r="F98" s="154"/>
-      <c r="G98" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H98" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I98" s="154"/>
+        <v>1116</v>
+      </c>
+      <c r="C98" s="444"/>
+      <c r="D98" s="154"/>
+      <c r="E98" s="154"/>
+      <c r="F98" s="155"/>
+      <c r="G98" s="155" t="s">
+        <v>44</v>
+      </c>
+      <c r="H98" s="155"/>
+      <c r="I98" s="155"/>
       <c r="J98" s="154"/>
       <c r="K98" s="161" t="s">
-        <v>1140</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="L98" s="425"/>
+      <c r="M98" s="425"/>
+      <c r="N98" s="425"/>
+      <c r="O98" s="425"/>
+      <c r="P98" s="425"/>
+      <c r="Q98" s="425"/>
+      <c r="R98" s="425"/>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="310">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B99" s="154" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C99" s="165"/>
-      <c r="D99" s="165"/>
-      <c r="E99" s="165"/>
-      <c r="F99" s="154"/>
-      <c r="G99" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H99" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I99" s="154"/>
+        <v>1117</v>
+      </c>
+      <c r="C99" s="444"/>
+      <c r="D99" s="154"/>
+      <c r="E99" s="154"/>
+      <c r="F99" s="155"/>
+      <c r="G99" s="155" t="s">
+        <v>44</v>
+      </c>
+      <c r="H99" s="155"/>
+      <c r="I99" s="155"/>
       <c r="J99" s="154"/>
       <c r="K99" s="161" t="s">
-        <v>1358</v>
-      </c>
+        <v>1355</v>
+      </c>
+      <c r="L99" s="425"/>
+      <c r="M99" s="425"/>
+      <c r="N99" s="425"/>
+      <c r="O99" s="425"/>
+      <c r="P99" s="425"/>
+      <c r="Q99" s="425"/>
+      <c r="R99" s="425"/>
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="310">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B100" s="154" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C100" s="165"/>
-      <c r="D100" s="165"/>
-      <c r="E100" s="165"/>
-      <c r="F100" s="335"/>
+        <v>1118</v>
+      </c>
+      <c r="C100" s="444"/>
+      <c r="D100" s="154" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="154"/>
+      <c r="F100" s="154" t="s">
+        <v>41</v>
+      </c>
       <c r="G100" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H100" s="154"/>
-      <c r="I100" s="335"/>
-      <c r="J100" s="335"/>
-      <c r="K100" s="283" t="s">
-        <v>1352</v>
-      </c>
+      <c r="I100" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J100" s="154"/>
+      <c r="K100" s="161" t="s">
+        <v>42</v>
+      </c>
+      <c r="L100" s="425"/>
+      <c r="M100" s="425"/>
+      <c r="N100" s="425"/>
+      <c r="O100" s="425"/>
+      <c r="P100" s="425"/>
+      <c r="Q100" s="425"/>
+      <c r="R100" s="425"/>
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="310">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B101" s="154" t="s">
-        <v>1361</v>
+        <v>1119</v>
       </c>
       <c r="C101" s="444"/>
       <c r="D101" s="154"/>
       <c r="E101" s="154"/>
-      <c r="F101" s="335"/>
+      <c r="F101" s="154" t="s">
+        <v>41</v>
+      </c>
       <c r="G101" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H101" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I101" s="335"/>
-      <c r="J101" s="335"/>
+      <c r="H101" s="154"/>
+      <c r="I101" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J101" s="154"/>
       <c r="K101" s="161" t="s">
-        <v>1350</v>
+        <v>43</v>
       </c>
       <c r="L101" s="425"/>
       <c r="M101" s="425"/>
@@ -22913,33 +23372,29 @@
       <c r="Q101" s="425"/>
       <c r="R101" s="425"/>
     </row>
-    <row r="102" spans="1:18" ht="16.500000" customHeight="1">
+    <row r="102" spans="1:18" ht="49.500000">
       <c r="A102" s="310">
-        <v>100</v>
-      </c>
-      <c r="B102" s="335" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C102" s="90" t="s">
-        <v>493</v>
-      </c>
-      <c r="D102" s="335" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E102" s="335"/>
-      <c r="F102" s="335"/>
-      <c r="G102" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H102" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I102" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J102" s="335"/>
-      <c r="K102" s="283" t="s">
-        <v>782</v>
+        <v>92</v>
+      </c>
+      <c r="B102" s="154" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C102" s="444"/>
+      <c r="D102" s="154"/>
+      <c r="E102" s="154"/>
+      <c r="F102" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="G102" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H102" s="154"/>
+      <c r="I102" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J102" s="154"/>
+      <c r="K102" s="161" t="s">
+        <v>48</v>
       </c>
       <c r="L102" s="425"/>
       <c r="M102" s="425"/>
@@ -22949,31 +23404,29 @@
       <c r="Q102" s="425"/>
       <c r="R102" s="425"/>
     </row>
-    <row r="103" spans="1:18" ht="16.500000" customHeight="1">
+    <row r="103" spans="1:18">
       <c r="A103" s="310">
-        <v>101</v>
-      </c>
-      <c r="B103" s="335" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C103" s="90"/>
-      <c r="D103" s="335"/>
-      <c r="E103" s="335"/>
-      <c r="F103" s="335" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H103" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I103" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J103" s="335"/>
-      <c r="K103" s="283" t="s">
-        <v>783</v>
+        <v>93</v>
+      </c>
+      <c r="B103" s="154" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C103" s="444"/>
+      <c r="D103" s="154"/>
+      <c r="E103" s="154"/>
+      <c r="F103" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="G103" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" s="154"/>
+      <c r="I103" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J103" s="154"/>
+      <c r="K103" s="161" t="s">
+        <v>1357</v>
       </c>
       <c r="L103" s="425"/>
       <c r="M103" s="425"/>
@@ -22983,29 +23436,31 @@
       <c r="Q103" s="425"/>
       <c r="R103" s="425"/>
     </row>
-    <row r="104" spans="1:18" ht="16.500000" customHeight="1">
+    <row r="104" spans="1:18" ht="49.500000">
       <c r="A104" s="310">
-        <v>102</v>
-      </c>
-      <c r="B104" s="335" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C104" s="90"/>
-      <c r="D104" s="335"/>
-      <c r="E104" s="335"/>
-      <c r="F104" s="335"/>
-      <c r="G104" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H104" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I104" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J104" s="335"/>
-      <c r="K104" s="283" t="s">
-        <v>1262</v>
+        <v>94</v>
+      </c>
+      <c r="B104" s="154" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C104" s="444"/>
+      <c r="D104" s="154"/>
+      <c r="E104" s="154"/>
+      <c r="F104" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="G104" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H104" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I104" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J104" s="154"/>
+      <c r="K104" s="162" t="s">
+        <v>1138</v>
       </c>
       <c r="L104" s="425"/>
       <c r="M104" s="425"/>
@@ -23017,31 +23472,25 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="310">
-        <v>103</v>
-      </c>
-      <c r="B105" s="335" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C105" s="90"/>
-      <c r="D105" s="335" t="s">
-        <v>513</v>
-      </c>
-      <c r="E105" s="335"/>
-      <c r="F105" s="335" t="s">
-        <v>335</v>
-      </c>
-      <c r="G105" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H105" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I105" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J105" s="335"/>
-      <c r="K105" s="283" t="s">
-        <v>1263</v>
+        <v>95</v>
+      </c>
+      <c r="B105" s="154" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C105" s="444"/>
+      <c r="D105" s="154"/>
+      <c r="E105" s="154"/>
+      <c r="F105" s="154"/>
+      <c r="G105" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H105" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I105" s="154"/>
+      <c r="J105" s="154"/>
+      <c r="K105" s="161" t="s">
+        <v>1139</v>
       </c>
       <c r="L105" s="425"/>
       <c r="M105" s="425"/>
@@ -23053,127 +23502,92 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="310">
-        <v>104</v>
-      </c>
-      <c r="B106" s="335" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C106" s="90"/>
-      <c r="D106" s="335"/>
-      <c r="E106" s="335"/>
-      <c r="F106" s="335" t="s">
-        <v>118</v>
-      </c>
-      <c r="G106" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H106" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I106" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J106" s="335"/>
-      <c r="K106" s="283" t="s">
-        <v>787</v>
-      </c>
-      <c r="L106" s="425"/>
-      <c r="M106" s="425"/>
-      <c r="N106" s="425"/>
-      <c r="O106" s="425"/>
-      <c r="P106" s="425"/>
-      <c r="Q106" s="425"/>
-      <c r="R106" s="425"/>
+        <v>96</v>
+      </c>
+      <c r="B106" s="154" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C106" s="165"/>
+      <c r="D106" s="165"/>
+      <c r="E106" s="165"/>
+      <c r="F106" s="154"/>
+      <c r="G106" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H106" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I106" s="154"/>
+      <c r="J106" s="154"/>
+      <c r="K106" s="161" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="310">
-        <v>105</v>
-      </c>
-      <c r="B107" s="335" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C107" s="90"/>
-      <c r="D107" s="335"/>
-      <c r="E107" s="335"/>
-      <c r="F107" s="335" t="s">
-        <v>68</v>
-      </c>
-      <c r="G107" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H107" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I107" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J107" s="335"/>
-      <c r="K107" s="283" t="s">
-        <v>788</v>
-      </c>
-      <c r="L107" s="425"/>
-      <c r="M107" s="425"/>
-      <c r="N107" s="425"/>
-      <c r="O107" s="425"/>
-      <c r="P107" s="425"/>
-      <c r="Q107" s="425"/>
-      <c r="R107" s="425"/>
+        <v>97</v>
+      </c>
+      <c r="B107" s="154" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C107" s="165"/>
+      <c r="D107" s="165"/>
+      <c r="E107" s="165"/>
+      <c r="F107" s="154"/>
+      <c r="G107" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H107" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I107" s="154"/>
+      <c r="J107" s="154"/>
+      <c r="K107" s="161" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="310">
-        <v>106</v>
-      </c>
-      <c r="B108" s="335" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C108" s="90"/>
-      <c r="D108" s="335"/>
-      <c r="E108" s="335"/>
-      <c r="F108" s="335" t="s">
-        <v>118</v>
-      </c>
-      <c r="G108" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H108" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I108" s="335" t="s">
-        <v>44</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B108" s="154" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C108" s="165"/>
+      <c r="D108" s="165"/>
+      <c r="E108" s="165"/>
+      <c r="F108" s="335"/>
+      <c r="G108" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H108" s="154"/>
+      <c r="I108" s="335"/>
       <c r="J108" s="335"/>
       <c r="K108" s="283" t="s">
-        <v>790</v>
-      </c>
-      <c r="L108" s="425"/>
-      <c r="M108" s="425"/>
-      <c r="N108" s="425"/>
-      <c r="O108" s="425"/>
-      <c r="P108" s="425"/>
-      <c r="Q108" s="425"/>
-      <c r="R108" s="425"/>
+        <v>1352</v>
+      </c>
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="310">
-        <v>107</v>
-      </c>
-      <c r="B109" s="335" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C109" s="90"/>
-      <c r="D109" s="335"/>
-      <c r="E109" s="335"/>
+        <v>99</v>
+      </c>
+      <c r="B109" s="154" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C109" s="444"/>
+      <c r="D109" s="154"/>
+      <c r="E109" s="154"/>
       <c r="F109" s="335"/>
-      <c r="G109" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H109" s="335" t="s">
+      <c r="G109" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H109" s="154" t="s">
         <v>44</v>
       </c>
       <c r="I109" s="335"/>
       <c r="J109" s="335"/>
-      <c r="K109" s="283" t="s">
-        <v>1264</v>
+      <c r="K109" s="161" t="s">
+        <v>1350</v>
       </c>
       <c r="L109" s="425"/>
       <c r="M109" s="425"/>
@@ -23183,25 +23597,33 @@
       <c r="Q109" s="425"/>
       <c r="R109" s="425"/>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" ht="16.500000" customHeight="1">
       <c r="A110" s="310">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B110" s="335" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C110" s="90"/>
-      <c r="D110" s="335"/>
+        <v>1299</v>
+      </c>
+      <c r="C110" s="90" t="s">
+        <v>493</v>
+      </c>
+      <c r="D110" s="335" t="s">
+        <v>1288</v>
+      </c>
       <c r="E110" s="335"/>
       <c r="F110" s="335"/>
       <c r="G110" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H110" s="335"/>
-      <c r="I110" s="335"/>
+      <c r="H110" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I110" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J110" s="335"/>
       <c r="K110" s="283" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="L110" s="425"/>
       <c r="M110" s="425"/>
@@ -23211,22 +23633,18 @@
       <c r="Q110" s="425"/>
       <c r="R110" s="425"/>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" ht="16.500000" customHeight="1">
       <c r="A111" s="310">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B111" s="335" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="90" t="s">
-        <v>538</v>
-      </c>
-      <c r="E111" s="335" t="s">
-        <v>729</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="C111" s="90"/>
+      <c r="D111" s="335"/>
+      <c r="E111" s="335"/>
       <c r="F111" s="335" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G111" s="335" t="s">
         <v>44</v>
@@ -23239,7 +23657,7 @@
       </c>
       <c r="J111" s="335"/>
       <c r="K111" s="283" t="s">
-        <v>1265</v>
+        <v>783</v>
       </c>
       <c r="L111" s="425"/>
       <c r="M111" s="425"/>
@@ -23249,19 +23667,17 @@
       <c r="Q111" s="425"/>
       <c r="R111" s="425"/>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" ht="16.500000" customHeight="1">
       <c r="A112" s="310">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B112" s="335" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="90"/>
+        <v>1301</v>
+      </c>
+      <c r="C112" s="90"/>
+      <c r="D112" s="335"/>
       <c r="E112" s="335"/>
-      <c r="F112" s="335" t="s">
-        <v>15</v>
-      </c>
+      <c r="F112" s="335"/>
       <c r="G112" s="335" t="s">
         <v>44</v>
       </c>
@@ -23273,7 +23689,7 @@
       </c>
       <c r="J112" s="335"/>
       <c r="K112" s="283" t="s">
-        <v>795</v>
+        <v>1262</v>
       </c>
       <c r="L112" s="425"/>
       <c r="M112" s="425"/>
@@ -23285,16 +23701,18 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="310">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B113" s="335" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="90"/>
+        <v>1303</v>
+      </c>
+      <c r="C113" s="90"/>
+      <c r="D113" s="335" t="s">
+        <v>513</v>
+      </c>
       <c r="E113" s="335"/>
       <c r="F113" s="335" t="s">
-        <v>550</v>
+        <v>335</v>
       </c>
       <c r="G113" s="335" t="s">
         <v>44</v>
@@ -23306,8 +23724,8 @@
         <v>44</v>
       </c>
       <c r="J113" s="335"/>
-      <c r="K113" s="213" t="s">
-        <v>1267</v>
+      <c r="K113" s="283" t="s">
+        <v>1263</v>
       </c>
       <c r="L113" s="425"/>
       <c r="M113" s="425"/>
@@ -23319,16 +23737,16 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="310">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B114" s="335" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="90"/>
+        <v>1304</v>
+      </c>
+      <c r="C114" s="90"/>
+      <c r="D114" s="335"/>
       <c r="E114" s="335"/>
       <c r="F114" s="335" t="s">
-        <v>550</v>
+        <v>118</v>
       </c>
       <c r="G114" s="335" t="s">
         <v>44</v>
@@ -23340,8 +23758,8 @@
         <v>44</v>
       </c>
       <c r="J114" s="335"/>
-      <c r="K114" s="213" t="s">
-        <v>1267</v>
+      <c r="K114" s="283" t="s">
+        <v>787</v>
       </c>
       <c r="L114" s="425"/>
       <c r="M114" s="425"/>
@@ -23353,16 +23771,16 @@
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="310">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B115" s="335" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="90"/>
+        <v>1305</v>
+      </c>
+      <c r="C115" s="90"/>
+      <c r="D115" s="335"/>
       <c r="E115" s="335"/>
       <c r="F115" s="335" t="s">
-        <v>550</v>
+        <v>68</v>
       </c>
       <c r="G115" s="335" t="s">
         <v>44</v>
@@ -23374,8 +23792,8 @@
         <v>44</v>
       </c>
       <c r="J115" s="335"/>
-      <c r="K115" s="213" t="s">
-        <v>1267</v>
+      <c r="K115" s="283" t="s">
+        <v>788</v>
       </c>
       <c r="L115" s="425"/>
       <c r="M115" s="425"/>
@@ -23387,16 +23805,16 @@
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="310">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B116" s="335" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C116" s="165"/>
-      <c r="D116" s="91"/>
+        <v>1306</v>
+      </c>
+      <c r="C116" s="90"/>
+      <c r="D116" s="335"/>
       <c r="E116" s="335"/>
       <c r="F116" s="335" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="G116" s="335" t="s">
         <v>44</v>
@@ -23409,28 +23827,37 @@
       </c>
       <c r="J116" s="335"/>
       <c r="K116" s="283" t="s">
-        <v>1269</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="L116" s="425"/>
+      <c r="M116" s="425"/>
+      <c r="N116" s="425"/>
+      <c r="O116" s="425"/>
+      <c r="P116" s="425"/>
+      <c r="Q116" s="425"/>
+      <c r="R116" s="425"/>
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="310">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B117" s="335" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="90"/>
+        <v>1307</v>
+      </c>
+      <c r="C117" s="90"/>
+      <c r="D117" s="335"/>
       <c r="E117" s="335"/>
       <c r="F117" s="335"/>
       <c r="G117" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H117" s="335"/>
+      <c r="H117" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="I117" s="335"/>
       <c r="J117" s="335"/>
       <c r="K117" s="283" t="s">
-        <v>792</v>
+        <v>1264</v>
       </c>
       <c r="L117" s="425"/>
       <c r="M117" s="425"/>
@@ -23442,31 +23869,23 @@
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="310">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B118" s="335" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="90"/>
-      <c r="E118" s="335" t="s">
-        <v>730</v>
-      </c>
-      <c r="F118" s="335" t="s">
-        <v>41</v>
-      </c>
+        <v>1308</v>
+      </c>
+      <c r="C118" s="90"/>
+      <c r="D118" s="335"/>
+      <c r="E118" s="335"/>
+      <c r="F118" s="335"/>
       <c r="G118" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H118" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I118" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J118" s="336"/>
+      <c r="H118" s="335"/>
+      <c r="I118" s="335"/>
+      <c r="J118" s="335"/>
       <c r="K118" s="283" t="s">
-        <v>1271</v>
+        <v>792</v>
       </c>
       <c r="L118" s="425"/>
       <c r="M118" s="425"/>
@@ -23478,14 +23897,18 @@
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="310">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B119" s="335" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="C119" s="5"/>
-      <c r="D119" s="90"/>
-      <c r="E119" s="335"/>
+      <c r="D119" s="90" t="s">
+        <v>538</v>
+      </c>
+      <c r="E119" s="335" t="s">
+        <v>729</v>
+      </c>
       <c r="F119" s="335" t="s">
         <v>41</v>
       </c>
@@ -23500,7 +23923,7 @@
       </c>
       <c r="J119" s="335"/>
       <c r="K119" s="283" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="L119" s="425"/>
       <c r="M119" s="425"/>
@@ -23512,25 +23935,29 @@
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="310">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B120" s="335" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="90"/>
       <c r="E120" s="335"/>
-      <c r="F120" s="335"/>
+      <c r="F120" s="335" t="s">
+        <v>15</v>
+      </c>
       <c r="G120" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H120" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="I120" s="335"/>
+      <c r="I120" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J120" s="335"/>
       <c r="K120" s="283" t="s">
-        <v>1275</v>
+        <v>795</v>
       </c>
       <c r="L120" s="425"/>
       <c r="M120" s="425"/>
@@ -23542,27 +23969,29 @@
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="310">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B121" s="335" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="90"/>
-      <c r="E121" s="90" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F121" s="335"/>
+      <c r="E121" s="335"/>
+      <c r="F121" s="335" t="s">
+        <v>550</v>
+      </c>
       <c r="G121" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H121" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="I121" s="335"/>
+      <c r="I121" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J121" s="335"/>
-      <c r="K121" s="283" t="s">
-        <v>1277</v>
+      <c r="K121" s="213" t="s">
+        <v>1267</v>
       </c>
       <c r="L121" s="425"/>
       <c r="M121" s="425"/>
@@ -23574,25 +24003,29 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="310">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B122" s="335" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="90"/>
-      <c r="E122" s="90"/>
-      <c r="F122" s="335"/>
+      <c r="E122" s="335"/>
+      <c r="F122" s="335" t="s">
+        <v>550</v>
+      </c>
       <c r="G122" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H122" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="I122" s="335"/>
+      <c r="I122" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J122" s="335"/>
-      <c r="K122" s="283" t="s">
-        <v>1279</v>
+      <c r="K122" s="213" t="s">
+        <v>1267</v>
       </c>
       <c r="L122" s="425"/>
       <c r="M122" s="425"/>
@@ -23602,27 +24035,31 @@
       <c r="Q122" s="425"/>
       <c r="R122" s="425"/>
     </row>
-    <row r="123" spans="1:18" ht="33.000000">
+    <row r="123" spans="1:18">
       <c r="A123" s="310">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B123" s="335" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="90"/>
-      <c r="E123" s="90"/>
-      <c r="F123" s="335"/>
+      <c r="E123" s="335"/>
+      <c r="F123" s="335" t="s">
+        <v>550</v>
+      </c>
       <c r="G123" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H123" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="I123" s="335"/>
+      <c r="I123" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J123" s="335"/>
-      <c r="K123" s="283" t="s">
-        <v>1280</v>
+      <c r="K123" s="213" t="s">
+        <v>1267</v>
       </c>
       <c r="L123" s="425"/>
       <c r="M123" s="425"/>
@@ -23634,606 +24071,581 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="310">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B124" s="335" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="C124" s="165"/>
       <c r="D124" s="91"/>
-      <c r="E124" s="90"/>
-      <c r="F124" s="335"/>
+      <c r="E124" s="335"/>
+      <c r="F124" s="335" t="s">
+        <v>15</v>
+      </c>
       <c r="G124" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H124" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="I124" s="335"/>
+      <c r="I124" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J124" s="335"/>
       <c r="K124" s="283" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" ht="33.000000">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="310">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B125" s="335" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C125" s="165"/>
-      <c r="D125" s="91"/>
-      <c r="E125" s="91"/>
+        <v>1315</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="90"/>
+      <c r="E125" s="335"/>
       <c r="F125" s="335"/>
       <c r="G125" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H125" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H125" s="335"/>
       <c r="I125" s="335"/>
       <c r="J125" s="335"/>
       <c r="K125" s="283" t="s">
-        <v>1283</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="L125" s="425"/>
+      <c r="M125" s="425"/>
+      <c r="N125" s="425"/>
+      <c r="O125" s="425"/>
+      <c r="P125" s="425"/>
+      <c r="Q125" s="425"/>
+      <c r="R125" s="425"/>
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="310">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B126" s="335" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C126" s="165"/>
-      <c r="D126" s="91"/>
-      <c r="E126" s="90"/>
-      <c r="F126" s="335"/>
+        <v>1316</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="90"/>
+      <c r="E126" s="335" t="s">
+        <v>730</v>
+      </c>
+      <c r="F126" s="335" t="s">
+        <v>41</v>
+      </c>
       <c r="G126" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H126" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="I126" s="335"/>
-      <c r="J126" s="335"/>
+      <c r="I126" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J126" s="336"/>
       <c r="K126" s="283" t="s">
-        <v>1284</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="L126" s="425"/>
+      <c r="M126" s="425"/>
+      <c r="N126" s="425"/>
+      <c r="O126" s="425"/>
+      <c r="P126" s="425"/>
+      <c r="Q126" s="425"/>
+      <c r="R126" s="425"/>
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="310">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B127" s="335" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C127" s="165"/>
-      <c r="D127" s="91"/>
-      <c r="E127" s="91"/>
-      <c r="F127" s="335"/>
+        <v>1318</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="90"/>
+      <c r="E127" s="335"/>
+      <c r="F127" s="335" t="s">
+        <v>41</v>
+      </c>
       <c r="G127" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H127" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="I127" s="335"/>
+      <c r="I127" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J127" s="335"/>
       <c r="K127" s="283" t="s">
-        <v>1285</v>
-      </c>
+        <v>1273</v>
+      </c>
+      <c r="L127" s="425"/>
+      <c r="M127" s="425"/>
+      <c r="N127" s="425"/>
+      <c r="O127" s="425"/>
+      <c r="P127" s="425"/>
+      <c r="Q127" s="425"/>
+      <c r="R127" s="425"/>
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="310">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B128" s="335" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C128" s="165"/>
-      <c r="D128" s="461" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E128" s="461"/>
-      <c r="F128" s="335" t="s">
-        <v>41</v>
-      </c>
+        <v>1319</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="90"/>
+      <c r="E128" s="335"/>
+      <c r="F128" s="335"/>
       <c r="G128" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H128" s="335"/>
-      <c r="I128" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H128" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I128" s="335"/>
       <c r="J128" s="335"/>
       <c r="K128" s="283" t="s">
-        <v>1373</v>
-      </c>
+        <v>1275</v>
+      </c>
+      <c r="L128" s="425"/>
+      <c r="M128" s="425"/>
+      <c r="N128" s="425"/>
+      <c r="O128" s="425"/>
+      <c r="P128" s="425"/>
+      <c r="Q128" s="425"/>
+      <c r="R128" s="425"/>
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="310">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B129" s="335" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C129" s="165"/>
-      <c r="D129" s="455"/>
-      <c r="E129" s="455"/>
-      <c r="F129" s="335" t="s">
-        <v>41</v>
-      </c>
+        <v>1317</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="90"/>
+      <c r="E129" s="90" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F129" s="335"/>
       <c r="G129" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H129" s="335"/>
-      <c r="I129" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H129" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I129" s="335"/>
       <c r="J129" s="335"/>
       <c r="K129" s="283" t="s">
-        <v>1374</v>
-      </c>
+        <v>1277</v>
+      </c>
+      <c r="L129" s="425"/>
+      <c r="M129" s="425"/>
+      <c r="N129" s="425"/>
+      <c r="O129" s="425"/>
+      <c r="P129" s="425"/>
+      <c r="Q129" s="425"/>
+      <c r="R129" s="425"/>
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="310">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B130" s="335" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C130" s="165"/>
-      <c r="D130" s="455"/>
-      <c r="E130" s="455"/>
-      <c r="F130" s="335" t="s">
-        <v>41</v>
-      </c>
+        <v>1320</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="90"/>
+      <c r="E130" s="90"/>
+      <c r="F130" s="335"/>
       <c r="G130" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H130" s="335"/>
-      <c r="I130" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H130" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I130" s="335"/>
       <c r="J130" s="335"/>
       <c r="K130" s="283" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18">
+        <v>1279</v>
+      </c>
+      <c r="L130" s="425"/>
+      <c r="M130" s="425"/>
+      <c r="N130" s="425"/>
+      <c r="O130" s="425"/>
+      <c r="P130" s="425"/>
+      <c r="Q130" s="425"/>
+      <c r="R130" s="425"/>
+    </row>
+    <row r="131" spans="1:18" ht="33.000000">
       <c r="A131" s="310">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B131" s="335" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C131" s="165"/>
-      <c r="D131" s="455"/>
-      <c r="E131" s="455"/>
-      <c r="F131" s="335" t="s">
-        <v>41</v>
-      </c>
+        <v>1321</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="90"/>
+      <c r="E131" s="90"/>
+      <c r="F131" s="335"/>
       <c r="G131" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H131" s="335"/>
-      <c r="I131" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H131" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I131" s="335"/>
       <c r="J131" s="335"/>
       <c r="K131" s="283" t="s">
-        <v>1376</v>
-      </c>
+        <v>1280</v>
+      </c>
+      <c r="L131" s="425"/>
+      <c r="M131" s="425"/>
+      <c r="N131" s="425"/>
+      <c r="O131" s="425"/>
+      <c r="P131" s="425"/>
+      <c r="Q131" s="425"/>
+      <c r="R131" s="425"/>
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="310">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B132" s="335" t="s">
-        <v>1385</v>
+        <v>1322</v>
       </c>
       <c r="C132" s="165"/>
-      <c r="D132" s="455"/>
-      <c r="E132" s="456"/>
+      <c r="D132" s="91"/>
+      <c r="E132" s="90"/>
       <c r="F132" s="335"/>
       <c r="G132" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H132" s="335"/>
+      <c r="H132" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="I132" s="335"/>
       <c r="J132" s="335"/>
       <c r="K132" s="283" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="33.000000">
       <c r="A133" s="310">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B133" s="335" t="s">
-        <v>1386</v>
+        <v>1323</v>
       </c>
       <c r="C133" s="165"/>
-      <c r="D133" s="455"/>
-      <c r="E133" s="461"/>
-      <c r="F133" s="335" t="s">
-        <v>41</v>
-      </c>
+      <c r="D133" s="91"/>
+      <c r="E133" s="91"/>
+      <c r="F133" s="335"/>
       <c r="G133" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H133" s="335"/>
-      <c r="I133" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H133" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I133" s="335"/>
       <c r="J133" s="335"/>
       <c r="K133" s="283" t="s">
-        <v>1377</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="134" spans="1:18">
       <c r="A134" s="310">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B134" s="335" t="s">
-        <v>1387</v>
+        <v>1324</v>
       </c>
       <c r="C134" s="165"/>
-      <c r="D134" s="455"/>
-      <c r="E134" s="455"/>
-      <c r="F134" s="335" t="s">
-        <v>41</v>
-      </c>
+      <c r="D134" s="91"/>
+      <c r="E134" s="90"/>
+      <c r="F134" s="335"/>
       <c r="G134" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H134" s="335"/>
-      <c r="I134" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H134" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I134" s="335"/>
       <c r="J134" s="335"/>
       <c r="K134" s="283" t="s">
-        <v>1377</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="135" spans="1:18">
       <c r="A135" s="310">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B135" s="335" t="s">
-        <v>1388</v>
+        <v>1325</v>
       </c>
       <c r="C135" s="165"/>
-      <c r="D135" s="455"/>
-      <c r="E135" s="455"/>
-      <c r="F135" s="335" t="s">
-        <v>41</v>
-      </c>
+      <c r="D135" s="91"/>
+      <c r="E135" s="91"/>
+      <c r="F135" s="335"/>
       <c r="G135" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H135" s="335"/>
-      <c r="I135" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H135" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I135" s="335"/>
       <c r="J135" s="335"/>
       <c r="K135" s="283" t="s">
-        <v>1378</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="136" spans="1:18">
       <c r="A136" s="310">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B136" s="335" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="C136" s="165"/>
-      <c r="D136" s="455"/>
-      <c r="E136" s="455"/>
-      <c r="F136" s="335"/>
+      <c r="D136" s="461" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E136" s="461"/>
+      <c r="F136" s="335" t="s">
+        <v>41</v>
+      </c>
       <c r="G136" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H136" s="335"/>
-      <c r="I136" s="335"/>
+      <c r="I136" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J136" s="335"/>
       <c r="K136" s="283" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="20.100000" customHeight="1">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" s="310">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B137" s="335" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="260"/>
-      <c r="E137" s="260"/>
-      <c r="F137" s="335"/>
+        <v>1382</v>
+      </c>
+      <c r="C137" s="165"/>
+      <c r="D137" s="455"/>
+      <c r="E137" s="455"/>
+      <c r="F137" s="335" t="s">
+        <v>41</v>
+      </c>
       <c r="G137" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H137" s="335"/>
-      <c r="I137" s="335"/>
+      <c r="I137" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J137" s="335"/>
       <c r="K137" s="283" t="s">
-        <v>1380</v>
-      </c>
-      <c r="L137" s="425"/>
-      <c r="M137" s="425"/>
-      <c r="N137" s="425"/>
-      <c r="O137" s="425"/>
-      <c r="P137" s="425"/>
-      <c r="Q137" s="425"/>
-      <c r="R137" s="425"/>
+        <v>1374</v>
+      </c>
     </row>
     <row r="138" spans="1:18">
       <c r="A138" s="310">
-        <v>136</v>
-      </c>
-      <c r="B138" s="154" t="s">
-        <v>997</v>
-      </c>
-      <c r="C138" s="159" t="s">
-        <v>885</v>
-      </c>
-      <c r="D138" s="154"/>
-      <c r="E138" s="154"/>
-      <c r="F138" s="154" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" s="335" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C138" s="165"/>
+      <c r="D138" s="455"/>
+      <c r="E138" s="455"/>
+      <c r="F138" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="G138" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H138" s="154"/>
-      <c r="I138" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J138" s="154"/>
-      <c r="K138" s="213" t="s">
-        <v>1409</v>
-      </c>
-      <c r="L138" s="425"/>
-      <c r="M138" s="425"/>
-      <c r="N138" s="425"/>
-      <c r="O138" s="425"/>
-      <c r="P138" s="425"/>
-      <c r="Q138" s="425"/>
-      <c r="R138" s="425"/>
-    </row>
-    <row r="139" spans="1:18" ht="33.000000">
+      <c r="G138" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H138" s="335"/>
+      <c r="I138" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J138" s="335"/>
+      <c r="K138" s="283" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" s="310">
-        <v>137</v>
-      </c>
-      <c r="B139" s="154" t="s">
-        <v>998</v>
-      </c>
-      <c r="C139" s="157"/>
-      <c r="D139" s="154"/>
-      <c r="E139" s="154"/>
-      <c r="F139" s="154" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" s="335" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C139" s="165"/>
+      <c r="D139" s="455"/>
+      <c r="E139" s="455"/>
+      <c r="F139" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="G139" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H139" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I139" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J139" s="154"/>
+      <c r="G139" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H139" s="335"/>
+      <c r="I139" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J139" s="335"/>
       <c r="K139" s="283" t="s">
-        <v>1411</v>
-      </c>
-      <c r="L139" s="425"/>
-      <c r="M139" s="425"/>
-      <c r="N139" s="425"/>
-      <c r="O139" s="425"/>
-      <c r="P139" s="425"/>
-      <c r="Q139" s="425"/>
-      <c r="R139" s="425"/>
-    </row>
-    <row r="140" spans="1:18" ht="82.500000">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" s="310">
-        <v>138</v>
-      </c>
-      <c r="B140" s="154" t="s">
-        <v>999</v>
-      </c>
-      <c r="C140" s="157"/>
-      <c r="D140" s="154"/>
-      <c r="E140" s="154"/>
-      <c r="F140" s="154" t="s">
-        <v>335</v>
-      </c>
-      <c r="G140" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H140" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I140" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J140" s="154"/>
+        <v>130</v>
+      </c>
+      <c r="B140" s="335" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C140" s="165"/>
+      <c r="D140" s="455"/>
+      <c r="E140" s="456"/>
+      <c r="F140" s="335"/>
+      <c r="G140" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H140" s="335"/>
+      <c r="I140" s="335"/>
+      <c r="J140" s="335"/>
       <c r="K140" s="283" t="s">
-        <v>1412</v>
-      </c>
-      <c r="L140" s="425"/>
-      <c r="M140" s="425"/>
-      <c r="N140" s="425"/>
-      <c r="O140" s="425"/>
-      <c r="P140" s="425"/>
-      <c r="Q140" s="425"/>
-      <c r="R140" s="425"/>
+        <v>792</v>
+      </c>
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="310">
-        <v>139</v>
-      </c>
-      <c r="B141" s="154" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C141" s="157"/>
-      <c r="D141" s="154"/>
-      <c r="E141" s="154"/>
-      <c r="F141" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B141" s="335" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C141" s="165"/>
+      <c r="D141" s="455"/>
+      <c r="E141" s="461"/>
+      <c r="F141" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="G141" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H141" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I141" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J141" s="154"/>
-      <c r="K141" s="213" t="s">
-        <v>1413</v>
-      </c>
-      <c r="L141" s="425"/>
-      <c r="M141" s="425"/>
-      <c r="N141" s="425"/>
-      <c r="O141" s="425"/>
-      <c r="P141" s="425"/>
-      <c r="Q141" s="425"/>
-      <c r="R141" s="425"/>
+      <c r="G141" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H141" s="335"/>
+      <c r="I141" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J141" s="335"/>
+      <c r="K141" s="283" t="s">
+        <v>1377</v>
+      </c>
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="310">
-        <v>140</v>
-      </c>
-      <c r="B142" s="154" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C142" s="157"/>
-      <c r="D142" s="154"/>
-      <c r="E142" s="154"/>
-      <c r="F142" s="154" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" s="335" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C142" s="165"/>
+      <c r="D142" s="455"/>
+      <c r="E142" s="455"/>
+      <c r="F142" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="G142" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H142" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I142" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J142" s="154"/>
-      <c r="K142" s="213" t="s">
-        <v>928</v>
-      </c>
-      <c r="L142" s="425"/>
-      <c r="M142" s="425"/>
-      <c r="N142" s="425"/>
-      <c r="O142" s="425"/>
-      <c r="P142" s="425"/>
-      <c r="Q142" s="425"/>
-      <c r="R142" s="425"/>
+      <c r="G142" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H142" s="335"/>
+      <c r="I142" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J142" s="335"/>
+      <c r="K142" s="283" t="s">
+        <v>1377</v>
+      </c>
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="310">
-        <v>141</v>
-      </c>
-      <c r="B143" s="154" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C143" s="157"/>
-      <c r="D143" s="154"/>
-      <c r="E143" s="154"/>
-      <c r="F143" s="154" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143" s="335" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C143" s="165"/>
+      <c r="D143" s="455"/>
+      <c r="E143" s="455"/>
+      <c r="F143" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="G143" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H143" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I143" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J143" s="154"/>
-      <c r="K143" s="213" t="s">
-        <v>929</v>
-      </c>
-      <c r="L143" s="425"/>
-      <c r="M143" s="425"/>
-      <c r="N143" s="425"/>
-      <c r="O143" s="425"/>
-      <c r="P143" s="425"/>
-      <c r="Q143" s="425"/>
-      <c r="R143" s="425"/>
-    </row>
-    <row r="144" spans="1:18" ht="33.000000">
+      <c r="G143" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H143" s="335"/>
+      <c r="I143" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J143" s="335"/>
+      <c r="K143" s="283" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" s="310">
-        <v>142</v>
-      </c>
-      <c r="B144" s="154" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C144" s="157"/>
-      <c r="D144" s="154"/>
-      <c r="E144" s="154"/>
-      <c r="F144" s="154" t="s">
-        <v>335</v>
-      </c>
-      <c r="G144" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H144" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I144" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J144" s="154"/>
+        <v>134</v>
+      </c>
+      <c r="B144" s="335" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C144" s="165"/>
+      <c r="D144" s="455"/>
+      <c r="E144" s="455"/>
+      <c r="F144" s="335"/>
+      <c r="G144" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H144" s="335"/>
+      <c r="I144" s="335"/>
+      <c r="J144" s="335"/>
       <c r="K144" s="283" t="s">
-        <v>930</v>
-      </c>
-      <c r="L144" s="425"/>
-      <c r="M144" s="425"/>
-      <c r="N144" s="425"/>
-      <c r="O144" s="425"/>
-      <c r="P144" s="425"/>
-      <c r="Q144" s="425"/>
-      <c r="R144" s="425"/>
-    </row>
-    <row r="145" spans="1:18" ht="33.000000">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="20.100000" customHeight="1">
       <c r="A145" s="310">
-        <v>143</v>
-      </c>
-      <c r="B145" s="154" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C145" s="157"/>
-      <c r="D145" s="154"/>
-      <c r="E145" s="154"/>
-      <c r="F145" s="154" t="s">
-        <v>335</v>
-      </c>
-      <c r="G145" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H145" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I145" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J145" s="154"/>
+        <v>135</v>
+      </c>
+      <c r="B145" s="335" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="260"/>
+      <c r="E145" s="260"/>
+      <c r="F145" s="335"/>
+      <c r="G145" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H145" s="335"/>
+      <c r="I145" s="335"/>
+      <c r="J145" s="335"/>
       <c r="K145" s="283" t="s">
-        <v>1414</v>
+        <v>1380</v>
       </c>
       <c r="L145" s="425"/>
       <c r="M145" s="425"/>
@@ -24245,29 +24657,29 @@
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="310">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B146" s="154" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C146" s="158"/>
+        <v>997</v>
+      </c>
+      <c r="C146" s="159" t="s">
+        <v>885</v>
+      </c>
       <c r="D146" s="154"/>
       <c r="E146" s="154"/>
-      <c r="F146" s="154"/>
+      <c r="F146" s="154" t="s">
+        <v>41</v>
+      </c>
       <c r="G146" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H146" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="H146" s="154"/>
       <c r="I146" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="J146" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="J146" s="154"/>
       <c r="K146" s="213" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="L146" s="425"/>
       <c r="M146" s="425"/>
@@ -24277,31 +24689,31 @@
       <c r="Q146" s="425"/>
       <c r="R146" s="425"/>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" ht="33.000000">
       <c r="A147" s="310">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B147" s="154" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C147" s="154" t="s">
-        <v>886</v>
-      </c>
+        <v>998</v>
+      </c>
+      <c r="C147" s="157"/>
       <c r="D147" s="154"/>
       <c r="E147" s="154"/>
-      <c r="F147" s="450" t="s">
+      <c r="F147" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="G147" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H147" s="450"/>
-      <c r="I147" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J147" s="450"/>
-      <c r="K147" s="448" t="s">
-        <v>933</v>
+      <c r="G147" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H147" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I147" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J147" s="154"/>
+      <c r="K147" s="283" t="s">
+        <v>1411</v>
       </c>
       <c r="L147" s="425"/>
       <c r="M147" s="425"/>
@@ -24311,31 +24723,31 @@
       <c r="Q147" s="425"/>
       <c r="R147" s="425"/>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" ht="82.500000">
       <c r="A148" s="310">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B148" s="154" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C148" s="154"/>
+        <v>999</v>
+      </c>
+      <c r="C148" s="157"/>
       <c r="D148" s="154"/>
       <c r="E148" s="154"/>
-      <c r="F148" s="450" t="s">
-        <v>41</v>
-      </c>
-      <c r="G148" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H148" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="I148" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J148" s="450"/>
-      <c r="K148" s="448" t="s">
-        <v>934</v>
+      <c r="F148" s="154" t="s">
+        <v>335</v>
+      </c>
+      <c r="G148" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H148" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I148" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J148" s="154"/>
+      <c r="K148" s="283" t="s">
+        <v>1412</v>
       </c>
       <c r="L148" s="425"/>
       <c r="M148" s="425"/>
@@ -24345,31 +24757,31 @@
       <c r="Q148" s="425"/>
       <c r="R148" s="425"/>
     </row>
-    <row r="149" spans="1:18" ht="82.500000">
+    <row r="149" spans="1:18">
       <c r="A149" s="310">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B149" s="154" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C149" s="154"/>
+        <v>1000</v>
+      </c>
+      <c r="C149" s="157"/>
       <c r="D149" s="154"/>
       <c r="E149" s="154"/>
-      <c r="F149" s="450" t="s">
-        <v>335</v>
-      </c>
-      <c r="G149" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H149" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="I149" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J149" s="450"/>
-      <c r="K149" s="362" t="s">
-        <v>1416</v>
+      <c r="F149" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="G149" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H149" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I149" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J149" s="154"/>
+      <c r="K149" s="213" t="s">
+        <v>1413</v>
       </c>
       <c r="L149" s="425"/>
       <c r="M149" s="425"/>
@@ -24381,29 +24793,29 @@
     </row>
     <row r="150" spans="1:18">
       <c r="A150" s="310">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B150" s="154" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C150" s="154"/>
+        <v>1001</v>
+      </c>
+      <c r="C150" s="157"/>
       <c r="D150" s="154"/>
       <c r="E150" s="154"/>
-      <c r="F150" s="450" t="s">
+      <c r="F150" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="G150" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H150" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="I150" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J150" s="450"/>
-      <c r="K150" s="448" t="s">
-        <v>1364</v>
+      <c r="G150" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H150" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I150" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J150" s="154"/>
+      <c r="K150" s="213" t="s">
+        <v>928</v>
       </c>
       <c r="L150" s="425"/>
       <c r="M150" s="425"/>
@@ -24415,29 +24827,29 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="310">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B151" s="154" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C151" s="154"/>
+        <v>1002</v>
+      </c>
+      <c r="C151" s="157"/>
       <c r="D151" s="154"/>
       <c r="E151" s="154"/>
-      <c r="F151" s="450" t="s">
+      <c r="F151" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="G151" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H151" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="I151" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J151" s="450"/>
-      <c r="K151" s="448" t="s">
-        <v>1365</v>
+      <c r="G151" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H151" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I151" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J151" s="154"/>
+      <c r="K151" s="213" t="s">
+        <v>929</v>
       </c>
       <c r="L151" s="425"/>
       <c r="M151" s="425"/>
@@ -24447,31 +24859,31 @@
       <c r="Q151" s="425"/>
       <c r="R151" s="425"/>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" ht="33.000000">
       <c r="A152" s="310">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B152" s="154" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C152" s="154"/>
+        <v>1003</v>
+      </c>
+      <c r="C152" s="157"/>
       <c r="D152" s="154"/>
       <c r="E152" s="154"/>
-      <c r="F152" s="450" t="s">
-        <v>41</v>
-      </c>
-      <c r="G152" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H152" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="I152" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J152" s="450"/>
-      <c r="K152" s="448" t="s">
-        <v>1366</v>
+      <c r="F152" s="154" t="s">
+        <v>335</v>
+      </c>
+      <c r="G152" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H152" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I152" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J152" s="154"/>
+      <c r="K152" s="283" t="s">
+        <v>930</v>
       </c>
       <c r="L152" s="425"/>
       <c r="M152" s="425"/>
@@ -24483,81 +24895,97 @@
     </row>
     <row r="153" spans="1:18" ht="33.000000">
       <c r="A153" s="310">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B153" s="154" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C153" s="165"/>
-      <c r="D153" s="165"/>
-      <c r="E153" s="165"/>
-      <c r="F153" s="450" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C153" s="157"/>
+      <c r="D153" s="154"/>
+      <c r="E153" s="154"/>
+      <c r="F153" s="154" t="s">
         <v>335</v>
       </c>
-      <c r="G153" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H153" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="I153" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J153" s="450"/>
-      <c r="K153" s="362" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" ht="33.000000">
+      <c r="G153" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H153" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I153" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J153" s="154"/>
+      <c r="K153" s="283" t="s">
+        <v>1414</v>
+      </c>
+      <c r="L153" s="425"/>
+      <c r="M153" s="425"/>
+      <c r="N153" s="425"/>
+      <c r="O153" s="425"/>
+      <c r="P153" s="425"/>
+      <c r="Q153" s="425"/>
+      <c r="R153" s="425"/>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" s="310">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B154" s="154" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C154" s="165"/>
-      <c r="D154" s="165"/>
-      <c r="E154" s="165"/>
-      <c r="F154" s="450" t="s">
-        <v>335</v>
-      </c>
-      <c r="G154" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H154" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="I154" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J154" s="450"/>
-      <c r="K154" s="362" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" ht="33.000000">
+        <v>1005</v>
+      </c>
+      <c r="C154" s="158"/>
+      <c r="D154" s="154"/>
+      <c r="E154" s="154"/>
+      <c r="F154" s="154"/>
+      <c r="G154" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H154" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I154" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J154" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="K154" s="213" t="s">
+        <v>1415</v>
+      </c>
+      <c r="L154" s="425"/>
+      <c r="M154" s="425"/>
+      <c r="N154" s="425"/>
+      <c r="O154" s="425"/>
+      <c r="P154" s="425"/>
+      <c r="Q154" s="425"/>
+      <c r="R154" s="425"/>
+    </row>
+    <row r="155" spans="1:18">
       <c r="A155" s="310">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B155" s="154" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C155" s="154"/>
+        <v>1006</v>
+      </c>
+      <c r="C155" s="154" t="s">
+        <v>886</v>
+      </c>
       <c r="D155" s="154"/>
       <c r="E155" s="154"/>
-      <c r="F155" s="450"/>
+      <c r="F155" s="450" t="s">
+        <v>41</v>
+      </c>
       <c r="G155" s="450" t="s">
         <v>44</v>
       </c>
-      <c r="H155" s="450" t="s">
-        <v>44</v>
-      </c>
+      <c r="H155" s="450"/>
       <c r="I155" s="450" t="s">
         <v>44</v>
       </c>
       <c r="J155" s="450"/>
       <c r="K155" s="448" t="s">
-        <v>1418</v>
+        <v>933</v>
       </c>
       <c r="L155" s="425"/>
       <c r="M155" s="425"/>
@@ -24569,29 +24997,29 @@
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="310">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B156" s="154" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C156" s="159" t="s">
-        <v>887</v>
-      </c>
+        <v>1007</v>
+      </c>
+      <c r="C156" s="154"/>
       <c r="D156" s="154"/>
       <c r="E156" s="154"/>
-      <c r="F156" s="154" t="s">
+      <c r="F156" s="450" t="s">
         <v>41</v>
       </c>
-      <c r="G156" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H156" s="154"/>
-      <c r="I156" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J156" s="154"/>
-      <c r="K156" s="213" t="s">
-        <v>936</v>
+      <c r="G156" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H156" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I156" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J156" s="450"/>
+      <c r="K156" s="448" t="s">
+        <v>934</v>
       </c>
       <c r="L156" s="425"/>
       <c r="M156" s="425"/>
@@ -24601,31 +25029,31 @@
       <c r="Q156" s="425"/>
       <c r="R156" s="425"/>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" ht="82.500000">
       <c r="A157" s="310">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B157" s="154" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C157" s="157"/>
+        <v>1008</v>
+      </c>
+      <c r="C157" s="154"/>
       <c r="D157" s="154"/>
       <c r="E157" s="154"/>
-      <c r="F157" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G157" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H157" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I157" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J157" s="154"/>
-      <c r="K157" s="213" t="s">
-        <v>937</v>
+      <c r="F157" s="450" t="s">
+        <v>335</v>
+      </c>
+      <c r="G157" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H157" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I157" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J157" s="450"/>
+      <c r="K157" s="362" t="s">
+        <v>1416</v>
       </c>
       <c r="L157" s="425"/>
       <c r="M157" s="425"/>
@@ -24635,31 +25063,31 @@
       <c r="Q157" s="425"/>
       <c r="R157" s="425"/>
     </row>
-    <row r="158" spans="1:18" ht="82.500000">
+    <row r="158" spans="1:18">
       <c r="A158" s="310">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B158" s="154" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C158" s="157"/>
+        <v>1009</v>
+      </c>
+      <c r="C158" s="154"/>
       <c r="D158" s="154"/>
       <c r="E158" s="154"/>
-      <c r="F158" s="154" t="s">
-        <v>335</v>
-      </c>
-      <c r="G158" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H158" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I158" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J158" s="154"/>
-      <c r="K158" s="283" t="s">
-        <v>1420</v>
+      <c r="F158" s="450" t="s">
+        <v>41</v>
+      </c>
+      <c r="G158" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H158" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I158" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J158" s="450"/>
+      <c r="K158" s="448" t="s">
+        <v>1364</v>
       </c>
       <c r="L158" s="425"/>
       <c r="M158" s="425"/>
@@ -24671,29 +25099,29 @@
     </row>
     <row r="159" spans="1:18">
       <c r="A159" s="310">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B159" s="154" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C159" s="157"/>
+        <v>1010</v>
+      </c>
+      <c r="C159" s="154"/>
       <c r="D159" s="154"/>
       <c r="E159" s="154"/>
-      <c r="F159" s="154" t="s">
+      <c r="F159" s="450" t="s">
         <v>41</v>
       </c>
-      <c r="G159" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H159" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I159" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J159" s="154"/>
+      <c r="G159" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H159" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I159" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J159" s="450"/>
       <c r="K159" s="448" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="L159" s="425"/>
       <c r="M159" s="425"/>
@@ -24705,29 +25133,29 @@
     </row>
     <row r="160" spans="1:18">
       <c r="A160" s="310">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B160" s="154" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C160" s="157"/>
+        <v>1011</v>
+      </c>
+      <c r="C160" s="154"/>
       <c r="D160" s="154"/>
       <c r="E160" s="154"/>
-      <c r="F160" s="154" t="s">
+      <c r="F160" s="450" t="s">
         <v>41</v>
       </c>
-      <c r="G160" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H160" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I160" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J160" s="154"/>
+      <c r="G160" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H160" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I160" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J160" s="450"/>
       <c r="K160" s="448" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="L160" s="425"/>
       <c r="M160" s="425"/>
@@ -24737,99 +25165,83 @@
       <c r="Q160" s="425"/>
       <c r="R160" s="425"/>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" ht="33.000000">
       <c r="A161" s="310">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B161" s="154" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C161" s="157"/>
-      <c r="D161" s="154"/>
-      <c r="E161" s="154"/>
-      <c r="F161" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G161" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H161" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I161" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J161" s="154"/>
-      <c r="K161" s="448" t="s">
-        <v>1366</v>
-      </c>
-      <c r="L161" s="425"/>
-      <c r="M161" s="425"/>
-      <c r="N161" s="425"/>
-      <c r="O161" s="425"/>
-      <c r="P161" s="425"/>
-      <c r="Q161" s="425"/>
-      <c r="R161" s="425"/>
+        <v>1012</v>
+      </c>
+      <c r="C161" s="165"/>
+      <c r="D161" s="165"/>
+      <c r="E161" s="165"/>
+      <c r="F161" s="450" t="s">
+        <v>335</v>
+      </c>
+      <c r="G161" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H161" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I161" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J161" s="450"/>
+      <c r="K161" s="362" t="s">
+        <v>1417</v>
+      </c>
     </row>
     <row r="162" spans="1:18" ht="33.000000">
       <c r="A162" s="310">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B162" s="154" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C162" s="157"/>
-      <c r="D162" s="154"/>
-      <c r="E162" s="154"/>
-      <c r="F162" s="154" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C162" s="165"/>
+      <c r="D162" s="165"/>
+      <c r="E162" s="165"/>
+      <c r="F162" s="450" t="s">
         <v>335</v>
       </c>
-      <c r="G162" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H162" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I162" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J162" s="154"/>
+      <c r="G162" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H162" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I162" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J162" s="450"/>
       <c r="K162" s="362" t="s">
-        <v>1417</v>
-      </c>
-      <c r="L162" s="425"/>
-      <c r="M162" s="425"/>
-      <c r="N162" s="425"/>
-      <c r="O162" s="425"/>
-      <c r="P162" s="425"/>
-      <c r="Q162" s="425"/>
-      <c r="R162" s="425"/>
+        <v>1368</v>
+      </c>
     </row>
     <row r="163" spans="1:18" ht="33.000000">
       <c r="A163" s="310">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B163" s="154" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C163" s="157"/>
+        <v>1371</v>
+      </c>
+      <c r="C163" s="154"/>
       <c r="D163" s="154"/>
       <c r="E163" s="154"/>
-      <c r="F163" s="154" t="s">
-        <v>335</v>
-      </c>
-      <c r="G163" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H163" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I163" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J163" s="154"/>
-      <c r="K163" s="362" t="s">
-        <v>1368</v>
+      <c r="F163" s="450"/>
+      <c r="G163" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H163" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I163" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J163" s="450"/>
+      <c r="K163" s="448" t="s">
+        <v>1418</v>
       </c>
       <c r="L163" s="425"/>
       <c r="M163" s="425"/>
@@ -24839,14 +25251,16 @@
       <c r="Q163" s="425"/>
       <c r="R163" s="425"/>
     </row>
-    <row r="164" spans="1:18" ht="16.750000" customHeight="1">
+    <row r="164" spans="1:18">
       <c r="A164" s="310">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B164" s="154" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C164" s="158"/>
+        <v>1013</v>
+      </c>
+      <c r="C164" s="159" t="s">
+        <v>887</v>
+      </c>
       <c r="D164" s="154"/>
       <c r="E164" s="154"/>
       <c r="F164" s="154" t="s">
@@ -24855,15 +25269,13 @@
       <c r="G164" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H164" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="H164" s="154"/>
       <c r="I164" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J164" s="154"/>
-      <c r="K164" s="448" t="s">
-        <v>1418</v>
+      <c r="K164" s="213" t="s">
+        <v>936</v>
       </c>
       <c r="L164" s="425"/>
       <c r="M164" s="425"/>
@@ -24875,18 +25287,16 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="310">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B165" s="154" t="s">
-        <v>992</v>
-      </c>
-      <c r="C165" s="159" t="s">
-        <v>1183</v>
-      </c>
+        <v>1014</v>
+      </c>
+      <c r="C165" s="157"/>
       <c r="D165" s="154"/>
       <c r="E165" s="154"/>
       <c r="F165" s="154" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G165" s="154" t="s">
         <v>44</v>
@@ -24898,8 +25308,8 @@
         <v>44</v>
       </c>
       <c r="J165" s="154"/>
-      <c r="K165" s="161" t="s">
-        <v>1166</v>
+      <c r="K165" s="213" t="s">
+        <v>937</v>
       </c>
       <c r="L165" s="425"/>
       <c r="M165" s="425"/>
@@ -24909,18 +25319,18 @@
       <c r="Q165" s="425"/>
       <c r="R165" s="425"/>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" ht="82.500000">
       <c r="A166" s="310">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B166" s="154" t="s">
-        <v>993</v>
+        <v>1015</v>
       </c>
       <c r="C166" s="157"/>
       <c r="D166" s="154"/>
       <c r="E166" s="154"/>
       <c r="F166" s="154" t="s">
-        <v>68</v>
+        <v>335</v>
       </c>
       <c r="G166" s="154" t="s">
         <v>44</v>
@@ -24932,8 +25342,8 @@
         <v>44</v>
       </c>
       <c r="J166" s="154"/>
-      <c r="K166" s="161" t="s">
-        <v>920</v>
+      <c r="K166" s="283" t="s">
+        <v>1420</v>
       </c>
       <c r="L166" s="425"/>
       <c r="M166" s="425"/>
@@ -24945,16 +25355,16 @@
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="310">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B167" s="154" t="s">
-        <v>994</v>
+        <v>1016</v>
       </c>
       <c r="C167" s="157"/>
       <c r="D167" s="154"/>
       <c r="E167" s="154"/>
       <c r="F167" s="154" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="G167" s="154" t="s">
         <v>44</v>
@@ -24966,8 +25376,8 @@
         <v>44</v>
       </c>
       <c r="J167" s="154"/>
-      <c r="K167" s="161" t="s">
-        <v>921</v>
+      <c r="K167" s="448" t="s">
+        <v>1364</v>
       </c>
       <c r="L167" s="425"/>
       <c r="M167" s="425"/>
@@ -24979,16 +25389,16 @@
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="310">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B168" s="154" t="s">
-        <v>995</v>
+        <v>1017</v>
       </c>
       <c r="C168" s="157"/>
       <c r="D168" s="154"/>
       <c r="E168" s="154"/>
       <c r="F168" s="154" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G168" s="154" t="s">
         <v>44</v>
@@ -25000,8 +25410,8 @@
         <v>44</v>
       </c>
       <c r="J168" s="154"/>
-      <c r="K168" s="161" t="s">
-        <v>922</v>
+      <c r="K168" s="448" t="s">
+        <v>1365</v>
       </c>
       <c r="L168" s="425"/>
       <c r="M168" s="425"/>
@@ -25013,16 +25423,16 @@
     </row>
     <row r="169" spans="1:18">
       <c r="A169" s="310">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B169" s="154" t="s">
-        <v>996</v>
-      </c>
-      <c r="C169" s="158"/>
+        <v>1018</v>
+      </c>
+      <c r="C169" s="157"/>
       <c r="D169" s="154"/>
       <c r="E169" s="154"/>
       <c r="F169" s="154" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G169" s="154" t="s">
         <v>44</v>
@@ -25034,8 +25444,8 @@
         <v>44</v>
       </c>
       <c r="J169" s="154"/>
-      <c r="K169" s="161" t="s">
-        <v>1340</v>
+      <c r="K169" s="448" t="s">
+        <v>1366</v>
       </c>
       <c r="L169" s="425"/>
       <c r="M169" s="425"/>
@@ -25045,33 +25455,31 @@
       <c r="Q169" s="425"/>
       <c r="R169" s="425"/>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" ht="33.000000">
       <c r="A170" s="310">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B170" s="154" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C170" s="159" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D170" s="159" t="s">
-        <v>24</v>
-      </c>
+        <v>1019</v>
+      </c>
+      <c r="C170" s="157"/>
+      <c r="D170" s="154"/>
       <c r="E170" s="154"/>
       <c r="F170" s="154" t="s">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="G170" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H170" s="154"/>
+      <c r="H170" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="I170" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J170" s="154"/>
-      <c r="K170" s="162" t="s">
-        <v>1178</v>
+      <c r="K170" s="362" t="s">
+        <v>1417</v>
       </c>
       <c r="L170" s="425"/>
       <c r="M170" s="425"/>
@@ -25081,25 +25489,31 @@
       <c r="Q170" s="425"/>
       <c r="R170" s="425"/>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" ht="33.000000">
       <c r="A171" s="310">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B171" s="154" t="s">
-        <v>1331</v>
+        <v>1020</v>
       </c>
       <c r="C171" s="157"/>
-      <c r="D171" s="158"/>
+      <c r="D171" s="154"/>
       <c r="E171" s="154"/>
-      <c r="F171" s="154"/>
+      <c r="F171" s="154" t="s">
+        <v>335</v>
+      </c>
       <c r="G171" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H171" s="154"/>
-      <c r="I171" s="154"/>
+      <c r="H171" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I171" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J171" s="154"/>
-      <c r="K171" s="161" t="s">
-        <v>78</v>
+      <c r="K171" s="362" t="s">
+        <v>1368</v>
       </c>
       <c r="L171" s="425"/>
       <c r="M171" s="425"/>
@@ -25109,17 +25523,15 @@
       <c r="Q171" s="425"/>
       <c r="R171" s="425"/>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" ht="16.750000" customHeight="1">
       <c r="A172" s="310">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B172" s="154" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C172" s="157"/>
-      <c r="D172" s="159" t="s">
-        <v>1177</v>
-      </c>
+        <v>1021</v>
+      </c>
+      <c r="C172" s="158"/>
+      <c r="D172" s="154"/>
       <c r="E172" s="154"/>
       <c r="F172" s="154" t="s">
         <v>41</v>
@@ -25127,13 +25539,15 @@
       <c r="G172" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H172" s="154"/>
+      <c r="H172" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="I172" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J172" s="154"/>
-      <c r="K172" s="162" t="s">
-        <v>1179</v>
+      <c r="K172" s="448" t="s">
+        <v>1418</v>
       </c>
       <c r="L172" s="425"/>
       <c r="M172" s="425"/>
@@ -25145,13 +25559,15 @@
     </row>
     <row r="173" spans="1:18">
       <c r="A173" s="310">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B173" s="154" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C173" s="157"/>
-      <c r="D173" s="157"/>
+        <v>992</v>
+      </c>
+      <c r="C173" s="159" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D173" s="154"/>
       <c r="E173" s="154"/>
       <c r="F173" s="154" t="s">
         <v>15</v>
@@ -25159,11 +25575,15 @@
       <c r="G173" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H173" s="154"/>
-      <c r="I173" s="154"/>
+      <c r="H173" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I173" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J173" s="154"/>
-      <c r="K173" s="162" t="s">
-        <v>1178</v>
+      <c r="K173" s="161" t="s">
+        <v>1166</v>
       </c>
       <c r="L173" s="425"/>
       <c r="M173" s="425"/>
@@ -25175,23 +25595,29 @@
     </row>
     <row r="174" spans="1:18">
       <c r="A174" s="310">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B174" s="154" t="s">
-        <v>1334</v>
+        <v>993</v>
       </c>
       <c r="C174" s="157"/>
-      <c r="D174" s="158"/>
+      <c r="D174" s="154"/>
       <c r="E174" s="154"/>
-      <c r="F174" s="154"/>
+      <c r="F174" s="154" t="s">
+        <v>68</v>
+      </c>
       <c r="G174" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H174" s="154"/>
-      <c r="I174" s="154"/>
+      <c r="H174" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I174" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J174" s="154"/>
       <c r="K174" s="161" t="s">
-        <v>78</v>
+        <v>920</v>
       </c>
       <c r="L174" s="425"/>
       <c r="M174" s="425"/>
@@ -25203,29 +25629,29 @@
     </row>
     <row r="175" spans="1:18">
       <c r="A175" s="310">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B175" s="154" t="s">
-        <v>1335</v>
+        <v>994</v>
       </c>
       <c r="C175" s="157"/>
-      <c r="D175" s="159" t="s">
-        <v>26</v>
-      </c>
+      <c r="D175" s="154"/>
       <c r="E175" s="154"/>
       <c r="F175" s="154" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="G175" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H175" s="154"/>
+      <c r="H175" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="I175" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J175" s="154"/>
-      <c r="K175" s="162" t="s">
-        <v>1180</v>
+      <c r="K175" s="161" t="s">
+        <v>921</v>
       </c>
       <c r="L175" s="425"/>
       <c r="M175" s="425"/>
@@ -25235,27 +25661,31 @@
       <c r="Q175" s="425"/>
       <c r="R175" s="425"/>
     </row>
-    <row r="176" spans="1:18" ht="18.400000" customHeight="1">
+    <row r="176" spans="1:18">
       <c r="A176" s="310">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B176" s="154" t="s">
-        <v>1336</v>
+        <v>995</v>
       </c>
       <c r="C176" s="157"/>
-      <c r="D176" s="157"/>
+      <c r="D176" s="154"/>
       <c r="E176" s="154"/>
       <c r="F176" s="154" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="G176" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H176" s="154"/>
-      <c r="I176" s="154"/>
+      <c r="H176" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I176" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J176" s="154"/>
-      <c r="K176" s="162" t="s">
-        <v>1181</v>
+      <c r="K176" s="161" t="s">
+        <v>922</v>
       </c>
       <c r="L176" s="425"/>
       <c r="M176" s="425"/>
@@ -25267,23 +25697,29 @@
     </row>
     <row r="177" spans="1:18">
       <c r="A177" s="310">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B177" s="154" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C177" s="157"/>
-      <c r="D177" s="158"/>
+        <v>996</v>
+      </c>
+      <c r="C177" s="158"/>
+      <c r="D177" s="154"/>
       <c r="E177" s="154"/>
-      <c r="F177" s="154"/>
+      <c r="F177" s="154" t="s">
+        <v>15</v>
+      </c>
       <c r="G177" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H177" s="154"/>
-      <c r="I177" s="154"/>
+      <c r="H177" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I177" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J177" s="154"/>
       <c r="K177" s="161" t="s">
-        <v>78</v>
+        <v>1340</v>
       </c>
       <c r="L177" s="425"/>
       <c r="M177" s="425"/>
@@ -25295,29 +25731,31 @@
     </row>
     <row r="178" spans="1:18">
       <c r="A178" s="310">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B178" s="154" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C178" s="158"/>
-      <c r="D178" s="154" t="s">
-        <v>69</v>
+        <v>1330</v>
+      </c>
+      <c r="C178" s="159" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D178" s="159" t="s">
+        <v>24</v>
       </c>
       <c r="E178" s="154"/>
       <c r="F178" s="154" t="s">
-        <v>68</v>
-      </c>
-      <c r="G178" s="154"/>
-      <c r="H178" s="154" t="s">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G178" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H178" s="154"/>
       <c r="I178" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J178" s="154"/>
       <c r="K178" s="162" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="L178" s="425"/>
       <c r="M178" s="425"/>
@@ -25328,11 +25766,273 @@
       <c r="R178" s="425"/>
     </row>
     <row r="179" spans="1:18">
-      <c r="B179" s="423"/>
-      <c r="K179" s="423"/>
+      <c r="A179" s="310">
+        <v>169</v>
+      </c>
+      <c r="B179" s="154" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C179" s="157"/>
+      <c r="D179" s="158"/>
+      <c r="E179" s="154"/>
+      <c r="F179" s="154"/>
+      <c r="G179" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H179" s="154"/>
+      <c r="I179" s="154"/>
+      <c r="J179" s="154"/>
+      <c r="K179" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="L179" s="425"/>
+      <c r="M179" s="425"/>
+      <c r="N179" s="425"/>
+      <c r="O179" s="425"/>
+      <c r="P179" s="425"/>
+      <c r="Q179" s="425"/>
+      <c r="R179" s="425"/>
+    </row>
+    <row r="180" spans="1:18">
+      <c r="A180" s="310">
+        <v>170</v>
+      </c>
+      <c r="B180" s="154" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C180" s="157"/>
+      <c r="D180" s="159" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E180" s="154"/>
+      <c r="F180" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="G180" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H180" s="154"/>
+      <c r="I180" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J180" s="154"/>
+      <c r="K180" s="162" t="s">
+        <v>1179</v>
+      </c>
+      <c r="L180" s="425"/>
+      <c r="M180" s="425"/>
+      <c r="N180" s="425"/>
+      <c r="O180" s="425"/>
+      <c r="P180" s="425"/>
+      <c r="Q180" s="425"/>
+      <c r="R180" s="425"/>
+    </row>
+    <row r="181" spans="1:18">
+      <c r="A181" s="310">
+        <v>171</v>
+      </c>
+      <c r="B181" s="154" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C181" s="157"/>
+      <c r="D181" s="157"/>
+      <c r="E181" s="154"/>
+      <c r="F181" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H181" s="154"/>
+      <c r="I181" s="154"/>
+      <c r="J181" s="154"/>
+      <c r="K181" s="162" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L181" s="425"/>
+      <c r="M181" s="425"/>
+      <c r="N181" s="425"/>
+      <c r="O181" s="425"/>
+      <c r="P181" s="425"/>
+      <c r="Q181" s="425"/>
+      <c r="R181" s="425"/>
+    </row>
+    <row r="182" spans="1:18">
+      <c r="A182" s="310">
+        <v>172</v>
+      </c>
+      <c r="B182" s="154" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C182" s="157"/>
+      <c r="D182" s="158"/>
+      <c r="E182" s="154"/>
+      <c r="F182" s="154"/>
+      <c r="G182" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H182" s="154"/>
+      <c r="I182" s="154"/>
+      <c r="J182" s="154"/>
+      <c r="K182" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="L182" s="425"/>
+      <c r="M182" s="425"/>
+      <c r="N182" s="425"/>
+      <c r="O182" s="425"/>
+      <c r="P182" s="425"/>
+      <c r="Q182" s="425"/>
+      <c r="R182" s="425"/>
+    </row>
+    <row r="183" spans="1:18">
+      <c r="A183" s="310">
+        <v>173</v>
+      </c>
+      <c r="B183" s="154" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C183" s="157"/>
+      <c r="D183" s="159" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" s="154"/>
+      <c r="F183" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="G183" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H183" s="154"/>
+      <c r="I183" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J183" s="154"/>
+      <c r="K183" s="162" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L183" s="425"/>
+      <c r="M183" s="425"/>
+      <c r="N183" s="425"/>
+      <c r="O183" s="425"/>
+      <c r="P183" s="425"/>
+      <c r="Q183" s="425"/>
+      <c r="R183" s="425"/>
+    </row>
+    <row r="184" spans="1:18" ht="18.400000" customHeight="1">
+      <c r="A184" s="310">
+        <v>174</v>
+      </c>
+      <c r="B184" s="154" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C184" s="157"/>
+      <c r="D184" s="157"/>
+      <c r="E184" s="154"/>
+      <c r="F184" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="G184" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H184" s="154"/>
+      <c r="I184" s="154"/>
+      <c r="J184" s="154"/>
+      <c r="K184" s="162" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L184" s="425"/>
+      <c r="M184" s="425"/>
+      <c r="N184" s="425"/>
+      <c r="O184" s="425"/>
+      <c r="P184" s="425"/>
+      <c r="Q184" s="425"/>
+      <c r="R184" s="425"/>
+    </row>
+    <row r="185" spans="1:18">
+      <c r="A185" s="310">
+        <v>175</v>
+      </c>
+      <c r="B185" s="154" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C185" s="157"/>
+      <c r="D185" s="158"/>
+      <c r="E185" s="154"/>
+      <c r="F185" s="154"/>
+      <c r="G185" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H185" s="154"/>
+      <c r="I185" s="154"/>
+      <c r="J185" s="154"/>
+      <c r="K185" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="L185" s="425"/>
+      <c r="M185" s="425"/>
+      <c r="N185" s="425"/>
+      <c r="O185" s="425"/>
+      <c r="P185" s="425"/>
+      <c r="Q185" s="425"/>
+      <c r="R185" s="425"/>
+    </row>
+    <row r="186" spans="1:18">
+      <c r="A186" s="310">
+        <v>176</v>
+      </c>
+      <c r="B186" s="154" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C186" s="158"/>
+      <c r="D186" s="154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="154"/>
+      <c r="F186" s="154" t="s">
+        <v>68</v>
+      </c>
+      <c r="G186" s="154"/>
+      <c r="H186" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I186" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J186" s="154"/>
+      <c r="K186" s="162" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L186" s="425"/>
+      <c r="M186" s="425"/>
+      <c r="N186" s="425"/>
+      <c r="O186" s="425"/>
+      <c r="P186" s="425"/>
+      <c r="Q186" s="425"/>
+      <c r="R186" s="425"/>
+    </row>
+    <row r="187" spans="1:18">
+      <c r="A187" s="423"/>
+      <c r="B187" s="423"/>
+      <c r="C187" s="423"/>
+      <c r="D187" s="423"/>
+      <c r="E187" s="423"/>
+      <c r="F187" s="423"/>
+      <c r="G187" s="423"/>
+      <c r="H187" s="423"/>
+      <c r="I187" s="423"/>
+      <c r="J187" s="423"/>
+      <c r="K187" s="423"/>
+      <c r="L187" s="423"/>
+      <c r="M187" s="423"/>
+      <c r="N187" s="423"/>
+      <c r="O187" s="423"/>
+      <c r="P187" s="423"/>
+      <c r="Q187" s="423"/>
+      <c r="R187" s="423"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="48">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -25348,35 +26048,39 @@
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C23:C48"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="C49:C61"/>
-    <mergeCell ref="C62:C72"/>
-    <mergeCell ref="C73:C101"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="D78:D86"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="D92:D101"/>
-    <mergeCell ref="C102:C137"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D105:D110"/>
-    <mergeCell ref="D111:D127"/>
-    <mergeCell ref="E111:E117"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="E121:E127"/>
-    <mergeCell ref="D128:D137"/>
-    <mergeCell ref="E128:E132"/>
-    <mergeCell ref="E133:E137"/>
-    <mergeCell ref="C138:C146"/>
-    <mergeCell ref="C147:C155"/>
-    <mergeCell ref="C156:C164"/>
-    <mergeCell ref="C165:C169"/>
-    <mergeCell ref="C170:C178"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="D172:D174"/>
-    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="C23:C56"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D39:D49"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="C57:C69"/>
+    <mergeCell ref="C70:C80"/>
+    <mergeCell ref="C81:C109"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D86:D94"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="D100:D109"/>
+    <mergeCell ref="C110:C145"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="D113:D118"/>
+    <mergeCell ref="D119:D135"/>
+    <mergeCell ref="E119:E125"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="E129:E135"/>
+    <mergeCell ref="D136:D145"/>
+    <mergeCell ref="E136:E140"/>
+    <mergeCell ref="E141:E145"/>
+    <mergeCell ref="C146:C154"/>
+    <mergeCell ref="C155:C163"/>
+    <mergeCell ref="C164:C172"/>
+    <mergeCell ref="C173:C177"/>
+    <mergeCell ref="C178:C186"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="D180:D182"/>
+    <mergeCell ref="D183:D185"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
+++ b/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="400" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의서-1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="1502">
   <si>
     <t>번호</t>
   </si>
@@ -15860,6 +15860,87 @@
   </si>
   <si>
     <t>ReWrite password</t>
+  </si>
+  <si>
+    <t>F-BP-BC-07</t>
+  </si>
+  <si>
+    <t>F-BP-BC-08</t>
+  </si>
+  <si>
+    <t>F-BP-BC-09</t>
+  </si>
+  <si>
+    <t>F-BP-BC-10</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>- 사용자가 선택한 교재의 상품명 데이터를 DB로부터 읽어와 입력</t>
+  </si>
+  <si>
+    <t>- 사용자가 선택한 교재의 할인가 데이터를 DB로부터 읽어와 입력</t>
+  </si>
+  <si>
+    <t>- 사용자로부터 입력 받은 교재 수량 데이터를 불러와 입력. 또는 사용자로부터 교재의 수량을 재입력 / 수정 받음</t>
+  </si>
+  <si>
+    <t>- 할인가와 수량을 곱셈하여 입력하고 DB 갱신</t>
+  </si>
+  <si>
+    <t>- 교재 목록을 장바구니에서 삭제하고 DB 갱신</t>
+  </si>
+  <si>
+    <t>- 장바구니의 입력 데이터를 DB에 저장하고 다음단계 주문결제 페이지로 이동</t>
+  </si>
+  <si>
+    <t>F-BP-BO-DI-08</t>
+  </si>
+  <si>
+    <t>- 사용자의 이름 데이터를 DB로부터 읽어와 입력</t>
+  </si>
+  <si>
+    <t>- [기본배송지] 선택시 DB 연동하여 데이터 자동 입력,  [신규배송지] 선택시 사용자 입력</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>- [기본배송지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>] 선택시 DB 연동하여 데이터 자동 입력,  [신규배송지] 선택시 사용자 입력</t>
+    </r>
+  </si>
+  <si>
+    <t>- 사용자가 선택한 [배송시 요청사항]을 DB에 저장</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">- 사용자가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>선택한 [배송시 요청사항]을 DB에 저장</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -15872,7 +15953,7 @@
     <numFmt numFmtId="66" formatCode="@"/>
     <numFmt numFmtId="67" formatCode="mm\-dd"/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="68">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -16255,22 +16336,17 @@
       <color theme="1"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <name val="Malgun Gothic"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color theme="1"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="Malgun Gothic"/>
-      <color rgb="FF000000"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16500,12 +16576,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -17068,7 +17138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="510">
+  <cellXfs count="509">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -18485,119 +18555,116 @@
     <xf numFmtId="49" fontId="46" fillId="0" borderId="33" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="33" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="38" borderId="33" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="38" borderId="33" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="66" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="39" borderId="33" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="39" borderId="33" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="67" fontId="34" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="67" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="33" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="67" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="66" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="38" borderId="33" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="38" borderId="33" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="40" borderId="33" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="40" borderId="33" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="67" fontId="34" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -18943,7 +19010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:J13"/>
     </sheetView>
   </sheetViews>
@@ -19558,7 +19625,7 @@
       <c r="K42" s="45"/>
     </row>
     <row r="43" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A43" s="506" t="s">
+      <c r="A43" s="499" t="s">
         <v>169</v>
       </c>
       <c r="B43" s="102" t="s">
@@ -19575,7 +19642,7 @@
       <c r="K43" s="45"/>
     </row>
     <row r="44" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A44" s="506" t="s">
+      <c r="A44" s="499" t="s">
         <v>196</v>
       </c>
       <c r="B44" s="102" t="s">
@@ -19591,14 +19658,14 @@
       <c r="J44" s="54"/>
       <c r="K44" s="45"/>
     </row>
-    <row r="45" spans="1:11" ht="16.500000">
-      <c r="A45" s="507" t="s">
+    <row r="45" spans="1:11">
+      <c r="A45" s="500" t="s">
         <v>1477</v>
       </c>
-      <c r="B45" s="508" t="s">
+      <c r="B45" s="501" t="s">
         <v>1478</v>
       </c>
-      <c r="C45" s="509"/>
+      <c r="C45" s="502"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
@@ -19606,10 +19673,10 @@
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
-      <c r="K45" s="502"/>
+      <c r="K45" s="496"/>
     </row>
     <row r="46" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A46" s="506" t="s">
+      <c r="A46" s="499" t="s">
         <v>198</v>
       </c>
       <c r="B46" s="102" t="s">
@@ -19625,14 +19692,14 @@
       <c r="J46" s="54"/>
       <c r="K46" s="45"/>
     </row>
-    <row r="47" spans="1:11" ht="16.500000">
-      <c r="A47" s="507" t="s">
+    <row r="47" spans="1:11">
+      <c r="A47" s="500" t="s">
         <v>1479</v>
       </c>
-      <c r="B47" s="508" t="s">
+      <c r="B47" s="501" t="s">
         <v>1482</v>
       </c>
-      <c r="C47" s="509"/>
+      <c r="C47" s="502"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
@@ -19640,16 +19707,16 @@
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
-      <c r="K47" s="502"/>
-    </row>
-    <row r="48" spans="1:11" ht="16.500000">
-      <c r="A48" s="507" t="s">
+      <c r="K47" s="496"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="500" t="s">
         <v>1480</v>
       </c>
-      <c r="B48" s="508" t="s">
+      <c r="B48" s="501" t="s">
         <v>1483</v>
       </c>
-      <c r="C48" s="509"/>
+      <c r="C48" s="502"/>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
@@ -19657,16 +19724,16 @@
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
       <c r="J48" s="30"/>
-      <c r="K48" s="502"/>
-    </row>
-    <row r="49" spans="1:11" ht="16.500000">
-      <c r="A49" s="507" t="s">
+      <c r="K48" s="496"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="500" t="s">
         <v>1481</v>
       </c>
-      <c r="B49" s="508" t="s">
+      <c r="B49" s="501" t="s">
         <v>1484</v>
       </c>
-      <c r="C49" s="509"/>
+      <c r="C49" s="502"/>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -19674,7 +19741,7 @@
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
       <c r="J49" s="30"/>
-      <c r="K49" s="502"/>
+      <c r="K49" s="496"/>
     </row>
     <row r="50" spans="1:11" ht="16.500000" customHeight="1">
       <c r="A50" s="102" t="s">
@@ -19694,7 +19761,7 @@
       <c r="K50" s="45"/>
     </row>
     <row r="51" spans="1:11" ht="16.500000" customHeight="1">
-      <c r="A51" s="506" t="s">
+      <c r="A51" s="499" t="s">
         <v>171</v>
       </c>
       <c r="B51" s="102" t="s">
@@ -20350,11 +20417,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R187"/>
+  <dimension ref="A1:R192"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23:C56"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K138" sqref="K138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -21017,7 +21084,6 @@
       <c r="K23" s="214" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="425"/>
     </row>
     <row r="24" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A24" s="310">
@@ -21043,7 +21109,6 @@
       <c r="K24" s="214" t="s">
         <v>1090</v>
       </c>
-      <c r="L24" s="425"/>
     </row>
     <row r="25" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A25" s="310">
@@ -21069,7 +21134,6 @@
       <c r="K25" s="214" t="s">
         <v>1091</v>
       </c>
-      <c r="L25" s="425"/>
     </row>
     <row r="26" spans="1:18" s="425" customFormat="1" ht="49.500000">
       <c r="A26" s="310">
@@ -21097,7 +21161,6 @@
       <c r="K26" s="214" t="s">
         <v>1092</v>
       </c>
-      <c r="L26" s="425"/>
     </row>
     <row r="27" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A27" s="310">
@@ -21123,7 +21186,6 @@
       <c r="K27" s="214" t="s">
         <v>1093</v>
       </c>
-      <c r="L27" s="425"/>
     </row>
     <row r="28" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A28" s="310">
@@ -21149,7 +21211,6 @@
       <c r="K28" s="214" t="s">
         <v>1095</v>
       </c>
-      <c r="L28" s="425"/>
     </row>
     <row r="29" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A29" s="310">
@@ -21175,7 +21236,6 @@
       <c r="K29" s="214" t="s">
         <v>1096</v>
       </c>
-      <c r="L29" s="425"/>
     </row>
     <row r="30" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A30" s="310">
@@ -21203,7 +21263,6 @@
       <c r="K30" s="214" t="s">
         <v>1464</v>
       </c>
-      <c r="L30" s="425"/>
     </row>
     <row r="31" spans="1:18" s="425" customFormat="1" ht="16.500000" customHeight="1">
       <c r="A31" s="310">
@@ -21229,7 +21288,6 @@
       <c r="K31" s="214" t="s">
         <v>1465</v>
       </c>
-      <c r="L31" s="425"/>
     </row>
     <row r="32" spans="1:18" s="425" customFormat="1" ht="33.000000">
       <c r="A32" s="310">
@@ -21257,9 +21315,8 @@
       <c r="K32" s="214" t="s">
         <v>1394</v>
       </c>
-      <c r="L32" s="425"/>
-    </row>
-    <row r="33" spans="1:12" s="425" customFormat="1">
+    </row>
+    <row r="33" spans="1:11" s="425" customFormat="1">
       <c r="A33" s="310">
         <v>31</v>
       </c>
@@ -21283,9 +21340,8 @@
       <c r="K33" s="214" t="s">
         <v>1395</v>
       </c>
-      <c r="L33" s="425"/>
-    </row>
-    <row r="34" spans="1:12" s="425" customFormat="1" ht="49.500000">
+    </row>
+    <row r="34" spans="1:11" s="425" customFormat="1" ht="49.500000">
       <c r="A34" s="310">
         <v>32</v>
       </c>
@@ -21311,9 +21367,8 @@
       <c r="K34" s="214" t="s">
         <v>1397</v>
       </c>
-      <c r="L34" s="425"/>
-    </row>
-    <row r="35" spans="1:12" s="425" customFormat="1">
+    </row>
+    <row r="35" spans="1:11" s="425" customFormat="1">
       <c r="A35" s="310">
         <v>33</v>
       </c>
@@ -21337,10 +21392,11 @@
       <c r="K35" s="214" t="s">
         <v>1096</v>
       </c>
-      <c r="L35" s="425"/>
-    </row>
-    <row r="36" spans="1:12" s="425" customFormat="1">
-      <c r="A36" s="206"/>
+    </row>
+    <row r="36" spans="1:11" s="425" customFormat="1">
+      <c r="A36" s="310">
+        <v>34</v>
+      </c>
       <c r="B36" s="462" t="s">
         <v>1430</v>
       </c>
@@ -21365,10 +21421,11 @@
       <c r="K36" s="465" t="s">
         <v>1398</v>
       </c>
-      <c r="L36" s="425"/>
-    </row>
-    <row r="37" spans="1:12" s="425" customFormat="1">
-      <c r="A37" s="206"/>
+    </row>
+    <row r="37" spans="1:11" s="425" customFormat="1">
+      <c r="A37" s="310">
+        <v>35</v>
+      </c>
       <c r="B37" s="462" t="s">
         <v>1431</v>
       </c>
@@ -21385,11 +21442,10 @@
       <c r="K37" s="465" t="s">
         <v>1466</v>
       </c>
-      <c r="L37" s="425"/>
-    </row>
-    <row r="38" spans="1:12" s="425" customFormat="1">
+    </row>
+    <row r="38" spans="1:11" s="425" customFormat="1">
       <c r="A38" s="310">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="462" t="s">
         <v>1432</v>
@@ -21407,10 +21463,11 @@
       <c r="K38" s="465" t="s">
         <v>1096</v>
       </c>
-      <c r="L38" s="425"/>
-    </row>
-    <row r="39" spans="1:12" s="425" customFormat="1">
-      <c r="A39" s="206"/>
+    </row>
+    <row r="39" spans="1:11" s="425" customFormat="1">
+      <c r="A39" s="310">
+        <v>37</v>
+      </c>
       <c r="B39" s="207" t="s">
         <v>467</v>
       </c>
@@ -21419,74 +21476,77 @@
         <v>399</v>
       </c>
       <c r="E39" s="206"/>
-      <c r="F39" s="477"/>
-      <c r="G39" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="473"/>
-      <c r="K39" s="474" t="s">
+      <c r="F39" s="207"/>
+      <c r="G39" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="154"/>
+      <c r="K39" s="214" t="s">
         <v>1452</v>
       </c>
-      <c r="L39" s="425"/>
-    </row>
-    <row r="40" spans="1:12" s="425" customFormat="1" ht="33.000000">
-      <c r="A40" s="206"/>
+    </row>
+    <row r="40" spans="1:11" s="425" customFormat="1" ht="33.000000">
+      <c r="A40" s="310">
+        <v>38</v>
+      </c>
       <c r="B40" s="207" t="s">
         <v>468</v>
       </c>
       <c r="C40" s="206"/>
       <c r="D40" s="259"/>
       <c r="E40" s="206"/>
-      <c r="F40" s="477" t="s">
+      <c r="F40" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="G40" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J40" s="473"/>
-      <c r="K40" s="474" t="s">
+      <c r="G40" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="154"/>
+      <c r="K40" s="214" t="s">
         <v>1400</v>
       </c>
-      <c r="L40" s="425"/>
-    </row>
-    <row r="41" spans="1:12" s="425" customFormat="1">
-      <c r="A41" s="206"/>
+    </row>
+    <row r="41" spans="1:11" s="425" customFormat="1">
+      <c r="A41" s="310">
+        <v>39</v>
+      </c>
       <c r="B41" s="207" t="s">
         <v>469</v>
       </c>
       <c r="C41" s="206"/>
       <c r="D41" s="259"/>
       <c r="E41" s="206"/>
-      <c r="F41" s="477"/>
-      <c r="G41" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J41" s="473"/>
-      <c r="K41" s="474" t="s">
+      <c r="F41" s="207"/>
+      <c r="G41" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="154"/>
+      <c r="K41" s="214" t="s">
         <v>1453</v>
       </c>
-      <c r="L41" s="425"/>
-    </row>
-    <row r="42" spans="1:12" s="425" customFormat="1">
-      <c r="A42" s="206"/>
+    </row>
+    <row r="42" spans="1:11" s="425" customFormat="1">
+      <c r="A42" s="310">
+        <v>40</v>
+      </c>
       <c r="B42" s="462" t="s">
         <v>1435</v>
       </c>
@@ -21495,49 +21555,49 @@
       <c r="E42" s="348" t="s">
         <v>403</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" s="473"/>
-      <c r="K42" s="475" t="s">
+      <c r="F42" s="207"/>
+      <c r="G42" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="154"/>
+      <c r="K42" s="472" t="s">
         <v>1467</v>
       </c>
-      <c r="L42" s="425"/>
-    </row>
-    <row r="43" spans="1:12" s="425" customFormat="1">
-      <c r="A43" s="206"/>
+    </row>
+    <row r="43" spans="1:11" s="425" customFormat="1">
+      <c r="A43" s="310">
+        <v>41</v>
+      </c>
       <c r="B43" s="462" t="s">
         <v>1436</v>
       </c>
       <c r="C43" s="206"/>
       <c r="D43" s="259"/>
       <c r="E43" s="463"/>
-      <c r="F43" s="477"/>
-      <c r="G43" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J43" s="473"/>
-      <c r="K43" s="474" t="s">
+      <c r="F43" s="207"/>
+      <c r="G43" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="154"/>
+      <c r="K43" s="214" t="s">
         <v>1468</v>
       </c>
-      <c r="L43" s="425"/>
-    </row>
-    <row r="44" spans="1:12" s="425" customFormat="1">
+    </row>
+    <row r="44" spans="1:11" s="425" customFormat="1">
       <c r="A44" s="310">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B44" s="462" t="s">
         <v>1437</v>
@@ -21545,25 +21605,24 @@
       <c r="C44" s="207"/>
       <c r="D44" s="227"/>
       <c r="E44" s="157"/>
-      <c r="F44" s="477"/>
-      <c r="G44" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" s="473"/>
-      <c r="K44" s="474" t="s">
+      <c r="F44" s="207"/>
+      <c r="G44" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="154"/>
+      <c r="K44" s="214" t="s">
         <v>1469</v>
       </c>
-      <c r="L44" s="425"/>
-    </row>
-    <row r="45" spans="1:12" s="425" customFormat="1" ht="49.500000">
+    </row>
+    <row r="45" spans="1:11" s="425" customFormat="1" ht="49.500000">
       <c r="A45" s="310">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B45" s="462" t="s">
         <v>1438</v>
@@ -21571,25 +21630,24 @@
       <c r="C45" s="207"/>
       <c r="D45" s="227"/>
       <c r="E45" s="158"/>
-      <c r="F45" s="477"/>
-      <c r="G45" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J45" s="473"/>
-      <c r="K45" s="474" t="s">
+      <c r="F45" s="207"/>
+      <c r="G45" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="154"/>
+      <c r="K45" s="214" t="s">
         <v>1471</v>
       </c>
-      <c r="L45" s="425"/>
-    </row>
-    <row r="46" spans="1:12" s="425" customFormat="1">
+    </row>
+    <row r="46" spans="1:11" s="425" customFormat="1">
       <c r="A46" s="310">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B46" s="462" t="s">
         <v>1439</v>
@@ -21599,25 +21657,24 @@
       <c r="E46" s="159" t="s">
         <v>1451</v>
       </c>
-      <c r="F46" s="477"/>
-      <c r="G46" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I46" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="473"/>
-      <c r="K46" s="474" t="s">
+      <c r="F46" s="207"/>
+      <c r="G46" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="154"/>
+      <c r="K46" s="214" t="s">
         <v>1472</v>
       </c>
-      <c r="L46" s="425"/>
-    </row>
-    <row r="47" spans="1:12" s="425" customFormat="1">
+    </row>
+    <row r="47" spans="1:11" s="425" customFormat="1">
       <c r="A47" s="310">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B47" s="462" t="s">
         <v>1440</v>
@@ -21625,25 +21682,24 @@
       <c r="C47" s="207"/>
       <c r="D47" s="227"/>
       <c r="E47" s="468"/>
-      <c r="F47" s="477"/>
-      <c r="G47" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J47" s="473"/>
-      <c r="K47" s="474" t="s">
+      <c r="F47" s="207"/>
+      <c r="G47" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47" s="154"/>
+      <c r="K47" s="214" t="s">
         <v>1473</v>
       </c>
-      <c r="L47" s="425"/>
-    </row>
-    <row r="48" spans="1:12" s="425" customFormat="1" ht="33.000000">
+    </row>
+    <row r="48" spans="1:11" s="425" customFormat="1" ht="33.000000">
       <c r="A48" s="310">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B48" s="462" t="s">
         <v>1441</v>
@@ -21651,25 +21707,24 @@
       <c r="C48" s="207"/>
       <c r="D48" s="227"/>
       <c r="E48" s="468"/>
-      <c r="F48" s="477"/>
-      <c r="G48" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J48" s="473"/>
-      <c r="K48" s="474" t="s">
+      <c r="F48" s="207"/>
+      <c r="G48" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="154"/>
+      <c r="K48" s="214" t="s">
         <v>1474</v>
       </c>
-      <c r="L48" s="425"/>
     </row>
     <row r="49" spans="1:18" s="425" customFormat="1">
       <c r="A49" s="310">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B49" s="462" t="s">
         <v>1442</v>
@@ -21677,27 +21732,26 @@
       <c r="C49" s="207"/>
       <c r="D49" s="466"/>
       <c r="E49" s="158"/>
-      <c r="F49" s="477" t="s">
+      <c r="F49" s="207" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J49" s="473"/>
-      <c r="K49" s="474" t="s">
+      <c r="G49" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" s="154"/>
+      <c r="K49" s="214" t="s">
         <v>1461</v>
       </c>
-      <c r="L49" s="425"/>
     </row>
     <row r="50" spans="1:18" s="425" customFormat="1">
       <c r="A50" s="310">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B50" s="462" t="s">
         <v>1443</v>
@@ -21707,27 +21761,26 @@
         <v>1450</v>
       </c>
       <c r="E50" s="154"/>
-      <c r="F50" s="477" t="s">
+      <c r="F50" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I50" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J50" s="473"/>
-      <c r="K50" s="474" t="s">
+      <c r="G50" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="154"/>
+      <c r="K50" s="214" t="s">
         <v>1475</v>
       </c>
-      <c r="L50" s="425"/>
     </row>
     <row r="51" spans="1:18" s="425" customFormat="1" ht="33.000000">
       <c r="A51" s="310">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B51" s="462" t="s">
         <v>1444</v>
@@ -21735,31 +21788,24 @@
       <c r="C51" s="207"/>
       <c r="D51" s="227"/>
       <c r="E51" s="154"/>
-      <c r="F51" s="477"/>
-      <c r="G51" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I51" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J51" s="476"/>
-      <c r="K51" s="474" t="s">
+      <c r="F51" s="207"/>
+      <c r="G51" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51" s="213"/>
+      <c r="K51" s="214" t="s">
         <v>1462</v>
       </c>
-      <c r="L51" s="425"/>
-      <c r="M51" s="425"/>
-      <c r="N51" s="425"/>
-      <c r="O51" s="425"/>
-      <c r="P51" s="425"/>
-      <c r="Q51" s="425"/>
-      <c r="R51" s="425"/>
     </row>
     <row r="52" spans="1:18" s="425" customFormat="1" ht="33.000000">
       <c r="A52" s="310">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B52" s="462" t="s">
         <v>1445</v>
@@ -21767,33 +21813,26 @@
       <c r="C52" s="207"/>
       <c r="D52" s="227"/>
       <c r="E52" s="207"/>
-      <c r="F52" s="477" t="s">
+      <c r="F52" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I52" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J52" s="473"/>
-      <c r="K52" s="474" t="s">
+      <c r="G52" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" s="154"/>
+      <c r="K52" s="214" t="s">
         <v>1405</v>
       </c>
-      <c r="L52" s="425"/>
-      <c r="M52" s="425"/>
-      <c r="N52" s="425"/>
-      <c r="O52" s="425"/>
-      <c r="P52" s="425"/>
-      <c r="Q52" s="425"/>
-      <c r="R52" s="425"/>
     </row>
     <row r="53" spans="1:18" s="425" customFormat="1">
       <c r="A53" s="310">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B53" s="462" t="s">
         <v>1446</v>
@@ -21803,31 +21842,24 @@
       <c r="E53" s="217" t="s">
         <v>479</v>
       </c>
-      <c r="F53" s="477"/>
-      <c r="G53" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I53" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J53" s="473"/>
-      <c r="K53" s="474" t="s">
+      <c r="F53" s="207"/>
+      <c r="G53" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" s="154"/>
+      <c r="K53" s="214" t="s">
         <v>1406</v>
       </c>
-      <c r="L53" s="425"/>
-      <c r="M53" s="425"/>
-      <c r="N53" s="425"/>
-      <c r="O53" s="425"/>
-      <c r="P53" s="425"/>
-      <c r="Q53" s="425"/>
-      <c r="R53" s="425"/>
     </row>
     <row r="54" spans="1:18" s="425" customFormat="1">
       <c r="A54" s="310">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B54" s="462" t="s">
         <v>1447</v>
@@ -21835,56 +21867,50 @@
       <c r="C54" s="207"/>
       <c r="D54" s="227"/>
       <c r="E54" s="218"/>
-      <c r="F54" s="477"/>
-      <c r="G54" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I54" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J54" s="473"/>
-      <c r="K54" s="474" t="s">
+      <c r="F54" s="207"/>
+      <c r="G54" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I54" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" s="154"/>
+      <c r="K54" s="214" t="s">
         <v>1407</v>
       </c>
-      <c r="L54" s="425"/>
-      <c r="M54" s="425"/>
-      <c r="N54" s="425"/>
-      <c r="O54" s="425"/>
-      <c r="P54" s="425"/>
-      <c r="Q54" s="425"/>
-      <c r="R54" s="425"/>
     </row>
     <row r="55" spans="1:18" s="425" customFormat="1">
+      <c r="A55" s="310">
+        <v>53</v>
+      </c>
       <c r="B55" s="462" t="s">
         <v>1448</v>
       </c>
-      <c r="C55" s="425"/>
       <c r="D55" s="259"/>
       <c r="E55" s="463"/>
-      <c r="F55" s="477" t="s">
+      <c r="F55" s="207" t="s">
         <v>118</v>
       </c>
-      <c r="G55" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="I55" s="473" t="s">
-        <v>44</v>
-      </c>
-      <c r="J55" s="473"/>
-      <c r="K55" s="474" t="s">
+      <c r="G55" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55" s="154"/>
+      <c r="K55" s="214" t="s">
         <v>1408</v>
       </c>
-      <c r="L55" s="425"/>
     </row>
     <row r="56" spans="1:18" s="425" customFormat="1">
       <c r="A56" s="310">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B56" s="462" t="s">
         <v>1449</v>
@@ -21906,17 +21932,10 @@
       <c r="K56" s="465" t="s">
         <v>778</v>
       </c>
-      <c r="L56" s="425"/>
-      <c r="M56" s="425"/>
-      <c r="N56" s="425"/>
-      <c r="O56" s="425"/>
-      <c r="P56" s="425"/>
-      <c r="Q56" s="425"/>
-      <c r="R56" s="425"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="310">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B57" s="154" t="s">
         <v>1063</v>
@@ -21948,7 +21967,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="310">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B58" s="154" t="s">
         <v>1064</v>
@@ -21978,7 +21997,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="310">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B59" s="154" t="s">
         <v>1065</v>
@@ -22012,7 +22031,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="310">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B60" s="154" t="s">
         <v>1066</v>
@@ -22046,7 +22065,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="310">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B61" s="154" t="s">
         <v>1067</v>
@@ -22080,7 +22099,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="310">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B62" s="154" t="s">
         <v>1068</v>
@@ -22114,7 +22133,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="310">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B63" s="154" t="s">
         <v>1069</v>
@@ -22148,7 +22167,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="310">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B64" s="154" t="s">
         <v>1070</v>
@@ -22182,7 +22201,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="310">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B65" s="154" t="s">
         <v>1071</v>
@@ -22216,7 +22235,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="310">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B66" s="154" t="s">
         <v>1072</v>
@@ -22250,7 +22269,7 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="310">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B67" s="154" t="s">
         <v>1073</v>
@@ -22284,7 +22303,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="310">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B68" s="154" t="s">
         <v>1074</v>
@@ -22311,7 +22330,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="310">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B69" s="154" t="s">
         <v>1075</v>
@@ -22343,7 +22362,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="310">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B70" s="154" t="s">
         <v>1252</v>
@@ -22379,7 +22398,7 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="310">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B71" s="154" t="s">
         <v>1253</v>
@@ -22413,7 +22432,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="310">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B72" s="154" t="s">
         <v>1254</v>
@@ -22447,7 +22466,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="310">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B73" s="154" t="s">
         <v>1255</v>
@@ -22481,7 +22500,7 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="310">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B74" s="154" t="s">
         <v>1256</v>
@@ -22515,7 +22534,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="310">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B75" s="154" t="s">
         <v>1257</v>
@@ -22549,7 +22568,7 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="310">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B76" s="154" t="s">
         <v>1258</v>
@@ -22583,7 +22602,7 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="310">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B77" s="154" t="s">
         <v>1259</v>
@@ -22617,7 +22636,7 @@
     </row>
     <row r="78" spans="1:18" ht="19.250000" customHeight="1">
       <c r="A78" s="310">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B78" s="154" t="s">
         <v>1260</v>
@@ -22651,7 +22670,7 @@
     </row>
     <row r="79" spans="1:18" ht="19.250000">
       <c r="A79" s="310">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B79" s="154" t="s">
         <v>1261</v>
@@ -22678,7 +22697,7 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="310">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B80" s="154" t="s">
         <v>1393</v>
@@ -22710,7 +22729,7 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="310">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B81" s="154" t="s">
         <v>1342</v>
@@ -22746,7 +22765,7 @@
     </row>
     <row r="82" spans="1:18" ht="33.000000">
       <c r="A82" s="310">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B82" s="154" t="s">
         <v>1343</v>
@@ -22780,7 +22799,7 @@
     </row>
     <row r="83" spans="1:18" ht="33.000000">
       <c r="A83" s="310">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B83" s="154" t="s">
         <v>1344</v>
@@ -22814,7 +22833,7 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="310">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B84" s="154" t="s">
         <v>1345</v>
@@ -22844,7 +22863,7 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="310">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B85" s="154" t="s">
         <v>1346</v>
@@ -22870,7 +22889,7 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="310">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B86" s="154" t="s">
         <v>1104</v>
@@ -22904,7 +22923,7 @@
     </row>
     <row r="87" spans="1:18" ht="49.500000">
       <c r="A87" s="310">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B87" s="154" t="s">
         <v>1105</v>
@@ -22938,7 +22957,7 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="310">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B88" s="154" t="s">
         <v>1106</v>
@@ -22970,7 +22989,7 @@
     </row>
     <row r="89" spans="1:18" ht="49.500000">
       <c r="A89" s="310">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B89" s="154" t="s">
         <v>1107</v>
@@ -23004,7 +23023,7 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="310">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B90" s="154" t="s">
         <v>1108</v>
@@ -23034,7 +23053,7 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="310">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B91" s="154" t="s">
         <v>1109</v>
@@ -23064,7 +23083,7 @@
     </row>
     <row r="92" spans="1:18" ht="33.000000">
       <c r="A92" s="310">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B92" s="154" t="s">
         <v>1110</v>
@@ -23096,7 +23115,7 @@
     </row>
     <row r="93" spans="1:18" ht="33.000000">
       <c r="A93" s="310">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B93" s="154" t="s">
         <v>1111</v>
@@ -23124,7 +23143,7 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="310">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B94" s="154" t="s">
         <v>1112</v>
@@ -23154,7 +23173,7 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="310">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B95" s="154" t="s">
         <v>1113</v>
@@ -23188,7 +23207,7 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="310">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B96" s="154" t="s">
         <v>1114</v>
@@ -23220,7 +23239,7 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="310">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B97" s="154" t="s">
         <v>1115</v>
@@ -23252,7 +23271,7 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="310">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B98" s="154" t="s">
         <v>1116</v>
@@ -23280,7 +23299,7 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="310">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B99" s="154" t="s">
         <v>1117</v>
@@ -23308,7 +23327,7 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="310">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B100" s="154" t="s">
         <v>1118</v>
@@ -23342,7 +23361,7 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="310">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B101" s="154" t="s">
         <v>1119</v>
@@ -23374,7 +23393,7 @@
     </row>
     <row r="102" spans="1:18" ht="49.500000">
       <c r="A102" s="310">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B102" s="154" t="s">
         <v>1120</v>
@@ -23406,7 +23425,7 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="310">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B103" s="154" t="s">
         <v>1121</v>
@@ -23438,7 +23457,7 @@
     </row>
     <row r="104" spans="1:18" ht="49.500000">
       <c r="A104" s="310">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B104" s="154" t="s">
         <v>1122</v>
@@ -23472,7 +23491,7 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="310">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B105" s="154" t="s">
         <v>1123</v>
@@ -23502,7 +23521,7 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="310">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B106" s="154" t="s">
         <v>1124</v>
@@ -23525,7 +23544,7 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="310">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B107" s="154" t="s">
         <v>1359</v>
@@ -23548,7 +23567,7 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="310">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B108" s="154" t="s">
         <v>1360</v>
@@ -23569,7 +23588,7 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="310">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B109" s="154" t="s">
         <v>1361</v>
@@ -23599,7 +23618,7 @@
     </row>
     <row r="110" spans="1:18" ht="16.500000" customHeight="1">
       <c r="A110" s="310">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B110" s="335" t="s">
         <v>1299</v>
@@ -23635,7 +23654,7 @@
     </row>
     <row r="111" spans="1:18" ht="16.500000" customHeight="1">
       <c r="A111" s="310">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B111" s="335" t="s">
         <v>1300</v>
@@ -23669,7 +23688,7 @@
     </row>
     <row r="112" spans="1:18" ht="16.500000" customHeight="1">
       <c r="A112" s="310">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B112" s="335" t="s">
         <v>1301</v>
@@ -23701,9 +23720,9 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="310">
-        <v>103</v>
-      </c>
-      <c r="B113" s="335" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="503" t="s">
         <v>1303</v>
       </c>
       <c r="C113" s="90"/>
@@ -23711,21 +23730,17 @@
         <v>513</v>
       </c>
       <c r="E113" s="335"/>
-      <c r="F113" s="335" t="s">
-        <v>335</v>
-      </c>
-      <c r="G113" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H113" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I113" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J113" s="335"/>
-      <c r="K113" s="283" t="s">
-        <v>1263</v>
+      <c r="F113" s="503" t="s">
+        <v>41</v>
+      </c>
+      <c r="G113" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H113" s="503"/>
+      <c r="I113" s="503"/>
+      <c r="J113" s="503"/>
+      <c r="K113" s="504" t="s">
+        <v>1490</v>
       </c>
       <c r="L113" s="425"/>
       <c r="M113" s="425"/>
@@ -23737,155 +23752,129 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="310">
-        <v>104</v>
-      </c>
-      <c r="B114" s="335" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="503" t="s">
         <v>1304</v>
       </c>
-      <c r="C114" s="90"/>
-      <c r="D114" s="335"/>
-      <c r="E114" s="335"/>
-      <c r="F114" s="335" t="s">
-        <v>118</v>
-      </c>
-      <c r="G114" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H114" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I114" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J114" s="335"/>
-      <c r="K114" s="283" t="s">
-        <v>787</v>
-      </c>
-      <c r="L114" s="425"/>
-      <c r="M114" s="425"/>
-      <c r="N114" s="425"/>
-      <c r="O114" s="425"/>
-      <c r="P114" s="425"/>
-      <c r="Q114" s="425"/>
-      <c r="R114" s="425"/>
+      <c r="C114" s="165"/>
+      <c r="D114" s="165"/>
+      <c r="E114" s="165"/>
+      <c r="F114" s="503" t="s">
+        <v>41</v>
+      </c>
+      <c r="G114" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H114" s="503"/>
+      <c r="I114" s="503"/>
+      <c r="J114" s="503"/>
+      <c r="K114" s="504" t="s">
+        <v>1490</v>
+      </c>
+      <c r="L114" s="423"/>
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="310">
-        <v>105</v>
-      </c>
-      <c r="B115" s="335" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="503" t="s">
         <v>1305</v>
       </c>
-      <c r="C115" s="90"/>
-      <c r="D115" s="335"/>
-      <c r="E115" s="335"/>
-      <c r="F115" s="335" t="s">
-        <v>68</v>
-      </c>
-      <c r="G115" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H115" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I115" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J115" s="335"/>
-      <c r="K115" s="283" t="s">
-        <v>788</v>
-      </c>
-      <c r="L115" s="425"/>
-      <c r="M115" s="425"/>
-      <c r="N115" s="425"/>
-      <c r="O115" s="425"/>
-      <c r="P115" s="425"/>
-      <c r="Q115" s="425"/>
-      <c r="R115" s="425"/>
+      <c r="C115" s="165"/>
+      <c r="D115" s="165"/>
+      <c r="E115" s="165"/>
+      <c r="F115" s="503" t="s">
+        <v>41</v>
+      </c>
+      <c r="G115" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H115" s="503"/>
+      <c r="I115" s="503"/>
+      <c r="J115" s="503"/>
+      <c r="K115" s="504" t="s">
+        <v>1491</v>
+      </c>
+      <c r="L115" s="423"/>
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="310">
-        <v>106</v>
-      </c>
-      <c r="B116" s="335" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="503" t="s">
         <v>1306</v>
       </c>
-      <c r="C116" s="90"/>
-      <c r="D116" s="335"/>
-      <c r="E116" s="335"/>
-      <c r="F116" s="335" t="s">
-        <v>118</v>
-      </c>
-      <c r="G116" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H116" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I116" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J116" s="335"/>
-      <c r="K116" s="283" t="s">
-        <v>790</v>
-      </c>
-      <c r="L116" s="425"/>
-      <c r="M116" s="425"/>
-      <c r="N116" s="425"/>
-      <c r="O116" s="425"/>
-      <c r="P116" s="425"/>
-      <c r="Q116" s="425"/>
-      <c r="R116" s="425"/>
+      <c r="C116" s="165"/>
+      <c r="D116" s="165"/>
+      <c r="E116" s="165"/>
+      <c r="F116" s="503" t="s">
+        <v>335</v>
+      </c>
+      <c r="G116" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H116" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="I116" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="J116" s="503"/>
+      <c r="K116" s="504" t="s">
+        <v>1492</v>
+      </c>
+      <c r="L116" s="423"/>
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="310">
-        <v>107</v>
-      </c>
-      <c r="B117" s="335" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="503" t="s">
         <v>1307</v>
       </c>
-      <c r="C117" s="90"/>
-      <c r="D117" s="335"/>
-      <c r="E117" s="335"/>
-      <c r="F117" s="335"/>
-      <c r="G117" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H117" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I117" s="335"/>
-      <c r="J117" s="335"/>
-      <c r="K117" s="283" t="s">
-        <v>1264</v>
-      </c>
-      <c r="L117" s="425"/>
-      <c r="M117" s="425"/>
-      <c r="N117" s="425"/>
-      <c r="O117" s="425"/>
-      <c r="P117" s="425"/>
-      <c r="Q117" s="425"/>
-      <c r="R117" s="425"/>
+      <c r="C117" s="165"/>
+      <c r="D117" s="165"/>
+      <c r="E117" s="165"/>
+      <c r="F117" s="503" t="s">
+        <v>118</v>
+      </c>
+      <c r="G117" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H117" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="I117" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="J117" s="503"/>
+      <c r="K117" s="504" t="s">
+        <v>787</v>
+      </c>
+      <c r="L117" s="423"/>
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="310">
-        <v>108</v>
-      </c>
-      <c r="B118" s="335" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="503" t="s">
         <v>1308</v>
       </c>
       <c r="C118" s="90"/>
       <c r="D118" s="335"/>
       <c r="E118" s="335"/>
-      <c r="F118" s="335"/>
-      <c r="G118" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H118" s="335"/>
-      <c r="I118" s="335"/>
-      <c r="J118" s="335"/>
-      <c r="K118" s="283" t="s">
-        <v>792</v>
+      <c r="F118" s="503" t="s">
+        <v>335</v>
+      </c>
+      <c r="G118" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H118" s="503"/>
+      <c r="I118" s="503"/>
+      <c r="J118" s="503"/>
+      <c r="K118" s="504" t="s">
+        <v>1493</v>
       </c>
       <c r="L118" s="425"/>
       <c r="M118" s="425"/>
@@ -23897,33 +23886,29 @@
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="310">
-        <v>109</v>
-      </c>
-      <c r="B119" s="335" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="90" t="s">
-        <v>538</v>
-      </c>
-      <c r="E119" s="335" t="s">
-        <v>729</v>
-      </c>
-      <c r="F119" s="335" t="s">
-        <v>41</v>
-      </c>
-      <c r="G119" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H119" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I119" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J119" s="335"/>
-      <c r="K119" s="283" t="s">
-        <v>1265</v>
+        <v>117</v>
+      </c>
+      <c r="B119" s="503" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C119" s="90"/>
+      <c r="D119" s="335"/>
+      <c r="E119" s="335"/>
+      <c r="F119" s="503" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G119" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H119" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="I119" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="J119" s="503"/>
+      <c r="K119" s="504" t="s">
+        <v>1494</v>
       </c>
       <c r="L119" s="425"/>
       <c r="M119" s="425"/>
@@ -23935,29 +23920,29 @@
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="310">
-        <v>110</v>
-      </c>
-      <c r="B120" s="335" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="90"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="503" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C120" s="90"/>
+      <c r="D120" s="335"/>
       <c r="E120" s="335"/>
-      <c r="F120" s="335" t="s">
+      <c r="F120" s="503" t="s">
         <v>15</v>
       </c>
-      <c r="G120" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H120" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I120" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J120" s="335"/>
-      <c r="K120" s="283" t="s">
-        <v>795</v>
+      <c r="G120" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H120" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="I120" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="J120" s="503"/>
+      <c r="K120" s="504" t="s">
+        <v>1495</v>
       </c>
       <c r="L120" s="425"/>
       <c r="M120" s="425"/>
@@ -23969,29 +23954,23 @@
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="310">
-        <v>111</v>
-      </c>
-      <c r="B121" s="335" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="90"/>
+        <v>119</v>
+      </c>
+      <c r="B121" s="503" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C121" s="90"/>
+      <c r="D121" s="335"/>
       <c r="E121" s="335"/>
-      <c r="F121" s="335" t="s">
-        <v>550</v>
-      </c>
-      <c r="G121" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H121" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I121" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J121" s="335"/>
-      <c r="K121" s="213" t="s">
-        <v>1267</v>
+      <c r="F121" s="503"/>
+      <c r="G121" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H121" s="503"/>
+      <c r="I121" s="503"/>
+      <c r="J121" s="503"/>
+      <c r="K121" s="504" t="s">
+        <v>1264</v>
       </c>
       <c r="L121" s="425"/>
       <c r="M121" s="425"/>
@@ -24003,29 +23982,21 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="310">
-        <v>112</v>
-      </c>
-      <c r="B122" s="335" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="90"/>
+        <v>120</v>
+      </c>
+      <c r="B122" s="503" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C122" s="90"/>
+      <c r="D122" s="335"/>
       <c r="E122" s="335"/>
-      <c r="F122" s="335" t="s">
-        <v>550</v>
-      </c>
-      <c r="G122" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H122" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I122" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J122" s="335"/>
-      <c r="K122" s="213" t="s">
-        <v>1267</v>
+      <c r="F122" s="503"/>
+      <c r="G122" s="503"/>
+      <c r="H122" s="503"/>
+      <c r="I122" s="503"/>
+      <c r="J122" s="503"/>
+      <c r="K122" s="504" t="s">
+        <v>792</v>
       </c>
       <c r="L122" s="425"/>
       <c r="M122" s="425"/>
@@ -24037,29 +24008,27 @@
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="310">
-        <v>113</v>
-      </c>
-      <c r="B123" s="335" t="s">
-        <v>1313</v>
+        <v>121</v>
+      </c>
+      <c r="B123" s="503" t="s">
+        <v>1309</v>
       </c>
       <c r="C123" s="5"/>
-      <c r="D123" s="90"/>
-      <c r="E123" s="335"/>
-      <c r="F123" s="335" t="s">
-        <v>550</v>
-      </c>
-      <c r="G123" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H123" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I123" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J123" s="335"/>
-      <c r="K123" s="213" t="s">
-        <v>1267</v>
+      <c r="D123" s="90" t="s">
+        <v>538</v>
+      </c>
+      <c r="E123" s="335" t="s">
+        <v>729</v>
+      </c>
+      <c r="F123" s="503" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123" s="503"/>
+      <c r="H123" s="503"/>
+      <c r="I123" s="503"/>
+      <c r="J123" s="503"/>
+      <c r="K123" s="504" t="s">
+        <v>1497</v>
       </c>
       <c r="L123" s="425"/>
       <c r="M123" s="425"/>
@@ -24071,50 +24040,63 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="310">
-        <v>114</v>
-      </c>
-      <c r="B124" s="335" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C124" s="165"/>
-      <c r="D124" s="91"/>
+        <v>122</v>
+      </c>
+      <c r="B124" s="503" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="90"/>
       <c r="E124" s="335"/>
-      <c r="F124" s="335" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H124" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I124" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J124" s="335"/>
-      <c r="K124" s="283" t="s">
-        <v>1269</v>
-      </c>
+      <c r="F124" s="503" t="s">
+        <v>41</v>
+      </c>
+      <c r="G124" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H124" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="I124" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="J124" s="503"/>
+      <c r="K124" s="504" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L124" s="425"/>
+      <c r="M124" s="425"/>
+      <c r="N124" s="425"/>
+      <c r="O124" s="425"/>
+      <c r="P124" s="425"/>
+      <c r="Q124" s="425"/>
+      <c r="R124" s="425"/>
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="310">
-        <v>115</v>
-      </c>
-      <c r="B125" s="335" t="s">
-        <v>1315</v>
+        <v>123</v>
+      </c>
+      <c r="B125" s="503" t="s">
+        <v>1311</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="90"/>
       <c r="E125" s="335"/>
-      <c r="F125" s="335"/>
-      <c r="G125" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H125" s="335"/>
-      <c r="I125" s="335"/>
-      <c r="J125" s="335"/>
-      <c r="K125" s="283" t="s">
-        <v>792</v>
+      <c r="F125" s="503" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H125" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="I125" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="J125" s="503"/>
+      <c r="K125" s="504" t="s">
+        <v>795</v>
       </c>
       <c r="L125" s="425"/>
       <c r="M125" s="425"/>
@@ -24126,31 +24108,29 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="310">
-        <v>116</v>
-      </c>
-      <c r="B126" s="335" t="s">
-        <v>1316</v>
+        <v>124</v>
+      </c>
+      <c r="B126" s="503" t="s">
+        <v>1312</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="90"/>
-      <c r="E126" s="335" t="s">
-        <v>730</v>
-      </c>
-      <c r="F126" s="335" t="s">
-        <v>41</v>
-      </c>
-      <c r="G126" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H126" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I126" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J126" s="336"/>
-      <c r="K126" s="283" t="s">
-        <v>1271</v>
+      <c r="E126" s="335"/>
+      <c r="F126" s="503" t="s">
+        <v>550</v>
+      </c>
+      <c r="G126" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H126" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="I126" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="J126" s="503"/>
+      <c r="K126" s="505" t="s">
+        <v>1499</v>
       </c>
       <c r="L126" s="425"/>
       <c r="M126" s="425"/>
@@ -24162,29 +24142,29 @@
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="310">
-        <v>117</v>
-      </c>
-      <c r="B127" s="335" t="s">
-        <v>1318</v>
+        <v>125</v>
+      </c>
+      <c r="B127" s="503" t="s">
+        <v>1313</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="90"/>
       <c r="E127" s="335"/>
-      <c r="F127" s="335" t="s">
-        <v>41</v>
-      </c>
-      <c r="G127" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H127" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I127" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="J127" s="335"/>
-      <c r="K127" s="283" t="s">
-        <v>1273</v>
+      <c r="F127" s="503" t="s">
+        <v>550</v>
+      </c>
+      <c r="G127" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H127" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="I127" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="J127" s="503"/>
+      <c r="K127" s="505" t="s">
+        <v>1499</v>
       </c>
       <c r="L127" s="425"/>
       <c r="M127" s="425"/>
@@ -24196,87 +24176,79 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="310">
-        <v>118</v>
-      </c>
-      <c r="B128" s="335" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="90"/>
-      <c r="E128" s="335"/>
-      <c r="F128" s="335"/>
-      <c r="G128" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H128" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I128" s="335"/>
-      <c r="J128" s="335"/>
-      <c r="K128" s="283" t="s">
-        <v>1275</v>
-      </c>
-      <c r="L128" s="425"/>
-      <c r="M128" s="425"/>
-      <c r="N128" s="425"/>
-      <c r="O128" s="425"/>
-      <c r="P128" s="425"/>
-      <c r="Q128" s="425"/>
-      <c r="R128" s="425"/>
+        <v>126</v>
+      </c>
+      <c r="B128" s="503" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C128" s="165"/>
+      <c r="D128" s="165"/>
+      <c r="E128" s="165"/>
+      <c r="F128" s="503" t="s">
+        <v>550</v>
+      </c>
+      <c r="G128" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H128" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="I128" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="J128" s="503"/>
+      <c r="K128" s="505" t="s">
+        <v>1499</v>
+      </c>
+      <c r="L128" s="423"/>
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="310">
-        <v>119</v>
-      </c>
-      <c r="B129" s="335" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="90"/>
-      <c r="E129" s="90" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F129" s="335"/>
-      <c r="G129" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H129" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I129" s="335"/>
-      <c r="J129" s="335"/>
-      <c r="K129" s="283" t="s">
-        <v>1277</v>
-      </c>
-      <c r="L129" s="425"/>
-      <c r="M129" s="425"/>
-      <c r="N129" s="425"/>
-      <c r="O129" s="425"/>
-      <c r="P129" s="425"/>
-      <c r="Q129" s="425"/>
-      <c r="R129" s="425"/>
+        <v>127</v>
+      </c>
+      <c r="B129" s="503" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C129" s="165"/>
+      <c r="D129" s="91"/>
+      <c r="E129" s="335"/>
+      <c r="F129" s="503" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H129" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="I129" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="J129" s="503"/>
+      <c r="K129" s="504" t="s">
+        <v>1501</v>
+      </c>
+      <c r="L129" s="423"/>
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="310">
-        <v>120</v>
-      </c>
-      <c r="B130" s="335" t="s">
-        <v>1320</v>
+        <v>128</v>
+      </c>
+      <c r="B130" s="503" t="s">
+        <v>1496</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="90"/>
-      <c r="E130" s="90"/>
-      <c r="F130" s="335"/>
-      <c r="G130" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="H130" s="335" t="s">
-        <v>44</v>
-      </c>
-      <c r="I130" s="335"/>
-      <c r="J130" s="335"/>
-      <c r="K130" s="283" t="s">
-        <v>1279</v>
+      <c r="E130" s="335"/>
+      <c r="F130" s="503"/>
+      <c r="G130" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H130" s="503"/>
+      <c r="I130" s="503"/>
+      <c r="J130" s="503"/>
+      <c r="K130" s="504" t="s">
+        <v>792</v>
       </c>
       <c r="L130" s="425"/>
       <c r="M130" s="425"/>
@@ -24286,27 +24258,33 @@
       <c r="Q130" s="425"/>
       <c r="R130" s="425"/>
     </row>
-    <row r="131" spans="1:18" ht="33.000000">
+    <row r="131" spans="1:18">
       <c r="A131" s="310">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B131" s="335" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="90"/>
-      <c r="E131" s="90"/>
-      <c r="F131" s="335"/>
+      <c r="E131" s="335" t="s">
+        <v>730</v>
+      </c>
+      <c r="F131" s="335" t="s">
+        <v>41</v>
+      </c>
       <c r="G131" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H131" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="I131" s="335"/>
-      <c r="J131" s="335"/>
+      <c r="I131" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J131" s="336"/>
       <c r="K131" s="283" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="L131" s="425"/>
       <c r="M131" s="425"/>
@@ -24318,37 +24296,48 @@
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="310">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B132" s="335" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C132" s="165"/>
-      <c r="D132" s="91"/>
-      <c r="E132" s="90"/>
-      <c r="F132" s="335"/>
+        <v>1318</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="90"/>
+      <c r="E132" s="335"/>
+      <c r="F132" s="335" t="s">
+        <v>41</v>
+      </c>
       <c r="G132" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H132" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="I132" s="335"/>
+      <c r="I132" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J132" s="335"/>
       <c r="K132" s="283" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" ht="33.000000">
+        <v>1273</v>
+      </c>
+      <c r="L132" s="425"/>
+      <c r="M132" s="425"/>
+      <c r="N132" s="425"/>
+      <c r="O132" s="425"/>
+      <c r="P132" s="425"/>
+      <c r="Q132" s="425"/>
+      <c r="R132" s="425"/>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="310">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B133" s="335" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C133" s="165"/>
-      <c r="D133" s="91"/>
-      <c r="E133" s="91"/>
+        <v>1319</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="90"/>
+      <c r="E133" s="335"/>
       <c r="F133" s="335"/>
       <c r="G133" s="335" t="s">
         <v>44</v>
@@ -24359,19 +24348,28 @@
       <c r="I133" s="335"/>
       <c r="J133" s="335"/>
       <c r="K133" s="283" t="s">
-        <v>1283</v>
-      </c>
+        <v>1275</v>
+      </c>
+      <c r="L133" s="425"/>
+      <c r="M133" s="425"/>
+      <c r="N133" s="425"/>
+      <c r="O133" s="425"/>
+      <c r="P133" s="425"/>
+      <c r="Q133" s="425"/>
+      <c r="R133" s="425"/>
     </row>
     <row r="134" spans="1:18">
       <c r="A134" s="310">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B134" s="335" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C134" s="165"/>
-      <c r="D134" s="91"/>
-      <c r="E134" s="90"/>
+        <v>1317</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="90"/>
+      <c r="E134" s="90" t="s">
+        <v>1145</v>
+      </c>
       <c r="F134" s="335"/>
       <c r="G134" s="335" t="s">
         <v>44</v>
@@ -24382,19 +24380,26 @@
       <c r="I134" s="335"/>
       <c r="J134" s="335"/>
       <c r="K134" s="283" t="s">
-        <v>1284</v>
-      </c>
+        <v>1277</v>
+      </c>
+      <c r="L134" s="425"/>
+      <c r="M134" s="425"/>
+      <c r="N134" s="425"/>
+      <c r="O134" s="425"/>
+      <c r="P134" s="425"/>
+      <c r="Q134" s="425"/>
+      <c r="R134" s="425"/>
     </row>
     <row r="135" spans="1:18">
       <c r="A135" s="310">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B135" s="335" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C135" s="165"/>
-      <c r="D135" s="91"/>
-      <c r="E135" s="91"/>
+        <v>1320</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="90"/>
+      <c r="E135" s="90"/>
       <c r="F135" s="335"/>
       <c r="G135" s="335" t="s">
         <v>44</v>
@@ -24405,142 +24410,156 @@
       <c r="I135" s="335"/>
       <c r="J135" s="335"/>
       <c r="K135" s="283" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18">
+        <v>1279</v>
+      </c>
+      <c r="L135" s="425"/>
+      <c r="M135" s="425"/>
+      <c r="N135" s="425"/>
+      <c r="O135" s="425"/>
+      <c r="P135" s="425"/>
+      <c r="Q135" s="425"/>
+      <c r="R135" s="425"/>
+    </row>
+    <row r="136" spans="1:18" ht="18.400000" customHeight="1">
       <c r="A136" s="310">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B136" s="335" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C136" s="165"/>
-      <c r="D136" s="461" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E136" s="461"/>
-      <c r="F136" s="335" t="s">
-        <v>41</v>
-      </c>
+        <v>1321</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="90"/>
+      <c r="E136" s="90"/>
+      <c r="F136" s="335"/>
       <c r="G136" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H136" s="335"/>
-      <c r="I136" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H136" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I136" s="335"/>
       <c r="J136" s="335"/>
       <c r="K136" s="283" t="s">
-        <v>1373</v>
-      </c>
+        <v>1280</v>
+      </c>
+      <c r="L136" s="425"/>
+      <c r="M136" s="425"/>
+      <c r="N136" s="425"/>
+      <c r="O136" s="425"/>
+      <c r="P136" s="425"/>
+      <c r="Q136" s="425"/>
+      <c r="R136" s="425"/>
     </row>
     <row r="137" spans="1:18">
       <c r="A137" s="310">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B137" s="335" t="s">
-        <v>1382</v>
+        <v>1322</v>
       </c>
       <c r="C137" s="165"/>
-      <c r="D137" s="455"/>
-      <c r="E137" s="455"/>
-      <c r="F137" s="335" t="s">
-        <v>41</v>
-      </c>
+      <c r="D137" s="91"/>
+      <c r="E137" s="90"/>
+      <c r="F137" s="335"/>
       <c r="G137" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H137" s="335"/>
-      <c r="I137" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H137" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I137" s="335"/>
       <c r="J137" s="335"/>
       <c r="K137" s="283" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18">
+        <v>1282</v>
+      </c>
+      <c r="L137" s="423"/>
+    </row>
+    <row r="138" spans="1:18" ht="17.600000" customHeight="1">
       <c r="A138" s="310">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B138" s="335" t="s">
-        <v>1383</v>
+        <v>1323</v>
       </c>
       <c r="C138" s="165"/>
-      <c r="D138" s="455"/>
-      <c r="E138" s="455"/>
-      <c r="F138" s="335" t="s">
-        <v>41</v>
-      </c>
+      <c r="D138" s="91"/>
+      <c r="E138" s="91"/>
+      <c r="F138" s="335"/>
       <c r="G138" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H138" s="335"/>
-      <c r="I138" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H138" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I138" s="335"/>
       <c r="J138" s="335"/>
       <c r="K138" s="283" t="s">
-        <v>1375</v>
-      </c>
+        <v>1283</v>
+      </c>
+      <c r="L138" s="423"/>
     </row>
     <row r="139" spans="1:18">
       <c r="A139" s="310">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B139" s="335" t="s">
-        <v>1384</v>
+        <v>1324</v>
       </c>
       <c r="C139" s="165"/>
-      <c r="D139" s="455"/>
-      <c r="E139" s="455"/>
-      <c r="F139" s="335" t="s">
-        <v>41</v>
-      </c>
+      <c r="D139" s="91"/>
+      <c r="E139" s="90"/>
+      <c r="F139" s="335"/>
       <c r="G139" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H139" s="335"/>
-      <c r="I139" s="335" t="s">
-        <v>44</v>
-      </c>
+      <c r="H139" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I139" s="335"/>
       <c r="J139" s="335"/>
       <c r="K139" s="283" t="s">
-        <v>1376</v>
-      </c>
+        <v>1284</v>
+      </c>
+      <c r="L139" s="423"/>
     </row>
     <row r="140" spans="1:18">
       <c r="A140" s="310">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B140" s="335" t="s">
-        <v>1385</v>
+        <v>1325</v>
       </c>
       <c r="C140" s="165"/>
-      <c r="D140" s="455"/>
-      <c r="E140" s="456"/>
+      <c r="D140" s="91"/>
+      <c r="E140" s="91"/>
       <c r="F140" s="335"/>
       <c r="G140" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="H140" s="335"/>
+      <c r="H140" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="I140" s="335"/>
       <c r="J140" s="335"/>
       <c r="K140" s="283" t="s">
-        <v>792</v>
-      </c>
+        <v>1285</v>
+      </c>
+      <c r="L140" s="423"/>
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="310">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B141" s="335" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="C141" s="165"/>
-      <c r="D141" s="455"/>
-      <c r="E141" s="461"/>
+      <c r="D141" s="91" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E141" s="506" t="s">
+        <v>729</v>
+      </c>
       <c r="F141" s="335" t="s">
         <v>41</v>
       </c>
@@ -24553,19 +24572,20 @@
       </c>
       <c r="J141" s="335"/>
       <c r="K141" s="283" t="s">
-        <v>1377</v>
-      </c>
+        <v>1373</v>
+      </c>
+      <c r="L141" s="423"/>
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="310">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B142" s="335" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="C142" s="165"/>
-      <c r="D142" s="455"/>
-      <c r="E142" s="455"/>
+      <c r="D142" s="91"/>
+      <c r="E142" s="507"/>
       <c r="F142" s="335" t="s">
         <v>41</v>
       </c>
@@ -24578,19 +24598,20 @@
       </c>
       <c r="J142" s="335"/>
       <c r="K142" s="283" t="s">
-        <v>1377</v>
-      </c>
+        <v>1374</v>
+      </c>
+      <c r="L142" s="423"/>
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="310">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B143" s="335" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="C143" s="165"/>
-      <c r="D143" s="455"/>
-      <c r="E143" s="455"/>
+      <c r="D143" s="91"/>
+      <c r="E143" s="507"/>
       <c r="F143" s="335" t="s">
         <v>41</v>
       </c>
@@ -24603,40 +24624,46 @@
       </c>
       <c r="J143" s="335"/>
       <c r="K143" s="283" t="s">
-        <v>1378</v>
-      </c>
+        <v>1375</v>
+      </c>
+      <c r="L143" s="423"/>
     </row>
     <row r="144" spans="1:18">
       <c r="A144" s="310">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B144" s="335" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="C144" s="165"/>
-      <c r="D144" s="455"/>
-      <c r="E144" s="455"/>
-      <c r="F144" s="335"/>
+      <c r="D144" s="91"/>
+      <c r="E144" s="507"/>
+      <c r="F144" s="335" t="s">
+        <v>41</v>
+      </c>
       <c r="G144" s="335" t="s">
         <v>44</v>
       </c>
       <c r="H144" s="335"/>
-      <c r="I144" s="335"/>
+      <c r="I144" s="335" t="s">
+        <v>44</v>
+      </c>
       <c r="J144" s="335"/>
       <c r="K144" s="283" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" ht="20.100000" customHeight="1">
+        <v>1376</v>
+      </c>
+      <c r="L144" s="423"/>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="310">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B145" s="335" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="260"/>
-      <c r="E145" s="260"/>
+        <v>1385</v>
+      </c>
+      <c r="C145" s="165"/>
+      <c r="D145" s="91"/>
+      <c r="E145" s="508"/>
       <c r="F145" s="335"/>
       <c r="G145" s="335" t="s">
         <v>44</v>
@@ -24645,177 +24672,131 @@
       <c r="I145" s="335"/>
       <c r="J145" s="335"/>
       <c r="K145" s="283" t="s">
-        <v>1380</v>
-      </c>
-      <c r="L145" s="425"/>
-      <c r="M145" s="425"/>
-      <c r="N145" s="425"/>
-      <c r="O145" s="425"/>
-      <c r="P145" s="425"/>
-      <c r="Q145" s="425"/>
-      <c r="R145" s="425"/>
+        <v>792</v>
+      </c>
+      <c r="L145" s="423"/>
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="310">
-        <v>136</v>
-      </c>
-      <c r="B146" s="154" t="s">
-        <v>997</v>
-      </c>
-      <c r="C146" s="159" t="s">
-        <v>885</v>
-      </c>
-      <c r="D146" s="154"/>
-      <c r="E146" s="154"/>
-      <c r="F146" s="154" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="335" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C146" s="165"/>
+      <c r="D146" s="91"/>
+      <c r="E146" s="506" t="s">
+        <v>730</v>
+      </c>
+      <c r="F146" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="G146" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H146" s="154"/>
-      <c r="I146" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J146" s="154"/>
-      <c r="K146" s="213" t="s">
-        <v>1409</v>
-      </c>
-      <c r="L146" s="425"/>
-      <c r="M146" s="425"/>
-      <c r="N146" s="425"/>
-      <c r="O146" s="425"/>
-      <c r="P146" s="425"/>
-      <c r="Q146" s="425"/>
-      <c r="R146" s="425"/>
-    </row>
-    <row r="147" spans="1:18" ht="33.000000">
+      <c r="G146" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H146" s="335"/>
+      <c r="I146" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J146" s="335"/>
+      <c r="K146" s="283" t="s">
+        <v>1377</v>
+      </c>
+      <c r="L146" s="423"/>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" s="310">
-        <v>137</v>
-      </c>
-      <c r="B147" s="154" t="s">
-        <v>998</v>
-      </c>
-      <c r="C147" s="157"/>
-      <c r="D147" s="154"/>
-      <c r="E147" s="154"/>
-      <c r="F147" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="335" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C147" s="165"/>
+      <c r="D147" s="91"/>
+      <c r="E147" s="507"/>
+      <c r="F147" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="G147" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H147" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I147" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J147" s="154"/>
+      <c r="G147" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H147" s="335"/>
+      <c r="I147" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J147" s="335"/>
       <c r="K147" s="283" t="s">
-        <v>1411</v>
-      </c>
-      <c r="L147" s="425"/>
-      <c r="M147" s="425"/>
-      <c r="N147" s="425"/>
-      <c r="O147" s="425"/>
-      <c r="P147" s="425"/>
-      <c r="Q147" s="425"/>
-      <c r="R147" s="425"/>
-    </row>
-    <row r="148" spans="1:18" ht="82.500000">
+        <v>1377</v>
+      </c>
+      <c r="L147" s="423"/>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="310">
-        <v>138</v>
-      </c>
-      <c r="B148" s="154" t="s">
-        <v>999</v>
-      </c>
-      <c r="C148" s="157"/>
-      <c r="D148" s="154"/>
-      <c r="E148" s="154"/>
-      <c r="F148" s="154" t="s">
-        <v>335</v>
-      </c>
-      <c r="G148" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H148" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I148" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J148" s="154"/>
+        <v>146</v>
+      </c>
+      <c r="B148" s="335" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C148" s="165"/>
+      <c r="D148" s="91"/>
+      <c r="E148" s="507"/>
+      <c r="F148" s="335" t="s">
+        <v>41</v>
+      </c>
+      <c r="G148" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H148" s="335"/>
+      <c r="I148" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J148" s="335"/>
       <c r="K148" s="283" t="s">
-        <v>1412</v>
-      </c>
-      <c r="L148" s="425"/>
-      <c r="M148" s="425"/>
-      <c r="N148" s="425"/>
-      <c r="O148" s="425"/>
-      <c r="P148" s="425"/>
-      <c r="Q148" s="425"/>
-      <c r="R148" s="425"/>
+        <v>1378</v>
+      </c>
+      <c r="L148" s="423"/>
     </row>
     <row r="149" spans="1:18">
       <c r="A149" s="310">
-        <v>139</v>
-      </c>
-      <c r="B149" s="154" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C149" s="157"/>
-      <c r="D149" s="154"/>
-      <c r="E149" s="154"/>
-      <c r="F149" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G149" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H149" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I149" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J149" s="154"/>
-      <c r="K149" s="213" t="s">
-        <v>1413</v>
-      </c>
-      <c r="L149" s="425"/>
-      <c r="M149" s="425"/>
-      <c r="N149" s="425"/>
-      <c r="O149" s="425"/>
-      <c r="P149" s="425"/>
-      <c r="Q149" s="425"/>
-      <c r="R149" s="425"/>
-    </row>
-    <row r="150" spans="1:18">
+        <v>147</v>
+      </c>
+      <c r="B149" s="335" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C149" s="165"/>
+      <c r="D149" s="91"/>
+      <c r="E149" s="507"/>
+      <c r="F149" s="335"/>
+      <c r="G149" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H149" s="335"/>
+      <c r="I149" s="335"/>
+      <c r="J149" s="335"/>
+      <c r="K149" s="283" t="s">
+        <v>1379</v>
+      </c>
+      <c r="L149" s="423"/>
+    </row>
+    <row r="150" spans="1:18" ht="20.100000" customHeight="1">
       <c r="A150" s="310">
-        <v>140</v>
-      </c>
-      <c r="B150" s="154" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C150" s="157"/>
-      <c r="D150" s="154"/>
-      <c r="E150" s="154"/>
-      <c r="F150" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G150" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H150" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I150" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J150" s="154"/>
-      <c r="K150" s="213" t="s">
-        <v>928</v>
+        <v>148</v>
+      </c>
+      <c r="B150" s="335" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="90"/>
+      <c r="E150" s="508"/>
+      <c r="F150" s="335"/>
+      <c r="G150" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H150" s="335"/>
+      <c r="I150" s="335"/>
+      <c r="J150" s="335"/>
+      <c r="K150" s="283" t="s">
+        <v>1380</v>
       </c>
       <c r="L150" s="425"/>
       <c r="M150" s="425"/>
@@ -24827,12 +24808,14 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="310">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B151" s="154" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C151" s="157"/>
+        <v>997</v>
+      </c>
+      <c r="C151" s="159" t="s">
+        <v>885</v>
+      </c>
       <c r="D151" s="154"/>
       <c r="E151" s="154"/>
       <c r="F151" s="154" t="s">
@@ -24841,15 +24824,13 @@
       <c r="G151" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H151" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="H151" s="154"/>
       <c r="I151" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J151" s="154"/>
       <c r="K151" s="213" t="s">
-        <v>929</v>
+        <v>1409</v>
       </c>
       <c r="L151" s="425"/>
       <c r="M151" s="425"/>
@@ -24861,16 +24842,16 @@
     </row>
     <row r="152" spans="1:18" ht="33.000000">
       <c r="A152" s="310">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B152" s="154" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C152" s="157"/>
       <c r="D152" s="154"/>
       <c r="E152" s="154"/>
       <c r="F152" s="154" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="G152" s="154" t="s">
         <v>44</v>
@@ -24883,7 +24864,7 @@
       </c>
       <c r="J152" s="154"/>
       <c r="K152" s="283" t="s">
-        <v>930</v>
+        <v>1411</v>
       </c>
       <c r="L152" s="425"/>
       <c r="M152" s="425"/>
@@ -24893,12 +24874,12 @@
       <c r="Q152" s="425"/>
       <c r="R152" s="425"/>
     </row>
-    <row r="153" spans="1:18" ht="33.000000">
+    <row r="153" spans="1:18" ht="82.500000">
       <c r="A153" s="310">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B153" s="154" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C153" s="157"/>
       <c r="D153" s="154"/>
@@ -24917,7 +24898,7 @@
       </c>
       <c r="J153" s="154"/>
       <c r="K153" s="283" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="L153" s="425"/>
       <c r="M153" s="425"/>
@@ -24929,15 +24910,17 @@
     </row>
     <row r="154" spans="1:18">
       <c r="A154" s="310">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B154" s="154" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C154" s="158"/>
+        <v>1000</v>
+      </c>
+      <c r="C154" s="157"/>
       <c r="D154" s="154"/>
       <c r="E154" s="154"/>
-      <c r="F154" s="154"/>
+      <c r="F154" s="154" t="s">
+        <v>41</v>
+      </c>
       <c r="G154" s="154" t="s">
         <v>44</v>
       </c>
@@ -24947,11 +24930,9 @@
       <c r="I154" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="J154" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="J154" s="154"/>
       <c r="K154" s="213" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="L154" s="425"/>
       <c r="M154" s="425"/>
@@ -24963,29 +24944,29 @@
     </row>
     <row r="155" spans="1:18">
       <c r="A155" s="310">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B155" s="154" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C155" s="154" t="s">
-        <v>886</v>
-      </c>
+        <v>1001</v>
+      </c>
+      <c r="C155" s="157"/>
       <c r="D155" s="154"/>
       <c r="E155" s="154"/>
-      <c r="F155" s="450" t="s">
+      <c r="F155" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="G155" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H155" s="450"/>
-      <c r="I155" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J155" s="450"/>
-      <c r="K155" s="448" t="s">
-        <v>933</v>
+      <c r="G155" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H155" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I155" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J155" s="154"/>
+      <c r="K155" s="213" t="s">
+        <v>928</v>
       </c>
       <c r="L155" s="425"/>
       <c r="M155" s="425"/>
@@ -24997,29 +24978,29 @@
     </row>
     <row r="156" spans="1:18">
       <c r="A156" s="310">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B156" s="154" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C156" s="154"/>
+        <v>1002</v>
+      </c>
+      <c r="C156" s="157"/>
       <c r="D156" s="154"/>
       <c r="E156" s="154"/>
-      <c r="F156" s="450" t="s">
+      <c r="F156" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="G156" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H156" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="I156" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J156" s="450"/>
-      <c r="K156" s="448" t="s">
-        <v>934</v>
+      <c r="G156" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H156" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I156" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J156" s="154"/>
+      <c r="K156" s="213" t="s">
+        <v>929</v>
       </c>
       <c r="L156" s="425"/>
       <c r="M156" s="425"/>
@@ -25029,31 +25010,31 @@
       <c r="Q156" s="425"/>
       <c r="R156" s="425"/>
     </row>
-    <row r="157" spans="1:18" ht="82.500000">
+    <row r="157" spans="1:18" ht="33.000000">
       <c r="A157" s="310">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B157" s="154" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C157" s="154"/>
+        <v>1003</v>
+      </c>
+      <c r="C157" s="157"/>
       <c r="D157" s="154"/>
       <c r="E157" s="154"/>
-      <c r="F157" s="450" t="s">
+      <c r="F157" s="154" t="s">
         <v>335</v>
       </c>
-      <c r="G157" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H157" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="I157" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J157" s="450"/>
-      <c r="K157" s="362" t="s">
-        <v>1416</v>
+      <c r="G157" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H157" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I157" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J157" s="154"/>
+      <c r="K157" s="283" t="s">
+        <v>930</v>
       </c>
       <c r="L157" s="425"/>
       <c r="M157" s="425"/>
@@ -25063,31 +25044,31 @@
       <c r="Q157" s="425"/>
       <c r="R157" s="425"/>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" ht="33.000000">
       <c r="A158" s="310">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B158" s="154" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C158" s="154"/>
+        <v>1004</v>
+      </c>
+      <c r="C158" s="157"/>
       <c r="D158" s="154"/>
       <c r="E158" s="154"/>
-      <c r="F158" s="450" t="s">
-        <v>41</v>
-      </c>
-      <c r="G158" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H158" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="I158" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J158" s="450"/>
-      <c r="K158" s="448" t="s">
-        <v>1364</v>
+      <c r="F158" s="154" t="s">
+        <v>335</v>
+      </c>
+      <c r="G158" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H158" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I158" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J158" s="154"/>
+      <c r="K158" s="283" t="s">
+        <v>1414</v>
       </c>
       <c r="L158" s="425"/>
       <c r="M158" s="425"/>
@@ -25099,29 +25080,29 @@
     </row>
     <row r="159" spans="1:18">
       <c r="A159" s="310">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B159" s="154" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C159" s="154"/>
+        <v>1005</v>
+      </c>
+      <c r="C159" s="158"/>
       <c r="D159" s="154"/>
       <c r="E159" s="154"/>
-      <c r="F159" s="450" t="s">
-        <v>41</v>
-      </c>
-      <c r="G159" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="H159" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="I159" s="450" t="s">
-        <v>44</v>
-      </c>
-      <c r="J159" s="450"/>
-      <c r="K159" s="448" t="s">
-        <v>1365</v>
+      <c r="F159" s="154"/>
+      <c r="G159" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H159" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I159" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J159" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="K159" s="213" t="s">
+        <v>1415</v>
       </c>
       <c r="L159" s="425"/>
       <c r="M159" s="425"/>
@@ -25133,12 +25114,14 @@
     </row>
     <row r="160" spans="1:18">
       <c r="A160" s="310">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B160" s="154" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C160" s="154"/>
+        <v>1006</v>
+      </c>
+      <c r="C160" s="154" t="s">
+        <v>886</v>
+      </c>
       <c r="D160" s="154"/>
       <c r="E160" s="154"/>
       <c r="F160" s="450" t="s">
@@ -25147,15 +25130,13 @@
       <c r="G160" s="450" t="s">
         <v>44</v>
       </c>
-      <c r="H160" s="450" t="s">
-        <v>44</v>
-      </c>
+      <c r="H160" s="450"/>
       <c r="I160" s="450" t="s">
         <v>44</v>
       </c>
       <c r="J160" s="450"/>
       <c r="K160" s="448" t="s">
-        <v>1366</v>
+        <v>933</v>
       </c>
       <c r="L160" s="425"/>
       <c r="M160" s="425"/>
@@ -25165,18 +25146,18 @@
       <c r="Q160" s="425"/>
       <c r="R160" s="425"/>
     </row>
-    <row r="161" spans="1:18" ht="33.000000">
+    <row r="161" spans="1:18">
       <c r="A161" s="310">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B161" s="154" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C161" s="165"/>
-      <c r="D161" s="165"/>
-      <c r="E161" s="165"/>
+        <v>1007</v>
+      </c>
+      <c r="C161" s="154"/>
+      <c r="D161" s="154"/>
+      <c r="E161" s="154"/>
       <c r="F161" s="450" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="G161" s="450" t="s">
         <v>44</v>
@@ -25188,20 +25169,27 @@
         <v>44</v>
       </c>
       <c r="J161" s="450"/>
-      <c r="K161" s="362" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" ht="33.000000">
+      <c r="K161" s="448" t="s">
+        <v>934</v>
+      </c>
+      <c r="L161" s="425"/>
+      <c r="M161" s="425"/>
+      <c r="N161" s="425"/>
+      <c r="O161" s="425"/>
+      <c r="P161" s="425"/>
+      <c r="Q161" s="425"/>
+      <c r="R161" s="425"/>
+    </row>
+    <row r="162" spans="1:18" ht="82.500000">
       <c r="A162" s="310">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B162" s="154" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C162" s="165"/>
-      <c r="D162" s="165"/>
-      <c r="E162" s="165"/>
+        <v>1008</v>
+      </c>
+      <c r="C162" s="154"/>
+      <c r="D162" s="154"/>
+      <c r="E162" s="154"/>
       <c r="F162" s="450" t="s">
         <v>335</v>
       </c>
@@ -25216,20 +25204,29 @@
       </c>
       <c r="J162" s="450"/>
       <c r="K162" s="362" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" ht="33.000000">
+        <v>1416</v>
+      </c>
+      <c r="L162" s="425"/>
+      <c r="M162" s="425"/>
+      <c r="N162" s="425"/>
+      <c r="O162" s="425"/>
+      <c r="P162" s="425"/>
+      <c r="Q162" s="425"/>
+      <c r="R162" s="425"/>
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163" s="310">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B163" s="154" t="s">
-        <v>1371</v>
+        <v>1009</v>
       </c>
       <c r="C163" s="154"/>
       <c r="D163" s="154"/>
       <c r="E163" s="154"/>
-      <c r="F163" s="450"/>
+      <c r="F163" s="450" t="s">
+        <v>41</v>
+      </c>
       <c r="G163" s="450" t="s">
         <v>44</v>
       </c>
@@ -25241,7 +25238,7 @@
       </c>
       <c r="J163" s="450"/>
       <c r="K163" s="448" t="s">
-        <v>1418</v>
+        <v>1364</v>
       </c>
       <c r="L163" s="425"/>
       <c r="M163" s="425"/>
@@ -25253,29 +25250,29 @@
     </row>
     <row r="164" spans="1:18">
       <c r="A164" s="310">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B164" s="154" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C164" s="159" t="s">
-        <v>887</v>
-      </c>
+        <v>1010</v>
+      </c>
+      <c r="C164" s="154"/>
       <c r="D164" s="154"/>
       <c r="E164" s="154"/>
-      <c r="F164" s="154" t="s">
+      <c r="F164" s="450" t="s">
         <v>41</v>
       </c>
-      <c r="G164" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H164" s="154"/>
-      <c r="I164" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J164" s="154"/>
-      <c r="K164" s="213" t="s">
-        <v>936</v>
+      <c r="G164" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H164" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I164" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J164" s="450"/>
+      <c r="K164" s="448" t="s">
+        <v>1365</v>
       </c>
       <c r="L164" s="425"/>
       <c r="M164" s="425"/>
@@ -25287,29 +25284,29 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="310">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B165" s="154" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C165" s="157"/>
+        <v>1011</v>
+      </c>
+      <c r="C165" s="154"/>
       <c r="D165" s="154"/>
       <c r="E165" s="154"/>
-      <c r="F165" s="154" t="s">
+      <c r="F165" s="450" t="s">
         <v>41</v>
       </c>
-      <c r="G165" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H165" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I165" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J165" s="154"/>
-      <c r="K165" s="213" t="s">
-        <v>937</v>
+      <c r="G165" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H165" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I165" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J165" s="450"/>
+      <c r="K165" s="448" t="s">
+        <v>1366</v>
       </c>
       <c r="L165" s="425"/>
       <c r="M165" s="425"/>
@@ -25319,99 +25316,83 @@
       <c r="Q165" s="425"/>
       <c r="R165" s="425"/>
     </row>
-    <row r="166" spans="1:18" ht="82.500000">
+    <row r="166" spans="1:18" ht="33.000000">
       <c r="A166" s="310">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B166" s="154" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C166" s="157"/>
-      <c r="D166" s="154"/>
-      <c r="E166" s="154"/>
-      <c r="F166" s="154" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C166" s="165"/>
+      <c r="D166" s="165"/>
+      <c r="E166" s="165"/>
+      <c r="F166" s="450" t="s">
         <v>335</v>
       </c>
-      <c r="G166" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H166" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I166" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J166" s="154"/>
-      <c r="K166" s="283" t="s">
-        <v>1420</v>
-      </c>
-      <c r="L166" s="425"/>
-      <c r="M166" s="425"/>
-      <c r="N166" s="425"/>
-      <c r="O166" s="425"/>
-      <c r="P166" s="425"/>
-      <c r="Q166" s="425"/>
-      <c r="R166" s="425"/>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="G166" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H166" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I166" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J166" s="450"/>
+      <c r="K166" s="362" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" ht="33.000000">
       <c r="A167" s="310">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B167" s="154" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C167" s="157"/>
-      <c r="D167" s="154"/>
-      <c r="E167" s="154"/>
-      <c r="F167" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G167" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H167" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I167" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J167" s="154"/>
-      <c r="K167" s="448" t="s">
-        <v>1364</v>
-      </c>
-      <c r="L167" s="425"/>
-      <c r="M167" s="425"/>
-      <c r="N167" s="425"/>
-      <c r="O167" s="425"/>
-      <c r="P167" s="425"/>
-      <c r="Q167" s="425"/>
-      <c r="R167" s="425"/>
-    </row>
-    <row r="168" spans="1:18">
+        <v>1370</v>
+      </c>
+      <c r="C167" s="165"/>
+      <c r="D167" s="165"/>
+      <c r="E167" s="165"/>
+      <c r="F167" s="450" t="s">
+        <v>335</v>
+      </c>
+      <c r="G167" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H167" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I167" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J167" s="450"/>
+      <c r="K167" s="362" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" ht="33.000000">
       <c r="A168" s="310">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B168" s="154" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C168" s="157"/>
+        <v>1371</v>
+      </c>
+      <c r="C168" s="154"/>
       <c r="D168" s="154"/>
       <c r="E168" s="154"/>
-      <c r="F168" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="G168" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H168" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I168" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="J168" s="154"/>
+      <c r="F168" s="450"/>
+      <c r="G168" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="H168" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="I168" s="450" t="s">
+        <v>44</v>
+      </c>
+      <c r="J168" s="450"/>
       <c r="K168" s="448" t="s">
-        <v>1365</v>
+        <v>1418</v>
       </c>
       <c r="L168" s="425"/>
       <c r="M168" s="425"/>
@@ -25423,12 +25404,14 @@
     </row>
     <row r="169" spans="1:18">
       <c r="A169" s="310">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B169" s="154" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C169" s="157"/>
+        <v>1013</v>
+      </c>
+      <c r="C169" s="159" t="s">
+        <v>887</v>
+      </c>
       <c r="D169" s="154"/>
       <c r="E169" s="154"/>
       <c r="F169" s="154" t="s">
@@ -25437,15 +25420,13 @@
       <c r="G169" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H169" s="154" t="s">
-        <v>44</v>
-      </c>
+      <c r="H169" s="154"/>
       <c r="I169" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J169" s="154"/>
-      <c r="K169" s="448" t="s">
-        <v>1366</v>
+      <c r="K169" s="213" t="s">
+        <v>936</v>
       </c>
       <c r="L169" s="425"/>
       <c r="M169" s="425"/>
@@ -25455,18 +25436,18 @@
       <c r="Q169" s="425"/>
       <c r="R169" s="425"/>
     </row>
-    <row r="170" spans="1:18" ht="33.000000">
+    <row r="170" spans="1:18">
       <c r="A170" s="310">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B170" s="154" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C170" s="157"/>
       <c r="D170" s="154"/>
       <c r="E170" s="154"/>
       <c r="F170" s="154" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="G170" s="154" t="s">
         <v>44</v>
@@ -25478,8 +25459,8 @@
         <v>44</v>
       </c>
       <c r="J170" s="154"/>
-      <c r="K170" s="362" t="s">
-        <v>1417</v>
+      <c r="K170" s="213" t="s">
+        <v>937</v>
       </c>
       <c r="L170" s="425"/>
       <c r="M170" s="425"/>
@@ -25489,12 +25470,12 @@
       <c r="Q170" s="425"/>
       <c r="R170" s="425"/>
     </row>
-    <row r="171" spans="1:18" ht="33.000000">
+    <row r="171" spans="1:18" ht="82.500000">
       <c r="A171" s="310">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B171" s="154" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C171" s="157"/>
       <c r="D171" s="154"/>
@@ -25512,8 +25493,8 @@
         <v>44</v>
       </c>
       <c r="J171" s="154"/>
-      <c r="K171" s="362" t="s">
-        <v>1368</v>
+      <c r="K171" s="283" t="s">
+        <v>1420</v>
       </c>
       <c r="L171" s="425"/>
       <c r="M171" s="425"/>
@@ -25523,14 +25504,14 @@
       <c r="Q171" s="425"/>
       <c r="R171" s="425"/>
     </row>
-    <row r="172" spans="1:18" ht="16.750000" customHeight="1">
+    <row r="172" spans="1:18">
       <c r="A172" s="310">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B172" s="154" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C172" s="158"/>
+        <v>1016</v>
+      </c>
+      <c r="C172" s="157"/>
       <c r="D172" s="154"/>
       <c r="E172" s="154"/>
       <c r="F172" s="154" t="s">
@@ -25547,7 +25528,7 @@
       </c>
       <c r="J172" s="154"/>
       <c r="K172" s="448" t="s">
-        <v>1418</v>
+        <v>1364</v>
       </c>
       <c r="L172" s="425"/>
       <c r="M172" s="425"/>
@@ -25559,18 +25540,16 @@
     </row>
     <row r="173" spans="1:18">
       <c r="A173" s="310">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B173" s="154" t="s">
-        <v>992</v>
-      </c>
-      <c r="C173" s="159" t="s">
-        <v>1183</v>
-      </c>
+        <v>1017</v>
+      </c>
+      <c r="C173" s="157"/>
       <c r="D173" s="154"/>
       <c r="E173" s="154"/>
       <c r="F173" s="154" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G173" s="154" t="s">
         <v>44</v>
@@ -25582,8 +25561,8 @@
         <v>44</v>
       </c>
       <c r="J173" s="154"/>
-      <c r="K173" s="161" t="s">
-        <v>1166</v>
+      <c r="K173" s="448" t="s">
+        <v>1365</v>
       </c>
       <c r="L173" s="425"/>
       <c r="M173" s="425"/>
@@ -25595,16 +25574,16 @@
     </row>
     <row r="174" spans="1:18">
       <c r="A174" s="310">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B174" s="154" t="s">
-        <v>993</v>
+        <v>1018</v>
       </c>
       <c r="C174" s="157"/>
       <c r="D174" s="154"/>
       <c r="E174" s="154"/>
       <c r="F174" s="154" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G174" s="154" t="s">
         <v>44</v>
@@ -25616,8 +25595,8 @@
         <v>44</v>
       </c>
       <c r="J174" s="154"/>
-      <c r="K174" s="161" t="s">
-        <v>920</v>
+      <c r="K174" s="448" t="s">
+        <v>1366</v>
       </c>
       <c r="L174" s="425"/>
       <c r="M174" s="425"/>
@@ -25627,18 +25606,18 @@
       <c r="Q174" s="425"/>
       <c r="R174" s="425"/>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" ht="33.000000">
       <c r="A175" s="310">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B175" s="154" t="s">
-        <v>994</v>
+        <v>1019</v>
       </c>
       <c r="C175" s="157"/>
       <c r="D175" s="154"/>
       <c r="E175" s="154"/>
       <c r="F175" s="154" t="s">
-        <v>118</v>
+        <v>335</v>
       </c>
       <c r="G175" s="154" t="s">
         <v>44</v>
@@ -25650,8 +25629,8 @@
         <v>44</v>
       </c>
       <c r="J175" s="154"/>
-      <c r="K175" s="161" t="s">
-        <v>921</v>
+      <c r="K175" s="362" t="s">
+        <v>1417</v>
       </c>
       <c r="L175" s="425"/>
       <c r="M175" s="425"/>
@@ -25661,18 +25640,18 @@
       <c r="Q175" s="425"/>
       <c r="R175" s="425"/>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" ht="33.000000">
       <c r="A176" s="310">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B176" s="154" t="s">
-        <v>995</v>
+        <v>1020</v>
       </c>
       <c r="C176" s="157"/>
       <c r="D176" s="154"/>
       <c r="E176" s="154"/>
       <c r="F176" s="154" t="s">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="G176" s="154" t="s">
         <v>44</v>
@@ -25684,8 +25663,8 @@
         <v>44</v>
       </c>
       <c r="J176" s="154"/>
-      <c r="K176" s="161" t="s">
-        <v>922</v>
+      <c r="K176" s="362" t="s">
+        <v>1368</v>
       </c>
       <c r="L176" s="425"/>
       <c r="M176" s="425"/>
@@ -25695,18 +25674,18 @@
       <c r="Q176" s="425"/>
       <c r="R176" s="425"/>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" ht="16.750000" customHeight="1">
       <c r="A177" s="310">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B177" s="154" t="s">
-        <v>996</v>
+        <v>1021</v>
       </c>
       <c r="C177" s="158"/>
       <c r="D177" s="154"/>
       <c r="E177" s="154"/>
       <c r="F177" s="154" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G177" s="154" t="s">
         <v>44</v>
@@ -25718,8 +25697,8 @@
         <v>44</v>
       </c>
       <c r="J177" s="154"/>
-      <c r="K177" s="161" t="s">
-        <v>1340</v>
+      <c r="K177" s="448" t="s">
+        <v>1418</v>
       </c>
       <c r="L177" s="425"/>
       <c r="M177" s="425"/>
@@ -25731,17 +25710,15 @@
     </row>
     <row r="178" spans="1:18">
       <c r="A178" s="310">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B178" s="154" t="s">
-        <v>1330</v>
+        <v>992</v>
       </c>
       <c r="C178" s="159" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D178" s="159" t="s">
-        <v>24</v>
-      </c>
+        <v>1183</v>
+      </c>
+      <c r="D178" s="154"/>
       <c r="E178" s="154"/>
       <c r="F178" s="154" t="s">
         <v>15</v>
@@ -25749,13 +25726,15 @@
       <c r="G178" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H178" s="154"/>
+      <c r="H178" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="I178" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J178" s="154"/>
-      <c r="K178" s="162" t="s">
-        <v>1178</v>
+      <c r="K178" s="161" t="s">
+        <v>1166</v>
       </c>
       <c r="L178" s="425"/>
       <c r="M178" s="425"/>
@@ -25767,23 +25746,29 @@
     </row>
     <row r="179" spans="1:18">
       <c r="A179" s="310">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B179" s="154" t="s">
-        <v>1331</v>
+        <v>993</v>
       </c>
       <c r="C179" s="157"/>
-      <c r="D179" s="158"/>
+      <c r="D179" s="154"/>
       <c r="E179" s="154"/>
-      <c r="F179" s="154"/>
+      <c r="F179" s="154" t="s">
+        <v>68</v>
+      </c>
       <c r="G179" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H179" s="154"/>
-      <c r="I179" s="154"/>
+      <c r="H179" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I179" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J179" s="154"/>
       <c r="K179" s="161" t="s">
-        <v>78</v>
+        <v>920</v>
       </c>
       <c r="L179" s="425"/>
       <c r="M179" s="425"/>
@@ -25795,29 +25780,29 @@
     </row>
     <row r="180" spans="1:18">
       <c r="A180" s="310">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B180" s="154" t="s">
-        <v>1332</v>
+        <v>994</v>
       </c>
       <c r="C180" s="157"/>
-      <c r="D180" s="159" t="s">
-        <v>1177</v>
-      </c>
+      <c r="D180" s="154"/>
       <c r="E180" s="154"/>
       <c r="F180" s="154" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="G180" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H180" s="154"/>
+      <c r="H180" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="I180" s="154" t="s">
         <v>44</v>
       </c>
       <c r="J180" s="154"/>
-      <c r="K180" s="162" t="s">
-        <v>1179</v>
+      <c r="K180" s="161" t="s">
+        <v>921</v>
       </c>
       <c r="L180" s="425"/>
       <c r="M180" s="425"/>
@@ -25829,13 +25814,13 @@
     </row>
     <row r="181" spans="1:18">
       <c r="A181" s="310">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B181" s="154" t="s">
-        <v>1333</v>
+        <v>995</v>
       </c>
       <c r="C181" s="157"/>
-      <c r="D181" s="157"/>
+      <c r="D181" s="154"/>
       <c r="E181" s="154"/>
       <c r="F181" s="154" t="s">
         <v>15</v>
@@ -25843,11 +25828,15 @@
       <c r="G181" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H181" s="154"/>
-      <c r="I181" s="154"/>
+      <c r="H181" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I181" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J181" s="154"/>
-      <c r="K181" s="162" t="s">
-        <v>1178</v>
+      <c r="K181" s="161" t="s">
+        <v>922</v>
       </c>
       <c r="L181" s="425"/>
       <c r="M181" s="425"/>
@@ -25859,23 +25848,29 @@
     </row>
     <row r="182" spans="1:18">
       <c r="A182" s="310">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B182" s="154" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C182" s="157"/>
-      <c r="D182" s="158"/>
+        <v>996</v>
+      </c>
+      <c r="C182" s="158"/>
+      <c r="D182" s="154"/>
       <c r="E182" s="154"/>
-      <c r="F182" s="154"/>
+      <c r="F182" s="154" t="s">
+        <v>15</v>
+      </c>
       <c r="G182" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="H182" s="154"/>
-      <c r="I182" s="154"/>
+      <c r="H182" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I182" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J182" s="154"/>
       <c r="K182" s="161" t="s">
-        <v>78</v>
+        <v>1340</v>
       </c>
       <c r="L182" s="425"/>
       <c r="M182" s="425"/>
@@ -25887,18 +25882,20 @@
     </row>
     <row r="183" spans="1:18">
       <c r="A183" s="310">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B183" s="154" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C183" s="157"/>
+        <v>1330</v>
+      </c>
+      <c r="C183" s="159" t="s">
+        <v>1176</v>
+      </c>
       <c r="D183" s="159" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E183" s="154"/>
       <c r="F183" s="154" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G183" s="154" t="s">
         <v>44</v>
@@ -25909,7 +25906,7 @@
       </c>
       <c r="J183" s="154"/>
       <c r="K183" s="162" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="L183" s="425"/>
       <c r="M183" s="425"/>
@@ -25919,27 +25916,25 @@
       <c r="Q183" s="425"/>
       <c r="R183" s="425"/>
     </row>
-    <row r="184" spans="1:18" ht="18.400000" customHeight="1">
+    <row r="184" spans="1:18">
       <c r="A184" s="310">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B184" s="154" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="C184" s="157"/>
-      <c r="D184" s="157"/>
+      <c r="D184" s="158"/>
       <c r="E184" s="154"/>
-      <c r="F184" s="154" t="s">
-        <v>118</v>
-      </c>
+      <c r="F184" s="154"/>
       <c r="G184" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H184" s="154"/>
       <c r="I184" s="154"/>
       <c r="J184" s="154"/>
-      <c r="K184" s="162" t="s">
-        <v>1181</v>
+      <c r="K184" s="161" t="s">
+        <v>78</v>
       </c>
       <c r="L184" s="425"/>
       <c r="M184" s="425"/>
@@ -25951,23 +25946,29 @@
     </row>
     <row r="185" spans="1:18">
       <c r="A185" s="310">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B185" s="154" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C185" s="157"/>
-      <c r="D185" s="158"/>
+      <c r="D185" s="159" t="s">
+        <v>1177</v>
+      </c>
       <c r="E185" s="154"/>
-      <c r="F185" s="154"/>
+      <c r="F185" s="154" t="s">
+        <v>41</v>
+      </c>
       <c r="G185" s="154" t="s">
         <v>44</v>
       </c>
       <c r="H185" s="154"/>
-      <c r="I185" s="154"/>
+      <c r="I185" s="154" t="s">
+        <v>44</v>
+      </c>
       <c r="J185" s="154"/>
-      <c r="K185" s="161" t="s">
-        <v>78</v>
+      <c r="K185" s="162" t="s">
+        <v>1179</v>
       </c>
       <c r="L185" s="425"/>
       <c r="M185" s="425"/>
@@ -25979,29 +25980,25 @@
     </row>
     <row r="186" spans="1:18">
       <c r="A186" s="310">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B186" s="154" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C186" s="158"/>
-      <c r="D186" s="154" t="s">
-        <v>69</v>
-      </c>
+        <v>1333</v>
+      </c>
+      <c r="C186" s="157"/>
+      <c r="D186" s="157"/>
       <c r="E186" s="154"/>
       <c r="F186" s="154" t="s">
-        <v>68</v>
-      </c>
-      <c r="G186" s="154"/>
-      <c r="H186" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I186" s="154" t="s">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G186" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H186" s="154"/>
+      <c r="I186" s="154"/>
       <c r="J186" s="154"/>
       <c r="K186" s="162" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="L186" s="425"/>
       <c r="M186" s="425"/>
@@ -26012,24 +26009,162 @@
       <c r="R186" s="425"/>
     </row>
     <row r="187" spans="1:18">
-      <c r="A187" s="423"/>
-      <c r="B187" s="423"/>
-      <c r="C187" s="423"/>
-      <c r="D187" s="423"/>
-      <c r="E187" s="423"/>
-      <c r="F187" s="423"/>
-      <c r="G187" s="423"/>
-      <c r="H187" s="423"/>
-      <c r="I187" s="423"/>
-      <c r="J187" s="423"/>
-      <c r="K187" s="423"/>
-      <c r="L187" s="423"/>
-      <c r="M187" s="423"/>
-      <c r="N187" s="423"/>
-      <c r="O187" s="423"/>
-      <c r="P187" s="423"/>
-      <c r="Q187" s="423"/>
-      <c r="R187" s="423"/>
+      <c r="A187" s="310">
+        <v>185</v>
+      </c>
+      <c r="B187" s="154" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C187" s="157"/>
+      <c r="D187" s="158"/>
+      <c r="E187" s="154"/>
+      <c r="F187" s="154"/>
+      <c r="G187" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H187" s="154"/>
+      <c r="I187" s="154"/>
+      <c r="J187" s="154"/>
+      <c r="K187" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="L187" s="425"/>
+      <c r="M187" s="425"/>
+      <c r="N187" s="425"/>
+      <c r="O187" s="425"/>
+      <c r="P187" s="425"/>
+      <c r="Q187" s="425"/>
+      <c r="R187" s="425"/>
+    </row>
+    <row r="188" spans="1:18">
+      <c r="A188" s="310">
+        <v>186</v>
+      </c>
+      <c r="B188" s="154" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C188" s="157"/>
+      <c r="D188" s="159" t="s">
+        <v>26</v>
+      </c>
+      <c r="E188" s="154"/>
+      <c r="F188" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="G188" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H188" s="154"/>
+      <c r="I188" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J188" s="154"/>
+      <c r="K188" s="162" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L188" s="425"/>
+      <c r="M188" s="425"/>
+      <c r="N188" s="425"/>
+      <c r="O188" s="425"/>
+      <c r="P188" s="425"/>
+      <c r="Q188" s="425"/>
+      <c r="R188" s="425"/>
+    </row>
+    <row r="189" spans="1:18" ht="18.400000" customHeight="1">
+      <c r="A189" s="310">
+        <v>187</v>
+      </c>
+      <c r="B189" s="154" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C189" s="157"/>
+      <c r="D189" s="157"/>
+      <c r="E189" s="154"/>
+      <c r="F189" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="G189" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H189" s="154"/>
+      <c r="I189" s="154"/>
+      <c r="J189" s="154"/>
+      <c r="K189" s="162" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L189" s="425"/>
+      <c r="M189" s="425"/>
+      <c r="N189" s="425"/>
+      <c r="O189" s="425"/>
+      <c r="P189" s="425"/>
+      <c r="Q189" s="425"/>
+      <c r="R189" s="425"/>
+    </row>
+    <row r="190" spans="1:18">
+      <c r="A190" s="310">
+        <v>188</v>
+      </c>
+      <c r="B190" s="154" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C190" s="157"/>
+      <c r="D190" s="158"/>
+      <c r="E190" s="154"/>
+      <c r="F190" s="154"/>
+      <c r="G190" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H190" s="154"/>
+      <c r="I190" s="154"/>
+      <c r="J190" s="154"/>
+      <c r="K190" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="L190" s="425"/>
+      <c r="M190" s="425"/>
+      <c r="N190" s="425"/>
+      <c r="O190" s="425"/>
+      <c r="P190" s="425"/>
+      <c r="Q190" s="425"/>
+      <c r="R190" s="425"/>
+    </row>
+    <row r="191" spans="1:18">
+      <c r="A191" s="310">
+        <v>189</v>
+      </c>
+      <c r="B191" s="154" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C191" s="158"/>
+      <c r="D191" s="154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="154"/>
+      <c r="F191" s="154" t="s">
+        <v>68</v>
+      </c>
+      <c r="G191" s="154"/>
+      <c r="H191" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I191" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="J191" s="154"/>
+      <c r="K191" s="162" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L191" s="425"/>
+      <c r="M191" s="425"/>
+      <c r="N191" s="425"/>
+      <c r="O191" s="425"/>
+      <c r="P191" s="425"/>
+      <c r="Q191" s="425"/>
+      <c r="R191" s="425"/>
+    </row>
+    <row r="192" spans="1:18">
+      <c r="B192" s="423"/>
+      <c r="K192" s="423"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -26063,24 +26198,24 @@
     <mergeCell ref="D86:D94"/>
     <mergeCell ref="D95:D99"/>
     <mergeCell ref="D100:D109"/>
-    <mergeCell ref="C110:C145"/>
+    <mergeCell ref="C110:C150"/>
     <mergeCell ref="D110:D112"/>
-    <mergeCell ref="D113:D118"/>
-    <mergeCell ref="D119:D135"/>
-    <mergeCell ref="E119:E125"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="E129:E135"/>
-    <mergeCell ref="D136:D145"/>
-    <mergeCell ref="E136:E140"/>
+    <mergeCell ref="D113:D122"/>
+    <mergeCell ref="D123:D140"/>
+    <mergeCell ref="E123:E130"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="E134:E140"/>
+    <mergeCell ref="D141:D150"/>
     <mergeCell ref="E141:E145"/>
-    <mergeCell ref="C146:C154"/>
-    <mergeCell ref="C155:C163"/>
-    <mergeCell ref="C164:C172"/>
-    <mergeCell ref="C173:C177"/>
-    <mergeCell ref="C178:C186"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="D180:D182"/>
-    <mergeCell ref="D183:D185"/>
+    <mergeCell ref="E146:E150"/>
+    <mergeCell ref="C151:C159"/>
+    <mergeCell ref="C160:C168"/>
+    <mergeCell ref="C169:C177"/>
+    <mergeCell ref="C178:C182"/>
+    <mergeCell ref="C183:C191"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="D188:D190"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
+++ b/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="1502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1532">
   <si>
     <t>번호</t>
   </si>
@@ -15941,6 +15941,123 @@
       </rPr>
       <t>선택한 [배송시 요청사항]을 DB에 저장</t>
     </r>
+  </si>
+  <si>
+    <t>- 공지사항에 클릭한 타이틀의 상세 내용이 적힌 상세페이지로 이동</t>
+  </si>
+  <si>
+    <t>- 공지사항의 글을 글 제목, 내용, 이름으로 검색 가능
+제목+내용등으로 중복검색도 가능</t>
+  </si>
+  <si>
+    <t>- 공지사항의 글을 페이지 단위로 이동. 
+이전, 다음 버튼으로 페이지를 이동할수있으며, 
+번호를 눌러서 해당 페이지로 이동 가능
+1페이지당 글은 15개까지 볼수있으며 10페이지단위로 표시되고,
+만약 10페이지에서 11페이지로 이동하려면 다음버튼을 눌러서 이동</t>
+  </si>
+  <si>
+    <t>- 공지사항의 글이 올라온 순서를 번호로 표시 아래에서부터 내림차순으로 표시.</t>
+  </si>
+  <si>
+    <t>- 게시글에 댓글을 등록한 이용자의 아이디를 표시</t>
+  </si>
+  <si>
+    <t>- 게시글에 댓글을 수정</t>
+  </si>
+  <si>
+    <t>- 공지사항의 글을 등록한 날짜를 표시</t>
+  </si>
+  <si>
+    <t>- 공지사항의 글을 등록한 작성자를 표시</t>
+  </si>
+  <si>
+    <t>- 공지사항의 글을 조회한 횟수를 표시. 
+1아이디당 1회씩, 비로그인이라면 아이피당 1회씩</t>
+  </si>
+  <si>
+    <t>- 공지사항의 글에 첨부파일이 등록되어있는지 확인 가능
+등록되어있다면 표시, 없다면 비표시</t>
+  </si>
+  <si>
+    <t>- 공지사항에 글을 쓸수있다. 권한은 관리자에게만 부여</t>
+  </si>
+  <si>
+    <t>- 질문게시판의 글을 읽기</t>
+  </si>
+  <si>
+    <t>- 질문게시판의 글을 글 제목, 내용, 이름으로 검색</t>
+  </si>
+  <si>
+    <t>- 질문게시판의 글을 페이지 단위로 이동. 
+이전, 다음 버튼으로 페이지를 이동할수있으며, 
+번호를 눌러서 해당 페이지로 이동 가능
+1페이지당 글은 15개까지 볼수있으며 10페이지단위로 표시되고,
+만약 10페이지에서 11페이지로 이동하려면 다음버튼을 눌러서 이동</t>
+  </si>
+  <si>
+    <t>- 질문게시판의 글이 올라온 순서를 번호로 표시한다. 아래에서부터 내림차순으로 표시.</t>
+  </si>
+  <si>
+    <t>- 질문게시판의 글을 등록한 날짜를 표시</t>
+  </si>
+  <si>
+    <t>- 질문게시판의 글을 등록한 작성자를 표시</t>
+  </si>
+  <si>
+    <t>- 질문게시판의 글에 첨부파일이 등록되어있는지 확인 가능
+등록되어있다면 표시, 없다면 비표시</t>
+  </si>
+  <si>
+    <t>- 질문게시판의 글을 조회한 횟수를 표시. 
+1아이디당 1회씩, 비로그인이라면 아이피당 1회씩</t>
+  </si>
+  <si>
+    <t>- 질문게시판에 글 작성 가능</t>
+  </si>
+  <si>
+    <t>- 자유게시판의 글을 읽기</t>
+  </si>
+  <si>
+    <t>- 자유게시판의 글을 글 제목, 내용, 이름으로 검색</t>
+  </si>
+  <si>
+    <t>- 자유게시판의 글을 페이지 단위로 이동. 
+이전, 다음 버튼으로 페이지를 이동할수있으며, 
+번호를 눌러서 해당 페이지로 이동 가능
+1페이지당 글은 15개까지 볼수있으며 10페이지단위로 표시되고,
+만약 10페이지에서 11페이지로 이동하려면 다음버튼을 눌러서 이동</t>
+  </si>
+  <si>
+    <t>- 게시글에 댓글을 등록</t>
+  </si>
+  <si>
+    <r>
+      <t>- 게시글에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve"> 댓글을 등록</t>
+    </r>
+  </si>
+  <si>
+    <t>- 게시글에 댓글을 삭제</t>
+  </si>
+  <si>
+    <t>게시글 댓글</t>
+  </si>
+  <si>
+    <t>시험풁시</t>
+  </si>
+  <si>
+    <t>시험풀기</t>
+  </si>
+  <si>
+    <t>게시글답글</t>
   </si>
 </sst>
 </file>
@@ -20420,8 +20537,8 @@
   <dimension ref="A1:R192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K138" sqref="K138"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -21620,7 +21737,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="425" customFormat="1" ht="49.500000">
+    <row r="45" spans="1:11" s="425" customFormat="1" ht="36.000000" customHeight="1">
       <c r="A45" s="310">
         <v>43</v>
       </c>
@@ -22896,7 +23013,7 @@
       </c>
       <c r="C86" s="444"/>
       <c r="D86" s="154" t="s">
-        <v>71</v>
+        <v>1530</v>
       </c>
       <c r="E86" s="155"/>
       <c r="F86" s="154" t="s">
@@ -24830,7 +24947,7 @@
       </c>
       <c r="J151" s="154"/>
       <c r="K151" s="213" t="s">
-        <v>1409</v>
+        <v>1502</v>
       </c>
       <c r="L151" s="425"/>
       <c r="M151" s="425"/>
@@ -24864,7 +24981,7 @@
       </c>
       <c r="J152" s="154"/>
       <c r="K152" s="283" t="s">
-        <v>1411</v>
+        <v>1503</v>
       </c>
       <c r="L152" s="425"/>
       <c r="M152" s="425"/>
@@ -24898,7 +25015,7 @@
       </c>
       <c r="J153" s="154"/>
       <c r="K153" s="283" t="s">
-        <v>1412</v>
+        <v>1504</v>
       </c>
       <c r="L153" s="425"/>
       <c r="M153" s="425"/>
@@ -24932,7 +25049,7 @@
       </c>
       <c r="J154" s="154"/>
       <c r="K154" s="213" t="s">
-        <v>1413</v>
+        <v>1505</v>
       </c>
       <c r="L154" s="425"/>
       <c r="M154" s="425"/>
@@ -24966,7 +25083,7 @@
       </c>
       <c r="J155" s="154"/>
       <c r="K155" s="213" t="s">
-        <v>928</v>
+        <v>1508</v>
       </c>
       <c r="L155" s="425"/>
       <c r="M155" s="425"/>
@@ -25000,7 +25117,7 @@
       </c>
       <c r="J156" s="154"/>
       <c r="K156" s="213" t="s">
-        <v>929</v>
+        <v>1509</v>
       </c>
       <c r="L156" s="425"/>
       <c r="M156" s="425"/>
@@ -25034,7 +25151,7 @@
       </c>
       <c r="J157" s="154"/>
       <c r="K157" s="283" t="s">
-        <v>930</v>
+        <v>1510</v>
       </c>
       <c r="L157" s="425"/>
       <c r="M157" s="425"/>
@@ -25068,7 +25185,7 @@
       </c>
       <c r="J158" s="154"/>
       <c r="K158" s="283" t="s">
-        <v>1414</v>
+        <v>1511</v>
       </c>
       <c r="L158" s="425"/>
       <c r="M158" s="425"/>
@@ -25102,7 +25219,7 @@
         <v>44</v>
       </c>
       <c r="K159" s="213" t="s">
-        <v>1415</v>
+        <v>1512</v>
       </c>
       <c r="L159" s="425"/>
       <c r="M159" s="425"/>
@@ -25136,7 +25253,7 @@
       </c>
       <c r="J160" s="450"/>
       <c r="K160" s="448" t="s">
-        <v>933</v>
+        <v>1513</v>
       </c>
       <c r="L160" s="425"/>
       <c r="M160" s="425"/>
@@ -25170,7 +25287,7 @@
       </c>
       <c r="J161" s="450"/>
       <c r="K161" s="448" t="s">
-        <v>934</v>
+        <v>1514</v>
       </c>
       <c r="L161" s="425"/>
       <c r="M161" s="425"/>
@@ -25204,7 +25321,7 @@
       </c>
       <c r="J162" s="450"/>
       <c r="K162" s="362" t="s">
-        <v>1416</v>
+        <v>1515</v>
       </c>
       <c r="L162" s="425"/>
       <c r="M162" s="425"/>
@@ -25238,7 +25355,7 @@
       </c>
       <c r="J163" s="450"/>
       <c r="K163" s="448" t="s">
-        <v>1364</v>
+        <v>1516</v>
       </c>
       <c r="L163" s="425"/>
       <c r="M163" s="425"/>
@@ -25272,7 +25389,7 @@
       </c>
       <c r="J164" s="450"/>
       <c r="K164" s="448" t="s">
-        <v>1365</v>
+        <v>1517</v>
       </c>
       <c r="L164" s="425"/>
       <c r="M164" s="425"/>
@@ -25306,7 +25423,7 @@
       </c>
       <c r="J165" s="450"/>
       <c r="K165" s="448" t="s">
-        <v>1366</v>
+        <v>1518</v>
       </c>
       <c r="L165" s="425"/>
       <c r="M165" s="425"/>
@@ -25340,7 +25457,7 @@
       </c>
       <c r="J166" s="450"/>
       <c r="K166" s="362" t="s">
-        <v>1417</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="33.000000">
@@ -25367,7 +25484,7 @@
       </c>
       <c r="J167" s="450"/>
       <c r="K167" s="362" t="s">
-        <v>1368</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="33.000000">
@@ -25392,7 +25509,7 @@
       </c>
       <c r="J168" s="450"/>
       <c r="K168" s="448" t="s">
-        <v>1418</v>
+        <v>1521</v>
       </c>
       <c r="L168" s="425"/>
       <c r="M168" s="425"/>
@@ -25426,7 +25543,7 @@
       </c>
       <c r="J169" s="154"/>
       <c r="K169" s="213" t="s">
-        <v>936</v>
+        <v>1522</v>
       </c>
       <c r="L169" s="425"/>
       <c r="M169" s="425"/>
@@ -25460,7 +25577,7 @@
       </c>
       <c r="J170" s="154"/>
       <c r="K170" s="213" t="s">
-        <v>937</v>
+        <v>1523</v>
       </c>
       <c r="L170" s="425"/>
       <c r="M170" s="425"/>
@@ -25494,7 +25611,7 @@
       </c>
       <c r="J171" s="154"/>
       <c r="K171" s="283" t="s">
-        <v>1420</v>
+        <v>1524</v>
       </c>
       <c r="L171" s="425"/>
       <c r="M171" s="425"/>
@@ -25528,7 +25645,7 @@
       </c>
       <c r="J172" s="154"/>
       <c r="K172" s="448" t="s">
-        <v>1364</v>
+        <v>1516</v>
       </c>
       <c r="L172" s="425"/>
       <c r="M172" s="425"/>
@@ -25562,7 +25679,7 @@
       </c>
       <c r="J173" s="154"/>
       <c r="K173" s="448" t="s">
-        <v>1365</v>
+        <v>1517</v>
       </c>
       <c r="L173" s="425"/>
       <c r="M173" s="425"/>
@@ -25596,7 +25713,7 @@
       </c>
       <c r="J174" s="154"/>
       <c r="K174" s="448" t="s">
-        <v>1366</v>
+        <v>1518</v>
       </c>
       <c r="L174" s="425"/>
       <c r="M174" s="425"/>
@@ -25630,7 +25747,7 @@
       </c>
       <c r="J175" s="154"/>
       <c r="K175" s="362" t="s">
-        <v>1417</v>
+        <v>1519</v>
       </c>
       <c r="L175" s="425"/>
       <c r="M175" s="425"/>
@@ -25664,7 +25781,7 @@
       </c>
       <c r="J176" s="154"/>
       <c r="K176" s="362" t="s">
-        <v>1368</v>
+        <v>1520</v>
       </c>
       <c r="L176" s="425"/>
       <c r="M176" s="425"/>
@@ -25698,7 +25815,7 @@
       </c>
       <c r="J177" s="154"/>
       <c r="K177" s="448" t="s">
-        <v>1418</v>
+        <v>1521</v>
       </c>
       <c r="L177" s="425"/>
       <c r="M177" s="425"/>
@@ -25716,7 +25833,7 @@
         <v>992</v>
       </c>
       <c r="C178" s="159" t="s">
-        <v>1183</v>
+        <v>1528</v>
       </c>
       <c r="D178" s="154"/>
       <c r="E178" s="154"/>
@@ -25734,7 +25851,7 @@
       </c>
       <c r="J178" s="154"/>
       <c r="K178" s="161" t="s">
-        <v>1166</v>
+        <v>1526</v>
       </c>
       <c r="L178" s="425"/>
       <c r="M178" s="425"/>
@@ -25768,7 +25885,7 @@
       </c>
       <c r="J179" s="154"/>
       <c r="K179" s="161" t="s">
-        <v>920</v>
+        <v>1527</v>
       </c>
       <c r="L179" s="425"/>
       <c r="M179" s="425"/>
@@ -25802,7 +25919,7 @@
       </c>
       <c r="J180" s="154"/>
       <c r="K180" s="161" t="s">
-        <v>921</v>
+        <v>1507</v>
       </c>
       <c r="L180" s="425"/>
       <c r="M180" s="425"/>
@@ -25836,7 +25953,7 @@
       </c>
       <c r="J181" s="154"/>
       <c r="K181" s="161" t="s">
-        <v>922</v>
+        <v>1506</v>
       </c>
       <c r="L181" s="425"/>
       <c r="M181" s="425"/>
@@ -25953,7 +26070,7 @@
       </c>
       <c r="C185" s="157"/>
       <c r="D185" s="159" t="s">
-        <v>1177</v>
+        <v>1531</v>
       </c>
       <c r="E185" s="154"/>
       <c r="F185" s="154" t="s">

--- a/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
+++ b/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="390" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의서-1" sheetId="2" r:id="rId1"/>
@@ -16070,7 +16070,7 @@
     <numFmt numFmtId="66" formatCode="@"/>
     <numFmt numFmtId="67" formatCode="mm\-dd"/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="67">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -16456,11 +16456,6 @@
       <sz val="12.0"/>
       <name val="Malgun Gothic"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
     </font>
   </fonts>
   <fills count="40">
@@ -17255,7 +17250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="509">
+  <cellXfs count="503">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -18764,24 +18759,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -20537,8 +20514,8 @@
   <dimension ref="A1:R192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -23839,7 +23816,7 @@
       <c r="A113" s="310">
         <v>111</v>
       </c>
-      <c r="B113" s="503" t="s">
+      <c r="B113" s="335" t="s">
         <v>1303</v>
       </c>
       <c r="C113" s="90"/>
@@ -23847,16 +23824,16 @@
         <v>513</v>
       </c>
       <c r="E113" s="335"/>
-      <c r="F113" s="503" t="s">
+      <c r="F113" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="G113" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H113" s="503"/>
-      <c r="I113" s="503"/>
-      <c r="J113" s="503"/>
-      <c r="K113" s="504" t="s">
+      <c r="G113" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H113" s="335"/>
+      <c r="I113" s="335"/>
+      <c r="J113" s="335"/>
+      <c r="K113" s="283" t="s">
         <v>1490</v>
       </c>
       <c r="L113" s="425"/>
@@ -23871,126 +23848,122 @@
       <c r="A114" s="310">
         <v>112</v>
       </c>
-      <c r="B114" s="503" t="s">
+      <c r="B114" s="335" t="s">
         <v>1304</v>
       </c>
       <c r="C114" s="165"/>
       <c r="D114" s="165"/>
       <c r="E114" s="165"/>
-      <c r="F114" s="503" t="s">
+      <c r="F114" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="G114" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H114" s="503"/>
-      <c r="I114" s="503"/>
-      <c r="J114" s="503"/>
-      <c r="K114" s="504" t="s">
+      <c r="G114" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H114" s="335"/>
+      <c r="I114" s="335"/>
+      <c r="J114" s="335"/>
+      <c r="K114" s="283" t="s">
         <v>1490</v>
       </c>
-      <c r="L114" s="423"/>
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="310">
         <v>113</v>
       </c>
-      <c r="B115" s="503" t="s">
+      <c r="B115" s="335" t="s">
         <v>1305</v>
       </c>
       <c r="C115" s="165"/>
       <c r="D115" s="165"/>
       <c r="E115" s="165"/>
-      <c r="F115" s="503" t="s">
+      <c r="F115" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="G115" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H115" s="503"/>
-      <c r="I115" s="503"/>
-      <c r="J115" s="503"/>
-      <c r="K115" s="504" t="s">
+      <c r="G115" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H115" s="335"/>
+      <c r="I115" s="335"/>
+      <c r="J115" s="335"/>
+      <c r="K115" s="283" t="s">
         <v>1491</v>
       </c>
-      <c r="L115" s="423"/>
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="310">
         <v>114</v>
       </c>
-      <c r="B116" s="503" t="s">
+      <c r="B116" s="335" t="s">
         <v>1306</v>
       </c>
       <c r="C116" s="165"/>
       <c r="D116" s="165"/>
       <c r="E116" s="165"/>
-      <c r="F116" s="503" t="s">
+      <c r="F116" s="335" t="s">
         <v>335</v>
       </c>
-      <c r="G116" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H116" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="I116" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="J116" s="503"/>
-      <c r="K116" s="504" t="s">
+      <c r="G116" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H116" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I116" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J116" s="335"/>
+      <c r="K116" s="283" t="s">
         <v>1492</v>
       </c>
-      <c r="L116" s="423"/>
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="310">
         <v>115</v>
       </c>
-      <c r="B117" s="503" t="s">
+      <c r="B117" s="335" t="s">
         <v>1307</v>
       </c>
       <c r="C117" s="165"/>
       <c r="D117" s="165"/>
       <c r="E117" s="165"/>
-      <c r="F117" s="503" t="s">
+      <c r="F117" s="335" t="s">
         <v>118</v>
       </c>
-      <c r="G117" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H117" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="I117" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="J117" s="503"/>
-      <c r="K117" s="504" t="s">
+      <c r="G117" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H117" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I117" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J117" s="335"/>
+      <c r="K117" s="283" t="s">
         <v>787</v>
       </c>
-      <c r="L117" s="423"/>
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="310">
         <v>116</v>
       </c>
-      <c r="B118" s="503" t="s">
+      <c r="B118" s="335" t="s">
         <v>1308</v>
       </c>
       <c r="C118" s="90"/>
       <c r="D118" s="335"/>
       <c r="E118" s="335"/>
-      <c r="F118" s="503" t="s">
+      <c r="F118" s="335" t="s">
         <v>335</v>
       </c>
-      <c r="G118" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H118" s="503"/>
-      <c r="I118" s="503"/>
-      <c r="J118" s="503"/>
-      <c r="K118" s="504" t="s">
+      <c r="G118" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H118" s="335"/>
+      <c r="I118" s="335"/>
+      <c r="J118" s="335"/>
+      <c r="K118" s="283" t="s">
         <v>1493</v>
       </c>
       <c r="L118" s="425"/>
@@ -24005,26 +23978,26 @@
       <c r="A119" s="310">
         <v>117</v>
       </c>
-      <c r="B119" s="503" t="s">
+      <c r="B119" s="335" t="s">
         <v>1485</v>
       </c>
       <c r="C119" s="90"/>
       <c r="D119" s="335"/>
       <c r="E119" s="335"/>
-      <c r="F119" s="503" t="s">
+      <c r="F119" s="335" t="s">
         <v>1489</v>
       </c>
-      <c r="G119" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H119" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="I119" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="J119" s="503"/>
-      <c r="K119" s="504" t="s">
+      <c r="G119" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H119" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I119" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J119" s="335"/>
+      <c r="K119" s="283" t="s">
         <v>1494</v>
       </c>
       <c r="L119" s="425"/>
@@ -24039,26 +24012,26 @@
       <c r="A120" s="310">
         <v>118</v>
       </c>
-      <c r="B120" s="503" t="s">
+      <c r="B120" s="335" t="s">
         <v>1486</v>
       </c>
       <c r="C120" s="90"/>
       <c r="D120" s="335"/>
       <c r="E120" s="335"/>
-      <c r="F120" s="503" t="s">
+      <c r="F120" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="G120" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H120" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="I120" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="J120" s="503"/>
-      <c r="K120" s="504" t="s">
+      <c r="G120" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H120" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I120" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J120" s="335"/>
+      <c r="K120" s="283" t="s">
         <v>1495</v>
       </c>
       <c r="L120" s="425"/>
@@ -24073,20 +24046,20 @@
       <c r="A121" s="310">
         <v>119</v>
       </c>
-      <c r="B121" s="503" t="s">
+      <c r="B121" s="335" t="s">
         <v>1487</v>
       </c>
       <c r="C121" s="90"/>
       <c r="D121" s="335"/>
       <c r="E121" s="335"/>
-      <c r="F121" s="503"/>
-      <c r="G121" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H121" s="503"/>
-      <c r="I121" s="503"/>
-      <c r="J121" s="503"/>
-      <c r="K121" s="504" t="s">
+      <c r="F121" s="335"/>
+      <c r="G121" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H121" s="335"/>
+      <c r="I121" s="335"/>
+      <c r="J121" s="335"/>
+      <c r="K121" s="283" t="s">
         <v>1264</v>
       </c>
       <c r="L121" s="425"/>
@@ -24101,18 +24074,18 @@
       <c r="A122" s="310">
         <v>120</v>
       </c>
-      <c r="B122" s="503" t="s">
+      <c r="B122" s="335" t="s">
         <v>1488</v>
       </c>
       <c r="C122" s="90"/>
       <c r="D122" s="335"/>
       <c r="E122" s="335"/>
-      <c r="F122" s="503"/>
-      <c r="G122" s="503"/>
-      <c r="H122" s="503"/>
-      <c r="I122" s="503"/>
-      <c r="J122" s="503"/>
-      <c r="K122" s="504" t="s">
+      <c r="F122" s="335"/>
+      <c r="G122" s="335"/>
+      <c r="H122" s="335"/>
+      <c r="I122" s="335"/>
+      <c r="J122" s="335"/>
+      <c r="K122" s="283" t="s">
         <v>792</v>
       </c>
       <c r="L122" s="425"/>
@@ -24127,7 +24100,7 @@
       <c r="A123" s="310">
         <v>121</v>
       </c>
-      <c r="B123" s="503" t="s">
+      <c r="B123" s="335" t="s">
         <v>1309</v>
       </c>
       <c r="C123" s="5"/>
@@ -24137,14 +24110,14 @@
       <c r="E123" s="335" t="s">
         <v>729</v>
       </c>
-      <c r="F123" s="503" t="s">
+      <c r="F123" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="G123" s="503"/>
-      <c r="H123" s="503"/>
-      <c r="I123" s="503"/>
-      <c r="J123" s="503"/>
-      <c r="K123" s="504" t="s">
+      <c r="G123" s="335"/>
+      <c r="H123" s="335"/>
+      <c r="I123" s="335"/>
+      <c r="J123" s="335"/>
+      <c r="K123" s="283" t="s">
         <v>1497</v>
       </c>
       <c r="L123" s="425"/>
@@ -24159,26 +24132,26 @@
       <c r="A124" s="310">
         <v>122</v>
       </c>
-      <c r="B124" s="503" t="s">
+      <c r="B124" s="335" t="s">
         <v>1310</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="90"/>
       <c r="E124" s="335"/>
-      <c r="F124" s="503" t="s">
+      <c r="F124" s="335" t="s">
         <v>41</v>
       </c>
-      <c r="G124" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H124" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="I124" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="J124" s="503"/>
-      <c r="K124" s="504" t="s">
+      <c r="G124" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H124" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I124" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J124" s="335"/>
+      <c r="K124" s="283" t="s">
         <v>1265</v>
       </c>
       <c r="L124" s="425"/>
@@ -24193,26 +24166,26 @@
       <c r="A125" s="310">
         <v>123</v>
       </c>
-      <c r="B125" s="503" t="s">
+      <c r="B125" s="335" t="s">
         <v>1311</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="90"/>
       <c r="E125" s="335"/>
-      <c r="F125" s="503" t="s">
+      <c r="F125" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="G125" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H125" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="I125" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="J125" s="503"/>
-      <c r="K125" s="504" t="s">
+      <c r="G125" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H125" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I125" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J125" s="335"/>
+      <c r="K125" s="283" t="s">
         <v>795</v>
       </c>
       <c r="L125" s="425"/>
@@ -24227,26 +24200,26 @@
       <c r="A126" s="310">
         <v>124</v>
       </c>
-      <c r="B126" s="503" t="s">
+      <c r="B126" s="335" t="s">
         <v>1312</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="90"/>
       <c r="E126" s="335"/>
-      <c r="F126" s="503" t="s">
+      <c r="F126" s="335" t="s">
         <v>550</v>
       </c>
-      <c r="G126" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H126" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="I126" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="J126" s="503"/>
-      <c r="K126" s="505" t="s">
+      <c r="G126" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H126" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I126" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J126" s="335"/>
+      <c r="K126" s="213" t="s">
         <v>1499</v>
       </c>
       <c r="L126" s="425"/>
@@ -24261,26 +24234,26 @@
       <c r="A127" s="310">
         <v>125</v>
       </c>
-      <c r="B127" s="503" t="s">
+      <c r="B127" s="335" t="s">
         <v>1313</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="90"/>
       <c r="E127" s="335"/>
-      <c r="F127" s="503" t="s">
+      <c r="F127" s="335" t="s">
         <v>550</v>
       </c>
-      <c r="G127" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H127" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="I127" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="J127" s="503"/>
-      <c r="K127" s="505" t="s">
+      <c r="G127" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H127" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I127" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J127" s="335"/>
+      <c r="K127" s="213" t="s">
         <v>1499</v>
       </c>
       <c r="L127" s="425"/>
@@ -24295,76 +24268,74 @@
       <c r="A128" s="310">
         <v>126</v>
       </c>
-      <c r="B128" s="503" t="s">
+      <c r="B128" s="335" t="s">
         <v>1314</v>
       </c>
       <c r="C128" s="165"/>
       <c r="D128" s="165"/>
       <c r="E128" s="165"/>
-      <c r="F128" s="503" t="s">
+      <c r="F128" s="335" t="s">
         <v>550</v>
       </c>
-      <c r="G128" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H128" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="I128" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="J128" s="503"/>
-      <c r="K128" s="505" t="s">
+      <c r="G128" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H128" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I128" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J128" s="335"/>
+      <c r="K128" s="213" t="s">
         <v>1499</v>
       </c>
-      <c r="L128" s="423"/>
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="310">
         <v>127</v>
       </c>
-      <c r="B129" s="503" t="s">
+      <c r="B129" s="335" t="s">
         <v>1315</v>
       </c>
       <c r="C129" s="165"/>
       <c r="D129" s="91"/>
       <c r="E129" s="335"/>
-      <c r="F129" s="503" t="s">
+      <c r="F129" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="G129" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H129" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="I129" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="J129" s="503"/>
-      <c r="K129" s="504" t="s">
+      <c r="G129" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H129" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="I129" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="J129" s="335"/>
+      <c r="K129" s="283" t="s">
         <v>1501</v>
       </c>
-      <c r="L129" s="423"/>
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="310">
         <v>128</v>
       </c>
-      <c r="B130" s="503" t="s">
+      <c r="B130" s="335" t="s">
         <v>1496</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="90"/>
       <c r="E130" s="335"/>
-      <c r="F130" s="503"/>
-      <c r="G130" s="503" t="s">
-        <v>44</v>
-      </c>
-      <c r="H130" s="503"/>
-      <c r="I130" s="503"/>
-      <c r="J130" s="503"/>
-      <c r="K130" s="504" t="s">
+      <c r="F130" s="335"/>
+      <c r="G130" s="335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H130" s="335"/>
+      <c r="I130" s="335"/>
+      <c r="J130" s="335"/>
+      <c r="K130" s="283" t="s">
         <v>792</v>
       </c>
       <c r="L130" s="425"/>
@@ -24589,7 +24560,6 @@
       <c r="K137" s="283" t="s">
         <v>1282</v>
       </c>
-      <c r="L137" s="423"/>
     </row>
     <row r="138" spans="1:18" ht="17.600000" customHeight="1">
       <c r="A138" s="310">
@@ -24613,7 +24583,6 @@
       <c r="K138" s="283" t="s">
         <v>1283</v>
       </c>
-      <c r="L138" s="423"/>
     </row>
     <row r="139" spans="1:18">
       <c r="A139" s="310">
@@ -24637,7 +24606,6 @@
       <c r="K139" s="283" t="s">
         <v>1284</v>
       </c>
-      <c r="L139" s="423"/>
     </row>
     <row r="140" spans="1:18">
       <c r="A140" s="310">
@@ -24661,7 +24629,6 @@
       <c r="K140" s="283" t="s">
         <v>1285</v>
       </c>
-      <c r="L140" s="423"/>
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="310">
@@ -24674,7 +24641,7 @@
       <c r="D141" s="91" t="s">
         <v>1372</v>
       </c>
-      <c r="E141" s="506" t="s">
+      <c r="E141" s="354" t="s">
         <v>729</v>
       </c>
       <c r="F141" s="335" t="s">
@@ -24691,7 +24658,6 @@
       <c r="K141" s="283" t="s">
         <v>1373</v>
       </c>
-      <c r="L141" s="423"/>
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="310">
@@ -24702,7 +24668,7 @@
       </c>
       <c r="C142" s="165"/>
       <c r="D142" s="91"/>
-      <c r="E142" s="507"/>
+      <c r="E142" s="355"/>
       <c r="F142" s="335" t="s">
         <v>41</v>
       </c>
@@ -24717,7 +24683,6 @@
       <c r="K142" s="283" t="s">
         <v>1374</v>
       </c>
-      <c r="L142" s="423"/>
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="310">
@@ -24728,7 +24693,7 @@
       </c>
       <c r="C143" s="165"/>
       <c r="D143" s="91"/>
-      <c r="E143" s="507"/>
+      <c r="E143" s="355"/>
       <c r="F143" s="335" t="s">
         <v>41</v>
       </c>
@@ -24743,7 +24708,6 @@
       <c r="K143" s="283" t="s">
         <v>1375</v>
       </c>
-      <c r="L143" s="423"/>
     </row>
     <row r="144" spans="1:18">
       <c r="A144" s="310">
@@ -24754,7 +24718,7 @@
       </c>
       <c r="C144" s="165"/>
       <c r="D144" s="91"/>
-      <c r="E144" s="507"/>
+      <c r="E144" s="355"/>
       <c r="F144" s="335" t="s">
         <v>41</v>
       </c>
@@ -24769,7 +24733,6 @@
       <c r="K144" s="283" t="s">
         <v>1376</v>
       </c>
-      <c r="L144" s="423"/>
     </row>
     <row r="145" spans="1:18">
       <c r="A145" s="310">
@@ -24780,7 +24743,7 @@
       </c>
       <c r="C145" s="165"/>
       <c r="D145" s="91"/>
-      <c r="E145" s="508"/>
+      <c r="E145" s="356"/>
       <c r="F145" s="335"/>
       <c r="G145" s="335" t="s">
         <v>44</v>
@@ -24791,7 +24754,6 @@
       <c r="K145" s="283" t="s">
         <v>792</v>
       </c>
-      <c r="L145" s="423"/>
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="310">
@@ -24802,7 +24764,7 @@
       </c>
       <c r="C146" s="165"/>
       <c r="D146" s="91"/>
-      <c r="E146" s="506" t="s">
+      <c r="E146" s="354" t="s">
         <v>730</v>
       </c>
       <c r="F146" s="335" t="s">
@@ -24819,7 +24781,6 @@
       <c r="K146" s="283" t="s">
         <v>1377</v>
       </c>
-      <c r="L146" s="423"/>
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="310">
@@ -24830,7 +24791,7 @@
       </c>
       <c r="C147" s="165"/>
       <c r="D147" s="91"/>
-      <c r="E147" s="507"/>
+      <c r="E147" s="355"/>
       <c r="F147" s="335" t="s">
         <v>41</v>
       </c>
@@ -24845,7 +24806,6 @@
       <c r="K147" s="283" t="s">
         <v>1377</v>
       </c>
-      <c r="L147" s="423"/>
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="310">
@@ -24856,7 +24816,7 @@
       </c>
       <c r="C148" s="165"/>
       <c r="D148" s="91"/>
-      <c r="E148" s="507"/>
+      <c r="E148" s="355"/>
       <c r="F148" s="335" t="s">
         <v>41</v>
       </c>
@@ -24871,7 +24831,6 @@
       <c r="K148" s="283" t="s">
         <v>1378</v>
       </c>
-      <c r="L148" s="423"/>
     </row>
     <row r="149" spans="1:18">
       <c r="A149" s="310">
@@ -24882,7 +24841,7 @@
       </c>
       <c r="C149" s="165"/>
       <c r="D149" s="91"/>
-      <c r="E149" s="507"/>
+      <c r="E149" s="355"/>
       <c r="F149" s="335"/>
       <c r="G149" s="335" t="s">
         <v>44</v>
@@ -24893,7 +24852,6 @@
       <c r="K149" s="283" t="s">
         <v>1379</v>
       </c>
-      <c r="L149" s="423"/>
     </row>
     <row r="150" spans="1:18" ht="20.100000" customHeight="1">
       <c r="A150" s="310">
@@ -24904,7 +24862,7 @@
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="90"/>
-      <c r="E150" s="508"/>
+      <c r="E150" s="356"/>
       <c r="F150" s="335"/>
       <c r="G150" s="335" t="s">
         <v>44</v>

--- a/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
+++ b/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="380" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의서-1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1534">
   <si>
     <t>번호</t>
   </si>
@@ -16058,6 +16058,26 @@
   </si>
   <si>
     <t>게시글답글</t>
+  </si>
+  <si>
+    <t>- 구매가 가능한 교재목록이 자동적으로 슬라이드
+- 마우스를 올릴 시 정지
+- 각 방향 쪽으로 이동시 그 방향으로 1장씩 슬라이드</t>
+  </si>
+  <si>
+    <r>
+      <t>- 구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>가 가능한 교재목록이 자동적으로 슬라이드
+- 마우스를 올릴 시 정지
+- 각 방향 쪽으로 이동시 그 방향으로 1장씩 슬라이드</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -17250,7 +17270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="503">
+  <cellXfs count="504">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -18759,6 +18779,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -20514,8 +20537,8 @@
   <dimension ref="A1:R192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -20617,8 +20640,8 @@
       </c>
       <c r="I3" s="311"/>
       <c r="J3" s="311"/>
-      <c r="K3" s="135" t="s">
-        <v>1206</v>
+      <c r="K3" s="503" t="s">
+        <v>1533</v>
       </c>
       <c r="L3" s="426"/>
       <c r="M3" s="426"/>

--- a/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
+++ b/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
@@ -10,12 +10,12 @@
     <sheet name="기능 정의서-1" sheetId="2" r:id="rId1"/>
     <sheet name="기능 정의서-2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="506">
   <si>
     <t>문제 은행 CBT 기능 정의서</t>
   </si>
@@ -1197,9 +1197,6 @@
     <t>F-MM-10</t>
   </si>
   <si>
-    <t>- 회원정보 변경 완료(생년월일,우편번호,(집,폰)전화번호 미입력시 경고창 출력) , 홈페이지로 이동</t>
-  </si>
-  <si>
     <t>F-MM-11</t>
   </si>
   <si>
@@ -2063,6 +2060,30 @@
   <si>
     <t>- DB에 DELETE 후 게시글목록 페이지로 이동</t>
   </si>
+  <si>
+    <r>
+      <t>- 회원정보 변경 완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 홈페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 휴대폰 번호 (미 입력시 경고창 출력) , 휴대전화 입력시 11자리 초과시 경고창 출력</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 집 전화번호 (미 입력시 경고창 출력) , 전화번호 입력시 11자리 초과시 경고창 출</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2070,7 +2091,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="mm\-dd"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -2561,6 +2582,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2573,95 +2675,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2669,92 +2768,14 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3072,99 +3093,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="90"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="93"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="8" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" customHeight="1">
       <c r="A9" s="42" t="s">
@@ -3173,16 +3194,16 @@
       <c r="B9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
       <c r="K9" s="57" t="s">
         <v>5</v>
       </c>
@@ -3194,16 +3215,16 @@
       <c r="B10" s="45">
         <v>43717</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
       <c r="K10" s="58" t="s">
         <v>7</v>
       </c>
@@ -3213,16 +3234,16 @@
       <c r="B11" s="45">
         <v>43719</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
       <c r="K11" s="58" t="s">
         <v>7</v>
       </c>
@@ -3232,16 +3253,16 @@
       <c r="B12" s="45">
         <v>43720</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
       <c r="K12" s="58" t="s">
         <v>10</v>
       </c>
@@ -3251,16 +3272,16 @@
       <c r="B13" s="45">
         <v>43723</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
       <c r="K13" s="58" t="s">
         <v>7</v>
       </c>
@@ -3270,16 +3291,16 @@
       <c r="B14" s="45">
         <v>43731</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="58" t="s">
         <v>7</v>
       </c>
@@ -3287,16 +3308,16 @@
     <row r="15" spans="1:11">
       <c r="A15" s="44"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
       <c r="K15" s="58" t="s">
         <v>7</v>
       </c>
@@ -3304,222 +3325,222 @@
     <row r="16" spans="1:11">
       <c r="A16" s="44"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
       <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="44"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
       <c r="K17" s="58"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="44"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="44"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
       <c r="K19" s="58"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="44"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
       <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="44"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
       <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="44"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
       <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="44"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
       <c r="K23" s="58"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="44"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
       <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="44"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
       <c r="K25" s="58"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="44"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
       <c r="K26" s="58"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="44"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="58"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="44"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
       <c r="K28" s="58"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="44"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
       <c r="K29" s="58"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="44"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
       <c r="K30" s="58"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="44"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
       <c r="K31" s="58"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="44"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
       <c r="K32" s="58"/>
     </row>
     <row r="33" spans="1:11">
@@ -3536,37 +3557,37 @@
       <c r="K33" s="59"/>
     </row>
     <row r="35" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="65"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="92"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1">
       <c r="A36" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70" t="s">
+      <c r="C36" s="86"/>
+      <c r="D36" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
       <c r="K36" s="57" t="s">
         <v>5</v>
       </c>
@@ -3575,755 +3596,755 @@
       <c r="A37" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
       <c r="K37" s="58"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1">
       <c r="A38" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
       <c r="K38" s="58"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1">
       <c r="A39" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
       <c r="K39" s="58"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1">
       <c r="A40" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
       <c r="K40" s="58"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1">
       <c r="A41" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
       <c r="K41" s="58"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1">
       <c r="A42" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="58"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1">
       <c r="A43" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
       <c r="K43" s="58"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1">
       <c r="A44" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
       <c r="K44" s="58"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
       <c r="K45" s="60"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1">
       <c r="A46" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
       <c r="K46" s="58"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="76"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
       <c r="K47" s="60"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
       <c r="K48" s="60"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="76"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
       <c r="K49" s="60"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1">
       <c r="A50" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
       <c r="K50" s="58"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1">
       <c r="A51" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
       <c r="K51" s="58"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1">
       <c r="A52" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
       <c r="K52" s="58"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1">
       <c r="A53" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="80"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
       <c r="K53" s="58"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1">
       <c r="A54" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="79" t="s">
+      <c r="B54" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="80"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
       <c r="K54" s="58"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1">
       <c r="A55" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="80"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
       <c r="K55" s="58"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1">
       <c r="A56" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
       <c r="K56" s="58"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1">
       <c r="A57" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="80" t="s">
+      <c r="B57" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="80"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
       <c r="K57" s="58"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1">
       <c r="A58" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="80" t="s">
+      <c r="B58" s="79" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="81"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
       <c r="K58" s="58"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1">
       <c r="A59" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
       <c r="K59" s="58"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1">
       <c r="A60" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
       <c r="K60" s="58"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1">
       <c r="A61" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
       <c r="K61" s="58"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1">
       <c r="A62" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="79" t="s">
+      <c r="B62" s="78" t="s">
         <v>69</v>
       </c>
       <c r="C62" s="81"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
       <c r="K62" s="58"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1">
       <c r="A63" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
       <c r="K63" s="58"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1">
       <c r="A64" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="79" t="s">
+      <c r="B64" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="80"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
       <c r="K64" s="58"/>
     </row>
     <row r="65" spans="1:13" ht="16.5" customHeight="1">
       <c r="A65" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
       <c r="K65" s="58"/>
     </row>
     <row r="66" spans="1:13" ht="16.5" customHeight="1">
       <c r="A66" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="80"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
       <c r="K66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="16.5" customHeight="1">
       <c r="A67" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="80"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
       <c r="K67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="16.5" customHeight="1">
       <c r="A68" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="80" t="s">
+      <c r="B68" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="80"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
       <c r="K68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="16.5" customHeight="1">
       <c r="A69" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="80" t="s">
+      <c r="B69" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="80"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
       <c r="K69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="17.25">
       <c r="A70" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="82" t="s">
+      <c r="B70" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C70" s="80"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
       <c r="K70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="17.25">
       <c r="A71" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="79" t="s">
+      <c r="B71" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="79"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
       <c r="K71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="17.25">
       <c r="A72" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="79" t="s">
+      <c r="B72" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="79"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="67"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
       <c r="K72" s="58"/>
       <c r="L72" s="62"/>
       <c r="M72" s="62"/>
     </row>
     <row r="73" spans="1:13" ht="17.25">
       <c r="A73" s="50"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
       <c r="K73" s="58"/>
       <c r="L73" s="62"/>
       <c r="M73" s="62"/>
     </row>
     <row r="74" spans="1:13" ht="17.25">
       <c r="A74" s="50"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
       <c r="K74" s="58"/>
       <c r="L74" s="62"/>
       <c r="M74" s="62"/>
     </row>
     <row r="75" spans="1:13" ht="17.25">
       <c r="A75" s="50"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
       <c r="K75" s="58"/>
       <c r="L75" s="62"/>
       <c r="M75" s="62"/>
     </row>
     <row r="76" spans="1:13" ht="17.25">
       <c r="A76" s="50"/>
-      <c r="B76" s="72"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
       <c r="K76" s="58"/>
       <c r="L76" s="62"/>
       <c r="M76" s="62"/>
     </row>
     <row r="77" spans="1:13" ht="17.25">
       <c r="A77" s="50"/>
-      <c r="B77" s="72"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="67"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
       <c r="K77" s="58"/>
       <c r="L77" s="62"/>
       <c r="M77" s="62"/>
     </row>
     <row r="78" spans="1:13" ht="17.25">
       <c r="A78" s="50"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
       <c r="K78" s="58"/>
       <c r="L78" s="62"/>
       <c r="M78" s="62"/>
     </row>
     <row r="79" spans="1:13" ht="17.25">
       <c r="A79" s="50"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
       <c r="K79" s="58"/>
       <c r="L79" s="62"/>
       <c r="M79" s="62"/>
     </row>
     <row r="80" spans="1:13" ht="17.25">
       <c r="A80" s="50"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="67"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
       <c r="K80" s="58"/>
       <c r="L80" s="62"/>
       <c r="M80" s="62"/>
     </row>
     <row r="81" spans="1:13" ht="17.25">
       <c r="A81" s="50"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="74"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="67"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="65"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
       <c r="K81" s="58"/>
       <c r="L81" s="62"/>
       <c r="M81" s="62"/>
     </row>
     <row r="82" spans="1:13" ht="17.25">
       <c r="A82" s="61"/>
-      <c r="B82" s="83"/>
-      <c r="C82" s="84"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="67"/>
       <c r="D82" s="68"/>
       <c r="E82" s="68"/>
       <c r="F82" s="68"/>
@@ -4337,6 +4358,104 @@
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="D75:J75"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:J67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:J70"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="D81:J81"/>
     <mergeCell ref="B82:C82"/>
@@ -4361,104 +4480,6 @@
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="D74:J74"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:J75"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:J67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:J69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:J70"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4471,8 +4492,8 @@
   <dimension ref="A1:R193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4562,10 +4583,10 @@
       <c r="B3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="95"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
@@ -4595,8 +4616,8 @@
       <c r="B4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="103"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="8" t="s">
@@ -4624,8 +4645,8 @@
       <c r="B5" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="103"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="10"/>
       <c r="F5" s="9"/>
       <c r="G5" s="8" t="s">
@@ -4653,8 +4674,8 @@
       <c r="B6" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="103"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="10"/>
       <c r="F6" s="9"/>
       <c r="G6" s="8" t="s">
@@ -4684,8 +4705,8 @@
       <c r="B7" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="103"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
       <c r="E7" s="10"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8" t="s">
@@ -4713,8 +4734,8 @@
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="103"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="10"/>
       <c r="F8" s="9"/>
       <c r="G8" s="8" t="s">
@@ -4742,8 +4763,8 @@
       <c r="B9" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="103"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
       <c r="E9" s="10"/>
       <c r="F9" s="9"/>
       <c r="G9" s="8" t="s">
@@ -4773,8 +4794,8 @@
       <c r="B10" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="103"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="8" t="s">
@@ -4802,8 +4823,8 @@
       <c r="B11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
       <c r="G11" s="8" t="s">
@@ -4831,8 +4852,8 @@
       <c r="B12" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
       <c r="E12" s="11"/>
       <c r="F12" s="9" t="s">
         <v>124</v>
@@ -4859,8 +4880,8 @@
       <c r="B13" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="10"/>
       <c r="F13" s="9" t="s">
         <v>127</v>
@@ -4894,10 +4915,10 @@
       <c r="B14" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="95" t="s">
         <v>131</v>
       </c>
       <c r="E14" s="10"/>
@@ -4927,8 +4948,8 @@
       <c r="B15" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="108"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="12"/>
       <c r="F15" s="9"/>
       <c r="G15" s="8" t="s">
@@ -4960,9 +4981,9 @@
       <c r="B16" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="117"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="9"/>
       <c r="G16" s="8" t="s">
         <v>104</v>
@@ -4991,9 +5012,9 @@
       <c r="B17" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
       <c r="F17" s="9"/>
       <c r="G17" s="8" t="s">
         <v>104</v>
@@ -5022,8 +5043,8 @@
       <c r="B18" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="110" t="s">
+      <c r="C18" s="123"/>
+      <c r="D18" s="115" t="s">
         <v>140</v>
       </c>
       <c r="E18" s="10"/>
@@ -5046,8 +5067,8 @@
       <c r="B19" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="108"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="97"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
@@ -5068,8 +5089,8 @@
       <c r="B20" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="108"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="G20" s="8" t="s">
@@ -5090,8 +5111,8 @@
       <c r="B21" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="109"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="8" t="s">
@@ -5114,7 +5135,7 @@
       <c r="B22" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="98"/>
+      <c r="C22" s="124"/>
       <c r="D22" s="9" t="s">
         <v>149</v>
       </c>
@@ -5138,7 +5159,7 @@
       <c r="B23" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="116" t="s">
         <v>152</v>
       </c>
       <c r="D23" s="13"/>
@@ -5166,7 +5187,7 @@
       <c r="B24" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="99"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="13"/>
       <c r="E24" s="10"/>
       <c r="F24" s="13"/>
@@ -5192,7 +5213,7 @@
       <c r="B25" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="99"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="13"/>
       <c r="E25" s="10"/>
       <c r="F25" s="13"/>
@@ -5218,7 +5239,7 @@
       <c r="B26" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="99"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="13"/>
       <c r="E26" s="10"/>
       <c r="F26" s="13" t="s">
@@ -5246,7 +5267,7 @@
       <c r="B27" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="99"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="13"/>
       <c r="E27" s="9"/>
       <c r="F27" s="13"/>
@@ -5272,7 +5293,7 @@
       <c r="B28" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="99"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="13"/>
       <c r="E28" s="10"/>
       <c r="F28" s="13"/>
@@ -5298,7 +5319,7 @@
       <c r="B29" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="99"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="13"/>
       <c r="E29" s="10"/>
       <c r="F29" s="13"/>
@@ -5324,8 +5345,8 @@
       <c r="B30" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99" t="s">
+      <c r="C30" s="116"/>
+      <c r="D30" s="116" t="s">
         <v>168</v>
       </c>
       <c r="E30" s="10"/>
@@ -5352,8 +5373,8 @@
       <c r="B31" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
       <c r="E31" s="10"/>
       <c r="F31" s="13"/>
       <c r="G31" s="9" t="s">
@@ -5378,8 +5399,8 @@
       <c r="B32" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="10"/>
       <c r="F32" s="13" t="s">
         <v>127</v>
@@ -5406,8 +5427,8 @@
       <c r="B33" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="10"/>
       <c r="F33" s="13"/>
       <c r="G33" s="9" t="s">
@@ -5432,8 +5453,8 @@
       <c r="B34" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="10"/>
       <c r="F34" s="13" t="s">
         <v>127</v>
@@ -5460,8 +5481,8 @@
       <c r="B35" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="10"/>
       <c r="F35" s="13"/>
       <c r="G35" s="9" t="s">
@@ -5486,9 +5507,9 @@
       <c r="B36" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="118" t="s">
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="99" t="s">
         <v>180</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -5516,9 +5537,9 @@
       <c r="B37" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="118"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="99"/>
       <c r="F37" s="16"/>
       <c r="G37" s="9" t="s">
         <v>153</v>
@@ -5538,9 +5559,9 @@
       <c r="B38" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="13"/>
       <c r="G38" s="9" t="s">
         <v>153</v>
@@ -5560,8 +5581,8 @@
       <c r="B39" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="111" t="s">
+      <c r="C39" s="117"/>
+      <c r="D39" s="118" t="s">
         <v>186</v>
       </c>
       <c r="E39" s="16"/>
@@ -5588,8 +5609,8 @@
       <c r="B40" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="112"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="16"/>
       <c r="F40" s="13" t="s">
         <v>127</v>
@@ -5616,8 +5637,8 @@
       <c r="B41" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="112"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="16"/>
       <c r="F41" s="13"/>
       <c r="G41" s="9" t="s">
@@ -5642,9 +5663,9 @@
       <c r="B42" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C42" s="100"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="120" t="s">
+      <c r="C42" s="117"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="101" t="s">
         <v>193</v>
       </c>
       <c r="F42" s="13"/>
@@ -5670,9 +5691,9 @@
       <c r="B43" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="121"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="102"/>
       <c r="F43" s="13"/>
       <c r="G43" s="9" t="s">
         <v>153</v>
@@ -5696,9 +5717,9 @@
       <c r="B44" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="108"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="97"/>
       <c r="F44" s="13"/>
       <c r="G44" s="9" t="s">
         <v>153</v>
@@ -5722,9 +5743,9 @@
       <c r="B45" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C45" s="99"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="109"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="96"/>
       <c r="F45" s="13"/>
       <c r="G45" s="9" t="s">
         <v>153</v>
@@ -5748,9 +5769,9 @@
       <c r="B46" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="107" t="s">
+      <c r="C46" s="116"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="95" t="s">
         <v>202</v>
       </c>
       <c r="F46" s="13"/>
@@ -5776,9 +5797,9 @@
       <c r="B47" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="122"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="103"/>
       <c r="F47" s="13"/>
       <c r="G47" s="9" t="s">
         <v>153</v>
@@ -5802,9 +5823,9 @@
       <c r="B48" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="122"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="103"/>
       <c r="F48" s="13"/>
       <c r="G48" s="9" t="s">
         <v>153</v>
@@ -5828,9 +5849,9 @@
       <c r="B49" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="109"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="96"/>
       <c r="F49" s="13" t="s">
         <v>209</v>
       </c>
@@ -5856,8 +5877,8 @@
       <c r="B50" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="111" t="s">
+      <c r="C50" s="116"/>
+      <c r="D50" s="118" t="s">
         <v>212</v>
       </c>
       <c r="E50" s="9"/>
@@ -5886,8 +5907,8 @@
       <c r="B51" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="113"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="120"/>
       <c r="E51" s="9"/>
       <c r="F51" s="13"/>
       <c r="G51" s="9" t="s">
@@ -5912,8 +5933,8 @@
       <c r="B52" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="99"/>
-      <c r="D52" s="113"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="120"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
         <v>127</v>
@@ -5940,9 +5961,9 @@
       <c r="B53" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="123" t="s">
+      <c r="C53" s="116"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="104" t="s">
         <v>219</v>
       </c>
       <c r="F53" s="13"/>
@@ -5968,9 +5989,9 @@
       <c r="B54" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="124"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="105"/>
       <c r="F54" s="13"/>
       <c r="G54" s="9" t="s">
         <v>153</v>
@@ -5994,9 +6015,9 @@
       <c r="B55" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="121"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="102"/>
       <c r="F55" s="13" t="s">
         <v>209</v>
       </c>
@@ -6022,9 +6043,9 @@
       <c r="B56" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C56" s="99"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="125"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="106"/>
       <c r="F56" s="15"/>
       <c r="G56" s="17" t="s">
         <v>153</v>
@@ -6048,7 +6069,7 @@
       <c r="B57" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C57" s="102" t="s">
+      <c r="C57" s="126" t="s">
         <v>228</v>
       </c>
       <c r="D57" s="19"/>
@@ -6081,7 +6102,7 @@
       <c r="B58" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C58" s="102"/>
+      <c r="C58" s="126"/>
       <c r="D58" s="19"/>
       <c r="E58" s="18"/>
       <c r="F58" s="9"/>
@@ -6112,7 +6133,7 @@
       <c r="B59" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="102"/>
+      <c r="C59" s="126"/>
       <c r="D59" s="19"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18" t="s">
@@ -6147,7 +6168,7 @@
       <c r="B60" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="102"/>
+      <c r="C60" s="126"/>
       <c r="D60" s="19"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18" t="s">
@@ -6182,7 +6203,7 @@
       <c r="B61" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="126"/>
       <c r="D61" s="19"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18" t="s">
@@ -6217,7 +6238,7 @@
       <c r="B62" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C62" s="102"/>
+      <c r="C62" s="126"/>
       <c r="D62" s="19"/>
       <c r="E62" s="9"/>
       <c r="F62" s="10" t="s">
@@ -6252,7 +6273,7 @@
       <c r="B63" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C63" s="102"/>
+      <c r="C63" s="126"/>
       <c r="D63" s="19"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9" t="s">
@@ -6287,7 +6308,7 @@
       <c r="B64" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C64" s="102"/>
+      <c r="C64" s="126"/>
       <c r="D64" s="19"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
@@ -6322,7 +6343,7 @@
       <c r="B65" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="102"/>
+      <c r="C65" s="126"/>
       <c r="D65" s="19"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9" t="s">
@@ -6357,7 +6378,7 @@
       <c r="B66" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C66" s="102"/>
+      <c r="C66" s="126"/>
       <c r="D66" s="19"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9" t="s">
@@ -6392,7 +6413,7 @@
       <c r="B67" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C67" s="102"/>
+      <c r="C67" s="126"/>
       <c r="D67" s="30"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9" t="s">
@@ -6427,7 +6448,7 @@
       <c r="B68" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C68" s="96"/>
+      <c r="C68" s="108"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="9" t="s">
@@ -6455,7 +6476,7 @@
       <c r="B69" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C69" s="102"/>
+      <c r="C69" s="126"/>
       <c r="D69" s="30"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -6488,7 +6509,7 @@
       <c r="B70" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C70" s="103" t="s">
+      <c r="C70" s="114" t="s">
         <v>256</v>
       </c>
       <c r="D70" s="31"/>
@@ -6525,7 +6546,7 @@
       <c r="B71" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C71" s="103"/>
+      <c r="C71" s="114"/>
       <c r="D71" s="31"/>
       <c r="E71" s="9"/>
       <c r="F71" s="18" t="s">
@@ -6560,7 +6581,7 @@
       <c r="B72" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C72" s="103"/>
+      <c r="C72" s="114"/>
       <c r="D72" s="31"/>
       <c r="E72" s="9"/>
       <c r="F72" s="18" t="s">
@@ -6595,7 +6616,7 @@
       <c r="B73" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C73" s="103"/>
+      <c r="C73" s="114"/>
       <c r="D73" s="31"/>
       <c r="E73" s="9"/>
       <c r="F73" s="10" t="s">
@@ -6630,7 +6651,7 @@
       <c r="B74" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C74" s="103"/>
+      <c r="C74" s="114"/>
       <c r="D74" s="31"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9" t="s">
@@ -6665,7 +6686,7 @@
       <c r="B75" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C75" s="103"/>
+      <c r="C75" s="114"/>
       <c r="D75" s="31"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="s">
@@ -6700,7 +6721,7 @@
       <c r="B76" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C76" s="103"/>
+      <c r="C76" s="114"/>
       <c r="D76" s="31"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9" t="s">
@@ -6735,7 +6756,7 @@
       <c r="B77" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="103"/>
+      <c r="C77" s="114"/>
       <c r="D77" s="31"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9" t="s">
@@ -6752,7 +6773,7 @@
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="24" t="s">
-        <v>247</v>
+        <v>505</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -6770,7 +6791,7 @@
       <c r="B78" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C78" s="103"/>
+      <c r="C78" s="114"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9" t="s">
@@ -6787,7 +6808,7 @@
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="24" t="s">
-        <v>249</v>
+        <v>504</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -6805,7 +6826,7 @@
       <c r="B79" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C79" s="96"/>
+      <c r="C79" s="108"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="9" t="s">
@@ -6822,7 +6843,7 @@
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="28" t="s">
-        <v>268</v>
+        <v>503</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -6831,9 +6852,9 @@
         <v>78</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C80" s="103"/>
+        <v>268</v>
+      </c>
+      <c r="C80" s="114"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
@@ -6848,7 +6869,7 @@
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -6864,13 +6885,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" s="113" t="s">
         <v>271</v>
       </c>
-      <c r="C81" s="95" t="s">
+      <c r="D81" s="114" t="s">
         <v>272</v>
-      </c>
-      <c r="D81" s="103" t="s">
-        <v>273</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
@@ -6885,7 +6906,7 @@
       </c>
       <c r="J81" s="32"/>
       <c r="K81" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L81" s="35"/>
       <c r="M81" s="35"/>
@@ -6901,10 +6922,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C82" s="95"/>
-      <c r="D82" s="103"/>
+        <v>274</v>
+      </c>
+      <c r="C82" s="113"/>
+      <c r="D82" s="114"/>
       <c r="E82" s="10"/>
       <c r="F82" s="9" t="s">
         <v>127</v>
@@ -6920,7 +6941,7 @@
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L82" s="36"/>
       <c r="M82" s="36"/>
@@ -6936,10 +6957,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C83" s="95"/>
-      <c r="D83" s="103"/>
+        <v>276</v>
+      </c>
+      <c r="C83" s="113"/>
+      <c r="D83" s="114"/>
       <c r="E83" s="10"/>
       <c r="F83" s="9" t="s">
         <v>127</v>
@@ -6955,7 +6976,7 @@
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L83" s="36"/>
       <c r="M83" s="36"/>
@@ -6971,10 +6992,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C84" s="95"/>
-      <c r="D84" s="103"/>
+        <v>278</v>
+      </c>
+      <c r="C84" s="113"/>
+      <c r="D84" s="114"/>
       <c r="E84" s="10"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9" t="s">
@@ -6986,7 +7007,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L84" s="36"/>
       <c r="M84" s="36"/>
@@ -7002,10 +7023,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C85" s="95"/>
-      <c r="D85" s="103"/>
+        <v>280</v>
+      </c>
+      <c r="C85" s="113"/>
+      <c r="D85" s="114"/>
       <c r="E85" s="10"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -7013,7 +7034,7 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L85" s="36"/>
       <c r="M85" s="36"/>
@@ -7029,11 +7050,11 @@
         <v>84</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86" s="127"/>
+      <c r="D86" s="114" t="s">
         <v>283</v>
-      </c>
-      <c r="C86" s="104"/>
-      <c r="D86" s="103" t="s">
-        <v>284</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="9" t="s">
@@ -7048,7 +7069,7 @@
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L86" s="36"/>
       <c r="M86" s="36"/>
@@ -7064,13 +7085,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C87" s="104"/>
-      <c r="D87" s="103"/>
+        <v>285</v>
+      </c>
+      <c r="C87" s="127"/>
+      <c r="D87" s="114"/>
       <c r="E87" s="10"/>
       <c r="F87" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>153</v>
@@ -7083,7 +7104,7 @@
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L87" s="36"/>
       <c r="M87" s="36"/>
@@ -7099,10 +7120,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C88" s="104"/>
-      <c r="D88" s="103"/>
+        <v>288</v>
+      </c>
+      <c r="C88" s="127"/>
+      <c r="D88" s="114"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
         <v>127</v>
@@ -7116,7 +7137,7 @@
       </c>
       <c r="J88" s="10"/>
       <c r="K88" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L88" s="36"/>
       <c r="M88" s="36"/>
@@ -7132,10 +7153,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C89" s="104"/>
-      <c r="D89" s="103"/>
+        <v>290</v>
+      </c>
+      <c r="C89" s="127"/>
+      <c r="D89" s="114"/>
       <c r="E89" s="10"/>
       <c r="F89" s="9" t="s">
         <v>127</v>
@@ -7151,7 +7172,7 @@
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L89" s="36"/>
       <c r="M89" s="36"/>
@@ -7167,10 +7188,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C90" s="104"/>
-      <c r="D90" s="103"/>
+        <v>292</v>
+      </c>
+      <c r="C90" s="127"/>
+      <c r="D90" s="114"/>
       <c r="E90" s="10"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9" t="s">
@@ -7182,7 +7203,7 @@
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L90" s="36"/>
       <c r="M90" s="36"/>
@@ -7198,10 +7219,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C91" s="104"/>
-      <c r="D91" s="103"/>
+        <v>294</v>
+      </c>
+      <c r="C91" s="127"/>
+      <c r="D91" s="114"/>
       <c r="E91" s="10"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9" t="s">
@@ -7213,7 +7234,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
@@ -7229,10 +7250,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C92" s="104"/>
-      <c r="D92" s="103"/>
+        <v>296</v>
+      </c>
+      <c r="C92" s="127"/>
+      <c r="D92" s="114"/>
       <c r="E92" s="10"/>
       <c r="F92" s="9" t="s">
         <v>251</v>
@@ -7246,7 +7267,7 @@
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L92" s="36"/>
       <c r="M92" s="36"/>
@@ -7262,10 +7283,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C93" s="104"/>
-      <c r="D93" s="103"/>
+        <v>298</v>
+      </c>
+      <c r="C93" s="127"/>
+      <c r="D93" s="114"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9" t="s">
@@ -7275,7 +7296,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L93" s="36"/>
       <c r="M93" s="36"/>
@@ -7291,10 +7312,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C94" s="104"/>
-      <c r="D94" s="103"/>
+        <v>300</v>
+      </c>
+      <c r="C94" s="127"/>
+      <c r="D94" s="114"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9" t="s">
@@ -7306,7 +7327,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L94" s="36"/>
       <c r="M94" s="36"/>
@@ -7322,11 +7343,11 @@
         <v>93</v>
       </c>
       <c r="B95" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C95" s="127"/>
+      <c r="D95" s="114" t="s">
         <v>303</v>
-      </c>
-      <c r="C95" s="104"/>
-      <c r="D95" s="103" t="s">
-        <v>304</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="10" t="s">
@@ -7341,7 +7362,7 @@
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -7357,10 +7378,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C96" s="104"/>
-      <c r="D96" s="103"/>
+        <v>305</v>
+      </c>
+      <c r="C96" s="127"/>
+      <c r="D96" s="114"/>
       <c r="E96" s="9"/>
       <c r="F96" s="10" t="s">
         <v>127</v>
@@ -7374,7 +7395,7 @@
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -7390,10 +7411,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C97" s="104"/>
-      <c r="D97" s="103"/>
+        <v>307</v>
+      </c>
+      <c r="C97" s="127"/>
+      <c r="D97" s="114"/>
       <c r="E97" s="9"/>
       <c r="F97" s="10" t="s">
         <v>127</v>
@@ -7407,7 +7428,7 @@
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -7423,10 +7444,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C98" s="104"/>
-      <c r="D98" s="103"/>
+        <v>309</v>
+      </c>
+      <c r="C98" s="127"/>
+      <c r="D98" s="114"/>
       <c r="E98" s="9"/>
       <c r="F98" s="10"/>
       <c r="G98" s="10" t="s">
@@ -7436,7 +7457,7 @@
       <c r="I98" s="10"/>
       <c r="J98" s="9"/>
       <c r="K98" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -7452,10 +7473,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C99" s="104"/>
-      <c r="D99" s="103"/>
+        <v>311</v>
+      </c>
+      <c r="C99" s="127"/>
+      <c r="D99" s="114"/>
       <c r="E99" s="9"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10" t="s">
@@ -7465,7 +7486,7 @@
       <c r="I99" s="10"/>
       <c r="J99" s="9"/>
       <c r="K99" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
@@ -7481,11 +7502,11 @@
         <v>98</v>
       </c>
       <c r="B100" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C100" s="127"/>
+      <c r="D100" s="114" t="s">
         <v>314</v>
-      </c>
-      <c r="C100" s="104"/>
-      <c r="D100" s="103" t="s">
-        <v>315</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9" t="s">
@@ -7500,7 +7521,7 @@
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -7516,10 +7537,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C101" s="104"/>
-      <c r="D101" s="103"/>
+        <v>316</v>
+      </c>
+      <c r="C101" s="127"/>
+      <c r="D101" s="114"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9" t="s">
         <v>127</v>
@@ -7533,7 +7554,7 @@
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -7549,10 +7570,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C102" s="104"/>
-      <c r="D102" s="103"/>
+        <v>318</v>
+      </c>
+      <c r="C102" s="127"/>
+      <c r="D102" s="114"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="s">
         <v>127</v>
@@ -7566,7 +7587,7 @@
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -7582,10 +7603,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C103" s="104"/>
-      <c r="D103" s="103"/>
+        <v>320</v>
+      </c>
+      <c r="C103" s="127"/>
+      <c r="D103" s="114"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9" t="s">
         <v>127</v>
@@ -7599,7 +7620,7 @@
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -7615,10 +7636,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C104" s="104"/>
-      <c r="D104" s="103"/>
+        <v>322</v>
+      </c>
+      <c r="C104" s="127"/>
+      <c r="D104" s="114"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="s">
         <v>127</v>
@@ -7634,7 +7655,7 @@
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -7650,10 +7671,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C105" s="104"/>
-      <c r="D105" s="103"/>
+        <v>324</v>
+      </c>
+      <c r="C105" s="127"/>
+      <c r="D105" s="114"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9" t="s">
@@ -7665,7 +7686,7 @@
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -7681,10 +7702,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C106" s="96"/>
-      <c r="D106" s="96"/>
+        <v>326</v>
+      </c>
+      <c r="C106" s="108"/>
+      <c r="D106" s="108"/>
       <c r="E106" s="11"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9" t="s">
@@ -7696,7 +7717,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7705,10 +7726,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C107" s="96"/>
-      <c r="D107" s="96"/>
+        <v>328</v>
+      </c>
+      <c r="C107" s="108"/>
+      <c r="D107" s="108"/>
       <c r="E107" s="11"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9" t="s">
@@ -7720,7 +7741,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7729,10 +7750,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C108" s="96"/>
-      <c r="D108" s="96"/>
+        <v>330</v>
+      </c>
+      <c r="C108" s="108"/>
+      <c r="D108" s="108"/>
       <c r="E108" s="11"/>
       <c r="F108" s="12"/>
       <c r="G108" s="9" t="s">
@@ -7742,7 +7763,7 @@
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
       <c r="K108" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7751,10 +7772,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C109" s="104"/>
-      <c r="D109" s="103"/>
+        <v>331</v>
+      </c>
+      <c r="C109" s="127"/>
+      <c r="D109" s="114"/>
       <c r="E109" s="9"/>
       <c r="F109" s="12"/>
       <c r="G109" s="9" t="s">
@@ -7766,7 +7787,7 @@
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
       <c r="K109" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
@@ -7782,13 +7803,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C110" s="109" t="s">
         <v>333</v>
       </c>
-      <c r="C110" s="105" t="s">
+      <c r="D110" s="107" t="s">
         <v>334</v>
-      </c>
-      <c r="D110" s="115" t="s">
-        <v>335</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -7803,7 +7824,7 @@
       </c>
       <c r="J110" s="12"/>
       <c r="K110" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
@@ -7819,10 +7840,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C111" s="105"/>
-      <c r="D111" s="115"/>
+        <v>336</v>
+      </c>
+      <c r="C111" s="109"/>
+      <c r="D111" s="107"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12" t="s">
         <v>251</v>
@@ -7838,7 +7859,7 @@
       </c>
       <c r="J111" s="12"/>
       <c r="K111" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
@@ -7854,10 +7875,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="C112" s="105"/>
-      <c r="D112" s="115"/>
+        <v>338</v>
+      </c>
+      <c r="C112" s="109"/>
+      <c r="D112" s="107"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12" t="s">
@@ -7871,7 +7892,7 @@
       </c>
       <c r="J112" s="12"/>
       <c r="K112" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -7887,11 +7908,11 @@
         <v>111</v>
       </c>
       <c r="B113" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C113" s="109"/>
+      <c r="D113" s="107" t="s">
         <v>341</v>
-      </c>
-      <c r="C113" s="105"/>
-      <c r="D113" s="115" t="s">
-        <v>342</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12" t="s">
@@ -7904,7 +7925,7 @@
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
       <c r="K113" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -7920,10 +7941,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C114" s="96"/>
-      <c r="D114" s="96"/>
+        <v>343</v>
+      </c>
+      <c r="C114" s="108"/>
+      <c r="D114" s="108"/>
       <c r="E114" s="11"/>
       <c r="F114" s="12" t="s">
         <v>127</v>
@@ -7935,7 +7956,7 @@
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
       <c r="K114" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7944,10 +7965,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="C115" s="96"/>
-      <c r="D115" s="96"/>
+        <v>344</v>
+      </c>
+      <c r="C115" s="108"/>
+      <c r="D115" s="108"/>
       <c r="E115" s="11"/>
       <c r="F115" s="12" t="s">
         <v>127</v>
@@ -7959,7 +7980,7 @@
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
       <c r="K115" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7968,10 +7989,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C116" s="96"/>
-      <c r="D116" s="96"/>
+        <v>346</v>
+      </c>
+      <c r="C116" s="108"/>
+      <c r="D116" s="108"/>
       <c r="E116" s="11"/>
       <c r="F116" s="12" t="s">
         <v>124</v>
@@ -7987,7 +8008,7 @@
       </c>
       <c r="J116" s="12"/>
       <c r="K116" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7996,10 +8017,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="C117" s="96"/>
-      <c r="D117" s="96"/>
+        <v>348</v>
+      </c>
+      <c r="C117" s="108"/>
+      <c r="D117" s="108"/>
       <c r="E117" s="11"/>
       <c r="F117" s="12" t="s">
         <v>209</v>
@@ -8015,7 +8036,7 @@
       </c>
       <c r="J117" s="12"/>
       <c r="K117" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -8024,10 +8045,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="C118" s="105"/>
-      <c r="D118" s="115"/>
+        <v>350</v>
+      </c>
+      <c r="C118" s="109"/>
+      <c r="D118" s="107"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12" t="s">
         <v>124</v>
@@ -8039,7 +8060,7 @@
       <c r="I118" s="12"/>
       <c r="J118" s="12"/>
       <c r="K118" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -8055,13 +8076,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C119" s="105"/>
-      <c r="D119" s="115"/>
+        <v>352</v>
+      </c>
+      <c r="C119" s="109"/>
+      <c r="D119" s="107"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G119" s="12" t="s">
         <v>153</v>
@@ -8074,7 +8095,7 @@
       </c>
       <c r="J119" s="12"/>
       <c r="K119" s="33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
@@ -8090,10 +8111,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C120" s="105"/>
-      <c r="D120" s="115"/>
+        <v>355</v>
+      </c>
+      <c r="C120" s="109"/>
+      <c r="D120" s="107"/>
       <c r="E120" s="12"/>
       <c r="F120" s="12" t="s">
         <v>251</v>
@@ -8109,7 +8130,7 @@
       </c>
       <c r="J120" s="12"/>
       <c r="K120" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
@@ -8125,10 +8146,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C121" s="105"/>
-      <c r="D121" s="115"/>
+        <v>357</v>
+      </c>
+      <c r="C121" s="109"/>
+      <c r="D121" s="107"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12" t="s">
@@ -8138,7 +8159,7 @@
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
       <c r="K121" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
@@ -8154,10 +8175,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="C122" s="105"/>
-      <c r="D122" s="115"/>
+        <v>359</v>
+      </c>
+      <c r="C122" s="109"/>
+      <c r="D122" s="107"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
@@ -8165,7 +8186,7 @@
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
       <c r="K122" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
@@ -8181,14 +8202,14 @@
         <v>121</v>
       </c>
       <c r="B123" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C123" s="122"/>
+      <c r="D123" s="109" t="s">
         <v>362</v>
       </c>
-      <c r="C123" s="106"/>
-      <c r="D123" s="105" t="s">
+      <c r="E123" s="107" t="s">
         <v>363</v>
-      </c>
-      <c r="E123" s="115" t="s">
-        <v>364</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>127</v>
@@ -8198,7 +8219,7 @@
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
       <c r="K123" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
@@ -8214,11 +8235,11 @@
         <v>122</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C124" s="106"/>
-      <c r="D124" s="105"/>
-      <c r="E124" s="115"/>
+        <v>365</v>
+      </c>
+      <c r="C124" s="122"/>
+      <c r="D124" s="109"/>
+      <c r="E124" s="107"/>
       <c r="F124" s="12" t="s">
         <v>127</v>
       </c>
@@ -8233,7 +8254,7 @@
       </c>
       <c r="J124" s="12"/>
       <c r="K124" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
@@ -8249,11 +8270,11 @@
         <v>123</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="C125" s="106"/>
-      <c r="D125" s="105"/>
-      <c r="E125" s="115"/>
+        <v>367</v>
+      </c>
+      <c r="C125" s="122"/>
+      <c r="D125" s="109"/>
+      <c r="E125" s="107"/>
       <c r="F125" s="12" t="s">
         <v>251</v>
       </c>
@@ -8268,7 +8289,7 @@
       </c>
       <c r="J125" s="12"/>
       <c r="K125" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
@@ -8284,13 +8305,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C126" s="122"/>
+      <c r="D126" s="109"/>
+      <c r="E126" s="107"/>
+      <c r="F126" s="12" t="s">
         <v>370</v>
-      </c>
-      <c r="C126" s="106"/>
-      <c r="D126" s="105"/>
-      <c r="E126" s="115"/>
-      <c r="F126" s="12" t="s">
-        <v>371</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>153</v>
@@ -8303,7 +8324,7 @@
       </c>
       <c r="J126" s="12"/>
       <c r="K126" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -8319,13 +8340,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="C127" s="106"/>
-      <c r="D127" s="105"/>
-      <c r="E127" s="115"/>
+        <v>372</v>
+      </c>
+      <c r="C127" s="122"/>
+      <c r="D127" s="109"/>
+      <c r="E127" s="107"/>
       <c r="F127" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>153</v>
@@ -8338,7 +8359,7 @@
       </c>
       <c r="J127" s="12"/>
       <c r="K127" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
@@ -8354,13 +8375,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="C128" s="96"/>
-      <c r="D128" s="96"/>
-      <c r="E128" s="96"/>
+        <v>374</v>
+      </c>
+      <c r="C128" s="108"/>
+      <c r="D128" s="108"/>
+      <c r="E128" s="108"/>
       <c r="F128" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G128" s="12" t="s">
         <v>153</v>
@@ -8373,7 +8394,7 @@
       </c>
       <c r="J128" s="12"/>
       <c r="K128" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8382,13 +8403,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="C129" s="96"/>
-      <c r="D129" s="116"/>
-      <c r="E129" s="115"/>
+        <v>375</v>
+      </c>
+      <c r="C129" s="108"/>
+      <c r="D129" s="110"/>
+      <c r="E129" s="107"/>
       <c r="F129" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G129" s="12" t="s">
         <v>153</v>
@@ -8401,7 +8422,7 @@
       </c>
       <c r="J129" s="12"/>
       <c r="K129" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8410,11 +8431,11 @@
         <v>128</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="C130" s="96"/>
-      <c r="D130" s="116"/>
-      <c r="E130" s="115"/>
+        <v>376</v>
+      </c>
+      <c r="C130" s="108"/>
+      <c r="D130" s="110"/>
+      <c r="E130" s="107"/>
       <c r="F130" s="12" t="s">
         <v>251</v>
       </c>
@@ -8429,7 +8450,7 @@
       </c>
       <c r="J130" s="12"/>
       <c r="K130" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8438,11 +8459,11 @@
         <v>129</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="C131" s="106"/>
-      <c r="D131" s="105"/>
-      <c r="E131" s="115"/>
+        <v>378</v>
+      </c>
+      <c r="C131" s="122"/>
+      <c r="D131" s="109"/>
+      <c r="E131" s="107"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12" t="s">
         <v>153</v>
@@ -8451,7 +8472,7 @@
       <c r="I131" s="12"/>
       <c r="J131" s="12"/>
       <c r="K131" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -8467,12 +8488,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="C132" s="122"/>
+      <c r="D132" s="109"/>
+      <c r="E132" s="107" t="s">
         <v>380</v>
-      </c>
-      <c r="C132" s="106"/>
-      <c r="D132" s="105"/>
-      <c r="E132" s="115" t="s">
-        <v>381</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>127</v>
@@ -8488,7 +8509,7 @@
       </c>
       <c r="J132" s="39"/>
       <c r="K132" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
@@ -8504,11 +8525,11 @@
         <v>131</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="C133" s="106"/>
-      <c r="D133" s="105"/>
-      <c r="E133" s="115"/>
+        <v>382</v>
+      </c>
+      <c r="C133" s="122"/>
+      <c r="D133" s="109"/>
+      <c r="E133" s="107"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12" t="s">
         <v>153</v>
@@ -8521,7 +8542,7 @@
       </c>
       <c r="J133" s="12"/>
       <c r="K133" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -8537,11 +8558,11 @@
         <v>132</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="C134" s="106"/>
-      <c r="D134" s="105"/>
-      <c r="E134" s="115"/>
+        <v>384</v>
+      </c>
+      <c r="C134" s="122"/>
+      <c r="D134" s="109"/>
+      <c r="E134" s="107"/>
       <c r="F134" s="12" t="s">
         <v>127</v>
       </c>
@@ -8554,7 +8575,7 @@
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
       <c r="K134" s="33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
@@ -8570,12 +8591,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C135" s="122"/>
+      <c r="D135" s="109"/>
+      <c r="E135" s="109" t="s">
         <v>387</v>
-      </c>
-      <c r="C135" s="106"/>
-      <c r="D135" s="105"/>
-      <c r="E135" s="105" t="s">
-        <v>388</v>
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="12" t="s">
@@ -8587,7 +8608,7 @@
       <c r="I135" s="12"/>
       <c r="J135" s="12"/>
       <c r="K135" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
@@ -8603,11 +8624,11 @@
         <v>134</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="C136" s="106"/>
-      <c r="D136" s="105"/>
-      <c r="E136" s="105"/>
+        <v>389</v>
+      </c>
+      <c r="C136" s="122"/>
+      <c r="D136" s="109"/>
+      <c r="E136" s="109"/>
       <c r="F136" s="12"/>
       <c r="G136" s="12" t="s">
         <v>153</v>
@@ -8618,7 +8639,7 @@
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
       <c r="K136" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
@@ -8634,11 +8655,11 @@
         <v>135</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="C137" s="106"/>
-      <c r="D137" s="105"/>
-      <c r="E137" s="105"/>
+        <v>391</v>
+      </c>
+      <c r="C137" s="122"/>
+      <c r="D137" s="109"/>
+      <c r="E137" s="109"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12" t="s">
         <v>153</v>
@@ -8649,7 +8670,7 @@
       <c r="I137" s="12"/>
       <c r="J137" s="12"/>
       <c r="K137" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -8665,11 +8686,11 @@
         <v>136</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="C138" s="96"/>
-      <c r="D138" s="116"/>
-      <c r="E138" s="105"/>
+        <v>393</v>
+      </c>
+      <c r="C138" s="108"/>
+      <c r="D138" s="110"/>
+      <c r="E138" s="109"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12" t="s">
         <v>153</v>
@@ -8680,7 +8701,7 @@
       <c r="I138" s="12"/>
       <c r="J138" s="12"/>
       <c r="K138" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="17.649999999999999" customHeight="1">
@@ -8689,11 +8710,11 @@
         <v>137</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="C139" s="96"/>
-      <c r="D139" s="116"/>
-      <c r="E139" s="116"/>
+        <v>395</v>
+      </c>
+      <c r="C139" s="108"/>
+      <c r="D139" s="110"/>
+      <c r="E139" s="110"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12" t="s">
         <v>153</v>
@@ -8704,7 +8725,7 @@
       <c r="I139" s="12"/>
       <c r="J139" s="12"/>
       <c r="K139" s="33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8713,11 +8734,11 @@
         <v>138</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="C140" s="96"/>
-      <c r="D140" s="116"/>
-      <c r="E140" s="105"/>
+        <v>397</v>
+      </c>
+      <c r="C140" s="108"/>
+      <c r="D140" s="110"/>
+      <c r="E140" s="109"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12" t="s">
         <v>153</v>
@@ -8728,7 +8749,7 @@
       <c r="I140" s="12"/>
       <c r="J140" s="12"/>
       <c r="K140" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8737,11 +8758,11 @@
         <v>139</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="C141" s="96"/>
-      <c r="D141" s="116"/>
-      <c r="E141" s="116"/>
+        <v>399</v>
+      </c>
+      <c r="C141" s="108"/>
+      <c r="D141" s="110"/>
+      <c r="E141" s="110"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12" t="s">
         <v>153</v>
@@ -8752,7 +8773,7 @@
       <c r="I141" s="12"/>
       <c r="J141" s="12"/>
       <c r="K141" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8761,14 +8782,14 @@
         <v>140</v>
       </c>
       <c r="B142" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C142" s="108"/>
+      <c r="D142" s="110" t="s">
         <v>402</v>
       </c>
-      <c r="C142" s="96"/>
-      <c r="D142" s="116" t="s">
-        <v>403</v>
-      </c>
-      <c r="E142" s="117" t="s">
-        <v>364</v>
+      <c r="E142" s="98" t="s">
+        <v>363</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>127</v>
@@ -8782,7 +8803,7 @@
       </c>
       <c r="J142" s="12"/>
       <c r="K142" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8791,11 +8812,11 @@
         <v>141</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="C143" s="96"/>
-      <c r="D143" s="116"/>
-      <c r="E143" s="126"/>
+        <v>404</v>
+      </c>
+      <c r="C143" s="108"/>
+      <c r="D143" s="110"/>
+      <c r="E143" s="111"/>
       <c r="F143" s="12" t="s">
         <v>127</v>
       </c>
@@ -8808,7 +8829,7 @@
       </c>
       <c r="J143" s="12"/>
       <c r="K143" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8817,11 +8838,11 @@
         <v>142</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="C144" s="96"/>
-      <c r="D144" s="116"/>
-      <c r="E144" s="126"/>
+        <v>406</v>
+      </c>
+      <c r="C144" s="108"/>
+      <c r="D144" s="110"/>
+      <c r="E144" s="111"/>
       <c r="F144" s="12" t="s">
         <v>127</v>
       </c>
@@ -8834,7 +8855,7 @@
       </c>
       <c r="J144" s="12"/>
       <c r="K144" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8843,11 +8864,11 @@
         <v>143</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="C145" s="96"/>
-      <c r="D145" s="116"/>
-      <c r="E145" s="126"/>
+        <v>408</v>
+      </c>
+      <c r="C145" s="108"/>
+      <c r="D145" s="110"/>
+      <c r="E145" s="111"/>
       <c r="F145" s="12" t="s">
         <v>127</v>
       </c>
@@ -8860,7 +8881,7 @@
       </c>
       <c r="J145" s="12"/>
       <c r="K145" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8869,11 +8890,11 @@
         <v>144</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="C146" s="96"/>
-      <c r="D146" s="116"/>
-      <c r="E146" s="127"/>
+        <v>410</v>
+      </c>
+      <c r="C146" s="108"/>
+      <c r="D146" s="110"/>
+      <c r="E146" s="112"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12" t="s">
         <v>153</v>
@@ -8882,7 +8903,7 @@
       <c r="I146" s="12"/>
       <c r="J146" s="12"/>
       <c r="K146" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8891,12 +8912,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C147" s="96"/>
-      <c r="D147" s="116"/>
-      <c r="E147" s="117" t="s">
-        <v>381</v>
+        <v>411</v>
+      </c>
+      <c r="C147" s="108"/>
+      <c r="D147" s="110"/>
+      <c r="E147" s="98" t="s">
+        <v>380</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>127</v>
@@ -8910,7 +8931,7 @@
       </c>
       <c r="J147" s="12"/>
       <c r="K147" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8919,11 +8940,11 @@
         <v>146</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="C148" s="96"/>
-      <c r="D148" s="116"/>
-      <c r="E148" s="126"/>
+        <v>413</v>
+      </c>
+      <c r="C148" s="108"/>
+      <c r="D148" s="110"/>
+      <c r="E148" s="111"/>
       <c r="F148" s="12" t="s">
         <v>127</v>
       </c>
@@ -8936,7 +8957,7 @@
       </c>
       <c r="J148" s="12"/>
       <c r="K148" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -8945,11 +8966,11 @@
         <v>147</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="C149" s="96"/>
-      <c r="D149" s="116"/>
-      <c r="E149" s="126"/>
+        <v>414</v>
+      </c>
+      <c r="C149" s="108"/>
+      <c r="D149" s="110"/>
+      <c r="E149" s="111"/>
       <c r="F149" s="12" t="s">
         <v>127</v>
       </c>
@@ -8962,7 +8983,7 @@
       </c>
       <c r="J149" s="12"/>
       <c r="K149" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -8971,11 +8992,11 @@
         <v>148</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="C150" s="96"/>
-      <c r="D150" s="116"/>
-      <c r="E150" s="126"/>
+        <v>416</v>
+      </c>
+      <c r="C150" s="108"/>
+      <c r="D150" s="110"/>
+      <c r="E150" s="111"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12" t="s">
         <v>153</v>
@@ -8984,7 +9005,7 @@
       <c r="I150" s="12"/>
       <c r="J150" s="12"/>
       <c r="K150" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="20.100000000000001" customHeight="1">
@@ -8993,11 +9014,11 @@
         <v>149</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="C151" s="106"/>
-      <c r="D151" s="105"/>
-      <c r="E151" s="127"/>
+        <v>418</v>
+      </c>
+      <c r="C151" s="122"/>
+      <c r="D151" s="109"/>
+      <c r="E151" s="112"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12" t="s">
         <v>153</v>
@@ -9006,7 +9027,7 @@
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
       <c r="K151" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
@@ -9022,10 +9043,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C152" s="95" t="s">
         <v>421</v>
-      </c>
-      <c r="C152" s="107" t="s">
-        <v>422</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -9041,7 +9062,7 @@
       </c>
       <c r="J152" s="9"/>
       <c r="K152" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
@@ -9057,9 +9078,9 @@
         <v>151</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C153" s="108"/>
+        <v>423</v>
+      </c>
+      <c r="C153" s="97"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9" t="s">
@@ -9076,7 +9097,7 @@
       </c>
       <c r="J153" s="9"/>
       <c r="K153" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
@@ -9092,9 +9113,9 @@
         <v>152</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C154" s="108"/>
+        <v>425</v>
+      </c>
+      <c r="C154" s="97"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9" t="s">
@@ -9111,7 +9132,7 @@
       </c>
       <c r="J154" s="9"/>
       <c r="K154" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
@@ -9127,9 +9148,9 @@
         <v>153</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C155" s="108"/>
+        <v>427</v>
+      </c>
+      <c r="C155" s="97"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9" t="s">
@@ -9146,7 +9167,7 @@
       </c>
       <c r="J155" s="9"/>
       <c r="K155" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
@@ -9162,9 +9183,9 @@
         <v>154</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C156" s="108"/>
+        <v>429</v>
+      </c>
+      <c r="C156" s="97"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9" t="s">
@@ -9181,7 +9202,7 @@
       </c>
       <c r="J156" s="9"/>
       <c r="K156" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
@@ -9197,9 +9218,9 @@
         <v>155</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C157" s="108"/>
+        <v>431</v>
+      </c>
+      <c r="C157" s="97"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9" t="s">
@@ -9216,7 +9237,7 @@
       </c>
       <c r="J157" s="9"/>
       <c r="K157" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
@@ -9232,9 +9253,9 @@
         <v>156</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C158" s="108"/>
+        <v>433</v>
+      </c>
+      <c r="C158" s="97"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9" t="s">
@@ -9251,7 +9272,7 @@
       </c>
       <c r="J158" s="9"/>
       <c r="K158" s="33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
@@ -9267,9 +9288,9 @@
         <v>157</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C159" s="108"/>
+        <v>435</v>
+      </c>
+      <c r="C159" s="97"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9" t="s">
@@ -9286,7 +9307,7 @@
       </c>
       <c r="J159" s="9"/>
       <c r="K159" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -9302,9 +9323,9 @@
         <v>158</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C160" s="109"/>
+        <v>437</v>
+      </c>
+      <c r="C160" s="96"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
@@ -9321,7 +9342,7 @@
         <v>153</v>
       </c>
       <c r="K160" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
@@ -9337,10 +9358,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C161" s="114" t="s">
         <v>440</v>
-      </c>
-      <c r="C161" s="103" t="s">
-        <v>441</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -9356,7 +9377,7 @@
       </c>
       <c r="J161" s="38"/>
       <c r="K161" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
@@ -9372,9 +9393,9 @@
         <v>160</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C162" s="103"/>
+        <v>442</v>
+      </c>
+      <c r="C162" s="114"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="38" t="s">
@@ -9391,7 +9412,7 @@
       </c>
       <c r="J162" s="38"/>
       <c r="K162" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
@@ -9407,9 +9428,9 @@
         <v>161</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C163" s="103"/>
+        <v>444</v>
+      </c>
+      <c r="C163" s="114"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="38" t="s">
@@ -9426,7 +9447,7 @@
       </c>
       <c r="J163" s="38"/>
       <c r="K163" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
@@ -9442,9 +9463,9 @@
         <v>162</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C164" s="103"/>
+        <v>446</v>
+      </c>
+      <c r="C164" s="114"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="38" t="s">
@@ -9461,7 +9482,7 @@
       </c>
       <c r="J164" s="38"/>
       <c r="K164" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
@@ -9477,9 +9498,9 @@
         <v>163</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C165" s="103"/>
+        <v>448</v>
+      </c>
+      <c r="C165" s="114"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
       <c r="F165" s="38" t="s">
@@ -9496,7 +9517,7 @@
       </c>
       <c r="J165" s="38"/>
       <c r="K165" s="40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
@@ -9512,9 +9533,9 @@
         <v>164</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C166" s="103"/>
+        <v>450</v>
+      </c>
+      <c r="C166" s="114"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="38" t="s">
@@ -9531,7 +9552,7 @@
       </c>
       <c r="J166" s="38"/>
       <c r="K166" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
@@ -9547,9 +9568,9 @@
         <v>165</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C167" s="96"/>
+        <v>452</v>
+      </c>
+      <c r="C167" s="108"/>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
       <c r="F167" s="38" t="s">
@@ -9566,7 +9587,7 @@
       </c>
       <c r="J167" s="38"/>
       <c r="K167" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="33">
@@ -9575,9 +9596,9 @@
         <v>166</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C168" s="96"/>
+        <v>454</v>
+      </c>
+      <c r="C168" s="108"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
       <c r="F168" s="38" t="s">
@@ -9594,7 +9615,7 @@
       </c>
       <c r="J168" s="38"/>
       <c r="K168" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9603,9 +9624,9 @@
         <v>167</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C169" s="103"/>
+        <v>456</v>
+      </c>
+      <c r="C169" s="114"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="38"/>
@@ -9620,7 +9641,7 @@
       </c>
       <c r="J169" s="38"/>
       <c r="K169" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
@@ -9636,10 +9657,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C170" s="95" t="s">
         <v>459</v>
-      </c>
-      <c r="C170" s="107" t="s">
-        <v>460</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
@@ -9655,7 +9676,7 @@
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
@@ -9671,9 +9692,9 @@
         <v>169</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="C171" s="108"/>
+        <v>461</v>
+      </c>
+      <c r="C171" s="97"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9" t="s">
@@ -9690,7 +9711,7 @@
       </c>
       <c r="J171" s="9"/>
       <c r="K171" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
@@ -9706,9 +9727,9 @@
         <v>170</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="C172" s="108"/>
+        <v>463</v>
+      </c>
+      <c r="C172" s="97"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9" t="s">
@@ -9725,7 +9746,7 @@
       </c>
       <c r="J172" s="9"/>
       <c r="K172" s="33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
@@ -9741,9 +9762,9 @@
         <v>171</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="C173" s="108"/>
+        <v>465</v>
+      </c>
+      <c r="C173" s="97"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9" t="s">
@@ -9760,7 +9781,7 @@
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
@@ -9776,9 +9797,9 @@
         <v>172</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C174" s="108"/>
+        <v>466</v>
+      </c>
+      <c r="C174" s="97"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9" t="s">
@@ -9795,7 +9816,7 @@
       </c>
       <c r="J174" s="9"/>
       <c r="K174" s="40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
@@ -9811,9 +9832,9 @@
         <v>173</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="C175" s="108"/>
+        <v>467</v>
+      </c>
+      <c r="C175" s="97"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9" t="s">
@@ -9830,7 +9851,7 @@
       </c>
       <c r="J175" s="9"/>
       <c r="K175" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
@@ -9846,9 +9867,9 @@
         <v>174</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C176" s="108"/>
+        <v>468</v>
+      </c>
+      <c r="C176" s="97"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9" t="s">
@@ -9865,7 +9886,7 @@
       </c>
       <c r="J176" s="9"/>
       <c r="K176" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
@@ -9881,9 +9902,9 @@
         <v>175</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="C177" s="108"/>
+        <v>469</v>
+      </c>
+      <c r="C177" s="97"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9" t="s">
@@ -9900,7 +9921,7 @@
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
@@ -9916,9 +9937,9 @@
         <v>176</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="C178" s="109"/>
+        <v>470</v>
+      </c>
+      <c r="C178" s="96"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9" t="s">
@@ -9935,7 +9956,7 @@
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
@@ -9951,10 +9972,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C179" s="95" t="s">
         <v>472</v>
-      </c>
-      <c r="C179" s="107" t="s">
-        <v>473</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -9972,7 +9993,7 @@
       </c>
       <c r="J179" s="9"/>
       <c r="K179" s="24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
@@ -9988,13 +10009,13 @@
         <v>178</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="C180" s="108"/>
+        <v>474</v>
+      </c>
+      <c r="C180" s="97"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G180" s="9" t="s">
         <v>153</v>
@@ -10007,7 +10028,7 @@
       </c>
       <c r="J180" s="9"/>
       <c r="K180" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
@@ -10023,9 +10044,9 @@
         <v>179</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="C181" s="108"/>
+        <v>477</v>
+      </c>
+      <c r="C181" s="97"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9" t="s">
@@ -10042,7 +10063,7 @@
       </c>
       <c r="J181" s="9"/>
       <c r="K181" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
@@ -10058,9 +10079,9 @@
         <v>180</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="C182" s="108"/>
+        <v>479</v>
+      </c>
+      <c r="C182" s="97"/>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9" t="s">
@@ -10077,7 +10098,7 @@
       </c>
       <c r="J182" s="9"/>
       <c r="K182" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
@@ -10093,9 +10114,9 @@
         <v>181</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="C183" s="109"/>
+        <v>481</v>
+      </c>
+      <c r="C183" s="96"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9" t="s">
@@ -10112,7 +10133,7 @@
       </c>
       <c r="J183" s="9"/>
       <c r="K183" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
@@ -10128,13 +10149,13 @@
         <v>182</v>
       </c>
       <c r="B184" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C184" s="95" t="s">
         <v>484</v>
       </c>
-      <c r="C184" s="107" t="s">
+      <c r="D184" s="95" t="s">
         <v>485</v>
-      </c>
-      <c r="D184" s="107" t="s">
-        <v>486</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9" t="s">
@@ -10149,7 +10170,7 @@
       </c>
       <c r="J184" s="9"/>
       <c r="K184" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
@@ -10165,10 +10186,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="C185" s="108"/>
-      <c r="D185" s="109"/>
+        <v>487</v>
+      </c>
+      <c r="C185" s="97"/>
+      <c r="D185" s="96"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9" t="s">
@@ -10178,7 +10199,7 @@
       <c r="I185" s="9"/>
       <c r="J185" s="9"/>
       <c r="K185" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
@@ -10194,11 +10215,11 @@
         <v>184</v>
       </c>
       <c r="B186" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C186" s="97"/>
+      <c r="D186" s="95" t="s">
         <v>490</v>
-      </c>
-      <c r="C186" s="108"/>
-      <c r="D186" s="107" t="s">
-        <v>491</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9" t="s">
@@ -10213,7 +10234,7 @@
       </c>
       <c r="J186" s="9"/>
       <c r="K186" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
@@ -10229,10 +10250,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="C187" s="108"/>
-      <c r="D187" s="108"/>
+        <v>492</v>
+      </c>
+      <c r="C187" s="97"/>
+      <c r="D187" s="97"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9" t="s">
         <v>251</v>
@@ -10244,7 +10265,7 @@
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
       <c r="K187" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
@@ -10260,10 +10281,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C188" s="108"/>
-      <c r="D188" s="109"/>
+        <v>493</v>
+      </c>
+      <c r="C188" s="97"/>
+      <c r="D188" s="96"/>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
       <c r="G188" s="9" t="s">
@@ -10273,7 +10294,7 @@
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
       <c r="K188" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
@@ -10289,11 +10310,11 @@
         <v>187</v>
       </c>
       <c r="B189" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C189" s="97"/>
+      <c r="D189" s="95" t="s">
         <v>495</v>
-      </c>
-      <c r="C189" s="108"/>
-      <c r="D189" s="107" t="s">
-        <v>496</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9" t="s">
@@ -10308,7 +10329,7 @@
       </c>
       <c r="J189" s="9"/>
       <c r="K189" s="29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
@@ -10324,10 +10345,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="C190" s="108"/>
-      <c r="D190" s="108"/>
+        <v>497</v>
+      </c>
+      <c r="C190" s="97"/>
+      <c r="D190" s="97"/>
       <c r="E190" s="9"/>
       <c r="F190" s="9" t="s">
         <v>209</v>
@@ -10339,7 +10360,7 @@
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
       <c r="K190" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
@@ -10355,10 +10376,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="C191" s="108"/>
-      <c r="D191" s="109"/>
+        <v>499</v>
+      </c>
+      <c r="C191" s="97"/>
+      <c r="D191" s="96"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
       <c r="G191" s="9" t="s">
@@ -10368,7 +10389,7 @@
       <c r="I191" s="9"/>
       <c r="J191" s="9"/>
       <c r="K191" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
@@ -10384,15 +10405,15 @@
         <v>190</v>
       </c>
       <c r="B192" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C192" s="96"/>
+      <c r="D192" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="C192" s="109"/>
-      <c r="D192" s="9" t="s">
-        <v>502</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G192" s="9"/>
       <c r="H192" s="9" t="s">
@@ -10403,7 +10424,7 @@
       </c>
       <c r="J192" s="9"/>
       <c r="K192" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
@@ -10419,6 +10440,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C13"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="C23:C56"/>
+    <mergeCell ref="C57:C69"/>
+    <mergeCell ref="C70:C80"/>
+    <mergeCell ref="C81:C109"/>
+    <mergeCell ref="C110:C151"/>
+    <mergeCell ref="C152:C160"/>
+    <mergeCell ref="C161:C169"/>
+    <mergeCell ref="C170:C178"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="C184:C192"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="D39:D49"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D86:D94"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="D100:D109"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="D113:D122"/>
+    <mergeCell ref="D123:D141"/>
+    <mergeCell ref="D142:D151"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="D184:D185"/>
@@ -10435,38 +10488,6 @@
     <mergeCell ref="E135:E141"/>
     <mergeCell ref="E142:E146"/>
     <mergeCell ref="E147:E151"/>
-    <mergeCell ref="C184:C192"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="D39:D49"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D86:D94"/>
-    <mergeCell ref="D95:D99"/>
-    <mergeCell ref="D100:D109"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="D113:D122"/>
-    <mergeCell ref="D123:D141"/>
-    <mergeCell ref="D142:D151"/>
-    <mergeCell ref="C110:C151"/>
-    <mergeCell ref="C152:C160"/>
-    <mergeCell ref="C161:C169"/>
-    <mergeCell ref="C170:C178"/>
-    <mergeCell ref="C179:C183"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="C23:C56"/>
-    <mergeCell ref="C57:C69"/>
-    <mergeCell ref="C70:C80"/>
-    <mergeCell ref="C81:C109"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C13"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
+++ b/Text/01.기능정의서/3th_Project_기능 정의서(수정) - 복사본.xlsx
@@ -10,7 +10,7 @@
     <sheet name="기능 정의서-1" sheetId="2" r:id="rId1"/>
     <sheet name="기능 정의서-2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1092,9 +1092,6 @@
     <t>F-SU-03</t>
   </si>
   <si>
-    <t>- 아이디 작성시 길이는 7~15자리 가능 및 알파벳,숫자가 조합되어서 만들어져야함. 그외에는 경고창 출력</t>
-  </si>
-  <si>
     <t>F-SU-04</t>
   </si>
   <si>
@@ -2063,6 +2060,10 @@
   <si>
     <t>- DB에 DELETE 후 게시글목록 페이지로 이동</t>
   </si>
+  <si>
+    <t>- 아이디 작성시 길이는 7~15자리 가능 및 알파벳,숫자가 조합되어서 만들어져야함. 그외에는 경고창 출력</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2070,7 +2071,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="mm\-dd"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -2561,6 +2562,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2573,95 +2655,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2669,92 +2748,14 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3072,99 +3073,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="90"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="93"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="8" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" customHeight="1">
       <c r="A9" s="42" t="s">
@@ -3173,16 +3174,16 @@
       <c r="B9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
       <c r="K9" s="57" t="s">
         <v>5</v>
       </c>
@@ -3194,16 +3195,16 @@
       <c r="B10" s="45">
         <v>43717</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
       <c r="K10" s="58" t="s">
         <v>7</v>
       </c>
@@ -3213,16 +3214,16 @@
       <c r="B11" s="45">
         <v>43719</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
       <c r="K11" s="58" t="s">
         <v>7</v>
       </c>
@@ -3232,16 +3233,16 @@
       <c r="B12" s="45">
         <v>43720</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
       <c r="K12" s="58" t="s">
         <v>10</v>
       </c>
@@ -3251,16 +3252,16 @@
       <c r="B13" s="45">
         <v>43723</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
       <c r="K13" s="58" t="s">
         <v>7</v>
       </c>
@@ -3270,16 +3271,16 @@
       <c r="B14" s="45">
         <v>43731</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="58" t="s">
         <v>7</v>
       </c>
@@ -3287,16 +3288,16 @@
     <row r="15" spans="1:11">
       <c r="A15" s="44"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
       <c r="K15" s="58" t="s">
         <v>7</v>
       </c>
@@ -3304,222 +3305,222 @@
     <row r="16" spans="1:11">
       <c r="A16" s="44"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
       <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="44"/>
       <c r="B17" s="46"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
       <c r="K17" s="58"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="44"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="44"/>
       <c r="B19" s="46"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
       <c r="K19" s="58"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="44"/>
       <c r="B20" s="46"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
       <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="44"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
       <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="44"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
       <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="44"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
       <c r="K23" s="58"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="44"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
       <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="44"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
       <c r="K25" s="58"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="44"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
       <c r="K26" s="58"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="44"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="58"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="44"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
       <c r="K28" s="58"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="44"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
       <c r="K29" s="58"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="44"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
       <c r="K30" s="58"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="44"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
       <c r="K31" s="58"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="44"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
       <c r="K32" s="58"/>
     </row>
     <row r="33" spans="1:11">
@@ -3536,37 +3537,37 @@
       <c r="K33" s="59"/>
     </row>
     <row r="35" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="65"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="92"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1">
       <c r="A36" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70" t="s">
+      <c r="C36" s="86"/>
+      <c r="D36" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
       <c r="K36" s="57" t="s">
         <v>5</v>
       </c>
@@ -3575,755 +3576,755 @@
       <c r="A37" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
       <c r="K37" s="58"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1">
       <c r="A38" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
       <c r="K38" s="58"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1">
       <c r="A39" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
       <c r="K39" s="58"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1">
       <c r="A40" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
       <c r="K40" s="58"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1">
       <c r="A41" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
       <c r="K41" s="58"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1">
       <c r="A42" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
       <c r="K42" s="58"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1">
       <c r="A43" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
       <c r="K43" s="58"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1">
       <c r="A44" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
       <c r="K44" s="58"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
       <c r="K45" s="60"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1">
       <c r="A46" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
       <c r="K46" s="58"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="76"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
       <c r="K47" s="60"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
       <c r="K48" s="60"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="76"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
       <c r="K49" s="60"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1">
       <c r="A50" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
       <c r="K50" s="58"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1">
       <c r="A51" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
       <c r="K51" s="58"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1">
       <c r="A52" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
       <c r="K52" s="58"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1">
       <c r="A53" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="80"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
       <c r="K53" s="58"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1">
       <c r="A54" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="79" t="s">
+      <c r="B54" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="80"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
       <c r="K54" s="58"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1">
       <c r="A55" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="80"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
       <c r="K55" s="58"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1">
       <c r="A56" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
       <c r="K56" s="58"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1">
       <c r="A57" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="80" t="s">
+      <c r="B57" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="80"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
       <c r="K57" s="58"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1">
       <c r="A58" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="80" t="s">
+      <c r="B58" s="79" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="81"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
       <c r="K58" s="58"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1">
       <c r="A59" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
       <c r="K59" s="58"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1">
       <c r="A60" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
       <c r="K60" s="58"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1">
       <c r="A61" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
       <c r="K61" s="58"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1">
       <c r="A62" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="79" t="s">
+      <c r="B62" s="78" t="s">
         <v>69</v>
       </c>
       <c r="C62" s="81"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
       <c r="K62" s="58"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1">
       <c r="A63" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
       <c r="K63" s="58"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1">
       <c r="A64" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="79" t="s">
+      <c r="B64" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="80"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
       <c r="K64" s="58"/>
     </row>
     <row r="65" spans="1:13" ht="16.5" customHeight="1">
       <c r="A65" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
       <c r="K65" s="58"/>
     </row>
     <row r="66" spans="1:13" ht="16.5" customHeight="1">
       <c r="A66" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="80"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
       <c r="K66" s="58"/>
     </row>
     <row r="67" spans="1:13" ht="16.5" customHeight="1">
       <c r="A67" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="80"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
       <c r="K67" s="58"/>
     </row>
     <row r="68" spans="1:13" ht="16.5" customHeight="1">
       <c r="A68" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="80" t="s">
+      <c r="B68" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="80"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
       <c r="K68" s="58"/>
     </row>
     <row r="69" spans="1:13" ht="16.5" customHeight="1">
       <c r="A69" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="80" t="s">
+      <c r="B69" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="80"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
       <c r="K69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="17.25">
       <c r="A70" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="82" t="s">
+      <c r="B70" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C70" s="80"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
       <c r="K70" s="58"/>
     </row>
     <row r="71" spans="1:13" ht="17.25">
       <c r="A71" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="79" t="s">
+      <c r="B71" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="79"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
       <c r="K71" s="58"/>
     </row>
     <row r="72" spans="1:13" ht="17.25">
       <c r="A72" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="79" t="s">
+      <c r="B72" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="79"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="67"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
       <c r="K72" s="58"/>
       <c r="L72" s="62"/>
       <c r="M72" s="62"/>
     </row>
     <row r="73" spans="1:13" ht="17.25">
       <c r="A73" s="50"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
       <c r="K73" s="58"/>
       <c r="L73" s="62"/>
       <c r="M73" s="62"/>
     </row>
     <row r="74" spans="1:13" ht="17.25">
       <c r="A74" s="50"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
       <c r="K74" s="58"/>
       <c r="L74" s="62"/>
       <c r="M74" s="62"/>
     </row>
     <row r="75" spans="1:13" ht="17.25">
       <c r="A75" s="50"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
       <c r="K75" s="58"/>
       <c r="L75" s="62"/>
       <c r="M75" s="62"/>
     </row>
     <row r="76" spans="1:13" ht="17.25">
       <c r="A76" s="50"/>
-      <c r="B76" s="72"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
       <c r="K76" s="58"/>
       <c r="L76" s="62"/>
       <c r="M76" s="62"/>
     </row>
     <row r="77" spans="1:13" ht="17.25">
       <c r="A77" s="50"/>
-      <c r="B77" s="72"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="67"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
       <c r="K77" s="58"/>
       <c r="L77" s="62"/>
       <c r="M77" s="62"/>
     </row>
     <row r="78" spans="1:13" ht="17.25">
       <c r="A78" s="50"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
       <c r="K78" s="58"/>
       <c r="L78" s="62"/>
       <c r="M78" s="62"/>
     </row>
     <row r="79" spans="1:13" ht="17.25">
       <c r="A79" s="50"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
       <c r="K79" s="58"/>
       <c r="L79" s="62"/>
       <c r="M79" s="62"/>
     </row>
     <row r="80" spans="1:13" ht="17.25">
       <c r="A80" s="50"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="67"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
       <c r="K80" s="58"/>
       <c r="L80" s="62"/>
       <c r="M80" s="62"/>
     </row>
     <row r="81" spans="1:13" ht="17.25">
       <c r="A81" s="50"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="74"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="67"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="65"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
       <c r="K81" s="58"/>
       <c r="L81" s="62"/>
       <c r="M81" s="62"/>
     </row>
     <row r="82" spans="1:13" ht="17.25">
       <c r="A82" s="61"/>
-      <c r="B82" s="83"/>
-      <c r="C82" s="84"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="67"/>
       <c r="D82" s="68"/>
       <c r="E82" s="68"/>
       <c r="F82" s="68"/>
@@ -4337,6 +4338,104 @@
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="D75:J75"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:J67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:J70"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="D81:J81"/>
     <mergeCell ref="B82:C82"/>
@@ -4361,104 +4460,6 @@
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="D74:J74"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:J75"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:J67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:J69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:J70"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4471,8 +4472,8 @@
   <dimension ref="A1:R193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4562,10 +4563,10 @@
       <c r="B3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="95"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
@@ -4595,8 +4596,8 @@
       <c r="B4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="103"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="8" t="s">
@@ -4624,8 +4625,8 @@
       <c r="B5" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="103"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="10"/>
       <c r="F5" s="9"/>
       <c r="G5" s="8" t="s">
@@ -4653,8 +4654,8 @@
       <c r="B6" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="103"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="10"/>
       <c r="F6" s="9"/>
       <c r="G6" s="8" t="s">
@@ -4684,8 +4685,8 @@
       <c r="B7" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="103"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
       <c r="E7" s="10"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8" t="s">
@@ -4713,8 +4714,8 @@
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="103"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="10"/>
       <c r="F8" s="9"/>
       <c r="G8" s="8" t="s">
@@ -4742,8 +4743,8 @@
       <c r="B9" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="103"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
       <c r="E9" s="10"/>
       <c r="F9" s="9"/>
       <c r="G9" s="8" t="s">
@@ -4773,8 +4774,8 @@
       <c r="B10" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="103"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="8" t="s">
@@ -4802,8 +4803,8 @@
       <c r="B11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
       <c r="G11" s="8" t="s">
@@ -4831,8 +4832,8 @@
       <c r="B12" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
       <c r="E12" s="11"/>
       <c r="F12" s="9" t="s">
         <v>124</v>
@@ -4859,8 +4860,8 @@
       <c r="B13" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="10"/>
       <c r="F13" s="9" t="s">
         <v>127</v>
@@ -4894,10 +4895,10 @@
       <c r="B14" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="95" t="s">
         <v>131</v>
       </c>
       <c r="E14" s="10"/>
@@ -4927,8 +4928,8 @@
       <c r="B15" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="108"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="12"/>
       <c r="F15" s="9"/>
       <c r="G15" s="8" t="s">
@@ -4960,9 +4961,9 @@
       <c r="B16" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="117"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="9"/>
       <c r="G16" s="8" t="s">
         <v>104</v>
@@ -4991,9 +4992,9 @@
       <c r="B17" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
       <c r="F17" s="9"/>
       <c r="G17" s="8" t="s">
         <v>104</v>
@@ -5022,8 +5023,8 @@
       <c r="B18" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="110" t="s">
+      <c r="C18" s="123"/>
+      <c r="D18" s="115" t="s">
         <v>140</v>
       </c>
       <c r="E18" s="10"/>
@@ -5046,8 +5047,8 @@
       <c r="B19" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="108"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="97"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
@@ -5068,8 +5069,8 @@
       <c r="B20" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="108"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="G20" s="8" t="s">
@@ -5090,8 +5091,8 @@
       <c r="B21" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="109"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="8" t="s">
@@ -5114,7 +5115,7 @@
       <c r="B22" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="98"/>
+      <c r="C22" s="124"/>
       <c r="D22" s="9" t="s">
         <v>149</v>
       </c>
@@ -5138,7 +5139,7 @@
       <c r="B23" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="116" t="s">
         <v>152</v>
       </c>
       <c r="D23" s="13"/>
@@ -5166,7 +5167,7 @@
       <c r="B24" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="99"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="13"/>
       <c r="E24" s="10"/>
       <c r="F24" s="13"/>
@@ -5192,7 +5193,7 @@
       <c r="B25" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="99"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="13"/>
       <c r="E25" s="10"/>
       <c r="F25" s="13"/>
@@ -5218,7 +5219,7 @@
       <c r="B26" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="99"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="13"/>
       <c r="E26" s="10"/>
       <c r="F26" s="13" t="s">
@@ -5246,7 +5247,7 @@
       <c r="B27" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="99"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="13"/>
       <c r="E27" s="9"/>
       <c r="F27" s="13"/>
@@ -5272,7 +5273,7 @@
       <c r="B28" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="99"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="13"/>
       <c r="E28" s="10"/>
       <c r="F28" s="13"/>
@@ -5298,7 +5299,7 @@
       <c r="B29" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="99"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="13"/>
       <c r="E29" s="10"/>
       <c r="F29" s="13"/>
@@ -5324,8 +5325,8 @@
       <c r="B30" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99" t="s">
+      <c r="C30" s="116"/>
+      <c r="D30" s="116" t="s">
         <v>168</v>
       </c>
       <c r="E30" s="10"/>
@@ -5352,8 +5353,8 @@
       <c r="B31" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
       <c r="E31" s="10"/>
       <c r="F31" s="13"/>
       <c r="G31" s="9" t="s">
@@ -5378,8 +5379,8 @@
       <c r="B32" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="10"/>
       <c r="F32" s="13" t="s">
         <v>127</v>
@@ -5406,8 +5407,8 @@
       <c r="B33" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="10"/>
       <c r="F33" s="13"/>
       <c r="G33" s="9" t="s">
@@ -5432,8 +5433,8 @@
       <c r="B34" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="10"/>
       <c r="F34" s="13" t="s">
         <v>127</v>
@@ -5460,8 +5461,8 @@
       <c r="B35" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="10"/>
       <c r="F35" s="13"/>
       <c r="G35" s="9" t="s">
@@ -5486,9 +5487,9 @@
       <c r="B36" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="118" t="s">
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="99" t="s">
         <v>180</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -5516,9 +5517,9 @@
       <c r="B37" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="118"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="99"/>
       <c r="F37" s="16"/>
       <c r="G37" s="9" t="s">
         <v>153</v>
@@ -5538,9 +5539,9 @@
       <c r="B38" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="13"/>
       <c r="G38" s="9" t="s">
         <v>153</v>
@@ -5560,8 +5561,8 @@
       <c r="B39" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="111" t="s">
+      <c r="C39" s="117"/>
+      <c r="D39" s="118" t="s">
         <v>186</v>
       </c>
       <c r="E39" s="16"/>
@@ -5588,8 +5589,8 @@
       <c r="B40" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="112"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="16"/>
       <c r="F40" s="13" t="s">
         <v>127</v>
@@ -5616,8 +5617,8 @@
       <c r="B41" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="112"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="16"/>
       <c r="F41" s="13"/>
       <c r="G41" s="9" t="s">
@@ -5642,9 +5643,9 @@
       <c r="B42" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C42" s="100"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="120" t="s">
+      <c r="C42" s="117"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="101" t="s">
         <v>193</v>
       </c>
       <c r="F42" s="13"/>
@@ -5670,9 +5671,9 @@
       <c r="B43" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="121"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="102"/>
       <c r="F43" s="13"/>
       <c r="G43" s="9" t="s">
         <v>153</v>
@@ -5696,9 +5697,9 @@
       <c r="B44" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="108"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="97"/>
       <c r="F44" s="13"/>
       <c r="G44" s="9" t="s">
         <v>153</v>
@@ -5722,9 +5723,9 @@
       <c r="B45" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C45" s="99"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="109"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="96"/>
       <c r="F45" s="13"/>
       <c r="G45" s="9" t="s">
         <v>153</v>
@@ -5748,9 +5749,9 @@
       <c r="B46" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="107" t="s">
+      <c r="C46" s="116"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="95" t="s">
         <v>202</v>
       </c>
       <c r="F46" s="13"/>
@@ -5776,9 +5777,9 @@
       <c r="B47" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="122"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="103"/>
       <c r="F47" s="13"/>
       <c r="G47" s="9" t="s">
         <v>153</v>
@@ -5802,9 +5803,9 @@
       <c r="B48" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="122"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="103"/>
       <c r="F48" s="13"/>
       <c r="G48" s="9" t="s">
         <v>153</v>
@@ -5828,9 +5829,9 @@
       <c r="B49" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="109"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="96"/>
       <c r="F49" s="13" t="s">
         <v>209</v>
       </c>
@@ -5856,8 +5857,8 @@
       <c r="B50" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="111" t="s">
+      <c r="C50" s="116"/>
+      <c r="D50" s="118" t="s">
         <v>212</v>
       </c>
       <c r="E50" s="9"/>
@@ -5886,8 +5887,8 @@
       <c r="B51" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="113"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="120"/>
       <c r="E51" s="9"/>
       <c r="F51" s="13"/>
       <c r="G51" s="9" t="s">
@@ -5912,8 +5913,8 @@
       <c r="B52" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="99"/>
-      <c r="D52" s="113"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="120"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
         <v>127</v>
@@ -5940,9 +5941,9 @@
       <c r="B53" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="123" t="s">
+      <c r="C53" s="116"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="104" t="s">
         <v>219</v>
       </c>
       <c r="F53" s="13"/>
@@ -5968,9 +5969,9 @@
       <c r="B54" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="124"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="105"/>
       <c r="F54" s="13"/>
       <c r="G54" s="9" t="s">
         <v>153</v>
@@ -5994,9 +5995,9 @@
       <c r="B55" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="121"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="102"/>
       <c r="F55" s="13" t="s">
         <v>209</v>
       </c>
@@ -6022,9 +6023,9 @@
       <c r="B56" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C56" s="99"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="125"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="106"/>
       <c r="F56" s="15"/>
       <c r="G56" s="17" t="s">
         <v>153</v>
@@ -6048,7 +6049,7 @@
       <c r="B57" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C57" s="102" t="s">
+      <c r="C57" s="126" t="s">
         <v>228</v>
       </c>
       <c r="D57" s="19"/>
@@ -6081,7 +6082,7 @@
       <c r="B58" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C58" s="102"/>
+      <c r="C58" s="126"/>
       <c r="D58" s="19"/>
       <c r="E58" s="18"/>
       <c r="F58" s="9"/>
@@ -6112,7 +6113,7 @@
       <c r="B59" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="102"/>
+      <c r="C59" s="126"/>
       <c r="D59" s="19"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18" t="s">
@@ -6129,7 +6130,7 @@
       </c>
       <c r="J59" s="18"/>
       <c r="K59" s="29" t="s">
-        <v>233</v>
+        <v>503</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -6145,9 +6146,9 @@
         <v>58</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="102"/>
+        <v>233</v>
+      </c>
+      <c r="C60" s="126"/>
       <c r="D60" s="19"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18" t="s">
@@ -6164,7 +6165,7 @@
       </c>
       <c r="J60" s="18"/>
       <c r="K60" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -6180,9 +6181,9 @@
         <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C61" s="102"/>
+        <v>235</v>
+      </c>
+      <c r="C61" s="126"/>
       <c r="D61" s="19"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18" t="s">
@@ -6199,7 +6200,7 @@
       </c>
       <c r="J61" s="18"/>
       <c r="K61" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -6215,9 +6216,9 @@
         <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C62" s="102"/>
+        <v>237</v>
+      </c>
+      <c r="C62" s="126"/>
       <c r="D62" s="19"/>
       <c r="E62" s="9"/>
       <c r="F62" s="10" t="s">
@@ -6234,7 +6235,7 @@
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -6250,9 +6251,9 @@
         <v>61</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" s="102"/>
+        <v>239</v>
+      </c>
+      <c r="C63" s="126"/>
       <c r="D63" s="19"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9" t="s">
@@ -6269,7 +6270,7 @@
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -6285,9 +6286,9 @@
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C64" s="102"/>
+        <v>241</v>
+      </c>
+      <c r="C64" s="126"/>
       <c r="D64" s="19"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
@@ -6304,7 +6305,7 @@
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -6320,9 +6321,9 @@
         <v>63</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C65" s="102"/>
+        <v>243</v>
+      </c>
+      <c r="C65" s="126"/>
       <c r="D65" s="19"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9" t="s">
@@ -6339,7 +6340,7 @@
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -6355,9 +6356,9 @@
         <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C66" s="102"/>
+        <v>245</v>
+      </c>
+      <c r="C66" s="126"/>
       <c r="D66" s="19"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9" t="s">
@@ -6374,7 +6375,7 @@
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -6390,9 +6391,9 @@
         <v>65</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C67" s="102"/>
+        <v>247</v>
+      </c>
+      <c r="C67" s="126"/>
       <c r="D67" s="30"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9" t="s">
@@ -6409,7 +6410,7 @@
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -6425,13 +6426,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C68" s="96"/>
+        <v>249</v>
+      </c>
+      <c r="C68" s="108"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G68" s="18" t="s">
         <v>153</v>
@@ -6444,7 +6445,7 @@
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -6453,9 +6454,9 @@
         <v>67</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C69" s="102"/>
+        <v>252</v>
+      </c>
+      <c r="C69" s="126"/>
       <c r="D69" s="30"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -6470,7 +6471,7 @@
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -6486,10 +6487,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" s="114" t="s">
         <v>255</v>
-      </c>
-      <c r="C70" s="103" t="s">
-        <v>256</v>
       </c>
       <c r="D70" s="31"/>
       <c r="E70" s="9"/>
@@ -6507,7 +6508,7 @@
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -6523,9 +6524,9 @@
         <v>69</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C71" s="103"/>
+        <v>257</v>
+      </c>
+      <c r="C71" s="114"/>
       <c r="D71" s="31"/>
       <c r="E71" s="9"/>
       <c r="F71" s="18" t="s">
@@ -6542,7 +6543,7 @@
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -6558,9 +6559,9 @@
         <v>70</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C72" s="103"/>
+        <v>259</v>
+      </c>
+      <c r="C72" s="114"/>
       <c r="D72" s="31"/>
       <c r="E72" s="9"/>
       <c r="F72" s="18" t="s">
@@ -6577,7 +6578,7 @@
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -6593,9 +6594,9 @@
         <v>71</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C73" s="103"/>
+        <v>260</v>
+      </c>
+      <c r="C73" s="114"/>
       <c r="D73" s="31"/>
       <c r="E73" s="9"/>
       <c r="F73" s="10" t="s">
@@ -6612,7 +6613,7 @@
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -6628,9 +6629,9 @@
         <v>72</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C74" s="103"/>
+        <v>261</v>
+      </c>
+      <c r="C74" s="114"/>
       <c r="D74" s="31"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9" t="s">
@@ -6647,7 +6648,7 @@
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -6663,9 +6664,9 @@
         <v>73</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C75" s="103"/>
+        <v>262</v>
+      </c>
+      <c r="C75" s="114"/>
       <c r="D75" s="31"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="s">
@@ -6682,7 +6683,7 @@
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -6698,9 +6699,9 @@
         <v>74</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C76" s="103"/>
+        <v>263</v>
+      </c>
+      <c r="C76" s="114"/>
       <c r="D76" s="31"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9" t="s">
@@ -6717,7 +6718,7 @@
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -6733,9 +6734,9 @@
         <v>75</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C77" s="103"/>
+        <v>264</v>
+      </c>
+      <c r="C77" s="114"/>
       <c r="D77" s="31"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9" t="s">
@@ -6752,7 +6753,7 @@
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -6768,9 +6769,9 @@
         <v>76</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C78" s="103"/>
+        <v>265</v>
+      </c>
+      <c r="C78" s="114"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9" t="s">
@@ -6787,7 +6788,7 @@
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -6803,13 +6804,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C79" s="96"/>
+        <v>266</v>
+      </c>
+      <c r="C79" s="108"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>153</v>
@@ -6822,7 +6823,7 @@
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -6831,9 +6832,9 @@
         <v>78</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C80" s="103"/>
+        <v>268</v>
+      </c>
+      <c r="C80" s="114"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
@@ -6848,7 +6849,7 @@
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -6864,13 +6865,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" s="113" t="s">
         <v>271</v>
       </c>
-      <c r="C81" s="95" t="s">
+      <c r="D81" s="114" t="s">
         <v>272</v>
-      </c>
-      <c r="D81" s="103" t="s">
-        <v>273</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8" t="s">
@@ -6885,7 +6886,7 @@
       </c>
       <c r="J81" s="32"/>
       <c r="K81" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L81" s="35"/>
       <c r="M81" s="35"/>
@@ -6901,10 +6902,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C82" s="95"/>
-      <c r="D82" s="103"/>
+        <v>274</v>
+      </c>
+      <c r="C82" s="113"/>
+      <c r="D82" s="114"/>
       <c r="E82" s="10"/>
       <c r="F82" s="9" t="s">
         <v>127</v>
@@ -6920,7 +6921,7 @@
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L82" s="36"/>
       <c r="M82" s="36"/>
@@ -6936,10 +6937,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C83" s="95"/>
-      <c r="D83" s="103"/>
+        <v>276</v>
+      </c>
+      <c r="C83" s="113"/>
+      <c r="D83" s="114"/>
       <c r="E83" s="10"/>
       <c r="F83" s="9" t="s">
         <v>127</v>
@@ -6955,7 +6956,7 @@
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L83" s="36"/>
       <c r="M83" s="36"/>
@@ -6971,10 +6972,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C84" s="95"/>
-      <c r="D84" s="103"/>
+        <v>278</v>
+      </c>
+      <c r="C84" s="113"/>
+      <c r="D84" s="114"/>
       <c r="E84" s="10"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9" t="s">
@@ -6986,7 +6987,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L84" s="36"/>
       <c r="M84" s="36"/>
@@ -7002,10 +7003,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C85" s="95"/>
-      <c r="D85" s="103"/>
+        <v>280</v>
+      </c>
+      <c r="C85" s="113"/>
+      <c r="D85" s="114"/>
       <c r="E85" s="10"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -7013,7 +7014,7 @@
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L85" s="36"/>
       <c r="M85" s="36"/>
@@ -7029,11 +7030,11 @@
         <v>84</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86" s="127"/>
+      <c r="D86" s="114" t="s">
         <v>283</v>
-      </c>
-      <c r="C86" s="104"/>
-      <c r="D86" s="103" t="s">
-        <v>284</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="9" t="s">
@@ -7048,7 +7049,7 @@
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L86" s="36"/>
       <c r="M86" s="36"/>
@@ -7064,13 +7065,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C87" s="104"/>
-      <c r="D87" s="103"/>
+        <v>285</v>
+      </c>
+      <c r="C87" s="127"/>
+      <c r="D87" s="114"/>
       <c r="E87" s="10"/>
       <c r="F87" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>153</v>
@@ -7083,7 +7084,7 @@
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L87" s="36"/>
       <c r="M87" s="36"/>
@@ -7099,10 +7100,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C88" s="104"/>
-      <c r="D88" s="103"/>
+        <v>288</v>
+      </c>
+      <c r="C88" s="127"/>
+      <c r="D88" s="114"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
         <v>127</v>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="J88" s="10"/>
       <c r="K88" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L88" s="36"/>
       <c r="M88" s="36"/>
@@ -7132,10 +7133,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C89" s="104"/>
-      <c r="D89" s="103"/>
+        <v>290</v>
+      </c>
+      <c r="C89" s="127"/>
+      <c r="D89" s="114"/>
       <c r="E89" s="10"/>
       <c r="F89" s="9" t="s">
         <v>127</v>
@@ -7151,7 +7152,7 @@
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L89" s="36"/>
       <c r="M89" s="36"/>
@@ -7167,10 +7168,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C90" s="104"/>
-      <c r="D90" s="103"/>
+        <v>292</v>
+      </c>
+      <c r="C90" s="127"/>
+      <c r="D90" s="114"/>
       <c r="E90" s="10"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9" t="s">
@@ -7182,7 +7183,7 @@
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L90" s="36"/>
       <c r="M90" s="36"/>
@@ -7198,10 +7199,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C91" s="104"/>
-      <c r="D91" s="103"/>
+        <v>294</v>
+      </c>
+      <c r="C91" s="127"/>
+      <c r="D91" s="114"/>
       <c r="E91" s="10"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9" t="s">
@@ -7213,7 +7214,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
@@ -7229,13 +7230,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C92" s="104"/>
-      <c r="D92" s="103"/>
+        <v>296</v>
+      </c>
+      <c r="C92" s="127"/>
+      <c r="D92" s="114"/>
       <c r="E92" s="10"/>
       <c r="F92" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>153</v>
@@ -7246,7 +7247,7 @@
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L92" s="36"/>
       <c r="M92" s="36"/>
@@ -7262,10 +7263,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C93" s="104"/>
-      <c r="D93" s="103"/>
+        <v>298</v>
+      </c>
+      <c r="C93" s="127"/>
+      <c r="D93" s="114"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9" t="s">
@@ -7275,7 +7276,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L93" s="36"/>
       <c r="M93" s="36"/>
@@ -7291,10 +7292,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C94" s="104"/>
-      <c r="D94" s="103"/>
+        <v>300</v>
+      </c>
+      <c r="C94" s="127"/>
+      <c r="D94" s="114"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9" t="s">
@@ -7306,7 +7307,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L94" s="36"/>
       <c r="M94" s="36"/>
@@ -7322,11 +7323,11 @@
         <v>93</v>
       </c>
       <c r="B95" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C95" s="127"/>
+      <c r="D95" s="114" t="s">
         <v>303</v>
-      </c>
-      <c r="C95" s="104"/>
-      <c r="D95" s="103" t="s">
-        <v>304</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="10" t="s">
@@ -7341,7 +7342,7 @@
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -7357,10 +7358,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C96" s="104"/>
-      <c r="D96" s="103"/>
+        <v>305</v>
+      </c>
+      <c r="C96" s="127"/>
+      <c r="D96" s="114"/>
       <c r="E96" s="9"/>
       <c r="F96" s="10" t="s">
         <v>127</v>
@@ -7374,7 +7375,7 @@
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -7390,10 +7391,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C97" s="104"/>
-      <c r="D97" s="103"/>
+        <v>307</v>
+      </c>
+      <c r="C97" s="127"/>
+      <c r="D97" s="114"/>
       <c r="E97" s="9"/>
       <c r="F97" s="10" t="s">
         <v>127</v>
@@ -7407,7 +7408,7 @@
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -7423,10 +7424,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C98" s="104"/>
-      <c r="D98" s="103"/>
+        <v>309</v>
+      </c>
+      <c r="C98" s="127"/>
+      <c r="D98" s="114"/>
       <c r="E98" s="9"/>
       <c r="F98" s="10"/>
       <c r="G98" s="10" t="s">
@@ -7436,7 +7437,7 @@
       <c r="I98" s="10"/>
       <c r="J98" s="9"/>
       <c r="K98" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -7452,10 +7453,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C99" s="104"/>
-      <c r="D99" s="103"/>
+        <v>311</v>
+      </c>
+      <c r="C99" s="127"/>
+      <c r="D99" s="114"/>
       <c r="E99" s="9"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10" t="s">
@@ -7465,7 +7466,7 @@
       <c r="I99" s="10"/>
       <c r="J99" s="9"/>
       <c r="K99" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
@@ -7481,11 +7482,11 @@
         <v>98</v>
       </c>
       <c r="B100" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C100" s="127"/>
+      <c r="D100" s="114" t="s">
         <v>314</v>
-      </c>
-      <c r="C100" s="104"/>
-      <c r="D100" s="103" t="s">
-        <v>315</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9" t="s">
@@ -7500,7 +7501,7 @@
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -7516,10 +7517,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C101" s="104"/>
-      <c r="D101" s="103"/>
+        <v>316</v>
+      </c>
+      <c r="C101" s="127"/>
+      <c r="D101" s="114"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9" t="s">
         <v>127</v>
@@ -7533,7 +7534,7 @@
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -7549,10 +7550,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C102" s="104"/>
-      <c r="D102" s="103"/>
+        <v>318</v>
+      </c>
+      <c r="C102" s="127"/>
+      <c r="D102" s="114"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="s">
         <v>127</v>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -7582,10 +7583,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C103" s="104"/>
-      <c r="D103" s="103"/>
+        <v>320</v>
+      </c>
+      <c r="C103" s="127"/>
+      <c r="D103" s="114"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9" t="s">
         <v>127</v>
@@ -7599,7 +7600,7 @@
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -7615,10 +7616,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C104" s="104"/>
-      <c r="D104" s="103"/>
+        <v>322</v>
+      </c>
+      <c r="C104" s="127"/>
+      <c r="D104" s="114"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="s">
         <v>127</v>
@@ -7634,7 +7635,7 @@
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -7650,10 +7651,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C105" s="104"/>
-      <c r="D105" s="103"/>
+        <v>324</v>
+      </c>
+      <c r="C105" s="127"/>
+      <c r="D105" s="114"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9" t="s">
@@ -7665,7 +7666,7 @@
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -7681,10 +7682,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C106" s="96"/>
-      <c r="D106" s="96"/>
+        <v>326</v>
+      </c>
+      <c r="C106" s="108"/>
+      <c r="D106" s="108"/>
       <c r="E106" s="11"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9" t="s">
@@ -7696,7 +7697,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7705,10 +7706,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C107" s="96"/>
-      <c r="D107" s="96"/>
+        <v>328</v>
+      </c>
+      <c r="C107" s="108"/>
+      <c r="D107" s="108"/>
       <c r="E107" s="11"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9" t="s">
@@ -7720,7 +7721,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7729,10 +7730,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C108" s="96"/>
-      <c r="D108" s="96"/>
+        <v>330</v>
+      </c>
+      <c r="C108" s="108"/>
+      <c r="D108" s="108"/>
       <c r="E108" s="11"/>
       <c r="F108" s="12"/>
       <c r="G108" s="9" t="s">
@@ -7742,7 +7743,7 @@
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
       <c r="K108" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7751,10 +7752,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C109" s="104"/>
-      <c r="D109" s="103"/>
+        <v>331</v>
+      </c>
+      <c r="C109" s="127"/>
+      <c r="D109" s="114"/>
       <c r="E109" s="9"/>
       <c r="F109" s="12"/>
       <c r="G109" s="9" t="s">
@@ -7766,7 +7767,7 @@
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
       <c r="K109" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
@@ -7782,13 +7783,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C110" s="109" t="s">
         <v>333</v>
       </c>
-      <c r="C110" s="105" t="s">
+      <c r="D110" s="107" t="s">
         <v>334</v>
-      </c>
-      <c r="D110" s="115" t="s">
-        <v>335</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -7803,7 +7804,7 @@
       </c>
       <c r="J110" s="12"/>
       <c r="K110" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
@@ -7819,13 +7820,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C111" s="105"/>
-      <c r="D111" s="115"/>
+        <v>336</v>
+      </c>
+      <c r="C111" s="109"/>
+      <c r="D111" s="107"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G111" s="12" t="s">
         <v>153</v>
@@ -7838,7 +7839,7 @@
       </c>
       <c r="J111" s="12"/>
       <c r="K111" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
@@ -7854,10 +7855,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="C112" s="105"/>
-      <c r="D112" s="115"/>
+        <v>338</v>
+      </c>
+      <c r="C112" s="109"/>
+      <c r="D112" s="107"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12" t="s">
@@ -7871,7 +7872,7 @@
       </c>
       <c r="J112" s="12"/>
       <c r="K112" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -7887,11 +7888,11 @@
         <v>111</v>
       </c>
       <c r="B113" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C113" s="109"/>
+      <c r="D113" s="107" t="s">
         <v>341</v>
-      </c>
-      <c r="C113" s="105"/>
-      <c r="D113" s="115" t="s">
-        <v>342</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12" t="s">
@@ -7904,7 +7905,7 @@
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
       <c r="K113" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -7920,10 +7921,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C114" s="96"/>
-      <c r="D114" s="96"/>
+        <v>343</v>
+      </c>
+      <c r="C114" s="108"/>
+      <c r="D114" s="108"/>
       <c r="E114" s="11"/>
       <c r="F114" s="12" t="s">
         <v>127</v>
@@ -7935,7 +7936,7 @@
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
       <c r="K114" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7944,10 +7945,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="C115" s="96"/>
-      <c r="D115" s="96"/>
+        <v>344</v>
+      </c>
+      <c r="C115" s="108"/>
+      <c r="D115" s="108"/>
       <c r="E115" s="11"/>
       <c r="F115" s="12" t="s">
         <v>127</v>
@@ -7959,7 +7960,7 @@
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
       <c r="K115" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7968,10 +7969,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C116" s="96"/>
-      <c r="D116" s="96"/>
+        <v>346</v>
+      </c>
+      <c r="C116" s="108"/>
+      <c r="D116" s="108"/>
       <c r="E116" s="11"/>
       <c r="F116" s="12" t="s">
         <v>124</v>
@@ -7987,7 +7988,7 @@
       </c>
       <c r="J116" s="12"/>
       <c r="K116" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7996,10 +7997,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="C117" s="96"/>
-      <c r="D117" s="96"/>
+        <v>348</v>
+      </c>
+      <c r="C117" s="108"/>
+      <c r="D117" s="108"/>
       <c r="E117" s="11"/>
       <c r="F117" s="12" t="s">
         <v>209</v>
@@ -8015,7 +8016,7 @@
       </c>
       <c r="J117" s="12"/>
       <c r="K117" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -8024,10 +8025,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="C118" s="105"/>
-      <c r="D118" s="115"/>
+        <v>350</v>
+      </c>
+      <c r="C118" s="109"/>
+      <c r="D118" s="107"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12" t="s">
         <v>124</v>
@@ -8039,7 +8040,7 @@
       <c r="I118" s="12"/>
       <c r="J118" s="12"/>
       <c r="K118" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -8055,13 +8056,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="C119" s="105"/>
-      <c r="D119" s="115"/>
+        <v>352</v>
+      </c>
+      <c r="C119" s="109"/>
+      <c r="D119" s="107"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G119" s="12" t="s">
         <v>153</v>
@@ -8074,7 +8075,7 @@
       </c>
       <c r="J119" s="12"/>
       <c r="K119" s="33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
@@ -8090,13 +8091,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C120" s="105"/>
-      <c r="D120" s="115"/>
+        <v>355</v>
+      </c>
+      <c r="C120" s="109"/>
+      <c r="D120" s="107"/>
       <c r="E120" s="12"/>
       <c r="F120" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G120" s="12" t="s">
         <v>153</v>
@@ -8109,7 +8110,7 @@
       </c>
       <c r="J120" s="12"/>
       <c r="K120" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
@@ -8125,10 +8126,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C121" s="105"/>
-      <c r="D121" s="115"/>
+        <v>357</v>
+      </c>
+      <c r="C121" s="109"/>
+      <c r="D121" s="107"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12" t="s">
@@ -8138,7 +8139,7 @@
       <c r="I121" s="12"/>
       <c r="J121" s="12"/>
       <c r="K121" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
@@ -8154,10 +8155,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="C122" s="105"/>
-      <c r="D122" s="115"/>
+        <v>359</v>
+      </c>
+      <c r="C122" s="109"/>
+      <c r="D122" s="107"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
@@ -8165,7 +8166,7 @@
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
       <c r="K122" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
@@ -8181,14 +8182,14 @@
         <v>121</v>
       </c>
       <c r="B123" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C123" s="122"/>
+      <c r="D123" s="109" t="s">
         <v>362</v>
       </c>
-      <c r="C123" s="106"/>
-      <c r="D123" s="105" t="s">
+      <c r="E123" s="107" t="s">
         <v>363</v>
-      </c>
-      <c r="E123" s="115" t="s">
-        <v>364</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>127</v>
@@ -8198,7 +8199,7 @@
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
       <c r="K123" s="33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
@@ -8214,11 +8215,11 @@
         <v>122</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C124" s="106"/>
-      <c r="D124" s="105"/>
-      <c r="E124" s="115"/>
+        <v>365</v>
+      </c>
+      <c r="C124" s="122"/>
+      <c r="D124" s="109"/>
+      <c r="E124" s="107"/>
       <c r="F124" s="12" t="s">
         <v>127</v>
       </c>
@@ -8233,7 +8234,7 @@
       </c>
       <c r="J124" s="12"/>
       <c r="K124" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
@@ -8249,13 +8250,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="C125" s="106"/>
-      <c r="D125" s="105"/>
-      <c r="E125" s="115"/>
+        <v>367</v>
+      </c>
+      <c r="C125" s="122"/>
+      <c r="D125" s="109"/>
+      <c r="E125" s="107"/>
       <c r="F125" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G125" s="12" t="s">
         <v>153</v>
@@ -8268,7 +8269,7 @@
       </c>
       <c r="J125" s="12"/>
       <c r="K125" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
@@ -8284,13 +8285,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C126" s="122"/>
+      <c r="D126" s="109"/>
+      <c r="E126" s="107"/>
+      <c r="F126" s="12" t="s">
         <v>370</v>
-      </c>
-      <c r="C126" s="106"/>
-      <c r="D126" s="105"/>
-      <c r="E126" s="115"/>
-      <c r="F126" s="12" t="s">
-        <v>371</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>153</v>
@@ -8303,7 +8304,7 @@
       </c>
       <c r="J126" s="12"/>
       <c r="K126" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -8319,13 +8320,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="C127" s="106"/>
-      <c r="D127" s="105"/>
-      <c r="E127" s="115"/>
+        <v>372</v>
+      </c>
+      <c r="C127" s="122"/>
+      <c r="D127" s="109"/>
+      <c r="E127" s="107"/>
       <c r="F127" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>153</v>
@@ -8338,7 +8339,7 @@
       </c>
       <c r="J127" s="12"/>
       <c r="K127" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
@@ -8354,13 +8355,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="C128" s="96"/>
-      <c r="D128" s="96"/>
-      <c r="E128" s="96"/>
+        <v>374</v>
+      </c>
+      <c r="C128" s="108"/>
+      <c r="D128" s="108"/>
+      <c r="E128" s="108"/>
       <c r="F128" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G128" s="12" t="s">
         <v>153</v>
@@ -8373,7 +8374,7 @@
       </c>
       <c r="J128" s="12"/>
       <c r="K128" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8382,13 +8383,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="C129" s="96"/>
-      <c r="D129" s="116"/>
-      <c r="E129" s="115"/>
+        <v>375</v>
+      </c>
+      <c r="C129" s="108"/>
+      <c r="D129" s="110"/>
+      <c r="E129" s="107"/>
       <c r="F129" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G129" s="12" t="s">
         <v>153</v>
@@ -8401,7 +8402,7 @@
       </c>
       <c r="J129" s="12"/>
       <c r="K129" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8410,13 +8411,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="C130" s="96"/>
-      <c r="D130" s="116"/>
-      <c r="E130" s="115"/>
+        <v>376</v>
+      </c>
+      <c r="C130" s="108"/>
+      <c r="D130" s="110"/>
+      <c r="E130" s="107"/>
       <c r="F130" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G130" s="12" t="s">
         <v>153</v>
@@ -8429,7 +8430,7 @@
       </c>
       <c r="J130" s="12"/>
       <c r="K130" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8438,11 +8439,11 @@
         <v>129</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="C131" s="106"/>
-      <c r="D131" s="105"/>
-      <c r="E131" s="115"/>
+        <v>378</v>
+      </c>
+      <c r="C131" s="122"/>
+      <c r="D131" s="109"/>
+      <c r="E131" s="107"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12" t="s">
         <v>153</v>
@@ -8451,7 +8452,7 @@
       <c r="I131" s="12"/>
       <c r="J131" s="12"/>
       <c r="K131" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -8467,12 +8468,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="C132" s="122"/>
+      <c r="D132" s="109"/>
+      <c r="E132" s="107" t="s">
         <v>380</v>
-      </c>
-      <c r="C132" s="106"/>
-      <c r="D132" s="105"/>
-      <c r="E132" s="115" t="s">
-        <v>381</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>127</v>
@@ -8488,7 +8489,7 @@
       </c>
       <c r="J132" s="39"/>
       <c r="K132" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
@@ -8504,11 +8505,11 @@
         <v>131</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="C133" s="106"/>
-      <c r="D133" s="105"/>
-      <c r="E133" s="115"/>
+        <v>382</v>
+      </c>
+      <c r="C133" s="122"/>
+      <c r="D133" s="109"/>
+      <c r="E133" s="107"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12" t="s">
         <v>153</v>
@@ -8521,7 +8522,7 @@
       </c>
       <c r="J133" s="12"/>
       <c r="K133" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
@@ -8537,11 +8538,11 @@
         <v>132</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="C134" s="106"/>
-      <c r="D134" s="105"/>
-      <c r="E134" s="115"/>
+        <v>384</v>
+      </c>
+      <c r="C134" s="122"/>
+      <c r="D134" s="109"/>
+      <c r="E134" s="107"/>
       <c r="F134" s="12" t="s">
         <v>127</v>
       </c>
@@ -8554,7 +8555,7 @@
       <c r="I134" s="12"/>
       <c r="J134" s="12"/>
       <c r="K134" s="33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
@@ -8570,12 +8571,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C135" s="122"/>
+      <c r="D135" s="109"/>
+      <c r="E135" s="109" t="s">
         <v>387</v>
-      </c>
-      <c r="C135" s="106"/>
-      <c r="D135" s="105"/>
-      <c r="E135" s="105" t="s">
-        <v>388</v>
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="12" t="s">
@@ -8587,7 +8588,7 @@
       <c r="I135" s="12"/>
       <c r="J135" s="12"/>
       <c r="K135" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
@@ -8603,11 +8604,11 @@
         <v>134</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="C136" s="106"/>
-      <c r="D136" s="105"/>
-      <c r="E136" s="105"/>
+        <v>389</v>
+      </c>
+      <c r="C136" s="122"/>
+      <c r="D136" s="109"/>
+      <c r="E136" s="109"/>
       <c r="F136" s="12"/>
       <c r="G136" s="12" t="s">
         <v>153</v>
@@ -8618,7 +8619,7 @@
       <c r="I136" s="12"/>
       <c r="J136" s="12"/>
       <c r="K136" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
@@ -8634,11 +8635,11 @@
         <v>135</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="C137" s="106"/>
-      <c r="D137" s="105"/>
-      <c r="E137" s="105"/>
+        <v>391</v>
+      </c>
+      <c r="C137" s="122"/>
+      <c r="D137" s="109"/>
+      <c r="E137" s="109"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12" t="s">
         <v>153</v>
@@ -8649,7 +8650,7 @@
       <c r="I137" s="12"/>
       <c r="J137" s="12"/>
       <c r="K137" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
@@ -8665,11 +8666,11 @@
         <v>136</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="C138" s="96"/>
-      <c r="D138" s="116"/>
-      <c r="E138" s="105"/>
+        <v>393</v>
+      </c>
+      <c r="C138" s="108"/>
+      <c r="D138" s="110"/>
+      <c r="E138" s="109"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12" t="s">
         <v>153</v>
@@ -8680,7 +8681,7 @@
       <c r="I138" s="12"/>
       <c r="J138" s="12"/>
       <c r="K138" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="17.649999999999999" customHeight="1">
@@ -8689,11 +8690,11 @@
         <v>137</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="C139" s="96"/>
-      <c r="D139" s="116"/>
-      <c r="E139" s="116"/>
+        <v>395</v>
+      </c>
+      <c r="C139" s="108"/>
+      <c r="D139" s="110"/>
+      <c r="E139" s="110"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12" t="s">
         <v>153</v>
@@ -8704,7 +8705,7 @@
       <c r="I139" s="12"/>
       <c r="J139" s="12"/>
       <c r="K139" s="33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8713,11 +8714,11 @@
         <v>138</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="C140" s="96"/>
-      <c r="D140" s="116"/>
-      <c r="E140" s="105"/>
+        <v>397</v>
+      </c>
+      <c r="C140" s="108"/>
+      <c r="D140" s="110"/>
+      <c r="E140" s="109"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12" t="s">
         <v>153</v>
@@ -8728,7 +8729,7 @@
       <c r="I140" s="12"/>
       <c r="J140" s="12"/>
       <c r="K140" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8737,11 +8738,11 @@
         <v>139</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="C141" s="96"/>
-      <c r="D141" s="116"/>
-      <c r="E141" s="116"/>
+        <v>399</v>
+      </c>
+      <c r="C141" s="108"/>
+      <c r="D141" s="110"/>
+      <c r="E141" s="110"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12" t="s">
         <v>153</v>
@@ -8752,7 +8753,7 @@
       <c r="I141" s="12"/>
       <c r="J141" s="12"/>
       <c r="K141" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8761,14 +8762,14 @@
         <v>140</v>
       </c>
       <c r="B142" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C142" s="108"/>
+      <c r="D142" s="110" t="s">
         <v>402</v>
       </c>
-      <c r="C142" s="96"/>
-      <c r="D142" s="116" t="s">
-        <v>403</v>
-      </c>
-      <c r="E142" s="117" t="s">
-        <v>364</v>
+      <c r="E142" s="98" t="s">
+        <v>363</v>
       </c>
       <c r="F142" s="12" t="s">
         <v>127</v>
@@ -8782,7 +8783,7 @@
       </c>
       <c r="J142" s="12"/>
       <c r="K142" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8791,11 +8792,11 @@
         <v>141</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="C143" s="96"/>
-      <c r="D143" s="116"/>
-      <c r="E143" s="126"/>
+        <v>404</v>
+      </c>
+      <c r="C143" s="108"/>
+      <c r="D143" s="110"/>
+      <c r="E143" s="111"/>
       <c r="F143" s="12" t="s">
         <v>127</v>
       </c>
@@ -8808,7 +8809,7 @@
       </c>
       <c r="J143" s="12"/>
       <c r="K143" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8817,11 +8818,11 @@
         <v>142</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="C144" s="96"/>
-      <c r="D144" s="116"/>
-      <c r="E144" s="126"/>
+        <v>406</v>
+      </c>
+      <c r="C144" s="108"/>
+      <c r="D144" s="110"/>
+      <c r="E144" s="111"/>
       <c r="F144" s="12" t="s">
         <v>127</v>
       </c>
@@ -8834,7 +8835,7 @@
       </c>
       <c r="J144" s="12"/>
       <c r="K144" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8843,11 +8844,11 @@
         <v>143</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="C145" s="96"/>
-      <c r="D145" s="116"/>
-      <c r="E145" s="126"/>
+        <v>408</v>
+      </c>
+      <c r="C145" s="108"/>
+      <c r="D145" s="110"/>
+      <c r="E145" s="111"/>
       <c r="F145" s="12" t="s">
         <v>127</v>
       </c>
@@ -8860,7 +8861,7 @@
       </c>
       <c r="J145" s="12"/>
       <c r="K145" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8869,11 +8870,11 @@
         <v>144</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="C146" s="96"/>
-      <c r="D146" s="116"/>
-      <c r="E146" s="127"/>
+        <v>410</v>
+      </c>
+      <c r="C146" s="108"/>
+      <c r="D146" s="110"/>
+      <c r="E146" s="112"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12" t="s">
         <v>153</v>
@@ -8882,7 +8883,7 @@
       <c r="I146" s="12"/>
       <c r="J146" s="12"/>
       <c r="K146" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8891,12 +8892,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C147" s="96"/>
-      <c r="D147" s="116"/>
-      <c r="E147" s="117" t="s">
-        <v>381</v>
+        <v>411</v>
+      </c>
+      <c r="C147" s="108"/>
+      <c r="D147" s="110"/>
+      <c r="E147" s="98" t="s">
+        <v>380</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>127</v>
@@ -8910,7 +8911,7 @@
       </c>
       <c r="J147" s="12"/>
       <c r="K147" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8919,11 +8920,11 @@
         <v>146</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="C148" s="96"/>
-      <c r="D148" s="116"/>
-      <c r="E148" s="126"/>
+        <v>413</v>
+      </c>
+      <c r="C148" s="108"/>
+      <c r="D148" s="110"/>
+      <c r="E148" s="111"/>
       <c r="F148" s="12" t="s">
         <v>127</v>
       </c>
@@ -8936,7 +8937,7 @@
       </c>
       <c r="J148" s="12"/>
       <c r="K148" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -8945,11 +8946,11 @@
         <v>147</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="C149" s="96"/>
-      <c r="D149" s="116"/>
-      <c r="E149" s="126"/>
+        <v>414</v>
+      </c>
+      <c r="C149" s="108"/>
+      <c r="D149" s="110"/>
+      <c r="E149" s="111"/>
       <c r="F149" s="12" t="s">
         <v>127</v>
       </c>
@@ -8962,7 +8963,7 @@
       </c>
       <c r="J149" s="12"/>
       <c r="K149" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -8971,11 +8972,11 @@
         <v>148</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="C150" s="96"/>
-      <c r="D150" s="116"/>
-      <c r="E150" s="126"/>
+        <v>416</v>
+      </c>
+      <c r="C150" s="108"/>
+      <c r="D150" s="110"/>
+      <c r="E150" s="111"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12" t="s">
         <v>153</v>
@@ -8984,7 +8985,7 @@
       <c r="I150" s="12"/>
       <c r="J150" s="12"/>
       <c r="K150" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="20.100000000000001" customHeight="1">
@@ -8993,11 +8994,11 @@
         <v>149</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="C151" s="106"/>
-      <c r="D151" s="105"/>
-      <c r="E151" s="127"/>
+        <v>418</v>
+      </c>
+      <c r="C151" s="122"/>
+      <c r="D151" s="109"/>
+      <c r="E151" s="112"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12" t="s">
         <v>153</v>
@@ -9006,7 +9007,7 @@
       <c r="I151" s="12"/>
       <c r="J151" s="12"/>
       <c r="K151" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
@@ -9022,10 +9023,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C152" s="95" t="s">
         <v>421</v>
-      </c>
-      <c r="C152" s="107" t="s">
-        <v>422</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -9041,7 +9042,7 @@
       </c>
       <c r="J152" s="9"/>
       <c r="K152" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
@@ -9057,9 +9058,9 @@
         <v>151</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C153" s="108"/>
+        <v>423</v>
+      </c>
+      <c r="C153" s="97"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9" t="s">
@@ -9076,7 +9077,7 @@
       </c>
       <c r="J153" s="9"/>
       <c r="K153" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
@@ -9092,9 +9093,9 @@
         <v>152</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C154" s="108"/>
+        <v>425</v>
+      </c>
+      <c r="C154" s="97"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9" t="s">
@@ -9111,7 +9112,7 @@
       </c>
       <c r="J154" s="9"/>
       <c r="K154" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
@@ -9127,9 +9128,9 @@
         <v>153</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C155" s="108"/>
+        <v>427</v>
+      </c>
+      <c r="C155" s="97"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9" t="s">
@@ -9146,7 +9147,7 @@
       </c>
       <c r="J155" s="9"/>
       <c r="K155" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
@@ -9162,9 +9163,9 @@
         <v>154</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C156" s="108"/>
+        <v>429</v>
+      </c>
+      <c r="C156" s="97"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9" t="s">
@@ -9181,7 +9182,7 @@
       </c>
       <c r="J156" s="9"/>
       <c r="K156" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
@@ -9197,9 +9198,9 @@
         <v>155</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C157" s="108"/>
+        <v>431</v>
+      </c>
+      <c r="C157" s="97"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9" t="s">
@@ -9216,7 +9217,7 @@
       </c>
       <c r="J157" s="9"/>
       <c r="K157" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
@@ -9232,9 +9233,9 @@
         <v>156</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C158" s="108"/>
+        <v>433</v>
+      </c>
+      <c r="C158" s="97"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9" t="s">
@@ -9251,7 +9252,7 @@
       </c>
       <c r="J158" s="9"/>
       <c r="K158" s="33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
@@ -9267,9 +9268,9 @@
         <v>157</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C159" s="108"/>
+        <v>435</v>
+      </c>
+      <c r="C159" s="97"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
       <c r="F159" s="9" t="s">
@@ -9286,7 +9287,7 @@
       </c>
       <c r="J159" s="9"/>
       <c r="K159" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -9302,9 +9303,9 @@
         <v>158</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C160" s="109"/>
+        <v>437</v>
+      </c>
+      <c r="C160" s="96"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
@@ -9321,7 +9322,7 @@
         <v>153</v>
       </c>
       <c r="K160" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
@@ -9337,10 +9338,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C161" s="114" t="s">
         <v>440</v>
-      </c>
-      <c r="C161" s="103" t="s">
-        <v>441</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -9356,7 +9357,7 @@
       </c>
       <c r="J161" s="38"/>
       <c r="K161" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
@@ -9372,9 +9373,9 @@
         <v>160</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C162" s="103"/>
+        <v>442</v>
+      </c>
+      <c r="C162" s="114"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="38" t="s">
@@ -9391,7 +9392,7 @@
       </c>
       <c r="J162" s="38"/>
       <c r="K162" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
@@ -9407,9 +9408,9 @@
         <v>161</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C163" s="103"/>
+        <v>444</v>
+      </c>
+      <c r="C163" s="114"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="38" t="s">
@@ -9426,7 +9427,7 @@
       </c>
       <c r="J163" s="38"/>
       <c r="K163" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
@@ -9442,9 +9443,9 @@
         <v>162</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C164" s="103"/>
+        <v>446</v>
+      </c>
+      <c r="C164" s="114"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="38" t="s">
@@ -9461,7 +9462,7 @@
       </c>
       <c r="J164" s="38"/>
       <c r="K164" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
@@ -9477,9 +9478,9 @@
         <v>163</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C165" s="103"/>
+        <v>448</v>
+      </c>
+      <c r="C165" s="114"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
       <c r="F165" s="38" t="s">
@@ -9496,7 +9497,7 @@
       </c>
       <c r="J165" s="38"/>
       <c r="K165" s="40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
@@ -9512,9 +9513,9 @@
         <v>164</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C166" s="103"/>
+        <v>450</v>
+      </c>
+      <c r="C166" s="114"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="38" t="s">
@@ -9531,7 +9532,7 @@
       </c>
       <c r="J166" s="38"/>
       <c r="K166" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
@@ -9547,9 +9548,9 @@
         <v>165</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C167" s="96"/>
+        <v>452</v>
+      </c>
+      <c r="C167" s="108"/>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
       <c r="F167" s="38" t="s">
@@ -9566,7 +9567,7 @@
       </c>
       <c r="J167" s="38"/>
       <c r="K167" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="33">
@@ -9575,9 +9576,9 @@
         <v>166</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C168" s="96"/>
+        <v>454</v>
+      </c>
+      <c r="C168" s="108"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
       <c r="F168" s="38" t="s">
@@ -9594,7 +9595,7 @@
       </c>
       <c r="J168" s="38"/>
       <c r="K168" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9603,9 +9604,9 @@
         <v>167</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C169" s="103"/>
+        <v>456</v>
+      </c>
+      <c r="C169" s="114"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="38"/>
@@ -9620,7 +9621,7 @@
       </c>
       <c r="J169" s="38"/>
       <c r="K169" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
@@ -9636,10 +9637,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C170" s="95" t="s">
         <v>459</v>
-      </c>
-      <c r="C170" s="107" t="s">
-        <v>460</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
@@ -9655,7 +9656,7 @@
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
@@ -9671,9 +9672,9 @@
         <v>169</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="C171" s="108"/>
+        <v>461</v>
+      </c>
+      <c r="C171" s="97"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
       <c r="F171" s="9" t="s">
@@ -9690,7 +9691,7 @@
       </c>
       <c r="J171" s="9"/>
       <c r="K171" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
@@ -9706,9 +9707,9 @@
         <v>170</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="C172" s="108"/>
+        <v>463</v>
+      </c>
+      <c r="C172" s="97"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9" t="s">
@@ -9725,7 +9726,7 @@
       </c>
       <c r="J172" s="9"/>
       <c r="K172" s="33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
@@ -9741,9 +9742,9 @@
         <v>171</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="C173" s="108"/>
+        <v>465</v>
+      </c>
+      <c r="C173" s="97"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
       <c r="F173" s="9" t="s">
@@ -9760,7 +9761,7 @@
       </c>
       <c r="J173" s="9"/>
       <c r="K173" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
@@ -9776,9 +9777,9 @@
         <v>172</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C174" s="108"/>
+        <v>466</v>
+      </c>
+      <c r="C174" s="97"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9" t="s">
@@ -9795,7 +9796,7 @@
       </c>
       <c r="J174" s="9"/>
       <c r="K174" s="40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
@@ -9811,9 +9812,9 @@
         <v>173</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="C175" s="108"/>
+        <v>467</v>
+      </c>
+      <c r="C175" s="97"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="F175" s="9" t="s">
@@ -9830,7 +9831,7 @@
       </c>
       <c r="J175" s="9"/>
       <c r="K175" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
@@ -9846,9 +9847,9 @@
         <v>174</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C176" s="108"/>
+        <v>468</v>
+      </c>
+      <c r="C176" s="97"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9" t="s">
@@ -9865,7 +9866,7 @@
       </c>
       <c r="J176" s="9"/>
       <c r="K176" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
@@ -9881,9 +9882,9 @@
         <v>175</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="C177" s="108"/>
+        <v>469</v>
+      </c>
+      <c r="C177" s="97"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
       <c r="F177" s="9" t="s">
@@ -9900,7 +9901,7 @@
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
@@ -9916,9 +9917,9 @@
         <v>176</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="C178" s="109"/>
+        <v>470</v>
+      </c>
+      <c r="C178" s="96"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9" t="s">
@@ -9935,7 +9936,7 @@
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
@@ -9951,15 +9952,15 @@
         <v>177</v>
       </c>
       <c r="B179" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C179" s="95" t="s">
         <v>472</v>
-      </c>
-      <c r="C179" s="107" t="s">
-        <v>473</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
       <c r="F179" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G179" s="9" t="s">
         <v>153</v>
@@ -9972,7 +9973,7 @@
       </c>
       <c r="J179" s="9"/>
       <c r="K179" s="24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
@@ -9988,13 +9989,13 @@
         <v>178</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="C180" s="108"/>
+        <v>474</v>
+      </c>
+      <c r="C180" s="97"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G180" s="9" t="s">
         <v>153</v>
@@ -10007,7 +10008,7 @@
       </c>
       <c r="J180" s="9"/>
       <c r="K180" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
@@ -10023,9 +10024,9 @@
         <v>179</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="C181" s="108"/>
+        <v>477</v>
+      </c>
+      <c r="C181" s="97"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
       <c r="F181" s="9" t="s">
@@ -10042,7 +10043,7 @@
       </c>
       <c r="J181" s="9"/>
       <c r="K181" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
@@ -10058,13 +10059,13 @@
         <v>180</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="C182" s="108"/>
+        <v>479</v>
+      </c>
+      <c r="C182" s="97"/>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G182" s="9" t="s">
         <v>153</v>
@@ -10077,7 +10078,7 @@
       </c>
       <c r="J182" s="9"/>
       <c r="K182" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
@@ -10093,13 +10094,13 @@
         <v>181</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="C183" s="109"/>
+        <v>481</v>
+      </c>
+      <c r="C183" s="96"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G183" s="9" t="s">
         <v>153</v>
@@ -10112,7 +10113,7 @@
       </c>
       <c r="J183" s="9"/>
       <c r="K183" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
@@ -10128,17 +10129,17 @@
         <v>182</v>
       </c>
       <c r="B184" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C184" s="95" t="s">
         <v>484</v>
       </c>
-      <c r="C184" s="107" t="s">
+      <c r="D184" s="95" t="s">
         <v>485</v>
-      </c>
-      <c r="D184" s="107" t="s">
-        <v>486</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G184" s="9" t="s">
         <v>153</v>
@@ -10149,7 +10150,7 @@
       </c>
       <c r="J184" s="9"/>
       <c r="K184" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
@@ -10165,10 +10166,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="C185" s="108"/>
-      <c r="D185" s="109"/>
+        <v>487</v>
+      </c>
+      <c r="C185" s="97"/>
+      <c r="D185" s="96"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9" t="s">
@@ -10178,7 +10179,7 @@
       <c r="I185" s="9"/>
       <c r="J185" s="9"/>
       <c r="K185" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
@@ -10194,11 +10195,11 @@
         <v>184</v>
       </c>
       <c r="B186" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C186" s="97"/>
+      <c r="D186" s="95" t="s">
         <v>490</v>
-      </c>
-      <c r="C186" s="108"/>
-      <c r="D186" s="107" t="s">
-        <v>491</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9" t="s">
@@ -10213,7 +10214,7 @@
       </c>
       <c r="J186" s="9"/>
       <c r="K186" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
@@ -10229,13 +10230,13 @@
         <v>185</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="C187" s="108"/>
-      <c r="D187" s="108"/>
+        <v>492</v>
+      </c>
+      <c r="C187" s="97"/>
+      <c r="D187" s="97"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G187" s="9" t="s">
         <v>153</v>
@@ -10244,7 +10245,7 @@
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
       <c r="K187" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
@@ -10260,10 +10261,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C188" s="108"/>
-      <c r="D188" s="109"/>
+        <v>493</v>
+      </c>
+      <c r="C188" s="97"/>
+      <c r="D188" s="96"/>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
       <c r="G188" s="9" t="s">
@@ -10273,7 +10274,7 @@
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
       <c r="K188" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
@@ -10289,11 +10290,11 @@
         <v>187</v>
       </c>
       <c r="B189" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C189" s="97"/>
+      <c r="D189" s="95" t="s">
         <v>495</v>
-      </c>
-      <c r="C189" s="108"/>
-      <c r="D189" s="107" t="s">
-        <v>496</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9" t="s">
@@ -10308,7 +10309,7 @@
       </c>
       <c r="J189" s="9"/>
       <c r="K189" s="29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
@@ -10324,10 +10325,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="C190" s="108"/>
-      <c r="D190" s="108"/>
+        <v>497</v>
+      </c>
+      <c r="C190" s="97"/>
+      <c r="D190" s="97"/>
       <c r="E190" s="9"/>
       <c r="F190" s="9" t="s">
         <v>209</v>
@@ -10339,7 +10340,7 @@
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
       <c r="K190" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
@@ -10355,10 +10356,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="C191" s="108"/>
-      <c r="D191" s="109"/>
+        <v>499</v>
+      </c>
+      <c r="C191" s="97"/>
+      <c r="D191" s="96"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
       <c r="G191" s="9" t="s">
@@ -10368,7 +10369,7 @@
       <c r="I191" s="9"/>
       <c r="J191" s="9"/>
       <c r="K191" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
@@ -10384,15 +10385,15 @@
         <v>190</v>
       </c>
       <c r="B192" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C192" s="96"/>
+      <c r="D192" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="C192" s="109"/>
-      <c r="D192" s="9" t="s">
-        <v>502</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G192" s="9"/>
       <c r="H192" s="9" t="s">
@@ -10403,7 +10404,7 @@
       </c>
       <c r="J192" s="9"/>
       <c r="K192" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
@@ -10419,6 +10420,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C13"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="C23:C56"/>
+    <mergeCell ref="C57:C69"/>
+    <mergeCell ref="C70:C80"/>
+    <mergeCell ref="C81:C109"/>
+    <mergeCell ref="C110:C151"/>
+    <mergeCell ref="C152:C160"/>
+    <mergeCell ref="C161:C169"/>
+    <mergeCell ref="C170:C178"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="C184:C192"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="D39:D49"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D86:D94"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="D100:D109"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="D113:D122"/>
+    <mergeCell ref="D123:D141"/>
+    <mergeCell ref="D142:D151"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="D184:D185"/>
@@ -10435,38 +10468,6 @@
     <mergeCell ref="E135:E141"/>
     <mergeCell ref="E142:E146"/>
     <mergeCell ref="E147:E151"/>
-    <mergeCell ref="C184:C192"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="D39:D49"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D86:D94"/>
-    <mergeCell ref="D95:D99"/>
-    <mergeCell ref="D100:D109"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="D113:D122"/>
-    <mergeCell ref="D123:D141"/>
-    <mergeCell ref="D142:D151"/>
-    <mergeCell ref="C110:C151"/>
-    <mergeCell ref="C152:C160"/>
-    <mergeCell ref="C161:C169"/>
-    <mergeCell ref="C170:C178"/>
-    <mergeCell ref="C179:C183"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="C23:C56"/>
-    <mergeCell ref="C57:C69"/>
-    <mergeCell ref="C70:C80"/>
-    <mergeCell ref="C81:C109"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C13"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
